--- a/Civilworks cost/Expenditure_2018_19/Check/Cost Calculation 19-20 RADP Target(5).xlsx
+++ b/Civilworks cost/Expenditure_2018_19/Check/Cost Calculation 19-20 RADP Target(5).xlsx
@@ -2922,276 +2922,6 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3285,6 +3015,276 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3598,82 +3598,82 @@
   <dimension ref="A1:CK115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="AE77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="AZ70" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="AQ48" sqref="AQ48:AT48"/>
+      <selection pane="bottomRight" activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="214" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="214" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="214" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="214" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="214" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" style="214" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="406" customWidth="1"/>
-    <col min="9" max="9" width="9" style="406" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="406" customWidth="1"/>
-    <col min="11" max="11" width="10" style="406" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="283" customWidth="1"/>
-    <col min="13" max="13" width="8" style="283" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="283" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="283" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="283" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="283" customWidth="1"/>
-    <col min="18" max="18" width="8" style="283" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="283" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="283" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" style="283" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="283" customWidth="1"/>
-    <col min="23" max="23" width="8" style="283" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" style="283" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" style="283" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" style="283" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" style="214" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="216" customWidth="1"/>
-    <col min="29" max="30" width="7.42578125" style="216" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" style="216" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" style="283" customWidth="1"/>
-    <col min="33" max="33" width="8" style="283" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" style="283" customWidth="1"/>
-    <col min="35" max="35" width="8" style="283" customWidth="1"/>
-    <col min="36" max="36" width="8.5703125" style="283" customWidth="1"/>
-    <col min="37" max="37" width="8.28515625" style="214" customWidth="1"/>
-    <col min="38" max="38" width="7.7109375" style="216" customWidth="1"/>
-    <col min="39" max="40" width="7.42578125" style="216" customWidth="1"/>
-    <col min="41" max="41" width="8.5703125" style="216" customWidth="1"/>
-    <col min="42" max="42" width="8.85546875" style="283" customWidth="1"/>
-    <col min="43" max="43" width="8" style="283" customWidth="1"/>
-    <col min="44" max="44" width="8.5703125" style="283" customWidth="1"/>
-    <col min="45" max="45" width="7.140625" style="283" customWidth="1"/>
-    <col min="46" max="46" width="8.5703125" style="540" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" style="216" customWidth="1"/>
-    <col min="48" max="48" width="9.28515625" style="216" customWidth="1"/>
-    <col min="49" max="50" width="8.28515625" style="214" customWidth="1"/>
-    <col min="51" max="51" width="9.28515625" style="214" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="214" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="214" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="214" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" style="214" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="406" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="406" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="406" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="406" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="283" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="283" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="283" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="283" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="283" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="283" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="283" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" style="283" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="283" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" style="283" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="283" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="283" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" style="214" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="216" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="7.42578125" style="216" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" style="216" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" style="283" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="7.7109375" style="283" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5703125" style="283" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="8.28515625" style="214" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="7.7109375" style="216" hidden="1" customWidth="1"/>
+    <col min="39" max="40" width="7.42578125" style="216" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="8.5703125" style="216" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="8.85546875" style="283" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="8" style="283" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="8.5703125" style="283" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="7.140625" style="283" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="8.5703125" style="448" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="216" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="9.28515625" style="216" hidden="1" customWidth="1"/>
+    <col min="49" max="50" width="8.28515625" style="214" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="9.28515625" style="214" hidden="1" customWidth="1"/>
     <col min="52" max="52" width="6.7109375" style="197" customWidth="1"/>
     <col min="53" max="53" width="8.42578125" style="197" customWidth="1"/>
     <col min="54" max="54" width="8.7109375" style="197" customWidth="1"/>
     <col min="55" max="55" width="7.140625" style="197" customWidth="1"/>
     <col min="56" max="56" width="8.5703125" style="197" customWidth="1"/>
-    <col min="57" max="57" width="6.7109375" style="216" customWidth="1"/>
-    <col min="58" max="58" width="9.28515625" style="216" customWidth="1"/>
-    <col min="59" max="59" width="9.28515625" style="214" customWidth="1"/>
-    <col min="60" max="60" width="8.28515625" style="214" customWidth="1"/>
-    <col min="61" max="61" width="9.28515625" style="214" customWidth="1"/>
-    <col min="62" max="62" width="6.7109375" style="359" customWidth="1"/>
-    <col min="63" max="63" width="8.42578125" style="359" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.7109375" style="359" customWidth="1"/>
-    <col min="65" max="65" width="7.140625" style="359" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.5703125" style="359" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.5703125" style="216" customWidth="1"/>
-    <col min="68" max="68" width="11" style="216" customWidth="1"/>
-    <col min="69" max="69" width="11" style="214" customWidth="1"/>
-    <col min="70" max="70" width="8.28515625" style="214" customWidth="1"/>
-    <col min="71" max="71" width="9.28515625" style="214" customWidth="1"/>
+    <col min="57" max="57" width="6.7109375" style="216" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="9.28515625" style="216" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="9.28515625" style="214" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="8.28515625" style="214" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="9.28515625" style="214" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="6.7109375" style="359" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="8.42578125" style="359" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="8.7109375" style="359" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="7.140625" style="359" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="8.5703125" style="359" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="6.5703125" style="216" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="11" style="216" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="11" style="214" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="8.28515625" style="214" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="9.28515625" style="214" hidden="1" customWidth="1"/>
     <col min="72" max="16384" width="9.140625" style="214"/>
   </cols>
   <sheetData>
@@ -3741,266 +3741,266 @@
       <c r="CK1" s="406"/>
     </row>
     <row r="2" spans="1:89" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="445" t="s">
+      <c r="A2" s="489" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="445" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="444" t="s">
+      <c r="B2" s="489" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="474" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="440" t="s">
+      <c r="D2" s="474"/>
+      <c r="E2" s="474"/>
+      <c r="F2" s="474"/>
+      <c r="G2" s="500" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="441"/>
-      <c r="I2" s="441"/>
-      <c r="J2" s="441"/>
-      <c r="K2" s="442"/>
-      <c r="L2" s="459" t="s">
+      <c r="H2" s="501"/>
+      <c r="I2" s="501"/>
+      <c r="J2" s="501"/>
+      <c r="K2" s="502"/>
+      <c r="L2" s="482" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="460"/>
-      <c r="N2" s="460"/>
-      <c r="O2" s="460"/>
-      <c r="P2" s="461"/>
-      <c r="Q2" s="444" t="s">
+      <c r="M2" s="483"/>
+      <c r="N2" s="483"/>
+      <c r="O2" s="483"/>
+      <c r="P2" s="484"/>
+      <c r="Q2" s="474" t="s">
         <v>170</v>
       </c>
-      <c r="R2" s="444"/>
-      <c r="S2" s="444"/>
-      <c r="T2" s="444"/>
-      <c r="U2" s="444"/>
-      <c r="V2" s="459" t="s">
+      <c r="R2" s="474"/>
+      <c r="S2" s="474"/>
+      <c r="T2" s="474"/>
+      <c r="U2" s="474"/>
+      <c r="V2" s="482" t="s">
         <v>172</v>
       </c>
-      <c r="W2" s="460"/>
-      <c r="X2" s="460"/>
-      <c r="Y2" s="460"/>
-      <c r="Z2" s="461"/>
-      <c r="AA2" s="444" t="s">
+      <c r="W2" s="483"/>
+      <c r="X2" s="483"/>
+      <c r="Y2" s="483"/>
+      <c r="Z2" s="484"/>
+      <c r="AA2" s="474" t="s">
         <v>173</v>
       </c>
-      <c r="AB2" s="444"/>
-      <c r="AC2" s="444"/>
-      <c r="AD2" s="444"/>
-      <c r="AE2" s="444"/>
-      <c r="AF2" s="459" t="s">
+      <c r="AB2" s="474"/>
+      <c r="AC2" s="474"/>
+      <c r="AD2" s="474"/>
+      <c r="AE2" s="474"/>
+      <c r="AF2" s="482" t="s">
         <v>171</v>
       </c>
-      <c r="AG2" s="460"/>
-      <c r="AH2" s="460"/>
-      <c r="AI2" s="460"/>
-      <c r="AJ2" s="461"/>
-      <c r="AK2" s="444" t="s">
+      <c r="AG2" s="483"/>
+      <c r="AH2" s="483"/>
+      <c r="AI2" s="483"/>
+      <c r="AJ2" s="484"/>
+      <c r="AK2" s="474" t="s">
         <v>112</v>
       </c>
-      <c r="AL2" s="444"/>
-      <c r="AM2" s="444"/>
-      <c r="AN2" s="444"/>
-      <c r="AO2" s="444"/>
-      <c r="AP2" s="459" t="s">
+      <c r="AL2" s="474"/>
+      <c r="AM2" s="474"/>
+      <c r="AN2" s="474"/>
+      <c r="AO2" s="474"/>
+      <c r="AP2" s="482" t="s">
         <v>116</v>
       </c>
-      <c r="AQ2" s="460"/>
-      <c r="AR2" s="460"/>
-      <c r="AS2" s="460"/>
-      <c r="AT2" s="461"/>
-      <c r="AU2" s="444" t="s">
+      <c r="AQ2" s="483"/>
+      <c r="AR2" s="483"/>
+      <c r="AS2" s="483"/>
+      <c r="AT2" s="484"/>
+      <c r="AU2" s="474" t="s">
         <v>174</v>
       </c>
-      <c r="AV2" s="444"/>
-      <c r="AW2" s="444"/>
-      <c r="AX2" s="444"/>
-      <c r="AY2" s="444"/>
-      <c r="AZ2" s="447" t="s">
+      <c r="AV2" s="474"/>
+      <c r="AW2" s="474"/>
+      <c r="AX2" s="474"/>
+      <c r="AY2" s="474"/>
+      <c r="AZ2" s="471" t="s">
         <v>143</v>
       </c>
-      <c r="BA2" s="448"/>
-      <c r="BB2" s="448"/>
-      <c r="BC2" s="448"/>
-      <c r="BD2" s="449"/>
-      <c r="BE2" s="444" t="s">
+      <c r="BA2" s="472"/>
+      <c r="BB2" s="472"/>
+      <c r="BC2" s="472"/>
+      <c r="BD2" s="473"/>
+      <c r="BE2" s="474" t="s">
         <v>175</v>
       </c>
-      <c r="BF2" s="444"/>
-      <c r="BG2" s="444"/>
-      <c r="BH2" s="444"/>
-      <c r="BI2" s="444"/>
-      <c r="BJ2" s="447" t="s">
+      <c r="BF2" s="474"/>
+      <c r="BG2" s="474"/>
+      <c r="BH2" s="474"/>
+      <c r="BI2" s="474"/>
+      <c r="BJ2" s="471" t="s">
         <v>223</v>
       </c>
-      <c r="BK2" s="448"/>
-      <c r="BL2" s="448"/>
-      <c r="BM2" s="448"/>
-      <c r="BN2" s="449"/>
-      <c r="BO2" s="444" t="s">
+      <c r="BK2" s="472"/>
+      <c r="BL2" s="472"/>
+      <c r="BM2" s="472"/>
+      <c r="BN2" s="473"/>
+      <c r="BO2" s="474" t="s">
         <v>224</v>
       </c>
-      <c r="BP2" s="444"/>
-      <c r="BQ2" s="444"/>
-      <c r="BR2" s="444"/>
-      <c r="BS2" s="444"/>
+      <c r="BP2" s="474"/>
+      <c r="BQ2" s="474"/>
+      <c r="BR2" s="474"/>
+      <c r="BS2" s="474"/>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A3" s="445"/>
-      <c r="B3" s="445"/>
-      <c r="C3" s="445" t="s">
+      <c r="A3" s="489"/>
+      <c r="B3" s="489"/>
+      <c r="C3" s="489" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="445" t="s">
+      <c r="D3" s="489" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="445"/>
-      <c r="F3" s="445" t="s">
+      <c r="E3" s="489"/>
+      <c r="F3" s="489" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="443" t="s">
+      <c r="G3" s="479" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="464" t="s">
+      <c r="H3" s="490" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="464" t="s">
+      <c r="I3" s="490" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="464"/>
-      <c r="K3" s="464" t="s">
+      <c r="J3" s="490"/>
+      <c r="K3" s="490" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="443" t="s">
+      <c r="L3" s="479" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="454" t="s">
+      <c r="M3" s="480" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="454"/>
-      <c r="O3" s="454"/>
-      <c r="P3" s="454"/>
-      <c r="Q3" s="456" t="s">
+      <c r="N3" s="480"/>
+      <c r="O3" s="480"/>
+      <c r="P3" s="480"/>
+      <c r="Q3" s="496" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="457" t="s">
+      <c r="R3" s="497" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="457"/>
-      <c r="T3" s="457"/>
-      <c r="U3" s="457"/>
-      <c r="V3" s="443" t="s">
+      <c r="S3" s="497"/>
+      <c r="T3" s="497"/>
+      <c r="U3" s="497"/>
+      <c r="V3" s="479" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="454" t="s">
+      <c r="W3" s="480" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="454"/>
-      <c r="Y3" s="454"/>
-      <c r="Z3" s="454"/>
-      <c r="AA3" s="452" t="s">
+      <c r="X3" s="480"/>
+      <c r="Y3" s="480"/>
+      <c r="Z3" s="480"/>
+      <c r="AA3" s="477" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="453" t="s">
+      <c r="AB3" s="478" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="453"/>
-      <c r="AD3" s="453"/>
-      <c r="AE3" s="453"/>
-      <c r="AF3" s="443" t="s">
+      <c r="AC3" s="478"/>
+      <c r="AD3" s="478"/>
+      <c r="AE3" s="478"/>
+      <c r="AF3" s="479" t="s">
         <v>87</v>
       </c>
-      <c r="AG3" s="454" t="s">
+      <c r="AG3" s="480" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="454"/>
-      <c r="AI3" s="454"/>
-      <c r="AJ3" s="454"/>
-      <c r="AK3" s="452" t="s">
+      <c r="AH3" s="480"/>
+      <c r="AI3" s="480"/>
+      <c r="AJ3" s="480"/>
+      <c r="AK3" s="477" t="s">
         <v>87</v>
       </c>
-      <c r="AL3" s="453" t="s">
+      <c r="AL3" s="478" t="s">
         <v>86</v>
       </c>
-      <c r="AM3" s="453"/>
-      <c r="AN3" s="453"/>
-      <c r="AO3" s="453"/>
-      <c r="AP3" s="443" t="s">
+      <c r="AM3" s="478"/>
+      <c r="AN3" s="478"/>
+      <c r="AO3" s="478"/>
+      <c r="AP3" s="479" t="s">
         <v>87</v>
       </c>
-      <c r="AQ3" s="454" t="s">
+      <c r="AQ3" s="480" t="s">
         <v>86</v>
       </c>
-      <c r="AR3" s="454"/>
-      <c r="AS3" s="454"/>
-      <c r="AT3" s="454"/>
-      <c r="AU3" s="452" t="s">
+      <c r="AR3" s="480"/>
+      <c r="AS3" s="480"/>
+      <c r="AT3" s="480"/>
+      <c r="AU3" s="477" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="453" t="s">
+      <c r="AV3" s="478" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="453"/>
-      <c r="AX3" s="453"/>
-      <c r="AY3" s="453"/>
-      <c r="AZ3" s="450" t="s">
+      <c r="AW3" s="478"/>
+      <c r="AX3" s="478"/>
+      <c r="AY3" s="478"/>
+      <c r="AZ3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="BA3" s="451" t="s">
+      <c r="BA3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="BB3" s="451"/>
-      <c r="BC3" s="451"/>
-      <c r="BD3" s="451"/>
-      <c r="BE3" s="452" t="s">
+      <c r="BB3" s="476"/>
+      <c r="BC3" s="476"/>
+      <c r="BD3" s="476"/>
+      <c r="BE3" s="477" t="s">
         <v>87</v>
       </c>
-      <c r="BF3" s="453" t="s">
+      <c r="BF3" s="478" t="s">
         <v>86</v>
       </c>
-      <c r="BG3" s="453"/>
-      <c r="BH3" s="453"/>
-      <c r="BI3" s="453"/>
-      <c r="BJ3" s="450" t="s">
+      <c r="BG3" s="478"/>
+      <c r="BH3" s="478"/>
+      <c r="BI3" s="478"/>
+      <c r="BJ3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="BK3" s="451" t="s">
+      <c r="BK3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="BL3" s="451"/>
-      <c r="BM3" s="451"/>
-      <c r="BN3" s="451"/>
-      <c r="BO3" s="452" t="s">
+      <c r="BL3" s="476"/>
+      <c r="BM3" s="476"/>
+      <c r="BN3" s="476"/>
+      <c r="BO3" s="477" t="s">
         <v>87</v>
       </c>
-      <c r="BP3" s="453" t="s">
+      <c r="BP3" s="478" t="s">
         <v>86</v>
       </c>
-      <c r="BQ3" s="453"/>
-      <c r="BR3" s="453"/>
-      <c r="BS3" s="453"/>
+      <c r="BQ3" s="478"/>
+      <c r="BR3" s="478"/>
+      <c r="BS3" s="478"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A4" s="445"/>
-      <c r="B4" s="445"/>
-      <c r="C4" s="445"/>
+      <c r="A4" s="489"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="489"/>
       <c r="D4" s="386" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="386" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="445"/>
-      <c r="G4" s="443"/>
-      <c r="H4" s="464"/>
+      <c r="F4" s="489"/>
+      <c r="G4" s="479"/>
+      <c r="H4" s="490"/>
       <c r="I4" s="108" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="464"/>
-      <c r="L4" s="443"/>
+      <c r="K4" s="490"/>
+      <c r="L4" s="479"/>
       <c r="M4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="P4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="456"/>
+      <c r="Q4" s="496"/>
       <c r="R4" s="220" t="s">
         <v>111</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="U4" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="443"/>
+      <c r="V4" s="479"/>
       <c r="W4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="Z4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="452"/>
+      <c r="AA4" s="477"/>
       <c r="AB4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="AE4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" s="443"/>
+      <c r="AF4" s="479"/>
       <c r="AG4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="AJ4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="AK4" s="452"/>
+      <c r="AK4" s="477"/>
       <c r="AL4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="AO4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AP4" s="443"/>
+      <c r="AP4" s="479"/>
       <c r="AQ4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4088,10 +4088,10 @@
       <c r="AS4" s="219" t="s">
         <v>77</v>
       </c>
-      <c r="AT4" s="541" t="s">
+      <c r="AT4" s="449" t="s">
         <v>75</v>
       </c>
-      <c r="AU4" s="452"/>
+      <c r="AU4" s="477"/>
       <c r="AV4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="AY4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AZ4" s="450"/>
+      <c r="AZ4" s="475"/>
       <c r="BA4" s="195" t="s">
         <v>111</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="BD4" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="BE4" s="452"/>
+      <c r="BE4" s="477"/>
       <c r="BF4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="BI4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="BJ4" s="450"/>
+      <c r="BJ4" s="475"/>
       <c r="BK4" s="360" t="s">
         <v>111</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="BN4" s="360" t="s">
         <v>75</v>
       </c>
-      <c r="BO4" s="452"/>
+      <c r="BO4" s="477"/>
       <c r="BP4" s="356" t="s">
         <v>111</v>
       </c>
@@ -4158,10 +4158,10 @@
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A5" s="467" t="s">
+      <c r="A5" s="487" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="467"/>
+      <c r="B5" s="487"/>
       <c r="C5" s="217"/>
       <c r="D5" s="217"/>
       <c r="E5" s="222"/>
@@ -4205,7 +4205,7 @@
       <c r="AQ5" s="223"/>
       <c r="AR5" s="223"/>
       <c r="AS5" s="223"/>
-      <c r="AT5" s="542"/>
+      <c r="AT5" s="450"/>
       <c r="AU5" s="226"/>
       <c r="AV5" s="226"/>
       <c r="AW5" s="217"/>
@@ -4282,7 +4282,7 @@
       <c r="AQ6" s="229"/>
       <c r="AR6" s="229"/>
       <c r="AS6" s="229"/>
-      <c r="AT6" s="543"/>
+      <c r="AT6" s="451"/>
       <c r="AU6" s="221"/>
       <c r="AV6" s="221"/>
       <c r="AW6" s="231"/>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="AR7" s="54"/>
       <c r="AS7" s="54"/>
-      <c r="AT7" s="537">
+      <c r="AT7" s="445">
         <f>AQ7+AR7+AS7</f>
         <v>0.28000000000000003</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="AR8" s="54"/>
       <c r="AS8" s="54"/>
-      <c r="AT8" s="537">
+      <c r="AT8" s="445">
         <f>AQ8+AR8+AS8</f>
         <v>0</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="AR9" s="54"/>
       <c r="AS9" s="54"/>
-      <c r="AT9" s="537">
+      <c r="AT9" s="445">
         <f>AQ9+AR9+AS9</f>
         <v>25</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="AQ10" s="55"/>
       <c r="AR10" s="55"/>
       <c r="AS10" s="55"/>
-      <c r="AT10" s="544"/>
+      <c r="AT10" s="452"/>
       <c r="AU10" s="218"/>
       <c r="AV10" s="238"/>
       <c r="AW10" s="238"/>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="AR11" s="54"/>
       <c r="AS11" s="54"/>
-      <c r="AT11" s="537">
+      <c r="AT11" s="445">
         <f t="shared" ref="AT11:AT25" si="12">AQ11+AR11+AS11</f>
         <v>17.96</v>
       </c>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="AR12" s="54"/>
       <c r="AS12" s="54"/>
-      <c r="AT12" s="537">
+      <c r="AT12" s="445">
         <f t="shared" si="12"/>
         <v>34.86</v>
       </c>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="AR13" s="54"/>
       <c r="AS13" s="54"/>
-      <c r="AT13" s="537">
+      <c r="AT13" s="445">
         <f t="shared" si="12"/>
         <v>337.33</v>
       </c>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="AR14" s="54"/>
       <c r="AS14" s="54"/>
-      <c r="AT14" s="537">
+      <c r="AT14" s="445">
         <f t="shared" si="12"/>
         <v>0.22</v>
       </c>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="AR15" s="54"/>
       <c r="AS15" s="54"/>
-      <c r="AT15" s="537">
+      <c r="AT15" s="445">
         <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="AR16" s="54"/>
       <c r="AS16" s="54"/>
-      <c r="AT16" s="537">
+      <c r="AT16" s="445">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="AR17" s="54"/>
       <c r="AS17" s="54"/>
-      <c r="AT17" s="537">
+      <c r="AT17" s="445">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="AR18" s="54"/>
       <c r="AS18" s="54"/>
-      <c r="AT18" s="537">
+      <c r="AT18" s="445">
         <f t="shared" si="12"/>
         <v>0.37</v>
       </c>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="AR19" s="54"/>
       <c r="AS19" s="54"/>
-      <c r="AT19" s="537">
+      <c r="AT19" s="445">
         <f t="shared" si="12"/>
         <v>2.31</v>
       </c>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="AR20" s="54"/>
       <c r="AS20" s="54"/>
-      <c r="AT20" s="537">
+      <c r="AT20" s="445">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="AR21" s="54"/>
       <c r="AS21" s="54"/>
-      <c r="AT21" s="537">
+      <c r="AT21" s="445">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="AR22" s="54"/>
       <c r="AS22" s="54"/>
-      <c r="AT22" s="537">
+      <c r="AT22" s="445">
         <f t="shared" si="12"/>
         <v>0.22</v>
       </c>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="AR23" s="54"/>
       <c r="AS23" s="54"/>
-      <c r="AT23" s="537">
+      <c r="AT23" s="445">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="AR24" s="54"/>
       <c r="AS24" s="54"/>
-      <c r="AT24" s="537">
+      <c r="AT24" s="445">
         <f t="shared" si="12"/>
         <v>11.99</v>
       </c>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="AR25" s="54"/>
       <c r="AS25" s="54"/>
-      <c r="AT25" s="537">
+      <c r="AT25" s="445">
         <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
     </row>
     <row r="26" spans="1:71" s="232" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="468">
+      <c r="A26" s="488">
         <v>4840</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -7621,7 +7621,7 @@
       <c r="AQ26" s="65"/>
       <c r="AR26" s="65"/>
       <c r="AS26" s="65"/>
-      <c r="AT26" s="537"/>
+      <c r="AT26" s="445"/>
       <c r="AU26" s="218"/>
       <c r="AV26" s="22"/>
       <c r="AW26" s="22"/>
@@ -7649,7 +7649,7 @@
       <c r="BS26" s="239"/>
     </row>
     <row r="27" spans="1:71" s="232" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="468"/>
+      <c r="A27" s="488"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -7721,7 +7721,7 @@
       <c r="AQ27" s="65"/>
       <c r="AR27" s="65"/>
       <c r="AS27" s="65"/>
-      <c r="AT27" s="537"/>
+      <c r="AT27" s="445"/>
       <c r="AU27" s="218" t="s">
         <v>78</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="BS27" s="239"/>
     </row>
     <row r="28" spans="1:71" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="468"/>
+      <c r="A28" s="488"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>79.75</v>
       </c>
       <c r="AS28" s="64"/>
-      <c r="AT28" s="537">
+      <c r="AT28" s="445">
         <f t="shared" ref="AT28:AT33" si="30">AQ28+AR28+AS28</f>
         <v>86.55</v>
       </c>
@@ -7964,7 +7964,7 @@
       </c>
     </row>
     <row r="29" spans="1:71" s="232" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="468"/>
+      <c r="A29" s="488"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>500.25</v>
       </c>
       <c r="AS29" s="65"/>
-      <c r="AT29" s="537">
+      <c r="AT29" s="445">
         <f t="shared" si="30"/>
         <v>524.89</v>
       </c>
@@ -8173,7 +8173,7 @@
       </c>
     </row>
     <row r="30" spans="1:71" s="232" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="468"/>
+      <c r="A30" s="488"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>209.79</v>
       </c>
       <c r="AS30" s="80"/>
-      <c r="AT30" s="537">
+      <c r="AT30" s="445">
         <f t="shared" si="30"/>
         <v>224.29</v>
       </c>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="AR31" s="54"/>
       <c r="AS31" s="54"/>
-      <c r="AT31" s="537">
+      <c r="AT31" s="445">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="AR32" s="54"/>
       <c r="AS32" s="54"/>
-      <c r="AT32" s="537">
+      <c r="AT32" s="445">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="AS33" s="70">
         <v>689.33</v>
       </c>
-      <c r="AT33" s="537">
+      <c r="AT33" s="445">
         <f t="shared" si="30"/>
         <v>689.33</v>
       </c>
@@ -8915,7 +8915,7 @@
       </c>
     </row>
     <row r="34" spans="1:71" s="232" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="469">
+      <c r="A34" s="491">
         <v>4883</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="AR34" s="54"/>
       <c r="AS34" s="54"/>
-      <c r="AT34" s="537">
+      <c r="AT34" s="445">
         <f t="shared" ref="AT34:AT39" si="43">AQ34+AR34+AS34</f>
         <v>4.5</v>
       </c>
@@ -9092,7 +9092,7 @@
       </c>
     </row>
     <row r="35" spans="1:71" s="232" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="470"/>
+      <c r="A35" s="492"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="AR35" s="54"/>
       <c r="AS35" s="54"/>
-      <c r="AT35" s="537">
+      <c r="AT35" s="445">
         <f t="shared" si="43"/>
         <v>0.25</v>
       </c>
@@ -9267,7 +9267,7 @@
       </c>
     </row>
     <row r="36" spans="1:71" s="232" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="471"/>
+      <c r="A36" s="493"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="AR36" s="54"/>
       <c r="AS36" s="54"/>
-      <c r="AT36" s="537">
+      <c r="AT36" s="445">
         <f t="shared" si="43"/>
         <v>0.25</v>
       </c>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
-      <c r="AT37" s="537">
+      <c r="AT37" s="445">
         <f t="shared" si="43"/>
         <v>30</v>
       </c>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
-      <c r="AT38" s="537">
+      <c r="AT38" s="445">
         <f t="shared" si="43"/>
         <v>6.48</v>
       </c>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="AR39" s="54"/>
       <c r="AS39" s="54"/>
-      <c r="AT39" s="537">
+      <c r="AT39" s="445">
         <f t="shared" si="43"/>
         <v>263.24</v>
       </c>
@@ -10022,7 +10022,7 @@
       <c r="AQ40" s="110"/>
       <c r="AR40" s="111"/>
       <c r="AS40" s="112"/>
-      <c r="AT40" s="545"/>
+      <c r="AT40" s="453"/>
       <c r="AU40" s="218"/>
       <c r="AV40" s="247"/>
       <c r="AW40" s="247"/>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="AR41" s="54"/>
       <c r="AS41" s="54"/>
-      <c r="AT41" s="537">
+      <c r="AT41" s="445">
         <f t="shared" ref="AT41:AT50" si="57">AQ41+AR41+AS41</f>
         <v>21.99</v>
       </c>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="AR42" s="54"/>
       <c r="AS42" s="54"/>
-      <c r="AT42" s="537">
+      <c r="AT42" s="445">
         <f t="shared" si="57"/>
         <v>0.98</v>
       </c>
@@ -10512,7 +10512,7 @@
       </c>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
-      <c r="AT43" s="537">
+      <c r="AT43" s="445">
         <f t="shared" si="57"/>
         <v>2</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
-      <c r="AT44" s="537">
+      <c r="AT44" s="445">
         <f t="shared" si="57"/>
         <v>0.5</v>
       </c>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="AR45" s="54"/>
       <c r="AS45" s="54"/>
-      <c r="AT45" s="537">
+      <c r="AT45" s="445">
         <f t="shared" si="57"/>
         <v>9.98</v>
       </c>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="AR46" s="54"/>
       <c r="AS46" s="54"/>
-      <c r="AT46" s="537">
+      <c r="AT46" s="445">
         <f t="shared" si="57"/>
         <v>8.9499999999999993</v>
       </c>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="AR47" s="54"/>
       <c r="AS47" s="54"/>
-      <c r="AT47" s="537">
+      <c r="AT47" s="445">
         <f t="shared" si="57"/>
         <v>0.5</v>
       </c>
@@ -11286,213 +11286,213 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="48" spans="1:71" s="539" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="532">
+    <row r="48" spans="1:71" s="447" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="440">
         <v>4947</v>
       </c>
-      <c r="B48" s="533" t="s">
+      <c r="B48" s="441" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="534">
+      <c r="C48" s="442">
         <v>43.5</v>
       </c>
-      <c r="D48" s="534">
+      <c r="D48" s="442">
         <v>319</v>
       </c>
-      <c r="E48" s="535"/>
-      <c r="F48" s="534">
+      <c r="E48" s="443"/>
+      <c r="F48" s="442">
         <f t="shared" si="47"/>
         <v>362.5</v>
       </c>
-      <c r="G48" s="534"/>
-      <c r="H48" s="534">
+      <c r="G48" s="442"/>
+      <c r="H48" s="442">
         <v>56.593600000000009</v>
       </c>
-      <c r="I48" s="534">
+      <c r="I48" s="442">
         <v>347.64640000000003</v>
       </c>
-      <c r="J48" s="535"/>
-      <c r="K48" s="534">
+      <c r="J48" s="443"/>
+      <c r="K48" s="442">
         <f t="shared" si="1"/>
         <v>404.24</v>
       </c>
-      <c r="L48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="M48" s="537">
-        <v>0</v>
-      </c>
-      <c r="N48" s="537">
-        <v>0</v>
-      </c>
-      <c r="O48" s="537"/>
-      <c r="P48" s="537">
+      <c r="L48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" s="445">
+        <v>0</v>
+      </c>
+      <c r="N48" s="445">
+        <v>0</v>
+      </c>
+      <c r="O48" s="445"/>
+      <c r="P48" s="445">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="R48" s="537">
+      <c r="Q48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="R48" s="445">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="S48" s="537">
+      <c r="S48" s="445">
         <f>N48</f>
         <v>0</v>
       </c>
-      <c r="T48" s="537"/>
-      <c r="U48" s="537">
+      <c r="T48" s="445"/>
+      <c r="U48" s="445">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="V48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="W48" s="537">
-        <v>0</v>
-      </c>
-      <c r="X48" s="537">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="537"/>
-      <c r="Z48" s="537">
+      <c r="V48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="W48" s="445">
+        <v>0</v>
+      </c>
+      <c r="X48" s="445">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="445"/>
+      <c r="Z48" s="445">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB48" s="537">
+      <c r="AA48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB48" s="445">
         <f>R48+W48</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="537">
+      <c r="AC48" s="445">
         <f>S48+X48</f>
         <v>0</v>
       </c>
-      <c r="AD48" s="537"/>
-      <c r="AE48" s="537">
+      <c r="AD48" s="445"/>
+      <c r="AE48" s="445">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AF48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG48" s="537">
+      <c r="AF48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG48" s="445">
         <v>7.16</v>
       </c>
-      <c r="AH48" s="537">
+      <c r="AH48" s="445">
         <v>52.54</v>
       </c>
-      <c r="AI48" s="537"/>
-      <c r="AJ48" s="537">
+      <c r="AI48" s="445"/>
+      <c r="AJ48" s="445">
         <f t="shared" si="54"/>
         <v>59.7</v>
       </c>
-      <c r="AK48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL48" s="537">
+      <c r="AK48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL48" s="445">
         <f>AB48+AG48</f>
         <v>7.16</v>
       </c>
-      <c r="AM48" s="537">
+      <c r="AM48" s="445">
         <f>AC48+AH48</f>
         <v>52.54</v>
       </c>
-      <c r="AN48" s="537"/>
-      <c r="AO48" s="537">
+      <c r="AN48" s="445"/>
+      <c r="AO48" s="445">
         <f t="shared" si="56"/>
         <v>59.7</v>
       </c>
-      <c r="AP48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ48" s="537">
+      <c r="AP48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ48" s="445">
         <v>2.68</v>
       </c>
-      <c r="AR48" s="537">
+      <c r="AR48" s="445">
         <v>21.67</v>
       </c>
-      <c r="AS48" s="537"/>
-      <c r="AT48" s="537">
+      <c r="AS48" s="445"/>
+      <c r="AT48" s="445">
         <f t="shared" si="57"/>
         <v>24.35</v>
       </c>
-      <c r="AU48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV48" s="537">
+      <c r="AU48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV48" s="445">
         <f>AL48+AQ48</f>
         <v>9.84</v>
       </c>
-      <c r="AW48" s="537">
+      <c r="AW48" s="445">
         <f>AM48+AR48</f>
         <v>74.210000000000008</v>
       </c>
-      <c r="AX48" s="537"/>
-      <c r="AY48" s="538">
+      <c r="AX48" s="445"/>
+      <c r="AY48" s="446">
         <f t="shared" si="59"/>
         <v>84.050000000000011</v>
       </c>
-      <c r="AZ48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA48" s="537">
+      <c r="AZ48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA48" s="445">
         <v>0.99</v>
       </c>
-      <c r="BB48" s="537">
+      <c r="BB48" s="445">
         <v>10</v>
       </c>
-      <c r="BC48" s="537"/>
-      <c r="BD48" s="537">
+      <c r="BC48" s="445"/>
+      <c r="BD48" s="445">
         <f t="shared" si="60"/>
         <v>10.99</v>
       </c>
-      <c r="BE48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF48" s="537">
+      <c r="BE48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF48" s="445">
         <f>AV48+BA48</f>
         <v>10.83</v>
       </c>
-      <c r="BG48" s="537">
+      <c r="BG48" s="445">
         <f>AW48+BB48</f>
         <v>84.210000000000008</v>
       </c>
-      <c r="BH48" s="537"/>
-      <c r="BI48" s="538">
+      <c r="BH48" s="445"/>
+      <c r="BI48" s="446">
         <f t="shared" si="62"/>
         <v>95.04</v>
       </c>
-      <c r="BJ48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK48" s="537">
+      <c r="BJ48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK48" s="445">
         <v>3.71</v>
       </c>
-      <c r="BL48" s="537">
+      <c r="BL48" s="445">
         <v>29.46</v>
       </c>
-      <c r="BM48" s="537"/>
-      <c r="BN48" s="537">
+      <c r="BM48" s="445"/>
+      <c r="BN48" s="445">
         <f t="shared" si="63"/>
         <v>33.17</v>
       </c>
-      <c r="BO48" s="536" t="s">
-        <v>78</v>
-      </c>
-      <c r="BP48" s="537">
+      <c r="BO48" s="444" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP48" s="445">
         <f>BF48+BK48</f>
         <v>14.54</v>
       </c>
-      <c r="BQ48" s="537">
+      <c r="BQ48" s="445">
         <f>BG48+BL48</f>
         <v>113.67000000000002</v>
       </c>
-      <c r="BR48" s="537"/>
-      <c r="BS48" s="538">
+      <c r="BR48" s="445"/>
+      <c r="BS48" s="446">
         <f t="shared" si="65"/>
         <v>128.21</v>
       </c>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="AR49" s="54"/>
       <c r="AS49" s="54"/>
-      <c r="AT49" s="537">
+      <c r="AT49" s="445">
         <f t="shared" si="57"/>
         <v>0.75</v>
       </c>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="AR50" s="54"/>
       <c r="AS50" s="54"/>
-      <c r="AT50" s="537">
+      <c r="AT50" s="445">
         <f t="shared" si="57"/>
         <v>2.4900000000000002</v>
       </c>
@@ -12004,7 +12004,7 @@
         <f>SUM(AS7:AS50)</f>
         <v>689.33</v>
       </c>
-      <c r="AT51" s="544">
+      <c r="AT51" s="452">
         <f>SUM(AT7:AT50)</f>
         <v>2364.059999999999</v>
       </c>
@@ -12095,30 +12095,30 @@
       </c>
     </row>
     <row r="52" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="465" t="s">
+      <c r="A52" s="494" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="465"/>
-      <c r="C52" s="466"/>
-      <c r="D52" s="466"/>
-      <c r="E52" s="445"/>
-      <c r="F52" s="466"/>
+      <c r="B52" s="494"/>
+      <c r="C52" s="495"/>
+      <c r="D52" s="495"/>
+      <c r="E52" s="489"/>
+      <c r="F52" s="495"/>
       <c r="G52" s="407"/>
-      <c r="H52" s="463"/>
-      <c r="I52" s="463"/>
-      <c r="J52" s="464"/>
-      <c r="K52" s="463"/>
-      <c r="L52" s="455"/>
+      <c r="H52" s="486"/>
+      <c r="I52" s="486"/>
+      <c r="J52" s="490"/>
+      <c r="K52" s="486"/>
+      <c r="L52" s="481"/>
       <c r="M52" s="252"/>
       <c r="N52" s="252"/>
       <c r="O52" s="252"/>
       <c r="P52" s="252"/>
-      <c r="Q52" s="458"/>
+      <c r="Q52" s="498"/>
       <c r="R52" s="253"/>
       <c r="S52" s="253"/>
       <c r="T52" s="253"/>
       <c r="U52" s="253"/>
-      <c r="V52" s="455"/>
+      <c r="V52" s="481"/>
       <c r="W52" s="252"/>
       <c r="X52" s="252"/>
       <c r="Y52" s="252"/>
@@ -12128,7 +12128,7 @@
       <c r="AC52" s="238"/>
       <c r="AD52" s="238"/>
       <c r="AE52" s="238"/>
-      <c r="AF52" s="455"/>
+      <c r="AF52" s="481"/>
       <c r="AG52" s="252"/>
       <c r="AH52" s="252"/>
       <c r="AI52" s="252"/>
@@ -12138,60 +12138,60 @@
       <c r="AM52" s="238"/>
       <c r="AN52" s="238"/>
       <c r="AO52" s="238"/>
-      <c r="AP52" s="455"/>
+      <c r="AP52" s="481"/>
       <c r="AQ52" s="252"/>
       <c r="AR52" s="252"/>
       <c r="AS52" s="252"/>
-      <c r="AT52" s="534"/>
-      <c r="AU52" s="445"/>
+      <c r="AT52" s="442"/>
+      <c r="AU52" s="489"/>
       <c r="AV52" s="238"/>
       <c r="AW52" s="238"/>
       <c r="AX52" s="238"/>
       <c r="AY52" s="239"/>
-      <c r="AZ52" s="446"/>
-      <c r="BA52" s="446"/>
-      <c r="BB52" s="446"/>
-      <c r="BC52" s="446"/>
-      <c r="BD52" s="446"/>
-      <c r="BE52" s="445"/>
+      <c r="AZ52" s="499"/>
+      <c r="BA52" s="499"/>
+      <c r="BB52" s="499"/>
+      <c r="BC52" s="499"/>
+      <c r="BD52" s="499"/>
+      <c r="BE52" s="489"/>
       <c r="BF52" s="238"/>
       <c r="BG52" s="238"/>
       <c r="BH52" s="238"/>
       <c r="BI52" s="239"/>
-      <c r="BJ52" s="446"/>
-      <c r="BK52" s="446"/>
-      <c r="BL52" s="446"/>
-      <c r="BM52" s="446"/>
-      <c r="BN52" s="446"/>
-      <c r="BO52" s="445"/>
+      <c r="BJ52" s="499"/>
+      <c r="BK52" s="499"/>
+      <c r="BL52" s="499"/>
+      <c r="BM52" s="499"/>
+      <c r="BN52" s="499"/>
+      <c r="BO52" s="489"/>
       <c r="BP52" s="238"/>
       <c r="BQ52" s="238"/>
       <c r="BR52" s="238"/>
       <c r="BS52" s="239"/>
     </row>
     <row r="53" spans="1:71" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="465"/>
-      <c r="B53" s="465"/>
-      <c r="C53" s="466"/>
-      <c r="D53" s="466"/>
-      <c r="E53" s="445"/>
-      <c r="F53" s="466"/>
+      <c r="A53" s="494"/>
+      <c r="B53" s="494"/>
+      <c r="C53" s="495"/>
+      <c r="D53" s="495"/>
+      <c r="E53" s="489"/>
+      <c r="F53" s="495"/>
       <c r="G53" s="407"/>
-      <c r="H53" s="463"/>
-      <c r="I53" s="463"/>
-      <c r="J53" s="464"/>
-      <c r="K53" s="463"/>
-      <c r="L53" s="455"/>
+      <c r="H53" s="486"/>
+      <c r="I53" s="486"/>
+      <c r="J53" s="490"/>
+      <c r="K53" s="486"/>
+      <c r="L53" s="481"/>
       <c r="M53" s="252"/>
       <c r="N53" s="252"/>
       <c r="O53" s="252"/>
       <c r="P53" s="252"/>
-      <c r="Q53" s="458"/>
+      <c r="Q53" s="498"/>
       <c r="R53" s="253"/>
       <c r="S53" s="253"/>
       <c r="T53" s="253"/>
       <c r="U53" s="253"/>
-      <c r="V53" s="455"/>
+      <c r="V53" s="481"/>
       <c r="W53" s="252"/>
       <c r="X53" s="252"/>
       <c r="Y53" s="252"/>
@@ -12201,7 +12201,7 @@
       <c r="AC53" s="247"/>
       <c r="AD53" s="247"/>
       <c r="AE53" s="247"/>
-      <c r="AF53" s="455"/>
+      <c r="AF53" s="481"/>
       <c r="AG53" s="252"/>
       <c r="AH53" s="252"/>
       <c r="AI53" s="252"/>
@@ -12211,32 +12211,32 @@
       <c r="AM53" s="247"/>
       <c r="AN53" s="247"/>
       <c r="AO53" s="247"/>
-      <c r="AP53" s="455"/>
+      <c r="AP53" s="481"/>
       <c r="AQ53" s="252"/>
       <c r="AR53" s="252"/>
       <c r="AS53" s="252"/>
-      <c r="AT53" s="534"/>
-      <c r="AU53" s="445"/>
+      <c r="AT53" s="442"/>
+      <c r="AU53" s="489"/>
       <c r="AV53" s="247"/>
       <c r="AW53" s="247"/>
       <c r="AX53" s="247"/>
       <c r="AY53" s="239"/>
-      <c r="AZ53" s="446"/>
-      <c r="BA53" s="446"/>
-      <c r="BB53" s="446"/>
-      <c r="BC53" s="446"/>
-      <c r="BD53" s="446"/>
-      <c r="BE53" s="445"/>
+      <c r="AZ53" s="499"/>
+      <c r="BA53" s="499"/>
+      <c r="BB53" s="499"/>
+      <c r="BC53" s="499"/>
+      <c r="BD53" s="499"/>
+      <c r="BE53" s="489"/>
       <c r="BF53" s="247"/>
       <c r="BG53" s="247"/>
       <c r="BH53" s="247"/>
       <c r="BI53" s="239"/>
-      <c r="BJ53" s="446"/>
-      <c r="BK53" s="446"/>
-      <c r="BL53" s="446"/>
-      <c r="BM53" s="446"/>
-      <c r="BN53" s="446"/>
-      <c r="BO53" s="445"/>
+      <c r="BJ53" s="499"/>
+      <c r="BK53" s="499"/>
+      <c r="BL53" s="499"/>
+      <c r="BM53" s="499"/>
+      <c r="BN53" s="499"/>
+      <c r="BO53" s="489"/>
       <c r="BP53" s="247"/>
       <c r="BQ53" s="247"/>
       <c r="BR53" s="247"/>
@@ -12292,7 +12292,7 @@
       <c r="AQ54" s="256"/>
       <c r="AR54" s="256"/>
       <c r="AS54" s="256"/>
-      <c r="AT54" s="546"/>
+      <c r="AT54" s="454"/>
       <c r="AU54" s="218"/>
       <c r="AV54" s="247"/>
       <c r="AW54" s="247"/>
@@ -12320,7 +12320,7 @@
       <c r="BS54" s="239"/>
     </row>
     <row r="55" spans="1:71" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="462">
+      <c r="A55" s="485">
         <v>6807</v>
       </c>
       <c r="B55" s="46" t="s">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="AR55" s="54"/>
       <c r="AS55" s="54"/>
-      <c r="AT55" s="537">
+      <c r="AT55" s="445">
         <f t="shared" ref="AT55:AT68" si="78">AQ55+AR55+AS55</f>
         <v>122</v>
       </c>
@@ -12483,7 +12483,7 @@
       </c>
     </row>
     <row r="56" spans="1:71" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="462"/>
+      <c r="A56" s="485"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="AR56" s="54"/>
       <c r="AS56" s="54"/>
-      <c r="AT56" s="537">
+      <c r="AT56" s="445">
         <f t="shared" si="78"/>
         <v>8</v>
       </c>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="AR57" s="54"/>
       <c r="AS57" s="54"/>
-      <c r="AT57" s="537">
+      <c r="AT57" s="445">
         <f t="shared" si="78"/>
         <v>21</v>
       </c>
@@ -12803,7 +12803,7 @@
       </c>
     </row>
     <row r="58" spans="1:71" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="462">
+      <c r="A58" s="485">
         <v>6813</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="AR58" s="54"/>
       <c r="AS58" s="54"/>
-      <c r="AT58" s="537">
+      <c r="AT58" s="445">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
@@ -12962,7 +12962,7 @@
       </c>
     </row>
     <row r="59" spans="1:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="462"/>
+      <c r="A59" s="485"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="AR59" s="54"/>
       <c r="AS59" s="54"/>
-      <c r="AT59" s="537">
+      <c r="AT59" s="445">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
@@ -13119,7 +13119,7 @@
       </c>
     </row>
     <row r="60" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="462">
+      <c r="A60" s="485">
         <v>6814</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="AR60" s="54"/>
       <c r="AS60" s="54"/>
-      <c r="AT60" s="537">
+      <c r="AT60" s="445">
         <f t="shared" si="78"/>
         <v>3.48</v>
       </c>
@@ -13277,7 +13277,7 @@
       </c>
     </row>
     <row r="61" spans="1:71" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="462"/>
+      <c r="A61" s="485"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -13371,7 +13371,7 @@
       </c>
       <c r="AR61" s="54"/>
       <c r="AS61" s="54"/>
-      <c r="AT61" s="537">
+      <c r="AT61" s="445">
         <f t="shared" si="78"/>
         <v>2.13</v>
       </c>
@@ -13431,7 +13431,7 @@
       </c>
     </row>
     <row r="62" spans="1:71" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="462"/>
+      <c r="A62" s="485"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="AR62" s="54"/>
       <c r="AS62" s="54"/>
-      <c r="AT62" s="537">
+      <c r="AT62" s="445">
         <f t="shared" si="78"/>
         <v>7.89</v>
       </c>
@@ -13593,7 +13593,7 @@
       </c>
     </row>
     <row r="63" spans="1:71" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="462">
+      <c r="A63" s="485">
         <v>6815</v>
       </c>
       <c r="B63" s="46" t="s">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="AR63" s="54"/>
       <c r="AS63" s="54"/>
-      <c r="AT63" s="537">
+      <c r="AT63" s="445">
         <f t="shared" si="78"/>
         <v>2.08</v>
       </c>
@@ -13754,7 +13754,7 @@
       </c>
     </row>
     <row r="64" spans="1:71" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="462"/>
+      <c r="A64" s="485"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -13852,7 +13852,7 @@
       </c>
       <c r="AR64" s="54"/>
       <c r="AS64" s="54"/>
-      <c r="AT64" s="537">
+      <c r="AT64" s="445">
         <f t="shared" si="78"/>
         <v>3.15</v>
       </c>
@@ -13913,7 +13913,7 @@
       </c>
     </row>
     <row r="65" spans="1:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="462"/>
+      <c r="A65" s="485"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="AQ65" s="54"/>
       <c r="AR65" s="54"/>
       <c r="AS65" s="54"/>
-      <c r="AT65" s="537">
+      <c r="AT65" s="445">
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
@@ -14064,7 +14064,7 @@
       </c>
     </row>
     <row r="66" spans="1:71" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="462"/>
+      <c r="A66" s="485"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="AR66" s="54"/>
       <c r="AS66" s="54"/>
-      <c r="AT66" s="537">
+      <c r="AT66" s="445">
         <f t="shared" si="78"/>
         <v>1.1000000000000001</v>
       </c>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="AR67" s="54"/>
       <c r="AS67" s="54"/>
-      <c r="AT67" s="537">
+      <c r="AT67" s="445">
         <f t="shared" si="78"/>
         <v>9.9600000000000009</v>
       </c>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="AR68" s="54"/>
       <c r="AS68" s="54"/>
-      <c r="AT68" s="537">
+      <c r="AT68" s="445">
         <f t="shared" si="78"/>
         <v>2</v>
       </c>
@@ -14633,7 +14633,7 @@
       <c r="AQ69" s="110"/>
       <c r="AR69" s="110"/>
       <c r="AS69" s="110"/>
-      <c r="AT69" s="547"/>
+      <c r="AT69" s="455"/>
       <c r="AU69" s="218"/>
       <c r="AV69" s="36">
         <f t="shared" si="79"/>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="AR70" s="54"/>
       <c r="AS70" s="54"/>
-      <c r="AT70" s="537">
+      <c r="AT70" s="445">
         <f>AQ70+AR70+AS70</f>
         <v>5794.05</v>
       </c>
@@ -14893,7 +14893,7 @@
       <c r="AQ71" s="54"/>
       <c r="AR71" s="54"/>
       <c r="AS71" s="54"/>
-      <c r="AT71" s="537"/>
+      <c r="AT71" s="445"/>
       <c r="AU71" s="218"/>
       <c r="AV71" s="238"/>
       <c r="AW71" s="238"/>
@@ -14970,7 +14970,7 @@
       <c r="AQ72" s="261"/>
       <c r="AR72" s="261"/>
       <c r="AS72" s="261"/>
-      <c r="AT72" s="545"/>
+      <c r="AT72" s="453"/>
       <c r="AU72" s="218"/>
       <c r="AV72" s="262"/>
       <c r="AW72" s="262"/>
@@ -14997,159 +14997,159 @@
       <c r="BR72" s="262"/>
       <c r="BS72" s="239"/>
     </row>
-    <row r="73" spans="1:71" s="555" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="556">
+    <row r="73" spans="1:71" s="463" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="464">
         <v>7036</v>
       </c>
-      <c r="B73" s="557" t="s">
+      <c r="B73" s="465" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="558">
+      <c r="C73" s="466">
         <v>151.32</v>
       </c>
-      <c r="D73" s="558">
+      <c r="D73" s="466">
         <v>1109.68</v>
       </c>
-      <c r="E73" s="536"/>
-      <c r="F73" s="534">
+      <c r="E73" s="444"/>
+      <c r="F73" s="442">
         <f t="shared" ref="F73" si="88">C73+D73+E73</f>
         <v>1261</v>
       </c>
-      <c r="G73" s="534"/>
-      <c r="H73" s="558">
+      <c r="G73" s="442"/>
+      <c r="H73" s="466">
         <v>169.3356</v>
       </c>
-      <c r="I73" s="534">
+      <c r="I73" s="442">
         <v>1040.2</v>
       </c>
-      <c r="J73" s="536"/>
-      <c r="K73" s="534">
+      <c r="J73" s="444"/>
+      <c r="K73" s="442">
         <f t="shared" ref="K73:K86" si="89">H73+I73+J73</f>
         <v>1209.5356000000002</v>
       </c>
-      <c r="L73" s="536"/>
-      <c r="M73" s="537"/>
-      <c r="N73" s="537"/>
-      <c r="O73" s="537"/>
-      <c r="P73" s="537"/>
-      <c r="Q73" s="536"/>
-      <c r="R73" s="537">
+      <c r="L73" s="444"/>
+      <c r="M73" s="445"/>
+      <c r="N73" s="445"/>
+      <c r="O73" s="445"/>
+      <c r="P73" s="445"/>
+      <c r="Q73" s="444"/>
+      <c r="R73" s="445">
         <f t="shared" ref="R73:S86" si="90">M73</f>
         <v>0</v>
       </c>
-      <c r="S73" s="537">
+      <c r="S73" s="445">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="T73" s="537"/>
-      <c r="U73" s="537"/>
-      <c r="V73" s="536"/>
-      <c r="W73" s="537"/>
-      <c r="X73" s="537"/>
-      <c r="Y73" s="537"/>
-      <c r="Z73" s="537"/>
-      <c r="AA73" s="536"/>
-      <c r="AB73" s="537">
+      <c r="T73" s="445"/>
+      <c r="U73" s="445"/>
+      <c r="V73" s="444"/>
+      <c r="W73" s="445"/>
+      <c r="X73" s="445"/>
+      <c r="Y73" s="445"/>
+      <c r="Z73" s="445"/>
+      <c r="AA73" s="444"/>
+      <c r="AB73" s="445">
         <f>R73+W73</f>
         <v>0</v>
       </c>
-      <c r="AC73" s="537">
+      <c r="AC73" s="445">
         <f>S73+X73</f>
         <v>0</v>
       </c>
-      <c r="AD73" s="559"/>
-      <c r="AE73" s="537">
+      <c r="AD73" s="467"/>
+      <c r="AE73" s="445">
         <f>AB73+AC73+AD73</f>
         <v>0</v>
       </c>
-      <c r="AF73" s="536"/>
-      <c r="AG73" s="537"/>
-      <c r="AH73" s="537"/>
-      <c r="AI73" s="537"/>
-      <c r="AJ73" s="537"/>
-      <c r="AK73" s="536"/>
-      <c r="AL73" s="537">
+      <c r="AF73" s="444"/>
+      <c r="AG73" s="445"/>
+      <c r="AH73" s="445"/>
+      <c r="AI73" s="445"/>
+      <c r="AJ73" s="445"/>
+      <c r="AK73" s="444"/>
+      <c r="AL73" s="445">
         <f>AB73+AG73</f>
         <v>0</v>
       </c>
-      <c r="AM73" s="537">
+      <c r="AM73" s="445">
         <f>AC73+AH73</f>
         <v>0</v>
       </c>
-      <c r="AN73" s="559"/>
-      <c r="AO73" s="537">
+      <c r="AN73" s="467"/>
+      <c r="AO73" s="445">
         <f>AL73+AM73+AN73</f>
         <v>0</v>
       </c>
-      <c r="AP73" s="536"/>
-      <c r="AQ73" s="537"/>
-      <c r="AR73" s="537"/>
-      <c r="AS73" s="537"/>
-      <c r="AT73" s="537"/>
-      <c r="AU73" s="536"/>
-      <c r="AV73" s="537">
+      <c r="AP73" s="444"/>
+      <c r="AQ73" s="445"/>
+      <c r="AR73" s="445"/>
+      <c r="AS73" s="445"/>
+      <c r="AT73" s="445"/>
+      <c r="AU73" s="444"/>
+      <c r="AV73" s="445">
         <f>AL73+AQ73</f>
         <v>0</v>
       </c>
-      <c r="AW73" s="537">
+      <c r="AW73" s="445">
         <f>AM73+AR73</f>
         <v>0</v>
       </c>
-      <c r="AX73" s="559"/>
-      <c r="AY73" s="560"/>
-      <c r="AZ73" s="561" t="s">
+      <c r="AX73" s="467"/>
+      <c r="AY73" s="468"/>
+      <c r="AZ73" s="469" t="s">
         <v>136</v>
       </c>
-      <c r="BA73" s="537">
+      <c r="BA73" s="445">
         <v>16.34</v>
       </c>
-      <c r="BB73" s="537">
+      <c r="BB73" s="445">
         <v>100.38</v>
       </c>
-      <c r="BC73" s="537"/>
-      <c r="BD73" s="537">
+      <c r="BC73" s="445"/>
+      <c r="BD73" s="445">
         <f>BA73+BB73+BC73</f>
         <v>116.72</v>
       </c>
-      <c r="BE73" s="536"/>
-      <c r="BF73" s="537">
+      <c r="BE73" s="444"/>
+      <c r="BF73" s="445">
         <f>AV73+BA73</f>
         <v>16.34</v>
       </c>
-      <c r="BG73" s="537">
+      <c r="BG73" s="445">
         <f>AW73+BB73</f>
         <v>100.38</v>
       </c>
-      <c r="BH73" s="559"/>
-      <c r="BI73" s="538">
+      <c r="BH73" s="467"/>
+      <c r="BI73" s="446">
         <f>BD73+AY73</f>
         <v>116.72</v>
       </c>
-      <c r="BJ73" s="561" t="s">
+      <c r="BJ73" s="469" t="s">
         <v>136</v>
       </c>
-      <c r="BK73" s="537">
+      <c r="BK73" s="445">
         <v>24.030000000000005</v>
       </c>
-      <c r="BL73" s="537">
+      <c r="BL73" s="445">
         <v>168.19</v>
       </c>
-      <c r="BM73" s="537"/>
-      <c r="BN73" s="537">
+      <c r="BM73" s="445"/>
+      <c r="BN73" s="445">
         <f>BK73+BL73+BM73</f>
         <v>192.22</v>
       </c>
-      <c r="BO73" s="536"/>
-      <c r="BP73" s="537">
+      <c r="BO73" s="444"/>
+      <c r="BP73" s="445">
         <f>BF73+BK73</f>
         <v>40.370000000000005</v>
       </c>
-      <c r="BQ73" s="537">
+      <c r="BQ73" s="445">
         <f t="shared" ref="BQ73:BQ77" si="91">BG73+BL73</f>
         <v>268.57</v>
       </c>
-      <c r="BR73" s="559"/>
-      <c r="BS73" s="538">
+      <c r="BR73" s="467"/>
+      <c r="BS73" s="446">
         <f>BN73+BI73</f>
         <v>308.94</v>
       </c>
@@ -15210,7 +15210,7 @@
       <c r="AQ74" s="65"/>
       <c r="AR74" s="65"/>
       <c r="AS74" s="65"/>
-      <c r="AT74" s="537"/>
+      <c r="AT74" s="445"/>
       <c r="AU74" s="218"/>
       <c r="AV74" s="238"/>
       <c r="AW74" s="238"/>
@@ -15237,366 +15237,366 @@
       <c r="BR74" s="238"/>
       <c r="BS74" s="239"/>
     </row>
-    <row r="75" spans="1:71" s="555" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="556">
+    <row r="75" spans="1:71" s="463" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="464">
         <v>7041</v>
       </c>
-      <c r="B75" s="562" t="s">
+      <c r="B75" s="470" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="534">
+      <c r="C75" s="442">
         <v>181.8</v>
       </c>
-      <c r="D75" s="534">
+      <c r="D75" s="442">
         <v>1333.2</v>
       </c>
-      <c r="E75" s="536"/>
-      <c r="F75" s="534">
+      <c r="E75" s="444"/>
+      <c r="F75" s="442">
         <f t="shared" ref="F75:F77" si="92">C75+D75+E75</f>
         <v>1515</v>
       </c>
-      <c r="G75" s="534"/>
-      <c r="H75" s="534">
+      <c r="G75" s="442"/>
+      <c r="H75" s="442">
         <v>164.57</v>
       </c>
-      <c r="I75" s="534">
+      <c r="I75" s="442">
         <v>1010.93</v>
       </c>
-      <c r="J75" s="536"/>
-      <c r="K75" s="534">
+      <c r="J75" s="444"/>
+      <c r="K75" s="442">
         <f t="shared" si="89"/>
         <v>1175.5</v>
       </c>
-      <c r="L75" s="536"/>
-      <c r="M75" s="537"/>
-      <c r="N75" s="537"/>
-      <c r="O75" s="537"/>
-      <c r="P75" s="537"/>
-      <c r="Q75" s="536"/>
-      <c r="R75" s="537">
+      <c r="L75" s="444"/>
+      <c r="M75" s="445"/>
+      <c r="N75" s="445"/>
+      <c r="O75" s="445"/>
+      <c r="P75" s="445"/>
+      <c r="Q75" s="444"/>
+      <c r="R75" s="445">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="S75" s="537">
+      <c r="S75" s="445">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="T75" s="537"/>
-      <c r="U75" s="537"/>
-      <c r="V75" s="536"/>
-      <c r="W75" s="537"/>
-      <c r="X75" s="537"/>
-      <c r="Y75" s="537"/>
-      <c r="Z75" s="537"/>
-      <c r="AA75" s="536"/>
-      <c r="AB75" s="537">
+      <c r="T75" s="445"/>
+      <c r="U75" s="445"/>
+      <c r="V75" s="444"/>
+      <c r="W75" s="445"/>
+      <c r="X75" s="445"/>
+      <c r="Y75" s="445"/>
+      <c r="Z75" s="445"/>
+      <c r="AA75" s="444"/>
+      <c r="AB75" s="445">
         <f t="shared" ref="AB75:AC77" si="93">R75+W75</f>
         <v>0</v>
       </c>
-      <c r="AC75" s="537">
+      <c r="AC75" s="445">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="AD75" s="545"/>
-      <c r="AE75" s="537">
+      <c r="AD75" s="453"/>
+      <c r="AE75" s="445">
         <f>AB75+AC75+AD75</f>
         <v>0</v>
       </c>
-      <c r="AF75" s="536"/>
-      <c r="AG75" s="537"/>
-      <c r="AH75" s="537"/>
-      <c r="AI75" s="537"/>
-      <c r="AJ75" s="537"/>
-      <c r="AK75" s="536"/>
-      <c r="AL75" s="537">
+      <c r="AF75" s="444"/>
+      <c r="AG75" s="445"/>
+      <c r="AH75" s="445"/>
+      <c r="AI75" s="445"/>
+      <c r="AJ75" s="445"/>
+      <c r="AK75" s="444"/>
+      <c r="AL75" s="445">
         <f t="shared" ref="AL75:AM77" si="94">AB75+AG75</f>
         <v>0</v>
       </c>
-      <c r="AM75" s="537">
+      <c r="AM75" s="445">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="AN75" s="545"/>
-      <c r="AO75" s="537">
+      <c r="AN75" s="453"/>
+      <c r="AO75" s="445">
         <f>AL75+AM75+AN75</f>
         <v>0</v>
       </c>
-      <c r="AP75" s="536"/>
-      <c r="AQ75" s="537"/>
-      <c r="AR75" s="537"/>
-      <c r="AS75" s="537"/>
-      <c r="AT75" s="537"/>
-      <c r="AU75" s="536"/>
-      <c r="AV75" s="537">
+      <c r="AP75" s="444"/>
+      <c r="AQ75" s="445"/>
+      <c r="AR75" s="445"/>
+      <c r="AS75" s="445"/>
+      <c r="AT75" s="445"/>
+      <c r="AU75" s="444"/>
+      <c r="AV75" s="445">
         <f t="shared" ref="AV75:AW77" si="95">AL75+AQ75</f>
         <v>0</v>
       </c>
-      <c r="AW75" s="537">
+      <c r="AW75" s="445">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AX75" s="545"/>
-      <c r="AY75" s="560"/>
-      <c r="AZ75" s="561" t="s">
+      <c r="AX75" s="453"/>
+      <c r="AY75" s="468"/>
+      <c r="AZ75" s="469" t="s">
         <v>137</v>
       </c>
-      <c r="BA75" s="537">
-        <v>0</v>
-      </c>
-      <c r="BB75" s="537">
-        <v>0</v>
-      </c>
-      <c r="BC75" s="537"/>
-      <c r="BD75" s="537">
+      <c r="BA75" s="445">
+        <v>0</v>
+      </c>
+      <c r="BB75" s="445">
+        <v>0</v>
+      </c>
+      <c r="BC75" s="445"/>
+      <c r="BD75" s="445">
         <f>BA75+BB75+BC75</f>
         <v>0</v>
       </c>
-      <c r="BE75" s="536"/>
-      <c r="BF75" s="537">
+      <c r="BE75" s="444"/>
+      <c r="BF75" s="445">
         <f t="shared" ref="BF75:BG77" si="96">AV75+BA75</f>
         <v>0</v>
       </c>
-      <c r="BG75" s="537">
+      <c r="BG75" s="445">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BH75" s="545"/>
-      <c r="BI75" s="538">
+      <c r="BH75" s="453"/>
+      <c r="BI75" s="446">
         <f>BD75+AY75</f>
         <v>0</v>
       </c>
-      <c r="BJ75" s="561" t="s">
+      <c r="BJ75" s="469" t="s">
         <v>137</v>
       </c>
-      <c r="BK75" s="537"/>
-      <c r="BL75" s="537"/>
-      <c r="BM75" s="537"/>
-      <c r="BN75" s="537">
+      <c r="BK75" s="445"/>
+      <c r="BL75" s="445"/>
+      <c r="BM75" s="445"/>
+      <c r="BN75" s="445">
         <f>BK75+BL75+BM75</f>
         <v>0</v>
       </c>
-      <c r="BO75" s="536"/>
-      <c r="BP75" s="537">
+      <c r="BO75" s="444"/>
+      <c r="BP75" s="445">
         <f t="shared" ref="BP75:BP77" si="97">BF75+BK75</f>
         <v>0</v>
       </c>
-      <c r="BQ75" s="537">
+      <c r="BQ75" s="445">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="BR75" s="545"/>
-      <c r="BS75" s="538">
+      <c r="BR75" s="453"/>
+      <c r="BS75" s="446">
         <f>BN75+BI75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:71" s="555" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="556">
+    <row r="76" spans="1:71" s="463" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="464">
         <v>7041</v>
       </c>
-      <c r="B76" s="562" t="s">
+      <c r="B76" s="470" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="558">
+      <c r="C76" s="466">
         <v>2437.3200000000002</v>
       </c>
-      <c r="D76" s="558">
+      <c r="D76" s="466">
         <v>17873.68</v>
       </c>
-      <c r="E76" s="536"/>
-      <c r="F76" s="534">
+      <c r="E76" s="444"/>
+      <c r="F76" s="442">
         <f t="shared" si="92"/>
         <v>20311</v>
       </c>
-      <c r="G76" s="534"/>
-      <c r="H76" s="558">
+      <c r="G76" s="442"/>
+      <c r="H76" s="466">
         <v>2603.3686000000012</v>
       </c>
-      <c r="I76" s="558">
+      <c r="I76" s="466">
         <v>15992.12</v>
       </c>
-      <c r="J76" s="536"/>
-      <c r="K76" s="534">
+      <c r="J76" s="444"/>
+      <c r="K76" s="442">
         <f t="shared" si="89"/>
         <v>18595.488600000001</v>
       </c>
-      <c r="L76" s="561" t="s">
+      <c r="L76" s="469" t="s">
         <v>110</v>
       </c>
-      <c r="M76" s="537">
-        <v>0</v>
-      </c>
-      <c r="N76" s="537">
-        <v>0</v>
-      </c>
-      <c r="O76" s="537"/>
-      <c r="P76" s="537">
+      <c r="M76" s="445">
+        <v>0</v>
+      </c>
+      <c r="N76" s="445">
+        <v>0</v>
+      </c>
+      <c r="O76" s="445"/>
+      <c r="P76" s="445">
         <f>M76+N76+O76</f>
         <v>0</v>
       </c>
-      <c r="Q76" s="561" t="s">
+      <c r="Q76" s="469" t="s">
         <v>110</v>
       </c>
-      <c r="R76" s="537">
+      <c r="R76" s="445">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="S76" s="537">
+      <c r="S76" s="445">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="T76" s="537"/>
-      <c r="U76" s="537">
+      <c r="T76" s="445"/>
+      <c r="U76" s="445">
         <f>R76+S76+T76</f>
         <v>0</v>
       </c>
-      <c r="V76" s="561" t="s">
+      <c r="V76" s="469" t="s">
         <v>110</v>
       </c>
-      <c r="W76" s="537">
-        <v>0</v>
-      </c>
-      <c r="X76" s="537">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="537"/>
-      <c r="Z76" s="537">
+      <c r="W76" s="445">
+        <v>0</v>
+      </c>
+      <c r="X76" s="445">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="445"/>
+      <c r="Z76" s="445">
         <f>W76+X76+Y76</f>
         <v>0</v>
       </c>
-      <c r="AA76" s="561" t="s">
+      <c r="AA76" s="469" t="s">
         <v>105</v>
       </c>
-      <c r="AB76" s="537">
+      <c r="AB76" s="445">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="AC76" s="537">
+      <c r="AC76" s="445">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="AD76" s="537"/>
-      <c r="AE76" s="537">
+      <c r="AD76" s="445"/>
+      <c r="AE76" s="445">
         <f>AB76+AC76+AD76</f>
         <v>0</v>
       </c>
-      <c r="AF76" s="561" t="s">
+      <c r="AF76" s="469" t="s">
         <v>110</v>
       </c>
-      <c r="AG76" s="537">
+      <c r="AG76" s="445">
         <v>38.11</v>
       </c>
-      <c r="AH76" s="537">
+      <c r="AH76" s="445">
         <v>255.04</v>
       </c>
-      <c r="AI76" s="537"/>
-      <c r="AJ76" s="537">
+      <c r="AI76" s="445"/>
+      <c r="AJ76" s="445">
         <f>AG76+AH76+AI76</f>
         <v>293.14999999999998</v>
       </c>
-      <c r="AK76" s="561" t="s">
+      <c r="AK76" s="469" t="s">
         <v>105</v>
       </c>
-      <c r="AL76" s="537">
+      <c r="AL76" s="445">
         <f t="shared" si="94"/>
         <v>38.11</v>
       </c>
-      <c r="AM76" s="537">
+      <c r="AM76" s="445">
         <f t="shared" si="94"/>
         <v>255.04</v>
       </c>
-      <c r="AN76" s="537"/>
-      <c r="AO76" s="537">
+      <c r="AN76" s="445"/>
+      <c r="AO76" s="445">
         <f>AL76+AM76+AN76</f>
         <v>293.14999999999998</v>
       </c>
-      <c r="AP76" s="561" t="s">
+      <c r="AP76" s="469" t="s">
         <v>110</v>
       </c>
-      <c r="AQ76" s="537">
+      <c r="AQ76" s="445">
         <v>411.86</v>
       </c>
-      <c r="AR76" s="537">
+      <c r="AR76" s="445">
         <v>2362.04</v>
       </c>
-      <c r="AS76" s="537"/>
-      <c r="AT76" s="537">
+      <c r="AS76" s="445"/>
+      <c r="AT76" s="445">
         <f>AQ76+AR76+AS76</f>
         <v>2773.9</v>
       </c>
-      <c r="AU76" s="561" t="s">
+      <c r="AU76" s="469" t="s">
         <v>119</v>
       </c>
-      <c r="AV76" s="537">
+      <c r="AV76" s="445">
         <f t="shared" si="95"/>
         <v>449.97</v>
       </c>
-      <c r="AW76" s="537">
+      <c r="AW76" s="445">
         <f t="shared" si="95"/>
         <v>2617.08</v>
       </c>
-      <c r="AX76" s="537"/>
-      <c r="AY76" s="538">
+      <c r="AX76" s="445"/>
+      <c r="AY76" s="446">
         <f>AT76+AO76</f>
         <v>3067.05</v>
       </c>
-      <c r="AZ76" s="561" t="s">
+      <c r="AZ76" s="469" t="s">
         <v>110</v>
       </c>
-      <c r="BA76" s="537">
+      <c r="BA76" s="445">
         <v>439.52</v>
       </c>
-      <c r="BB76" s="537">
+      <c r="BB76" s="445">
         <v>2637.09</v>
       </c>
-      <c r="BC76" s="537"/>
-      <c r="BD76" s="537">
+      <c r="BC76" s="445"/>
+      <c r="BD76" s="445">
         <f>BA76+BB76+BC76</f>
         <v>3076.61</v>
       </c>
-      <c r="BE76" s="561" t="s">
+      <c r="BE76" s="469" t="s">
         <v>119</v>
       </c>
-      <c r="BF76" s="537">
+      <c r="BF76" s="445">
         <f t="shared" si="96"/>
         <v>889.49</v>
       </c>
-      <c r="BG76" s="537">
+      <c r="BG76" s="445">
         <f t="shared" si="96"/>
         <v>5254.17</v>
       </c>
-      <c r="BH76" s="537"/>
-      <c r="BI76" s="538">
+      <c r="BH76" s="445"/>
+      <c r="BI76" s="446">
         <f>BD76+AY76</f>
         <v>6143.66</v>
       </c>
-      <c r="BJ76" s="561" t="s">
+      <c r="BJ76" s="469" t="s">
         <v>110</v>
       </c>
-      <c r="BK76" s="537">
+      <c r="BK76" s="445">
         <v>512.08999999999992</v>
       </c>
-      <c r="BL76" s="537">
+      <c r="BL76" s="445">
         <v>3563.1299999999992</v>
       </c>
-      <c r="BM76" s="537"/>
-      <c r="BN76" s="537">
+      <c r="BM76" s="445"/>
+      <c r="BN76" s="445">
         <f>BK76+BL76+BM76</f>
         <v>4075.2199999999993</v>
       </c>
-      <c r="BO76" s="561" t="s">
+      <c r="BO76" s="469" t="s">
         <v>119</v>
       </c>
-      <c r="BP76" s="537">
+      <c r="BP76" s="445">
         <f t="shared" si="97"/>
         <v>1401.58</v>
       </c>
-      <c r="BQ76" s="537">
+      <c r="BQ76" s="445">
         <f t="shared" si="91"/>
         <v>8817.2999999999993</v>
       </c>
-      <c r="BR76" s="537"/>
-      <c r="BS76" s="538">
+      <c r="BR76" s="445"/>
+      <c r="BS76" s="446">
         <f>BN76+BI76</f>
         <v>10218.879999999999</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>740</v>
       </c>
       <c r="AS77" s="65"/>
-      <c r="AT77" s="537">
+      <c r="AT77" s="445">
         <f>AQ77+AR77+AS77</f>
         <v>840</v>
       </c>
@@ -15860,7 +15860,7 @@
       <c r="AQ78" s="67"/>
       <c r="AR78" s="67"/>
       <c r="AS78" s="67"/>
-      <c r="AT78" s="548"/>
+      <c r="AT78" s="456"/>
       <c r="AU78" s="218"/>
       <c r="AV78" s="238"/>
       <c r="AW78" s="238"/>
@@ -15975,7 +15975,7 @@
       <c r="AQ79" s="68"/>
       <c r="AR79" s="68"/>
       <c r="AS79" s="68"/>
-      <c r="AT79" s="549"/>
+      <c r="AT79" s="457"/>
       <c r="AU79" s="218"/>
       <c r="AV79" s="36">
         <f t="shared" ref="AV79:AV86" si="105">AL79+AQ79</f>
@@ -16132,7 +16132,7 @@
       <c r="AQ80" s="68"/>
       <c r="AR80" s="68"/>
       <c r="AS80" s="68"/>
-      <c r="AT80" s="549"/>
+      <c r="AT80" s="457"/>
       <c r="AU80" s="218"/>
       <c r="AV80" s="36">
         <f t="shared" si="105"/>
@@ -16289,7 +16289,7 @@
       <c r="AQ81" s="65"/>
       <c r="AR81" s="65"/>
       <c r="AS81" s="65"/>
-      <c r="AT81" s="537"/>
+      <c r="AT81" s="445"/>
       <c r="AU81" s="218"/>
       <c r="AV81" s="36">
         <f t="shared" si="105"/>
@@ -16488,7 +16488,7 @@
         <v>3440</v>
       </c>
       <c r="AS82" s="65"/>
-      <c r="AT82" s="537">
+      <c r="AT82" s="445">
         <f>AQ82+AR82+AS82</f>
         <v>3910</v>
       </c>
@@ -16657,7 +16657,7 @@
       <c r="AQ83" s="64"/>
       <c r="AR83" s="64"/>
       <c r="AS83" s="64"/>
-      <c r="AT83" s="550"/>
+      <c r="AT83" s="458"/>
       <c r="AU83" s="218"/>
       <c r="AV83" s="36">
         <f t="shared" si="105"/>
@@ -16781,7 +16781,7 @@
       <c r="AQ84" s="64"/>
       <c r="AR84" s="64"/>
       <c r="AS84" s="64"/>
-      <c r="AT84" s="550"/>
+      <c r="AT84" s="458"/>
       <c r="AU84" s="386"/>
       <c r="AV84" s="36"/>
       <c r="AW84" s="36"/>
@@ -16896,7 +16896,7 @@
       <c r="AQ85" s="65"/>
       <c r="AR85" s="65"/>
       <c r="AS85" s="65"/>
-      <c r="AT85" s="537"/>
+      <c r="AT85" s="445"/>
       <c r="AU85" s="218"/>
       <c r="AV85" s="36">
         <f t="shared" si="105"/>
@@ -17042,7 +17042,7 @@
       <c r="AQ86" s="65"/>
       <c r="AR86" s="65"/>
       <c r="AS86" s="65"/>
-      <c r="AT86" s="537"/>
+      <c r="AT86" s="445"/>
       <c r="AU86" s="218"/>
       <c r="AV86" s="36">
         <f t="shared" si="105"/>
@@ -17237,7 +17237,7 @@
         <f>SUM(AS55:AS86)</f>
         <v>0</v>
       </c>
-      <c r="AT87" s="551">
+      <c r="AT87" s="459">
         <f>SUM(AT55:AT86)</f>
         <v>13500.74</v>
       </c>
@@ -17480,7 +17480,7 @@
         <f>AS87+AS51</f>
         <v>689.33</v>
       </c>
-      <c r="AT88" s="551">
+      <c r="AT88" s="459">
         <f>AT87+AT51</f>
         <v>15864.8</v>
       </c>
@@ -17630,7 +17630,7 @@
       <c r="AQ89" s="276"/>
       <c r="AR89" s="276"/>
       <c r="AS89" s="276"/>
-      <c r="AT89" s="552"/>
+      <c r="AT89" s="460"/>
       <c r="AU89" s="272"/>
       <c r="AV89" s="272"/>
       <c r="AW89" s="239"/>
@@ -17717,7 +17717,7 @@
       <c r="AQ90" s="276"/>
       <c r="AR90" s="276"/>
       <c r="AS90" s="276"/>
-      <c r="AT90" s="552"/>
+      <c r="AT90" s="460"/>
       <c r="AU90" s="281"/>
       <c r="AV90" s="281"/>
       <c r="AW90" s="239"/>
@@ -17897,7 +17897,7 @@
         <f>SUM(AS88:AS90)</f>
         <v>689.33</v>
       </c>
-      <c r="AT91" s="551">
+      <c r="AT91" s="459">
         <f>SUM(AT88:AT90)</f>
         <v>15864.8</v>
       </c>
@@ -18109,7 +18109,7 @@
       <c r="AQ93" s="282"/>
       <c r="AR93" s="282"/>
       <c r="AS93" s="282"/>
-      <c r="AT93" s="553"/>
+      <c r="AT93" s="461"/>
     </row>
     <row r="94" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B94" s="413" t="s">
@@ -18204,7 +18204,7 @@
         <v>6563.71</v>
       </c>
       <c r="AS94" s="214"/>
-      <c r="AT94" s="554">
+      <c r="AT94" s="462">
         <f>SUM(AT73:AT85)+AT48</f>
         <v>7548.25</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>789.79</v>
       </c>
       <c r="AS95" s="214"/>
-      <c r="AT95" s="554">
+      <c r="AT95" s="462">
         <f>SUM(AT28:AT30)</f>
         <v>835.7299999999999</v>
       </c>
@@ -18446,7 +18446,7 @@
       <c r="AQ98" s="214"/>
       <c r="AR98" s="214"/>
       <c r="AS98" s="214"/>
-      <c r="AT98" s="555"/>
+      <c r="AT98" s="463"/>
       <c r="AU98" s="214"/>
       <c r="AV98" s="214"/>
       <c r="AZ98" s="4"/>
@@ -18497,7 +18497,7 @@
       <c r="AQ99" s="214"/>
       <c r="AR99" s="214"/>
       <c r="AS99" s="214"/>
-      <c r="AT99" s="555"/>
+      <c r="AT99" s="463"/>
       <c r="AU99" s="214"/>
       <c r="AV99" s="214"/>
       <c r="AZ99" s="4"/>
@@ -18548,7 +18548,7 @@
       <c r="AQ100" s="214"/>
       <c r="AR100" s="214"/>
       <c r="AS100" s="214"/>
-      <c r="AT100" s="555"/>
+      <c r="AT100" s="463"/>
       <c r="AU100" s="214"/>
       <c r="AV100" s="214"/>
       <c r="AZ100" s="4"/>
@@ -18599,7 +18599,7 @@
       <c r="AQ101" s="214"/>
       <c r="AR101" s="214"/>
       <c r="AS101" s="214"/>
-      <c r="AT101" s="555"/>
+      <c r="AT101" s="463"/>
       <c r="AU101" s="214"/>
       <c r="AV101" s="214"/>
       <c r="AZ101" s="4"/>
@@ -18650,7 +18650,7 @@
       <c r="AQ102" s="214"/>
       <c r="AR102" s="214"/>
       <c r="AS102" s="214"/>
-      <c r="AT102" s="555"/>
+      <c r="AT102" s="463"/>
       <c r="AU102" s="214"/>
       <c r="AV102" s="214"/>
       <c r="AZ102" s="4"/>
@@ -18701,7 +18701,7 @@
       <c r="AQ103" s="214"/>
       <c r="AR103" s="214"/>
       <c r="AS103" s="214"/>
-      <c r="AT103" s="555"/>
+      <c r="AT103" s="463"/>
       <c r="AU103" s="214"/>
       <c r="AV103" s="214"/>
       <c r="AZ103" s="4"/>
@@ -18752,7 +18752,7 @@
       <c r="AQ104" s="214"/>
       <c r="AR104" s="214"/>
       <c r="AS104" s="214"/>
-      <c r="AT104" s="555"/>
+      <c r="AT104" s="463"/>
       <c r="AU104" s="214"/>
       <c r="AV104" s="214"/>
       <c r="AZ104" s="4"/>
@@ -18803,7 +18803,7 @@
       <c r="AQ105" s="214"/>
       <c r="AR105" s="214"/>
       <c r="AS105" s="214"/>
-      <c r="AT105" s="555"/>
+      <c r="AT105" s="463"/>
       <c r="AU105" s="214"/>
       <c r="AV105" s="214"/>
       <c r="AZ105" s="4"/>
@@ -18854,7 +18854,7 @@
       <c r="AQ106" s="214"/>
       <c r="AR106" s="214"/>
       <c r="AS106" s="214"/>
-      <c r="AT106" s="555"/>
+      <c r="AT106" s="463"/>
       <c r="AU106" s="214"/>
       <c r="AV106" s="214"/>
       <c r="AZ106" s="4"/>
@@ -18905,7 +18905,7 @@
       <c r="AQ107" s="214"/>
       <c r="AR107" s="214"/>
       <c r="AS107" s="214"/>
-      <c r="AT107" s="555"/>
+      <c r="AT107" s="463"/>
       <c r="AU107" s="214"/>
       <c r="AV107" s="214"/>
       <c r="AZ107" s="4"/>
@@ -18956,7 +18956,7 @@
       <c r="AQ108" s="214"/>
       <c r="AR108" s="214"/>
       <c r="AS108" s="214"/>
-      <c r="AT108" s="555"/>
+      <c r="AT108" s="463"/>
       <c r="AU108" s="214"/>
       <c r="AV108" s="214"/>
       <c r="AZ108" s="4"/>
@@ -19007,7 +19007,7 @@
       <c r="AQ109" s="214"/>
       <c r="AR109" s="214"/>
       <c r="AS109" s="214"/>
-      <c r="AT109" s="555"/>
+      <c r="AT109" s="463"/>
       <c r="AU109" s="214"/>
       <c r="AV109" s="214"/>
       <c r="AZ109" s="4"/>
@@ -19058,7 +19058,7 @@
       <c r="AQ110" s="214"/>
       <c r="AR110" s="214"/>
       <c r="AS110" s="214"/>
-      <c r="AT110" s="555"/>
+      <c r="AT110" s="463"/>
       <c r="AU110" s="214"/>
       <c r="AV110" s="214"/>
       <c r="AZ110" s="4"/>
@@ -19109,7 +19109,7 @@
       <c r="AQ111" s="214"/>
       <c r="AR111" s="214"/>
       <c r="AS111" s="214"/>
-      <c r="AT111" s="555"/>
+      <c r="AT111" s="463"/>
       <c r="AU111" s="214"/>
       <c r="AV111" s="214"/>
       <c r="AZ111" s="4"/>
@@ -19160,7 +19160,7 @@
       <c r="AQ112" s="214"/>
       <c r="AR112" s="214"/>
       <c r="AS112" s="214"/>
-      <c r="AT112" s="555"/>
+      <c r="AT112" s="463"/>
       <c r="AU112" s="214"/>
       <c r="AV112" s="214"/>
       <c r="AZ112" s="4"/>
@@ -19211,7 +19211,7 @@
       <c r="AQ113" s="214"/>
       <c r="AR113" s="214"/>
       <c r="AS113" s="214"/>
-      <c r="AT113" s="555"/>
+      <c r="AT113" s="463"/>
       <c r="AU113" s="214"/>
       <c r="AV113" s="214"/>
       <c r="AZ113" s="4"/>
@@ -19262,7 +19262,7 @@
       <c r="AQ114" s="214"/>
       <c r="AR114" s="214"/>
       <c r="AS114" s="214"/>
-      <c r="AT114" s="555"/>
+      <c r="AT114" s="463"/>
       <c r="AU114" s="214"/>
       <c r="AV114" s="214"/>
       <c r="AZ114" s="4"/>
@@ -19313,7 +19313,7 @@
       <c r="AQ115" s="214"/>
       <c r="AR115" s="214"/>
       <c r="AS115" s="214"/>
-      <c r="AT115" s="555"/>
+      <c r="AT115" s="463"/>
       <c r="AU115" s="214"/>
       <c r="AV115" s="214"/>
       <c r="BE115" s="214"/>
@@ -19323,21 +19323,56 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AF52:AF53"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AZ52:AZ53"/>
+    <mergeCell ref="BE52:BE53"/>
+    <mergeCell ref="BA52:BA53"/>
+    <mergeCell ref="BB52:BB53"/>
+    <mergeCell ref="BC52:BC53"/>
+    <mergeCell ref="BD52:BD53"/>
+    <mergeCell ref="BO52:BO53"/>
+    <mergeCell ref="BJ52:BJ53"/>
+    <mergeCell ref="BK52:BK53"/>
+    <mergeCell ref="BL52:BL53"/>
+    <mergeCell ref="BM52:BM53"/>
+    <mergeCell ref="BN52:BN53"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BP3:BS3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AO3"/>
@@ -19354,56 +19389,21 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BS3"/>
-    <mergeCell ref="BO52:BO53"/>
-    <mergeCell ref="BJ52:BJ53"/>
-    <mergeCell ref="BK52:BK53"/>
-    <mergeCell ref="BL52:BL53"/>
-    <mergeCell ref="BM52:BM53"/>
-    <mergeCell ref="BN52:BN53"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AZ52:AZ53"/>
-    <mergeCell ref="BE52:BE53"/>
-    <mergeCell ref="BA52:BA53"/>
-    <mergeCell ref="BB52:BB53"/>
-    <mergeCell ref="BC52:BC53"/>
-    <mergeCell ref="BD52:BD53"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AF52:AF53"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BI3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -20106,118 +20106,118 @@
       <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="475" t="s">
+      <c r="A2" s="525" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="475" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="481" t="s">
+      <c r="B2" s="525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="519" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481" t="s">
+      <c r="D2" s="519"/>
+      <c r="E2" s="519"/>
+      <c r="F2" s="519"/>
+      <c r="G2" s="519" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="481"/>
-      <c r="I2" s="481"/>
-      <c r="J2" s="481"/>
-      <c r="K2" s="481"/>
-      <c r="L2" s="481" t="s">
+      <c r="H2" s="519"/>
+      <c r="I2" s="519"/>
+      <c r="J2" s="519"/>
+      <c r="K2" s="519"/>
+      <c r="L2" s="519" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="481"/>
-      <c r="N2" s="481"/>
-      <c r="O2" s="481"/>
-      <c r="P2" s="481"/>
-      <c r="Q2" s="481" t="s">
+      <c r="M2" s="519"/>
+      <c r="N2" s="519"/>
+      <c r="O2" s="519"/>
+      <c r="P2" s="519"/>
+      <c r="Q2" s="519" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="481"/>
-      <c r="S2" s="481"/>
-      <c r="T2" s="481"/>
-      <c r="U2" s="481"/>
-      <c r="V2" s="447" t="s">
+      <c r="R2" s="519"/>
+      <c r="S2" s="519"/>
+      <c r="T2" s="519"/>
+      <c r="U2" s="519"/>
+      <c r="V2" s="471" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="448"/>
-      <c r="X2" s="448"/>
-      <c r="Y2" s="448"/>
-      <c r="Z2" s="449"/>
-      <c r="AA2" s="481" t="s">
+      <c r="W2" s="472"/>
+      <c r="X2" s="472"/>
+      <c r="Y2" s="472"/>
+      <c r="Z2" s="473"/>
+      <c r="AA2" s="519" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="481"/>
-      <c r="AC2" s="481"/>
-      <c r="AD2" s="481"/>
-      <c r="AE2" s="481"/>
-      <c r="AG2" s="476" t="s">
+      <c r="AB2" s="519"/>
+      <c r="AC2" s="519"/>
+      <c r="AD2" s="519"/>
+      <c r="AE2" s="519"/>
+      <c r="AG2" s="526" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="477"/>
+      <c r="AH2" s="527"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="475"/>
-      <c r="B3" s="475"/>
-      <c r="C3" s="475" t="s">
+      <c r="A3" s="525"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="478" t="s">
+      <c r="D3" s="528" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="478"/>
-      <c r="F3" s="475" t="s">
+      <c r="E3" s="528"/>
+      <c r="F3" s="525" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="479" t="s">
+      <c r="G3" s="520" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="480"/>
-      <c r="J3" s="480"/>
-      <c r="K3" s="480"/>
-      <c r="L3" s="479" t="s">
+      <c r="I3" s="521"/>
+      <c r="J3" s="521"/>
+      <c r="K3" s="521"/>
+      <c r="L3" s="520" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="480" t="s">
+      <c r="M3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="480"/>
-      <c r="O3" s="480"/>
-      <c r="P3" s="480"/>
-      <c r="Q3" s="479" t="s">
+      <c r="N3" s="521"/>
+      <c r="O3" s="521"/>
+      <c r="P3" s="521"/>
+      <c r="Q3" s="520" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="480"/>
-      <c r="T3" s="480"/>
-      <c r="U3" s="480"/>
-      <c r="V3" s="450" t="s">
+      <c r="S3" s="521"/>
+      <c r="T3" s="521"/>
+      <c r="U3" s="521"/>
+      <c r="V3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="451" t="s">
+      <c r="W3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="451"/>
-      <c r="Y3" s="451"/>
-      <c r="Z3" s="451"/>
-      <c r="AA3" s="479" t="s">
+      <c r="X3" s="476"/>
+      <c r="Y3" s="476"/>
+      <c r="Z3" s="476"/>
+      <c r="AA3" s="520" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="480" t="s">
+      <c r="AB3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="480"/>
-      <c r="AD3" s="480"/>
-      <c r="AE3" s="480"/>
+      <c r="AC3" s="521"/>
+      <c r="AD3" s="521"/>
+      <c r="AE3" s="521"/>
       <c r="AG3" s="97" t="s">
         <v>114</v>
       </c>
@@ -20235,17 +20235,17 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="475"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
+      <c r="A4" s="525"/>
+      <c r="B4" s="525"/>
+      <c r="C4" s="525"/>
       <c r="D4" s="91" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="G4" s="479"/>
+      <c r="F4" s="525"/>
+      <c r="G4" s="520"/>
       <c r="H4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20258,7 +20258,7 @@
       <c r="K4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="479"/>
+      <c r="L4" s="520"/>
       <c r="M4" s="114" t="s">
         <v>111</v>
       </c>
@@ -20271,7 +20271,7 @@
       <c r="P4" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="479"/>
+      <c r="Q4" s="520"/>
       <c r="R4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20284,7 +20284,7 @@
       <c r="U4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="450"/>
+      <c r="V4" s="475"/>
       <c r="W4" s="96" t="s">
         <v>111</v>
       </c>
@@ -20297,7 +20297,7 @@
       <c r="Z4" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="479"/>
+      <c r="AA4" s="520"/>
       <c r="AB4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20316,10 +20316,10 @@
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="524" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="474"/>
+      <c r="B5" s="524"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -20384,11 +20384,11 @@
       <c r="AC6" s="99"/>
       <c r="AD6" s="99"/>
       <c r="AE6" s="99"/>
-      <c r="AG6" s="482">
+      <c r="AG6" s="516">
         <f>SUM(U7:U9)</f>
         <v>12.3</v>
       </c>
-      <c r="AH6" s="482">
+      <c r="AH6" s="516">
         <f>SUM(Z7:Z9)</f>
         <v>11.91</v>
       </c>
@@ -20481,8 +20481,8 @@
         <v>1.01</v>
       </c>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="483"/>
-      <c r="AH7" s="483"/>
+      <c r="AG7" s="517"/>
+      <c r="AH7" s="517"/>
       <c r="AI7" s="37"/>
       <c r="AK7" s="72">
         <f>R7-W7</f>
@@ -20571,8 +20571,8 @@
         <v>0</v>
       </c>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="483"/>
-      <c r="AH8" s="483"/>
+      <c r="AG8" s="517"/>
+      <c r="AH8" s="517"/>
       <c r="AI8" s="37"/>
     </row>
     <row r="9" spans="1:37" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20663,8 +20663,8 @@
         <v>36.61</v>
       </c>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="483"/>
-      <c r="AH9" s="483"/>
+      <c r="AG9" s="517"/>
+      <c r="AH9" s="517"/>
       <c r="AI9" s="37"/>
       <c r="AK9" s="72">
         <f>R9-W9</f>
@@ -21102,11 +21102,11 @@
         <v>0.77</v>
       </c>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="482">
+      <c r="AG14" s="516">
         <f>SUM(U14:U16)</f>
         <v>0.65</v>
       </c>
-      <c r="AH14" s="482">
+      <c r="AH14" s="516">
         <f>SUM(Z14:Z16)</f>
         <v>0.5</v>
       </c>
@@ -21204,8 +21204,8 @@
         <v>0.97</v>
       </c>
       <c r="AF15" s="37"/>
-      <c r="AG15" s="483"/>
-      <c r="AH15" s="483"/>
+      <c r="AG15" s="517"/>
+      <c r="AH15" s="517"/>
       <c r="AI15" s="37"/>
       <c r="AK15" s="72">
         <f t="shared" si="10"/>
@@ -21300,8 +21300,8 @@
         <v>0.44</v>
       </c>
       <c r="AF16" s="37"/>
-      <c r="AG16" s="483"/>
-      <c r="AH16" s="483"/>
+      <c r="AG16" s="517"/>
+      <c r="AH16" s="517"/>
       <c r="AI16" s="37"/>
       <c r="AK16" s="72">
         <f t="shared" si="10"/>
@@ -21498,11 +21498,11 @@
         <v>1.1099999999999999</v>
       </c>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="482">
+      <c r="AG18" s="516">
         <f>SUM(U18:U19)</f>
         <v>3.6</v>
       </c>
-      <c r="AH18" s="482">
+      <c r="AH18" s="516">
         <f>SUM(Z18:Z19)</f>
         <v>3.1799999999999997</v>
       </c>
@@ -21600,8 +21600,8 @@
         <v>8.74</v>
       </c>
       <c r="AF19" s="37"/>
-      <c r="AG19" s="482"/>
-      <c r="AH19" s="483"/>
+      <c r="AG19" s="516"/>
+      <c r="AH19" s="517"/>
       <c r="AI19" s="37"/>
       <c r="AK19" s="72">
         <f t="shared" si="10"/>
@@ -21696,11 +21696,11 @@
         <v>17.52</v>
       </c>
       <c r="AF20" s="37"/>
-      <c r="AG20" s="482">
+      <c r="AG20" s="516">
         <f>SUM(U20:U21)</f>
         <v>26</v>
       </c>
-      <c r="AH20" s="482">
+      <c r="AH20" s="516">
         <f>SUM(Z20:Z21)</f>
         <v>25.89</v>
       </c>
@@ -21798,8 +21798,8 @@
         <v>64.59</v>
       </c>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="483"/>
-      <c r="AH21" s="483"/>
+      <c r="AG21" s="517"/>
+      <c r="AH21" s="517"/>
       <c r="AI21" s="37"/>
       <c r="AK21" s="72">
         <f t="shared" si="10"/>
@@ -22215,7 +22215,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="484">
+      <c r="A26" s="518">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -22256,7 +22256,7 @@
       <c r="AI26" s="37"/>
     </row>
     <row r="27" spans="1:39" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="484"/>
+      <c r="A27" s="518"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -22311,7 +22311,7 @@
       <c r="AI27" s="37"/>
     </row>
     <row r="28" spans="1:39" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="484"/>
+      <c r="A28" s="518"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -22404,15 +22404,15 @@
         <v>301.5</v>
       </c>
       <c r="AF28" s="37"/>
-      <c r="AG28" s="485">
+      <c r="AG28" s="507">
         <f>SUM(U28:U30)</f>
         <v>1068.18</v>
       </c>
-      <c r="AH28" s="485">
+      <c r="AH28" s="507">
         <f>SUM(Z28:Z30)</f>
         <v>1032.33</v>
       </c>
-      <c r="AI28" s="491">
+      <c r="AI28" s="503">
         <f>SUM(X28:X30)</f>
         <v>939.92</v>
       </c>
@@ -22430,7 +22430,7 @@
       </c>
     </row>
     <row r="29" spans="1:39" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="484"/>
+      <c r="A29" s="518"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -22523,9 +22523,9 @@
         <v>1346.63</v>
       </c>
       <c r="AF29" s="37"/>
-      <c r="AG29" s="486"/>
-      <c r="AH29" s="486"/>
-      <c r="AI29" s="492"/>
+      <c r="AG29" s="508"/>
+      <c r="AH29" s="508"/>
+      <c r="AI29" s="504"/>
       <c r="AK29" s="72">
         <f>R29-W29</f>
         <v>21.560000000000002</v>
@@ -22540,7 +22540,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="484"/>
+      <c r="A30" s="518"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -22633,9 +22633,9 @@
         <v>578.20000000000005</v>
       </c>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="486"/>
-      <c r="AH30" s="486"/>
-      <c r="AI30" s="492"/>
+      <c r="AG30" s="508"/>
+      <c r="AH30" s="508"/>
+      <c r="AI30" s="504"/>
       <c r="AK30" s="72">
         <f>R30-W30</f>
         <v>8.11</v>
@@ -22956,7 +22956,7 @@
       </c>
     </row>
     <row r="34" spans="1:37" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="487">
+      <c r="A34" s="513">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -23043,11 +23043,11 @@
         <v>12.73</v>
       </c>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="485">
+      <c r="AG34" s="507">
         <f>SUM(U34:U36)</f>
         <v>7</v>
       </c>
-      <c r="AH34" s="485">
+      <c r="AH34" s="507">
         <f>SUM(Z34:Z36)</f>
         <v>6.52</v>
       </c>
@@ -23058,7 +23058,7 @@
       </c>
     </row>
     <row r="35" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="488"/>
+      <c r="A35" s="514"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -23143,8 +23143,8 @@
         <v>1.29</v>
       </c>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="486"/>
-      <c r="AH35" s="486"/>
+      <c r="AG35" s="508"/>
+      <c r="AH35" s="508"/>
       <c r="AI35" s="37"/>
       <c r="AK35" s="72">
         <f t="shared" si="19"/>
@@ -23152,7 +23152,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="489"/>
+      <c r="A36" s="515"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -23237,8 +23237,8 @@
         <v>1.3</v>
       </c>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="486"/>
-      <c r="AH36" s="486"/>
+      <c r="AG36" s="508"/>
+      <c r="AH36" s="508"/>
       <c r="AI36" s="37"/>
       <c r="AK36" s="72">
         <f t="shared" si="19"/>
@@ -23678,11 +23678,11 @@
         <v>61.4</v>
       </c>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="485">
+      <c r="AG41" s="507">
         <f>SUM(U41:U50)</f>
         <v>58.45</v>
       </c>
-      <c r="AH41" s="485">
+      <c r="AH41" s="507">
         <f>SUM(Z41:Z50)</f>
         <v>56.730000000000004</v>
       </c>
@@ -23780,8 +23780,8 @@
         <v>3.2</v>
       </c>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="486"/>
-      <c r="AH42" s="486"/>
+      <c r="AG42" s="508"/>
+      <c r="AH42" s="508"/>
       <c r="AI42" s="37"/>
       <c r="AK42" s="72">
         <f t="shared" si="27"/>
@@ -23876,8 +23876,8 @@
         <v>5.34</v>
       </c>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="486"/>
-      <c r="AH43" s="486"/>
+      <c r="AG43" s="508"/>
+      <c r="AH43" s="508"/>
       <c r="AI43" s="37"/>
       <c r="AK43" s="72">
         <f t="shared" si="27"/>
@@ -23972,8 +23972,8 @@
         <v>1.22</v>
       </c>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="486"/>
-      <c r="AH44" s="486"/>
+      <c r="AG44" s="508"/>
+      <c r="AH44" s="508"/>
       <c r="AI44" s="37"/>
       <c r="AK44" s="72">
         <f t="shared" si="27"/>
@@ -24068,8 +24068,8 @@
         <v>19.98</v>
       </c>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="486"/>
-      <c r="AH45" s="486"/>
+      <c r="AG45" s="508"/>
+      <c r="AH45" s="508"/>
       <c r="AI45" s="37"/>
       <c r="AK45" s="72">
         <f t="shared" si="27"/>
@@ -24164,8 +24164,8 @@
         <v>14.53</v>
       </c>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="486"/>
-      <c r="AH46" s="486"/>
+      <c r="AG46" s="508"/>
+      <c r="AH46" s="508"/>
       <c r="AI46" s="37"/>
       <c r="AK46" s="72">
         <f t="shared" si="27"/>
@@ -24260,8 +24260,8 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="486"/>
-      <c r="AH47" s="486"/>
+      <c r="AG47" s="508"/>
+      <c r="AH47" s="508"/>
       <c r="AI47" s="37"/>
       <c r="AK47" s="72">
         <f t="shared" si="27"/>
@@ -24364,8 +24364,8 @@
         <v>95.03</v>
       </c>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="486"/>
-      <c r="AH48" s="486"/>
+      <c r="AG48" s="508"/>
+      <c r="AH48" s="508"/>
       <c r="AI48" s="71">
         <f>X48</f>
         <v>10</v>
@@ -24463,8 +24463,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AF49" s="37"/>
-      <c r="AG49" s="486"/>
-      <c r="AH49" s="486"/>
+      <c r="AG49" s="508"/>
+      <c r="AH49" s="508"/>
       <c r="AI49" s="37"/>
       <c r="AK49" s="72">
         <f t="shared" si="27"/>
@@ -24559,8 +24559,8 @@
         <v>7.48</v>
       </c>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="486"/>
-      <c r="AH50" s="486"/>
+      <c r="AG50" s="508"/>
+      <c r="AH50" s="508"/>
       <c r="AI50" s="37"/>
       <c r="AK50" s="72">
         <f t="shared" si="27"/>
@@ -24698,35 +24698,35 @@
     <row r="52" spans="1:37" s="106" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="493"/>
-      <c r="D52" s="493"/>
-      <c r="E52" s="490"/>
-      <c r="F52" s="493"/>
-      <c r="G52" s="493"/>
-      <c r="H52" s="493"/>
-      <c r="I52" s="490"/>
-      <c r="J52" s="493"/>
-      <c r="K52" s="493"/>
-      <c r="L52" s="493"/>
-      <c r="M52" s="490"/>
-      <c r="N52" s="493"/>
-      <c r="O52" s="490"/>
-      <c r="P52" s="493"/>
-      <c r="Q52" s="493"/>
-      <c r="R52" s="490"/>
-      <c r="S52" s="493"/>
-      <c r="T52" s="490"/>
-      <c r="U52" s="493"/>
-      <c r="V52" s="446"/>
-      <c r="W52" s="446"/>
-      <c r="X52" s="446"/>
-      <c r="Y52" s="446"/>
-      <c r="Z52" s="446"/>
-      <c r="AA52" s="490"/>
-      <c r="AB52" s="490"/>
-      <c r="AC52" s="490"/>
-      <c r="AD52" s="490"/>
-      <c r="AE52" s="490"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="505"/>
+      <c r="E52" s="506"/>
+      <c r="F52" s="505"/>
+      <c r="G52" s="505"/>
+      <c r="H52" s="505"/>
+      <c r="I52" s="506"/>
+      <c r="J52" s="505"/>
+      <c r="K52" s="505"/>
+      <c r="L52" s="505"/>
+      <c r="M52" s="506"/>
+      <c r="N52" s="505"/>
+      <c r="O52" s="506"/>
+      <c r="P52" s="505"/>
+      <c r="Q52" s="505"/>
+      <c r="R52" s="506"/>
+      <c r="S52" s="505"/>
+      <c r="T52" s="506"/>
+      <c r="U52" s="505"/>
+      <c r="V52" s="499"/>
+      <c r="W52" s="499"/>
+      <c r="X52" s="499"/>
+      <c r="Y52" s="499"/>
+      <c r="Z52" s="499"/>
+      <c r="AA52" s="506"/>
+      <c r="AB52" s="506"/>
+      <c r="AC52" s="506"/>
+      <c r="AD52" s="506"/>
+      <c r="AE52" s="506"/>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
@@ -24737,35 +24737,35 @@
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="493"/>
-      <c r="D53" s="493"/>
-      <c r="E53" s="490"/>
-      <c r="F53" s="493"/>
-      <c r="G53" s="493"/>
-      <c r="H53" s="493"/>
-      <c r="I53" s="490"/>
-      <c r="J53" s="493"/>
-      <c r="K53" s="493"/>
-      <c r="L53" s="493"/>
-      <c r="M53" s="490"/>
-      <c r="N53" s="493"/>
-      <c r="O53" s="490"/>
-      <c r="P53" s="493"/>
-      <c r="Q53" s="493"/>
-      <c r="R53" s="490"/>
-      <c r="S53" s="493"/>
-      <c r="T53" s="490"/>
-      <c r="U53" s="493"/>
-      <c r="V53" s="446"/>
-      <c r="W53" s="446"/>
-      <c r="X53" s="446"/>
-      <c r="Y53" s="446"/>
-      <c r="Z53" s="446"/>
-      <c r="AA53" s="490"/>
-      <c r="AB53" s="490"/>
-      <c r="AC53" s="490"/>
-      <c r="AD53" s="490"/>
-      <c r="AE53" s="490"/>
+      <c r="C53" s="505"/>
+      <c r="D53" s="505"/>
+      <c r="E53" s="506"/>
+      <c r="F53" s="505"/>
+      <c r="G53" s="505"/>
+      <c r="H53" s="505"/>
+      <c r="I53" s="506"/>
+      <c r="J53" s="505"/>
+      <c r="K53" s="505"/>
+      <c r="L53" s="505"/>
+      <c r="M53" s="506"/>
+      <c r="N53" s="505"/>
+      <c r="O53" s="506"/>
+      <c r="P53" s="505"/>
+      <c r="Q53" s="505"/>
+      <c r="R53" s="506"/>
+      <c r="S53" s="505"/>
+      <c r="T53" s="506"/>
+      <c r="U53" s="505"/>
+      <c r="V53" s="499"/>
+      <c r="W53" s="499"/>
+      <c r="X53" s="499"/>
+      <c r="Y53" s="499"/>
+      <c r="Z53" s="499"/>
+      <c r="AA53" s="506"/>
+      <c r="AB53" s="506"/>
+      <c r="AC53" s="506"/>
+      <c r="AD53" s="506"/>
+      <c r="AE53" s="506"/>
       <c r="AF53" s="37"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
@@ -24811,7 +24811,7 @@
       <c r="AI54" s="37"/>
     </row>
     <row r="55" spans="1:37" ht="81" x14ac:dyDescent="0.25">
-      <c r="A55" s="494">
+      <c r="A55" s="512">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -24896,18 +24896,18 @@
         <v>606.9</v>
       </c>
       <c r="AF55" s="37"/>
-      <c r="AG55" s="485">
+      <c r="AG55" s="507">
         <f>SUM(U55:U56)</f>
         <v>95.6</v>
       </c>
-      <c r="AH55" s="485">
+      <c r="AH55" s="507">
         <f>SUM(Z55:Z56)</f>
         <v>0</v>
       </c>
       <c r="AI55" s="37"/>
     </row>
     <row r="56" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="494"/>
+      <c r="A56" s="512"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -24980,8 +24980,8 @@
         <v>50.22</v>
       </c>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="486"/>
-      <c r="AH56" s="486"/>
+      <c r="AG56" s="508"/>
+      <c r="AH56" s="508"/>
       <c r="AI56" s="37"/>
     </row>
     <row r="57" spans="1:37" ht="22.5" x14ac:dyDescent="0.25">
@@ -25071,7 +25071,7 @@
       <c r="AI57" s="37"/>
     </row>
     <row r="58" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="497">
+      <c r="A58" s="511">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -25146,18 +25146,18 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="485">
+      <c r="AG58" s="507">
         <f>SUM(U58:U59)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="485">
+      <c r="AH58" s="507">
         <f>SUM(Z58:Z59)</f>
         <v>0</v>
       </c>
       <c r="AI58" s="37"/>
     </row>
     <row r="59" spans="1:37" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="497"/>
+      <c r="A59" s="511"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -25230,12 +25230,12 @@
         <v>0.79</v>
       </c>
       <c r="AF59" s="37"/>
-      <c r="AG59" s="486"/>
-      <c r="AH59" s="486"/>
+      <c r="AG59" s="508"/>
+      <c r="AH59" s="508"/>
       <c r="AI59" s="37"/>
     </row>
     <row r="60" spans="1:37" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="497">
+      <c r="A60" s="511">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -25310,18 +25310,18 @@
         <v>20.18</v>
       </c>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="485">
+      <c r="AG60" s="507">
         <f>SUM(U60:U62)</f>
         <v>2</v>
       </c>
-      <c r="AH60" s="485">
+      <c r="AH60" s="507">
         <f>SUM(Z60:Z62)</f>
         <v>1.6</v>
       </c>
       <c r="AI60" s="37"/>
     </row>
     <row r="61" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="497"/>
+      <c r="A61" s="511"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -25394,12 +25394,12 @@
         <v>2.13</v>
       </c>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="486"/>
-      <c r="AH61" s="486"/>
+      <c r="AG61" s="508"/>
+      <c r="AH61" s="508"/>
       <c r="AI61" s="37"/>
     </row>
     <row r="62" spans="1:37" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="497"/>
+      <c r="A62" s="511"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -25484,12 +25484,12 @@
         <v>9.49</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="486"/>
-      <c r="AH62" s="486"/>
+      <c r="AG62" s="508"/>
+      <c r="AH62" s="508"/>
       <c r="AI62" s="37"/>
     </row>
     <row r="63" spans="1:37" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="497">
+      <c r="A63" s="511">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -25564,18 +25564,18 @@
         <v>19.47</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="485">
+      <c r="AG63" s="507">
         <f>SUM(U63:U66)</f>
         <v>0</v>
       </c>
-      <c r="AH63" s="485">
+      <c r="AH63" s="507">
         <f>SUM(Z63:Z66)</f>
         <v>0</v>
       </c>
       <c r="AI63" s="37"/>
     </row>
     <row r="64" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="497"/>
+      <c r="A64" s="511"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -25648,12 +25648,12 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="486"/>
-      <c r="AH64" s="486"/>
+      <c r="AG64" s="508"/>
+      <c r="AH64" s="508"/>
       <c r="AI64" s="37"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="497"/>
+      <c r="A65" s="511"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -25726,12 +25726,12 @@
         <v>0.2</v>
       </c>
       <c r="AF65" s="37"/>
-      <c r="AG65" s="486"/>
-      <c r="AH65" s="486"/>
+      <c r="AG65" s="508"/>
+      <c r="AH65" s="508"/>
       <c r="AI65" s="37"/>
     </row>
     <row r="66" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="497"/>
+      <c r="A66" s="511"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -25804,8 +25804,8 @@
         <v>4.08</v>
       </c>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="486"/>
-      <c r="AH66" s="486"/>
+      <c r="AG66" s="508"/>
+      <c r="AH66" s="508"/>
       <c r="AI66" s="37"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
@@ -25896,11 +25896,11 @@
         <v>45.32</v>
       </c>
       <c r="AF67" s="37"/>
-      <c r="AG67" s="495">
+      <c r="AG67" s="509">
         <f>SUM(U67:U68)</f>
         <v>14</v>
       </c>
-      <c r="AH67" s="495">
+      <c r="AH67" s="509">
         <f>SUM(Z67:Z68)</f>
         <v>13.93</v>
       </c>
@@ -25994,8 +25994,8 @@
         <v>9.73</v>
       </c>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="496"/>
-      <c r="AH68" s="496"/>
+      <c r="AG68" s="510"/>
+      <c r="AH68" s="510"/>
       <c r="AI68" s="37"/>
     </row>
     <row r="69" spans="1:38" ht="22.5" x14ac:dyDescent="0.25">
@@ -26211,15 +26211,15 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="485">
+      <c r="AG72" s="507">
         <f>SUM(U72:U85)</f>
         <v>12051.5</v>
       </c>
-      <c r="AH72" s="485">
+      <c r="AH72" s="507">
         <f>SUM(Z72:Z85)</f>
         <v>11260.500000000002</v>
       </c>
-      <c r="AI72" s="485">
+      <c r="AI72" s="507">
         <f>SUM(X72:X85)</f>
         <v>9693.5300000000007</v>
       </c>
@@ -26298,9 +26298,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="37"/>
-      <c r="AG73" s="486"/>
-      <c r="AH73" s="486"/>
-      <c r="AI73" s="486"/>
+      <c r="AG73" s="508"/>
+      <c r="AH73" s="508"/>
+      <c r="AI73" s="508"/>
       <c r="AL73" s="4">
         <v>11260.51</v>
       </c>
@@ -26345,9 +26345,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="486"/>
-      <c r="AH74" s="486"/>
-      <c r="AI74" s="486"/>
+      <c r="AG74" s="508"/>
+      <c r="AH74" s="508"/>
+      <c r="AI74" s="508"/>
     </row>
     <row r="75" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50">
@@ -26423,9 +26423,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="37"/>
-      <c r="AG75" s="486"/>
-      <c r="AH75" s="486"/>
-      <c r="AI75" s="486"/>
+      <c r="AG75" s="508"/>
+      <c r="AH75" s="508"/>
+      <c r="AI75" s="508"/>
     </row>
     <row r="76" spans="1:38" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A76" s="50">
@@ -26523,9 +26523,9 @@
         <v>6143.66</v>
       </c>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="486"/>
-      <c r="AH76" s="486"/>
-      <c r="AI76" s="486"/>
+      <c r="AG76" s="508"/>
+      <c r="AH76" s="508"/>
+      <c r="AI76" s="508"/>
       <c r="AL76" s="117"/>
     </row>
     <row r="77" spans="1:38" ht="18" x14ac:dyDescent="0.25">
@@ -26624,9 +26624,9 @@
         <v>6011.48</v>
       </c>
       <c r="AF77" s="37"/>
-      <c r="AG77" s="486"/>
-      <c r="AH77" s="486"/>
-      <c r="AI77" s="486"/>
+      <c r="AG77" s="508"/>
+      <c r="AH77" s="508"/>
+      <c r="AI77" s="508"/>
       <c r="AK77" s="116"/>
       <c r="AL77" s="117"/>
     </row>
@@ -26665,9 +26665,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="486"/>
-      <c r="AH78" s="486"/>
-      <c r="AI78" s="486"/>
+      <c r="AG78" s="508"/>
+      <c r="AH78" s="508"/>
+      <c r="AI78" s="508"/>
       <c r="AK78" s="116"/>
       <c r="AL78" s="117"/>
     </row>
@@ -26745,9 +26745,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="37"/>
-      <c r="AG79" s="486"/>
-      <c r="AH79" s="486"/>
-      <c r="AI79" s="486"/>
+      <c r="AG79" s="508"/>
+      <c r="AH79" s="508"/>
+      <c r="AI79" s="508"/>
       <c r="AK79" s="116"/>
       <c r="AL79" s="117"/>
     </row>
@@ -26825,9 +26825,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="486"/>
-      <c r="AH80" s="486"/>
-      <c r="AI80" s="486"/>
+      <c r="AG80" s="508"/>
+      <c r="AH80" s="508"/>
+      <c r="AI80" s="508"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="117"/>
     </row>
@@ -26905,9 +26905,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="37"/>
-      <c r="AG81" s="486"/>
-      <c r="AH81" s="486"/>
-      <c r="AI81" s="486"/>
+      <c r="AG81" s="508"/>
+      <c r="AH81" s="508"/>
+      <c r="AI81" s="508"/>
       <c r="AJ81" s="116"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="117"/>
@@ -27008,9 +27008,9 @@
         <v>6127.0599999999995</v>
       </c>
       <c r="AF82" s="37"/>
-      <c r="AG82" s="486"/>
-      <c r="AH82" s="486"/>
-      <c r="AI82" s="486"/>
+      <c r="AG82" s="508"/>
+      <c r="AH82" s="508"/>
+      <c r="AI82" s="508"/>
       <c r="AK82" s="118"/>
       <c r="AL82" s="117"/>
     </row>
@@ -27088,9 +27088,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="37"/>
-      <c r="AG83" s="486"/>
-      <c r="AH83" s="486"/>
-      <c r="AI83" s="486"/>
+      <c r="AG83" s="508"/>
+      <c r="AH83" s="508"/>
+      <c r="AI83" s="508"/>
     </row>
     <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="87">
@@ -27166,9 +27166,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="37"/>
-      <c r="AG84" s="486"/>
-      <c r="AH84" s="486"/>
-      <c r="AI84" s="486"/>
+      <c r="AG84" s="508"/>
+      <c r="AH84" s="508"/>
+      <c r="AI84" s="508"/>
     </row>
     <row r="85" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="87">
@@ -27215,9 +27215,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="37"/>
-      <c r="AG85" s="486"/>
-      <c r="AH85" s="486"/>
-      <c r="AI85" s="486"/>
+      <c r="AG85" s="508"/>
+      <c r="AH85" s="508"/>
+      <c r="AI85" s="508"/>
       <c r="AJ85" s="75"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
@@ -27558,11 +27558,11 @@
       <c r="AF89" s="37"/>
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
-      <c r="AI89" s="491">
+      <c r="AI89" s="503">
         <f>AI87+AJ87</f>
         <v>11329.880000000001</v>
       </c>
-      <c r="AJ89" s="492"/>
+      <c r="AJ89" s="504"/>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="89"/>
@@ -27697,11 +27697,11 @@
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="Y93" s="472">
+      <c r="Y93" s="522">
         <f>Z90+K90</f>
         <v>45560.700000000004</v>
       </c>
-      <c r="Z93" s="473"/>
+      <c r="Z93" s="523"/>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H96" s="4"/>
@@ -28119,6 +28119,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AG34:AG36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AG41:AG50"/>
+    <mergeCell ref="AH41:AH50"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AG72:AG85"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AG60:AG62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AG63:AG66"/>
+    <mergeCell ref="AH63:AH66"/>
     <mergeCell ref="AI89:AJ89"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="H52:H53"/>
@@ -28135,78 +28207,6 @@
     <mergeCell ref="Z52:Z53"/>
     <mergeCell ref="AC52:AC53"/>
     <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AG72:AG85"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AG60:AG62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AG63:AG66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AG34:AG36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AG41:AG50"/>
-    <mergeCell ref="AH41:AH50"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.1" top="0.2" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -28413,126 +28413,126 @@
       <c r="AQ1" s="51"/>
     </row>
     <row r="2" spans="1:43" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="475" t="s">
+      <c r="A2" s="525" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="475" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="481" t="s">
+      <c r="B2" s="525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="519" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="506" t="s">
+      <c r="D2" s="519"/>
+      <c r="E2" s="519"/>
+      <c r="F2" s="519"/>
+      <c r="G2" s="548" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="507"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="507"/>
-      <c r="K2" s="508"/>
-      <c r="L2" s="498" t="s">
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="550"/>
+      <c r="L2" s="545" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="499"/>
-      <c r="N2" s="499"/>
-      <c r="O2" s="499"/>
-      <c r="P2" s="500"/>
-      <c r="Q2" s="481" t="s">
+      <c r="M2" s="546"/>
+      <c r="N2" s="546"/>
+      <c r="O2" s="546"/>
+      <c r="P2" s="547"/>
+      <c r="Q2" s="519" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="481"/>
-      <c r="S2" s="481"/>
-      <c r="T2" s="481"/>
-      <c r="U2" s="481"/>
-      <c r="V2" s="506" t="s">
+      <c r="R2" s="519"/>
+      <c r="S2" s="519"/>
+      <c r="T2" s="519"/>
+      <c r="U2" s="519"/>
+      <c r="V2" s="548" t="s">
         <v>225</v>
       </c>
-      <c r="W2" s="507"/>
-      <c r="X2" s="507"/>
-      <c r="Y2" s="507"/>
-      <c r="Z2" s="508"/>
-      <c r="AA2" s="498" t="s">
+      <c r="W2" s="549"/>
+      <c r="X2" s="549"/>
+      <c r="Y2" s="549"/>
+      <c r="Z2" s="550"/>
+      <c r="AA2" s="545" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" s="499"/>
-      <c r="AC2" s="499"/>
-      <c r="AD2" s="499"/>
-      <c r="AE2" s="500"/>
+      <c r="AB2" s="546"/>
+      <c r="AC2" s="546"/>
+      <c r="AD2" s="546"/>
+      <c r="AE2" s="547"/>
       <c r="AF2" s="369"/>
-      <c r="AH2" s="476" t="s">
+      <c r="AH2" s="526" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="477"/>
+      <c r="AI2" s="527"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AM2" s="447" t="s">
+      <c r="AM2" s="471" t="s">
         <v>146</v>
       </c>
-      <c r="AN2" s="448"/>
-      <c r="AO2" s="448"/>
-      <c r="AP2" s="448"/>
-      <c r="AQ2" s="449"/>
+      <c r="AN2" s="472"/>
+      <c r="AO2" s="472"/>
+      <c r="AP2" s="472"/>
+      <c r="AQ2" s="473"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="475"/>
-      <c r="B3" s="475"/>
-      <c r="C3" s="475" t="s">
+      <c r="A3" s="525"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="478" t="s">
+      <c r="D3" s="528" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="478"/>
-      <c r="F3" s="475" t="s">
+      <c r="E3" s="528"/>
+      <c r="F3" s="525" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="501" t="s">
+      <c r="G3" s="540" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="503" t="s">
+      <c r="H3" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="504"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="505"/>
-      <c r="L3" s="515" t="s">
+      <c r="I3" s="543"/>
+      <c r="J3" s="543"/>
+      <c r="K3" s="544"/>
+      <c r="L3" s="529" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="517" t="s">
+      <c r="M3" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="518"/>
-      <c r="O3" s="518"/>
-      <c r="P3" s="519"/>
-      <c r="Q3" s="479" t="s">
+      <c r="N3" s="532"/>
+      <c r="O3" s="532"/>
+      <c r="P3" s="533"/>
+      <c r="Q3" s="520" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="480" t="s">
+      <c r="R3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="480"/>
-      <c r="T3" s="480"/>
-      <c r="U3" s="480"/>
-      <c r="V3" s="501" t="s">
+      <c r="S3" s="521"/>
+      <c r="T3" s="521"/>
+      <c r="U3" s="521"/>
+      <c r="V3" s="540" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="503" t="s">
+      <c r="W3" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="504"/>
-      <c r="Y3" s="504"/>
-      <c r="Z3" s="505"/>
-      <c r="AA3" s="450" t="s">
+      <c r="X3" s="543"/>
+      <c r="Y3" s="543"/>
+      <c r="Z3" s="544"/>
+      <c r="AA3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="451" t="s">
+      <c r="AB3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="451"/>
-      <c r="AD3" s="451"/>
-      <c r="AE3" s="451"/>
+      <c r="AC3" s="476"/>
+      <c r="AD3" s="476"/>
+      <c r="AE3" s="476"/>
       <c r="AF3" s="370"/>
       <c r="AH3" s="137" t="s">
         <v>114</v>
@@ -28549,28 +28549,28 @@
       <c r="AL3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AM3" s="450" t="s">
+      <c r="AM3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="AN3" s="451" t="s">
+      <c r="AN3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="AO3" s="451"/>
-      <c r="AP3" s="451"/>
-      <c r="AQ3" s="451"/>
+      <c r="AO3" s="476"/>
+      <c r="AP3" s="476"/>
+      <c r="AQ3" s="476"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="475"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
+      <c r="A4" s="525"/>
+      <c r="B4" s="525"/>
+      <c r="C4" s="525"/>
       <c r="D4" s="131" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="G4" s="502"/>
+      <c r="F4" s="525"/>
+      <c r="G4" s="541"/>
       <c r="H4" s="125" t="s">
         <v>111</v>
       </c>
@@ -28583,7 +28583,7 @@
       <c r="K4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="516"/>
+      <c r="L4" s="530"/>
       <c r="M4" s="136" t="s">
         <v>111</v>
       </c>
@@ -28596,7 +28596,7 @@
       <c r="P4" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="479"/>
+      <c r="Q4" s="520"/>
       <c r="R4" s="125" t="s">
         <v>111</v>
       </c>
@@ -28609,7 +28609,7 @@
       <c r="U4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="502"/>
+      <c r="V4" s="541"/>
       <c r="W4" s="367" t="s">
         <v>111</v>
       </c>
@@ -28622,7 +28622,7 @@
       <c r="Z4" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="450"/>
+      <c r="AA4" s="475"/>
       <c r="AB4" s="364" t="s">
         <v>111</v>
       </c>
@@ -28640,7 +28640,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="450"/>
+      <c r="AM4" s="475"/>
       <c r="AN4" s="143" t="s">
         <v>111</v>
       </c>
@@ -28655,10 +28655,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="524" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="474"/>
+      <c r="B5" s="524"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -28730,11 +28730,11 @@
       <c r="AD6" s="53"/>
       <c r="AE6" s="53"/>
       <c r="AF6" s="372"/>
-      <c r="AH6" s="482">
+      <c r="AH6" s="516">
         <f>SUM(K7:K9)</f>
         <v>14.5</v>
       </c>
-      <c r="AI6" s="482">
+      <c r="AI6" s="516">
         <f>SUM(P7:P9)</f>
         <v>14.5</v>
       </c>
@@ -28829,8 +28829,8 @@
       </c>
       <c r="AF7" s="373"/>
       <c r="AG7" s="37"/>
-      <c r="AH7" s="483"/>
-      <c r="AI7" s="483"/>
+      <c r="AH7" s="517"/>
+      <c r="AI7" s="517"/>
       <c r="AJ7" s="37"/>
       <c r="AL7" s="72">
         <f>H7-M7</f>
@@ -28921,8 +28921,8 @@
       </c>
       <c r="AF8" s="373"/>
       <c r="AG8" s="37"/>
-      <c r="AH8" s="483"/>
-      <c r="AI8" s="483"/>
+      <c r="AH8" s="517"/>
+      <c r="AI8" s="517"/>
       <c r="AJ8" s="37"/>
       <c r="AM8" s="54" t="s">
         <v>78</v>
@@ -29023,8 +29023,8 @@
       </c>
       <c r="AF9" s="373"/>
       <c r="AG9" s="37"/>
-      <c r="AH9" s="483"/>
-      <c r="AI9" s="483"/>
+      <c r="AH9" s="517"/>
+      <c r="AI9" s="517"/>
       <c r="AJ9" s="37"/>
       <c r="AL9" s="72">
         <f>H9-M9</f>
@@ -29507,11 +29507,11 @@
       </c>
       <c r="AF14" s="373"/>
       <c r="AG14" s="37"/>
-      <c r="AH14" s="482">
+      <c r="AH14" s="516">
         <f>SUM(K14:K16)</f>
         <v>0.7</v>
       </c>
-      <c r="AI14" s="482">
+      <c r="AI14" s="516">
         <f>SUM(P14:P16)</f>
         <v>0.65</v>
       </c>
@@ -29619,8 +29619,8 @@
       </c>
       <c r="AF15" s="373"/>
       <c r="AG15" s="37"/>
-      <c r="AH15" s="483"/>
-      <c r="AI15" s="483"/>
+      <c r="AH15" s="517"/>
+      <c r="AI15" s="517"/>
       <c r="AJ15" s="37"/>
       <c r="AL15" s="72">
         <f t="shared" si="5"/>
@@ -29725,8 +29725,8 @@
       </c>
       <c r="AF16" s="373"/>
       <c r="AG16" s="37"/>
-      <c r="AH16" s="483"/>
-      <c r="AI16" s="483"/>
+      <c r="AH16" s="517"/>
+      <c r="AI16" s="517"/>
       <c r="AJ16" s="37"/>
       <c r="AL16" s="72">
         <f t="shared" si="5"/>
@@ -29943,11 +29943,11 @@
       </c>
       <c r="AF18" s="373"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="482">
+      <c r="AH18" s="516">
         <f>SUM(K18:K19)</f>
         <v>4.7</v>
       </c>
-      <c r="AI18" s="482">
+      <c r="AI18" s="516">
         <f>SUM(P18:P19)</f>
         <v>3.4400000000000004</v>
       </c>
@@ -30055,8 +30055,8 @@
       </c>
       <c r="AF19" s="373"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="482"/>
-      <c r="AI19" s="483"/>
+      <c r="AH19" s="516"/>
+      <c r="AI19" s="517"/>
       <c r="AJ19" s="37"/>
       <c r="AL19" s="72">
         <f t="shared" si="5"/>
@@ -30161,11 +30161,11 @@
       </c>
       <c r="AF20" s="373"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="482">
+      <c r="AH20" s="516">
         <f>SUM(K20:K21)</f>
         <v>31</v>
       </c>
-      <c r="AI20" s="482">
+      <c r="AI20" s="516">
         <f>SUM(P20:P21)</f>
         <v>28.2</v>
       </c>
@@ -30273,8 +30273,8 @@
       </c>
       <c r="AF21" s="373"/>
       <c r="AG21" s="37"/>
-      <c r="AH21" s="483"/>
-      <c r="AI21" s="483"/>
+      <c r="AH21" s="517"/>
+      <c r="AI21" s="517"/>
       <c r="AJ21" s="37"/>
       <c r="AL21" s="72">
         <f t="shared" si="5"/>
@@ -30743,7 +30743,7 @@
       </c>
     </row>
     <row r="26" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="484">
+      <c r="A26" s="518">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -30796,7 +30796,7 @@
       <c r="AQ26" s="65"/>
     </row>
     <row r="27" spans="1:43" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="484"/>
+      <c r="A27" s="518"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -30856,7 +30856,7 @@
       <c r="AQ27" s="65"/>
     </row>
     <row r="28" spans="1:43" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="484"/>
+      <c r="A28" s="518"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -30948,15 +30948,15 @@
       </c>
       <c r="AF28" s="373"/>
       <c r="AG28" s="37"/>
-      <c r="AH28" s="485">
+      <c r="AH28" s="507">
         <f>SUM(K28:K30)</f>
         <v>810</v>
       </c>
-      <c r="AI28" s="485">
+      <c r="AI28" s="507">
         <f>SUM(P28:P30)</f>
         <v>443.29999999999995</v>
       </c>
-      <c r="AJ28" s="491">
+      <c r="AJ28" s="503">
         <f>SUM(N28:N30)</f>
         <v>398.15999999999997</v>
       </c>
@@ -30982,7 +30982,7 @@
       </c>
     </row>
     <row r="29" spans="1:43" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="484"/>
+      <c r="A29" s="518"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -31074,9 +31074,9 @@
       </c>
       <c r="AF29" s="373"/>
       <c r="AG29" s="37"/>
-      <c r="AH29" s="486"/>
-      <c r="AI29" s="486"/>
-      <c r="AJ29" s="492"/>
+      <c r="AH29" s="508"/>
+      <c r="AI29" s="508"/>
+      <c r="AJ29" s="504"/>
       <c r="AL29" s="72">
         <f>H29-M29</f>
         <v>1.8200000000000003</v>
@@ -31099,7 +31099,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="484"/>
+      <c r="A30" s="518"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -31191,9 +31191,9 @@
       </c>
       <c r="AF30" s="373"/>
       <c r="AG30" s="37"/>
-      <c r="AH30" s="486"/>
-      <c r="AI30" s="486"/>
-      <c r="AJ30" s="492"/>
+      <c r="AH30" s="508"/>
+      <c r="AI30" s="508"/>
+      <c r="AJ30" s="504"/>
       <c r="AL30" s="72">
         <f>H30-M30</f>
         <v>5.2299999999999995</v>
@@ -31564,7 +31564,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="487">
+      <c r="A34" s="513">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -31648,11 +31648,11 @@
       </c>
       <c r="AF34" s="373"/>
       <c r="AG34" s="37"/>
-      <c r="AH34" s="485">
+      <c r="AH34" s="507">
         <f>SUM(K34:K36)</f>
         <v>7</v>
       </c>
-      <c r="AI34" s="485">
+      <c r="AI34" s="507">
         <f>SUM(P34:P36)</f>
         <v>3.8200000000000003</v>
       </c>
@@ -31676,7 +31676,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="488"/>
+      <c r="A35" s="514"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -31758,8 +31758,8 @@
       </c>
       <c r="AF35" s="373"/>
       <c r="AG35" s="37"/>
-      <c r="AH35" s="486"/>
-      <c r="AI35" s="486"/>
+      <c r="AH35" s="508"/>
+      <c r="AI35" s="508"/>
       <c r="AJ35" s="37"/>
       <c r="AL35" s="72">
         <f t="shared" si="12"/>
@@ -31780,7 +31780,7 @@
       </c>
     </row>
     <row r="36" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="489"/>
+      <c r="A36" s="515"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -31862,8 +31862,8 @@
       </c>
       <c r="AF36" s="373"/>
       <c r="AG36" s="37"/>
-      <c r="AH36" s="486"/>
-      <c r="AI36" s="486"/>
+      <c r="AH36" s="508"/>
+      <c r="AI36" s="508"/>
       <c r="AJ36" s="37"/>
       <c r="AL36" s="72">
         <f t="shared" si="12"/>
@@ -32349,11 +32349,11 @@
       </c>
       <c r="AF41" s="373"/>
       <c r="AG41" s="37"/>
-      <c r="AH41" s="485">
+      <c r="AH41" s="507">
         <f>SUM(K41:K50)</f>
         <v>84.109999999999985</v>
       </c>
-      <c r="AI41" s="485">
+      <c r="AI41" s="507">
         <f>SUM(P41:P50)</f>
         <v>63.06</v>
       </c>
@@ -32461,8 +32461,8 @@
       </c>
       <c r="AF42" s="373"/>
       <c r="AG42" s="37"/>
-      <c r="AH42" s="486"/>
-      <c r="AI42" s="486"/>
+      <c r="AH42" s="508"/>
+      <c r="AI42" s="508"/>
       <c r="AJ42" s="37"/>
       <c r="AL42" s="72">
         <f t="shared" si="16"/>
@@ -32567,8 +32567,8 @@
       </c>
       <c r="AF43" s="373"/>
       <c r="AG43" s="37"/>
-      <c r="AH43" s="486"/>
-      <c r="AI43" s="486"/>
+      <c r="AH43" s="508"/>
+      <c r="AI43" s="508"/>
       <c r="AJ43" s="37"/>
       <c r="AL43" s="72">
         <f t="shared" si="16"/>
@@ -32673,8 +32673,8 @@
       </c>
       <c r="AF44" s="373"/>
       <c r="AG44" s="37"/>
-      <c r="AH44" s="486"/>
-      <c r="AI44" s="486"/>
+      <c r="AH44" s="508"/>
+      <c r="AI44" s="508"/>
       <c r="AJ44" s="37"/>
       <c r="AL44" s="72">
         <f t="shared" si="16"/>
@@ -32775,8 +32775,8 @@
       </c>
       <c r="AF45" s="373"/>
       <c r="AG45" s="37"/>
-      <c r="AH45" s="486"/>
-      <c r="AI45" s="486"/>
+      <c r="AH45" s="508"/>
+      <c r="AI45" s="508"/>
       <c r="AJ45" s="37"/>
       <c r="AL45" s="72">
         <f t="shared" si="16"/>
@@ -32881,8 +32881,8 @@
       </c>
       <c r="AF46" s="373"/>
       <c r="AG46" s="37"/>
-      <c r="AH46" s="486"/>
-      <c r="AI46" s="486"/>
+      <c r="AH46" s="508"/>
+      <c r="AI46" s="508"/>
       <c r="AJ46" s="37"/>
       <c r="AL46" s="72">
         <f t="shared" si="16"/>
@@ -32987,8 +32987,8 @@
       </c>
       <c r="AF47" s="373"/>
       <c r="AG47" s="37"/>
-      <c r="AH47" s="486"/>
-      <c r="AI47" s="486"/>
+      <c r="AH47" s="508"/>
+      <c r="AI47" s="508"/>
       <c r="AJ47" s="37"/>
       <c r="AL47" s="72">
         <f t="shared" si="16"/>
@@ -33103,8 +33103,8 @@
       </c>
       <c r="AF48" s="373"/>
       <c r="AG48" s="37"/>
-      <c r="AH48" s="486"/>
-      <c r="AI48" s="486"/>
+      <c r="AH48" s="508"/>
+      <c r="AI48" s="508"/>
       <c r="AJ48" s="71">
         <f>N48</f>
         <v>29.46</v>
@@ -33218,8 +33218,8 @@
       </c>
       <c r="AF49" s="373"/>
       <c r="AG49" s="37"/>
-      <c r="AH49" s="486"/>
-      <c r="AI49" s="486"/>
+      <c r="AH49" s="508"/>
+      <c r="AI49" s="508"/>
       <c r="AJ49" s="37"/>
       <c r="AL49" s="72">
         <f t="shared" si="16"/>
@@ -33324,8 +33324,8 @@
       </c>
       <c r="AF50" s="373"/>
       <c r="AG50" s="37"/>
-      <c r="AH50" s="486"/>
-      <c r="AI50" s="486"/>
+      <c r="AH50" s="508"/>
+      <c r="AI50" s="508"/>
       <c r="AJ50" s="37"/>
       <c r="AL50" s="72">
         <f t="shared" si="16"/>
@@ -33494,90 +33494,90 @@
     <row r="52" spans="1:43" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="493"/>
-      <c r="D52" s="493"/>
-      <c r="E52" s="490"/>
-      <c r="F52" s="493"/>
-      <c r="G52" s="511"/>
-      <c r="H52" s="509"/>
-      <c r="I52" s="511"/>
-      <c r="J52" s="509"/>
-      <c r="K52" s="511"/>
-      <c r="L52" s="513"/>
-      <c r="M52" s="513"/>
-      <c r="N52" s="513"/>
-      <c r="O52" s="513"/>
-      <c r="P52" s="513"/>
-      <c r="Q52" s="490"/>
-      <c r="R52" s="490"/>
-      <c r="S52" s="490"/>
-      <c r="T52" s="490"/>
-      <c r="U52" s="490"/>
-      <c r="V52" s="511"/>
-      <c r="W52" s="509"/>
-      <c r="X52" s="511"/>
-      <c r="Y52" s="509"/>
-      <c r="Z52" s="511"/>
-      <c r="AA52" s="446"/>
-      <c r="AB52" s="446"/>
-      <c r="AC52" s="446"/>
-      <c r="AD52" s="446"/>
-      <c r="AE52" s="446"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="505"/>
+      <c r="E52" s="506"/>
+      <c r="F52" s="505"/>
+      <c r="G52" s="536"/>
+      <c r="H52" s="538"/>
+      <c r="I52" s="536"/>
+      <c r="J52" s="538"/>
+      <c r="K52" s="536"/>
+      <c r="L52" s="534"/>
+      <c r="M52" s="534"/>
+      <c r="N52" s="534"/>
+      <c r="O52" s="534"/>
+      <c r="P52" s="534"/>
+      <c r="Q52" s="506"/>
+      <c r="R52" s="506"/>
+      <c r="S52" s="506"/>
+      <c r="T52" s="506"/>
+      <c r="U52" s="506"/>
+      <c r="V52" s="536"/>
+      <c r="W52" s="538"/>
+      <c r="X52" s="536"/>
+      <c r="Y52" s="538"/>
+      <c r="Z52" s="536"/>
+      <c r="AA52" s="499"/>
+      <c r="AB52" s="499"/>
+      <c r="AC52" s="499"/>
+      <c r="AD52" s="499"/>
+      <c r="AE52" s="499"/>
       <c r="AF52" s="375"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
       <c r="AJ52" s="105"/>
-      <c r="AM52" s="446"/>
-      <c r="AN52" s="446"/>
-      <c r="AO52" s="446"/>
-      <c r="AP52" s="446"/>
-      <c r="AQ52" s="446"/>
+      <c r="AM52" s="499"/>
+      <c r="AN52" s="499"/>
+      <c r="AO52" s="499"/>
+      <c r="AP52" s="499"/>
+      <c r="AQ52" s="499"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="493"/>
-      <c r="D53" s="493"/>
-      <c r="E53" s="490"/>
-      <c r="F53" s="493"/>
-      <c r="G53" s="512"/>
-      <c r="H53" s="510"/>
-      <c r="I53" s="512"/>
-      <c r="J53" s="510"/>
-      <c r="K53" s="512"/>
-      <c r="L53" s="514"/>
-      <c r="M53" s="514"/>
-      <c r="N53" s="514"/>
-      <c r="O53" s="514"/>
-      <c r="P53" s="514"/>
-      <c r="Q53" s="490"/>
-      <c r="R53" s="490"/>
-      <c r="S53" s="490"/>
-      <c r="T53" s="490"/>
-      <c r="U53" s="490"/>
-      <c r="V53" s="512"/>
-      <c r="W53" s="510"/>
-      <c r="X53" s="512"/>
-      <c r="Y53" s="510"/>
-      <c r="Z53" s="512"/>
-      <c r="AA53" s="446"/>
-      <c r="AB53" s="446"/>
-      <c r="AC53" s="446"/>
-      <c r="AD53" s="446"/>
-      <c r="AE53" s="446"/>
+      <c r="C53" s="505"/>
+      <c r="D53" s="505"/>
+      <c r="E53" s="506"/>
+      <c r="F53" s="505"/>
+      <c r="G53" s="537"/>
+      <c r="H53" s="539"/>
+      <c r="I53" s="537"/>
+      <c r="J53" s="539"/>
+      <c r="K53" s="537"/>
+      <c r="L53" s="535"/>
+      <c r="M53" s="535"/>
+      <c r="N53" s="535"/>
+      <c r="O53" s="535"/>
+      <c r="P53" s="535"/>
+      <c r="Q53" s="506"/>
+      <c r="R53" s="506"/>
+      <c r="S53" s="506"/>
+      <c r="T53" s="506"/>
+      <c r="U53" s="506"/>
+      <c r="V53" s="537"/>
+      <c r="W53" s="539"/>
+      <c r="X53" s="537"/>
+      <c r="Y53" s="539"/>
+      <c r="Z53" s="537"/>
+      <c r="AA53" s="499"/>
+      <c r="AB53" s="499"/>
+      <c r="AC53" s="499"/>
+      <c r="AD53" s="499"/>
+      <c r="AE53" s="499"/>
       <c r="AF53" s="375"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
       <c r="AJ53" s="37"/>
-      <c r="AM53" s="446"/>
-      <c r="AN53" s="446"/>
-      <c r="AO53" s="446"/>
-      <c r="AP53" s="446"/>
-      <c r="AQ53" s="446"/>
+      <c r="AM53" s="499"/>
+      <c r="AN53" s="499"/>
+      <c r="AO53" s="499"/>
+      <c r="AP53" s="499"/>
+      <c r="AQ53" s="499"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
@@ -33625,7 +33625,7 @@
       <c r="AQ54" s="57"/>
     </row>
     <row r="55" spans="1:43" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="494">
+      <c r="A55" s="512">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -33697,11 +33697,11 @@
       </c>
       <c r="AF55" s="373"/>
       <c r="AG55" s="37"/>
-      <c r="AH55" s="485">
+      <c r="AH55" s="507">
         <f>SUM(K55:K56)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="485">
+      <c r="AI55" s="507">
         <f>SUM(P55:P56)</f>
         <v>0</v>
       </c>
@@ -33721,7 +33721,7 @@
       </c>
     </row>
     <row r="56" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="494"/>
+      <c r="A56" s="512"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -33787,8 +33787,8 @@
       </c>
       <c r="AF56" s="373"/>
       <c r="AG56" s="37"/>
-      <c r="AH56" s="486"/>
-      <c r="AI56" s="486"/>
+      <c r="AH56" s="508"/>
+      <c r="AI56" s="508"/>
       <c r="AJ56" s="37"/>
       <c r="AM56" s="144"/>
       <c r="AN56" s="54" t="e">
@@ -33893,7 +33893,7 @@
       </c>
     </row>
     <row r="58" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="497">
+      <c r="A58" s="511">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -33961,11 +33961,11 @@
       </c>
       <c r="AF58" s="373"/>
       <c r="AG58" s="37"/>
-      <c r="AH58" s="485">
+      <c r="AH58" s="507">
         <f>SUM(K58:K59)</f>
         <v>0</v>
       </c>
-      <c r="AI58" s="485">
+      <c r="AI58" s="507">
         <f>SUM(P58:P59)</f>
         <v>0</v>
       </c>
@@ -33983,7 +33983,7 @@
       </c>
     </row>
     <row r="59" spans="1:43" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="497"/>
+      <c r="A59" s="511"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -34049,8 +34049,8 @@
       </c>
       <c r="AF59" s="373"/>
       <c r="AG59" s="37"/>
-      <c r="AH59" s="486"/>
-      <c r="AI59" s="486"/>
+      <c r="AH59" s="508"/>
+      <c r="AI59" s="508"/>
       <c r="AJ59" s="37"/>
       <c r="AM59" s="144"/>
       <c r="AN59" s="54" t="e">
@@ -34065,7 +34065,7 @@
       </c>
     </row>
     <row r="60" spans="1:43" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="497">
+      <c r="A60" s="511">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -34133,11 +34133,11 @@
       </c>
       <c r="AF60" s="373"/>
       <c r="AG60" s="37"/>
-      <c r="AH60" s="485">
+      <c r="AH60" s="507">
         <f>SUM(K60:K62)</f>
         <v>5</v>
       </c>
-      <c r="AI60" s="485">
+      <c r="AI60" s="507">
         <f>SUM(P60:P62)</f>
         <v>5</v>
       </c>
@@ -34155,7 +34155,7 @@
       </c>
     </row>
     <row r="61" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="497"/>
+      <c r="A61" s="511"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -34221,8 +34221,8 @@
       </c>
       <c r="AF61" s="373"/>
       <c r="AG61" s="37"/>
-      <c r="AH61" s="486"/>
-      <c r="AI61" s="486"/>
+      <c r="AH61" s="508"/>
+      <c r="AI61" s="508"/>
       <c r="AJ61" s="37"/>
       <c r="AM61" s="144"/>
       <c r="AN61" s="54" t="e">
@@ -34237,7 +34237,7 @@
       </c>
     </row>
     <row r="62" spans="1:43" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="497"/>
+      <c r="A62" s="511"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -34315,8 +34315,8 @@
       </c>
       <c r="AF62" s="373"/>
       <c r="AG62" s="37"/>
-      <c r="AH62" s="486"/>
-      <c r="AI62" s="486"/>
+      <c r="AH62" s="508"/>
+      <c r="AI62" s="508"/>
       <c r="AJ62" s="37"/>
       <c r="AM62" s="144" t="s">
         <v>78</v>
@@ -34333,7 +34333,7 @@
       </c>
     </row>
     <row r="63" spans="1:43" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="497">
+      <c r="A63" s="511">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -34401,11 +34401,11 @@
       </c>
       <c r="AF63" s="373"/>
       <c r="AG63" s="37"/>
-      <c r="AH63" s="485">
+      <c r="AH63" s="507">
         <f>SUM(K63:K66)</f>
         <v>0</v>
       </c>
-      <c r="AI63" s="485">
+      <c r="AI63" s="507">
         <f>SUM(P63:P66)</f>
         <v>0</v>
       </c>
@@ -34423,7 +34423,7 @@
       </c>
     </row>
     <row r="64" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="497"/>
+      <c r="A64" s="511"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -34489,8 +34489,8 @@
       </c>
       <c r="AF64" s="373"/>
       <c r="AG64" s="37"/>
-      <c r="AH64" s="486"/>
-      <c r="AI64" s="486"/>
+      <c r="AH64" s="508"/>
+      <c r="AI64" s="508"/>
       <c r="AJ64" s="37"/>
       <c r="AM64" s="144"/>
       <c r="AN64" s="54" t="e">
@@ -34505,7 +34505,7 @@
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A65" s="497"/>
+      <c r="A65" s="511"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -34571,8 +34571,8 @@
       </c>
       <c r="AF65" s="373"/>
       <c r="AG65" s="37"/>
-      <c r="AH65" s="486"/>
-      <c r="AI65" s="486"/>
+      <c r="AH65" s="508"/>
+      <c r="AI65" s="508"/>
       <c r="AJ65" s="37"/>
       <c r="AM65" s="144"/>
       <c r="AN65" s="54" t="e">
@@ -34587,7 +34587,7 @@
       </c>
     </row>
     <row r="66" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="497"/>
+      <c r="A66" s="511"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -34653,8 +34653,8 @@
       </c>
       <c r="AF66" s="373"/>
       <c r="AG66" s="37"/>
-      <c r="AH66" s="486"/>
-      <c r="AI66" s="486"/>
+      <c r="AH66" s="508"/>
+      <c r="AI66" s="508"/>
       <c r="AJ66" s="37"/>
       <c r="AM66" s="144"/>
       <c r="AN66" s="54" t="e">
@@ -34745,11 +34745,11 @@
       </c>
       <c r="AF67" s="373"/>
       <c r="AG67" s="37"/>
-      <c r="AH67" s="495">
+      <c r="AH67" s="509">
         <f>SUM(K67:K68)</f>
         <v>4</v>
       </c>
-      <c r="AI67" s="495">
+      <c r="AI67" s="509">
         <f>SUM(P67:P68)</f>
         <v>2.99</v>
       </c>
@@ -34849,8 +34849,8 @@
       </c>
       <c r="AF68" s="373"/>
       <c r="AG68" s="37"/>
-      <c r="AH68" s="496"/>
-      <c r="AI68" s="496"/>
+      <c r="AH68" s="510"/>
+      <c r="AI68" s="510"/>
       <c r="AJ68" s="37"/>
       <c r="AM68" s="144" t="s">
         <v>78</v>
@@ -35099,15 +35099,15 @@
       <c r="AE72" s="69"/>
       <c r="AF72" s="105"/>
       <c r="AG72" s="37"/>
-      <c r="AH72" s="485">
+      <c r="AH72" s="507">
         <f>SUM(K72:K85)</f>
         <v>16186.000000000002</v>
       </c>
-      <c r="AI72" s="485">
+      <c r="AI72" s="507">
         <f>SUM(P72:P85)</f>
         <v>11111.429999999998</v>
       </c>
-      <c r="AJ72" s="485">
+      <c r="AJ72" s="507">
         <f>SUM(N72:N85)</f>
         <v>9722.4999999999982</v>
       </c>
@@ -35195,9 +35195,9 @@
       </c>
       <c r="AF73" s="105"/>
       <c r="AG73" s="37"/>
-      <c r="AH73" s="486"/>
-      <c r="AI73" s="486"/>
-      <c r="AJ73" s="486"/>
+      <c r="AH73" s="508"/>
+      <c r="AI73" s="508"/>
+      <c r="AJ73" s="508"/>
       <c r="AM73" s="79" t="s">
         <v>136</v>
       </c>
@@ -35253,9 +35253,9 @@
       <c r="AE74" s="65"/>
       <c r="AF74" s="105"/>
       <c r="AG74" s="37"/>
-      <c r="AH74" s="486"/>
-      <c r="AI74" s="486"/>
-      <c r="AJ74" s="486"/>
+      <c r="AH74" s="508"/>
+      <c r="AI74" s="508"/>
+      <c r="AJ74" s="508"/>
       <c r="AM74" s="81"/>
       <c r="AN74" s="65"/>
       <c r="AO74" s="65"/>
@@ -35335,9 +35335,9 @@
       </c>
       <c r="AF75" s="105"/>
       <c r="AG75" s="37"/>
-      <c r="AH75" s="486"/>
-      <c r="AI75" s="486"/>
-      <c r="AJ75" s="486"/>
+      <c r="AH75" s="508"/>
+      <c r="AI75" s="508"/>
+      <c r="AJ75" s="508"/>
       <c r="AM75" s="79" t="s">
         <v>137</v>
       </c>
@@ -35450,9 +35450,9 @@
       </c>
       <c r="AF76" s="373"/>
       <c r="AG76" s="37"/>
-      <c r="AH76" s="486"/>
-      <c r="AI76" s="486"/>
-      <c r="AJ76" s="486"/>
+      <c r="AH76" s="508"/>
+      <c r="AI76" s="508"/>
+      <c r="AJ76" s="508"/>
       <c r="AM76" s="79" t="s">
         <v>110</v>
       </c>
@@ -35565,9 +35565,9 @@
       </c>
       <c r="AF77" s="373"/>
       <c r="AG77" s="37"/>
-      <c r="AH77" s="486"/>
-      <c r="AI77" s="486"/>
-      <c r="AJ77" s="486"/>
+      <c r="AH77" s="508"/>
+      <c r="AI77" s="508"/>
+      <c r="AJ77" s="508"/>
       <c r="AL77" s="116"/>
       <c r="AM77" s="79" t="s">
         <v>109</v>
@@ -35622,9 +35622,9 @@
       <c r="AE78" s="67"/>
       <c r="AF78" s="105"/>
       <c r="AG78" s="37"/>
-      <c r="AH78" s="486"/>
-      <c r="AI78" s="486"/>
-      <c r="AJ78" s="486"/>
+      <c r="AH78" s="508"/>
+      <c r="AI78" s="508"/>
+      <c r="AJ78" s="508"/>
       <c r="AL78" s="116"/>
       <c r="AM78" s="81"/>
       <c r="AN78" s="67"/>
@@ -35713,9 +35713,9 @@
       </c>
       <c r="AF79" s="105"/>
       <c r="AG79" s="37"/>
-      <c r="AH79" s="486"/>
-      <c r="AI79" s="486"/>
-      <c r="AJ79" s="486"/>
+      <c r="AH79" s="508"/>
+      <c r="AI79" s="508"/>
+      <c r="AJ79" s="508"/>
       <c r="AL79" s="116"/>
       <c r="AM79" s="79" t="s">
         <v>138</v>
@@ -35815,9 +35815,9 @@
       </c>
       <c r="AF80" s="105"/>
       <c r="AG80" s="37"/>
-      <c r="AH80" s="486"/>
-      <c r="AI80" s="486"/>
-      <c r="AJ80" s="486"/>
+      <c r="AH80" s="508"/>
+      <c r="AI80" s="508"/>
+      <c r="AJ80" s="508"/>
       <c r="AL80" s="116"/>
       <c r="AM80" s="79" t="s">
         <v>135</v>
@@ -35917,9 +35917,9 @@
       </c>
       <c r="AF81" s="105"/>
       <c r="AG81" s="37"/>
-      <c r="AH81" s="486"/>
-      <c r="AI81" s="486"/>
-      <c r="AJ81" s="486"/>
+      <c r="AH81" s="508"/>
+      <c r="AI81" s="508"/>
+      <c r="AJ81" s="508"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="116"/>
       <c r="AM81" s="79" t="s">
@@ -36034,9 +36034,9 @@
       </c>
       <c r="AF82" s="373"/>
       <c r="AG82" s="37"/>
-      <c r="AH82" s="486"/>
-      <c r="AI82" s="486"/>
-      <c r="AJ82" s="486"/>
+      <c r="AH82" s="508"/>
+      <c r="AI82" s="508"/>
+      <c r="AJ82" s="508"/>
       <c r="AL82" s="118"/>
       <c r="AM82" s="79" t="s">
         <v>108</v>
@@ -36136,9 +36136,9 @@
       </c>
       <c r="AF83" s="105"/>
       <c r="AG83" s="37"/>
-      <c r="AH83" s="486"/>
-      <c r="AI83" s="486"/>
-      <c r="AJ83" s="486"/>
+      <c r="AH83" s="508"/>
+      <c r="AI83" s="508"/>
+      <c r="AJ83" s="508"/>
       <c r="AM83" s="79" t="s">
         <v>140</v>
       </c>
@@ -36237,9 +36237,9 @@
       </c>
       <c r="AF84" s="105"/>
       <c r="AG84" s="37"/>
-      <c r="AH84" s="486"/>
-      <c r="AI84" s="486"/>
-      <c r="AJ84" s="486"/>
+      <c r="AH84" s="508"/>
+      <c r="AI84" s="508"/>
+      <c r="AJ84" s="508"/>
       <c r="AM84" s="79" t="s">
         <v>105</v>
       </c>
@@ -36300,9 +36300,9 @@
       <c r="AE85" s="65"/>
       <c r="AF85" s="105"/>
       <c r="AG85" s="37"/>
-      <c r="AH85" s="486"/>
-      <c r="AI85" s="486"/>
-      <c r="AJ85" s="486"/>
+      <c r="AH85" s="508"/>
+      <c r="AI85" s="508"/>
+      <c r="AJ85" s="508"/>
       <c r="AK85" s="75"/>
       <c r="AM85" s="63"/>
       <c r="AN85" s="65"/>
@@ -36692,11 +36692,11 @@
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
       <c r="AI89" s="37"/>
-      <c r="AJ89" s="491">
+      <c r="AJ89" s="503">
         <f>AJ87+AK87</f>
         <v>10600.119999999999</v>
       </c>
-      <c r="AK89" s="492"/>
+      <c r="AK89" s="504"/>
       <c r="AM89" s="61"/>
       <c r="AN89" s="60"/>
       <c r="AO89" s="60"/>
@@ -36954,8 +36954,8 @@
         <f>SUM(AE73:AE85)+AE48</f>
         <v>11144.599999999999</v>
       </c>
-      <c r="AP93" s="472"/>
-      <c r="AQ93" s="473"/>
+      <c r="AP93" s="522"/>
+      <c r="AQ93" s="523"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="L94" s="4" t="s">
@@ -37509,26 +37509,66 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="AJ89:AK89"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="AJ72:AJ85"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AI67:AI68"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AP93:AQ93"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AH41:AH50"/>
+    <mergeCell ref="AI41:AI50"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="K52:K53"/>
     <mergeCell ref="A63:A66"/>
@@ -37545,66 +37585,26 @@
     <mergeCell ref="AD52:AD53"/>
     <mergeCell ref="H52:H53"/>
     <mergeCell ref="I52:I53"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AJ28:AJ30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AP93:AQ93"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AM52:AM53"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="AQ52:AQ53"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AH41:AH50"/>
-    <mergeCell ref="AI41:AI50"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="AJ89:AK89"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="AJ72:AJ85"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AI67:AI68"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.1" top="0.2" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -37649,68 +37649,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" s="301" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="522" t="s">
+      <c r="A2" s="553" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="522"/>
-      <c r="C2" s="522"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="522"/>
-      <c r="F2" s="522"/>
-      <c r="G2" s="522"/>
-      <c r="H2" s="522"/>
-      <c r="I2" s="522"/>
-      <c r="J2" s="522"/>
-      <c r="K2" s="522"/>
-      <c r="L2" s="522"/>
-      <c r="M2" s="522"/>
-      <c r="N2" s="522"/>
-      <c r="O2" s="522"/>
-      <c r="P2" s="522"/>
-      <c r="Q2" s="522"/>
-      <c r="R2" s="522"/>
-      <c r="S2" s="522"/>
+      <c r="B2" s="553"/>
+      <c r="C2" s="553"/>
+      <c r="D2" s="553"/>
+      <c r="E2" s="553"/>
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="553"/>
+      <c r="J2" s="553"/>
+      <c r="K2" s="553"/>
+      <c r="L2" s="553"/>
+      <c r="M2" s="553"/>
+      <c r="N2" s="553"/>
+      <c r="O2" s="553"/>
+      <c r="P2" s="553"/>
+      <c r="Q2" s="553"/>
+      <c r="R2" s="553"/>
+      <c r="S2" s="553"/>
     </row>
     <row r="3" spans="1:22" s="301" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="523" t="s">
+      <c r="A3" s="554" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="524" t="s">
+      <c r="B3" s="555" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="525" t="s">
+      <c r="C3" s="556" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="526"/>
-      <c r="E3" s="525" t="s">
+      <c r="D3" s="557"/>
+      <c r="E3" s="556" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="526"/>
-      <c r="G3" s="527"/>
-      <c r="H3" s="525" t="s">
+      <c r="F3" s="557"/>
+      <c r="G3" s="558"/>
+      <c r="H3" s="556" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="526"/>
-      <c r="J3" s="526"/>
-      <c r="K3" s="528" t="s">
+      <c r="I3" s="557"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="559" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="523"/>
-      <c r="M3" s="523"/>
-      <c r="N3" s="528" t="s">
+      <c r="L3" s="554"/>
+      <c r="M3" s="554"/>
+      <c r="N3" s="559" t="s">
         <v>189</v>
       </c>
-      <c r="O3" s="523"/>
-      <c r="P3" s="523"/>
-      <c r="Q3" s="528" t="s">
+      <c r="O3" s="554"/>
+      <c r="P3" s="554"/>
+      <c r="Q3" s="559" t="s">
         <v>190</v>
       </c>
-      <c r="R3" s="523"/>
-      <c r="S3" s="523"/>
+      <c r="R3" s="554"/>
+      <c r="S3" s="554"/>
     </row>
     <row r="4" spans="1:22" s="301" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="523"/>
-      <c r="B4" s="524"/>
+      <c r="A4" s="554"/>
+      <c r="B4" s="555"/>
       <c r="C4" s="302" t="s">
         <v>191</v>
       </c>
@@ -38625,10 +38625,10 @@
       <c r="U18" s="312"/>
     </row>
     <row r="19" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A19" s="520" t="s">
+      <c r="A19" s="551" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="521"/>
+      <c r="B19" s="552"/>
       <c r="C19" s="338"/>
       <c r="D19" s="352">
         <f>SUM(D6:D18)</f>
@@ -38770,10 +38770,10 @@
       <c r="U21" s="312"/>
     </row>
     <row r="22" spans="1:80" s="345" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="520" t="s">
+      <c r="A22" s="551" t="s">
         <v>222</v>
       </c>
-      <c r="B22" s="521"/>
+      <c r="B22" s="552"/>
       <c r="C22" s="341"/>
       <c r="D22" s="341">
         <f>D19+D21</f>
@@ -38944,36 +38944,36 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="531" t="s">
+      <c r="A4" s="562" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="531" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="529" t="s">
+      <c r="B4" s="562" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="560" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="530"/>
-      <c r="E4" s="530"/>
-      <c r="F4" s="530" t="s">
+      <c r="D4" s="561"/>
+      <c r="E4" s="561"/>
+      <c r="F4" s="561" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="530"/>
-      <c r="H4" s="530"/>
-      <c r="I4" s="530" t="s">
+      <c r="G4" s="561"/>
+      <c r="H4" s="561"/>
+      <c r="I4" s="561" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="530"/>
-      <c r="K4" s="530"/>
-      <c r="L4" s="530" t="s">
+      <c r="J4" s="561"/>
+      <c r="K4" s="561"/>
+      <c r="L4" s="561" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="530"/>
-      <c r="N4" s="530"/>
+      <c r="M4" s="561"/>
+      <c r="N4" s="561"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="531"/>
-      <c r="B5" s="531"/>
+      <c r="A5" s="562"/>
+      <c r="B5" s="562"/>
       <c r="C5" s="148" t="s">
         <v>159</v>
       </c>
@@ -39012,8 +39012,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="531"/>
-      <c r="B6" s="531"/>
+      <c r="A6" s="562"/>
+      <c r="B6" s="562"/>
       <c r="C6" s="149" t="s">
         <v>157</v>
       </c>
@@ -39641,125 +39641,125 @@
       <c r="AR1" s="51"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="475" t="s">
+      <c r="A2" s="525" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="475" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="506" t="s">
+      <c r="B2" s="525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="548" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="506" t="s">
+      <c r="D2" s="549"/>
+      <c r="E2" s="549"/>
+      <c r="F2" s="550"/>
+      <c r="G2" s="548" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="507"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="507"/>
-      <c r="K2" s="508"/>
-      <c r="L2" s="506" t="s">
+      <c r="H2" s="549"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="550"/>
+      <c r="L2" s="548" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="507"/>
-      <c r="N2" s="507"/>
-      <c r="O2" s="508"/>
-      <c r="P2" s="506" t="s">
+      <c r="M2" s="549"/>
+      <c r="N2" s="549"/>
+      <c r="O2" s="550"/>
+      <c r="P2" s="548" t="s">
         <v>178</v>
       </c>
-      <c r="Q2" s="507"/>
-      <c r="R2" s="507"/>
-      <c r="S2" s="508"/>
-      <c r="T2" s="506" t="s">
+      <c r="Q2" s="549"/>
+      <c r="R2" s="549"/>
+      <c r="S2" s="550"/>
+      <c r="T2" s="548" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="507"/>
-      <c r="V2" s="507"/>
-      <c r="W2" s="508"/>
-      <c r="X2" s="447" t="s">
+      <c r="U2" s="549"/>
+      <c r="V2" s="549"/>
+      <c r="W2" s="550"/>
+      <c r="X2" s="471" t="s">
         <v>167</v>
       </c>
-      <c r="Y2" s="448"/>
-      <c r="Z2" s="448"/>
-      <c r="AA2" s="448"/>
-      <c r="AB2" s="449"/>
-      <c r="AC2" s="481" t="s">
+      <c r="Y2" s="472"/>
+      <c r="Z2" s="472"/>
+      <c r="AA2" s="472"/>
+      <c r="AB2" s="473"/>
+      <c r="AC2" s="519" t="s">
         <v>133</v>
       </c>
-      <c r="AD2" s="481"/>
-      <c r="AE2" s="481"/>
-      <c r="AF2" s="481"/>
-      <c r="AG2" s="481"/>
-      <c r="AI2" s="476" t="s">
+      <c r="AD2" s="519"/>
+      <c r="AE2" s="519"/>
+      <c r="AF2" s="519"/>
+      <c r="AG2" s="519"/>
+      <c r="AI2" s="526" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" s="477"/>
+      <c r="AJ2" s="527"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
-      <c r="AN2" s="447" t="s">
+      <c r="AN2" s="471" t="s">
         <v>146</v>
       </c>
-      <c r="AO2" s="448"/>
-      <c r="AP2" s="448"/>
-      <c r="AQ2" s="448"/>
-      <c r="AR2" s="449"/>
+      <c r="AO2" s="472"/>
+      <c r="AP2" s="472"/>
+      <c r="AQ2" s="472"/>
+      <c r="AR2" s="473"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="475"/>
-      <c r="B3" s="475"/>
-      <c r="C3" s="480" t="s">
+      <c r="A3" s="525"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="480"/>
-      <c r="E3" s="480"/>
-      <c r="F3" s="480"/>
-      <c r="G3" s="501" t="s">
+      <c r="D3" s="521"/>
+      <c r="E3" s="521"/>
+      <c r="F3" s="521"/>
+      <c r="G3" s="540" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="503" t="s">
+      <c r="H3" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="504"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="505"/>
-      <c r="L3" s="503" t="s">
+      <c r="I3" s="543"/>
+      <c r="J3" s="543"/>
+      <c r="K3" s="544"/>
+      <c r="L3" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="504"/>
-      <c r="N3" s="504"/>
-      <c r="O3" s="505"/>
-      <c r="P3" s="503" t="s">
+      <c r="M3" s="543"/>
+      <c r="N3" s="543"/>
+      <c r="O3" s="544"/>
+      <c r="P3" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="504"/>
-      <c r="R3" s="504"/>
-      <c r="S3" s="505"/>
-      <c r="T3" s="503" t="s">
+      <c r="Q3" s="543"/>
+      <c r="R3" s="543"/>
+      <c r="S3" s="544"/>
+      <c r="T3" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="504"/>
-      <c r="V3" s="504"/>
-      <c r="W3" s="505"/>
-      <c r="X3" s="450" t="s">
+      <c r="U3" s="543"/>
+      <c r="V3" s="543"/>
+      <c r="W3" s="544"/>
+      <c r="X3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="451" t="s">
+      <c r="Y3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="451"/>
-      <c r="AA3" s="451"/>
-      <c r="AB3" s="451"/>
-      <c r="AC3" s="479" t="s">
+      <c r="Z3" s="476"/>
+      <c r="AA3" s="476"/>
+      <c r="AB3" s="476"/>
+      <c r="AC3" s="520" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="480" t="s">
+      <c r="AD3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="480"/>
-      <c r="AF3" s="480"/>
-      <c r="AG3" s="480"/>
+      <c r="AE3" s="521"/>
+      <c r="AF3" s="521"/>
+      <c r="AG3" s="521"/>
       <c r="AI3" s="204" t="s">
         <v>114</v>
       </c>
@@ -39775,19 +39775,19 @@
       <c r="AM3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AN3" s="450" t="s">
+      <c r="AN3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="451" t="s">
+      <c r="AO3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="AP3" s="451"/>
-      <c r="AQ3" s="451"/>
-      <c r="AR3" s="451"/>
+      <c r="AP3" s="476"/>
+      <c r="AQ3" s="476"/>
+      <c r="AR3" s="476"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="475"/>
-      <c r="B4" s="475"/>
+      <c r="A4" s="525"/>
+      <c r="B4" s="525"/>
       <c r="C4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39800,7 +39800,7 @@
       <c r="F4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="502"/>
+      <c r="G4" s="541"/>
       <c r="H4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39849,7 +39849,7 @@
       <c r="W4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="450"/>
+      <c r="X4" s="475"/>
       <c r="Y4" s="198" t="s">
         <v>111</v>
       </c>
@@ -39862,7 +39862,7 @@
       <c r="AB4" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="479"/>
+      <c r="AC4" s="520"/>
       <c r="AD4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39879,7 +39879,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AN4" s="450"/>
+      <c r="AN4" s="475"/>
       <c r="AO4" s="198" t="s">
         <v>111</v>
       </c>
@@ -39894,10 +39894,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="524" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="474"/>
+      <c r="B5" s="524"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -39971,11 +39971,11 @@
       <c r="AE6" s="203"/>
       <c r="AF6" s="203"/>
       <c r="AG6" s="203"/>
-      <c r="AI6" s="482">
+      <c r="AI6" s="516">
         <f>SUM(W7:W9)</f>
         <v>14.5</v>
       </c>
-      <c r="AJ6" s="482">
+      <c r="AJ6" s="516">
         <f>SUM(AB7:AB9)</f>
         <v>9.1000000000000014</v>
       </c>
@@ -40076,8 +40076,8 @@
         <v>1.31</v>
       </c>
       <c r="AH7" s="37"/>
-      <c r="AI7" s="483"/>
-      <c r="AJ7" s="483"/>
+      <c r="AI7" s="517"/>
+      <c r="AJ7" s="517"/>
       <c r="AK7" s="37"/>
       <c r="AM7" s="72">
         <f>T7-Y7</f>
@@ -40157,8 +40157,8 @@
         <v>0</v>
       </c>
       <c r="AH8" s="37"/>
-      <c r="AI8" s="483"/>
-      <c r="AJ8" s="483"/>
+      <c r="AI8" s="517"/>
+      <c r="AJ8" s="517"/>
       <c r="AK8" s="37"/>
       <c r="AN8" s="54" t="s">
         <v>78</v>
@@ -40265,8 +40265,8 @@
         <v>45.41</v>
       </c>
       <c r="AH9" s="37"/>
-      <c r="AI9" s="483"/>
-      <c r="AJ9" s="483"/>
+      <c r="AI9" s="517"/>
+      <c r="AJ9" s="517"/>
       <c r="AK9" s="37"/>
       <c r="AM9" s="72">
         <f>T9-Y9</f>
@@ -40775,11 +40775,11 @@
         <v>0.97</v>
       </c>
       <c r="AH14" s="37"/>
-      <c r="AI14" s="482">
+      <c r="AI14" s="516">
         <f>SUM(W14:W16)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="AJ14" s="482">
+      <c r="AJ14" s="516">
         <f>SUM(AB14:AB16)</f>
         <v>0.25</v>
       </c>
@@ -40893,8 +40893,8 @@
         <v>1</v>
       </c>
       <c r="AH15" s="37"/>
-      <c r="AI15" s="483"/>
-      <c r="AJ15" s="483"/>
+      <c r="AI15" s="517"/>
+      <c r="AJ15" s="517"/>
       <c r="AK15" s="37"/>
       <c r="AM15" s="72">
         <f t="shared" si="11"/>
@@ -41005,8 +41005,8 @@
         <v>0.46</v>
       </c>
       <c r="AH16" s="37"/>
-      <c r="AI16" s="483"/>
-      <c r="AJ16" s="483"/>
+      <c r="AI16" s="517"/>
+      <c r="AJ16" s="517"/>
       <c r="AK16" s="37"/>
       <c r="AM16" s="72">
         <f t="shared" si="11"/>
@@ -41235,11 +41235,11 @@
         <v>1.44</v>
       </c>
       <c r="AH18" s="37"/>
-      <c r="AI18" s="482">
+      <c r="AI18" s="516">
         <f>SUM(W18:W19)</f>
         <v>4.7</v>
       </c>
-      <c r="AJ18" s="482">
+      <c r="AJ18" s="516">
         <f>SUM(AB18:AB19)</f>
         <v>2.31</v>
       </c>
@@ -41353,8 +41353,8 @@
         <v>10.72</v>
       </c>
       <c r="AH19" s="37"/>
-      <c r="AI19" s="482"/>
-      <c r="AJ19" s="483"/>
+      <c r="AI19" s="516"/>
+      <c r="AJ19" s="517"/>
       <c r="AK19" s="37"/>
       <c r="AM19" s="72">
         <f t="shared" si="11"/>
@@ -41465,11 +41465,11 @@
         <v>19.93</v>
       </c>
       <c r="AH20" s="37"/>
-      <c r="AI20" s="482">
+      <c r="AI20" s="516">
         <f>SUM(W20:W21)</f>
         <v>31</v>
       </c>
-      <c r="AJ20" s="482">
+      <c r="AJ20" s="516">
         <f>SUM(AB20:AB21)</f>
         <v>17.2</v>
       </c>
@@ -41583,8 +41583,8 @@
         <v>79.38</v>
       </c>
       <c r="AH21" s="37"/>
-      <c r="AI21" s="483"/>
-      <c r="AJ21" s="483"/>
+      <c r="AI21" s="517"/>
+      <c r="AJ21" s="517"/>
       <c r="AK21" s="37"/>
       <c r="AM21" s="72">
         <f t="shared" si="11"/>
@@ -42077,7 +42077,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="484">
+      <c r="A26" s="518">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -42131,7 +42131,7 @@
       <c r="AR26" s="65"/>
     </row>
     <row r="27" spans="1:44" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="484"/>
+      <c r="A27" s="518"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -42190,7 +42190,7 @@
       <c r="AR27" s="65"/>
     </row>
     <row r="28" spans="1:44" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="484"/>
+      <c r="A28" s="518"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -42288,15 +42288,15 @@
         <v>327.02999999999997</v>
       </c>
       <c r="AH28" s="37"/>
-      <c r="AI28" s="485">
+      <c r="AI28" s="507">
         <f>SUM(W28:W30)</f>
         <v>848.67000000000007</v>
       </c>
-      <c r="AJ28" s="485">
+      <c r="AJ28" s="507">
         <f>SUM(AB28:AB30)</f>
         <v>253.55</v>
       </c>
-      <c r="AK28" s="491">
+      <c r="AK28" s="503">
         <f>SUM(Z28:Z30)</f>
         <v>219.57</v>
       </c>
@@ -42322,7 +42322,7 @@
       </c>
     </row>
     <row r="29" spans="1:44" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="484"/>
+      <c r="A29" s="518"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -42420,9 +42420,9 @@
         <v>1560.1799999999998</v>
       </c>
       <c r="AH29" s="37"/>
-      <c r="AI29" s="486"/>
-      <c r="AJ29" s="486"/>
-      <c r="AK29" s="492"/>
+      <c r="AI29" s="508"/>
+      <c r="AJ29" s="508"/>
+      <c r="AK29" s="504"/>
       <c r="AM29" s="72">
         <f>T29-Y29</f>
         <v>38.699999999999996</v>
@@ -42445,7 +42445,7 @@
       </c>
     </row>
     <row r="30" spans="1:44" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="484"/>
+      <c r="A30" s="518"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -42543,9 +42543,9 @@
         <v>592.67000000000007</v>
       </c>
       <c r="AH30" s="37"/>
-      <c r="AI30" s="486"/>
-      <c r="AJ30" s="486"/>
-      <c r="AK30" s="492"/>
+      <c r="AI30" s="508"/>
+      <c r="AJ30" s="508"/>
+      <c r="AK30" s="504"/>
       <c r="AM30" s="72">
         <f>T30-Y30</f>
         <v>11.719999999999999</v>
@@ -42932,7 +42932,7 @@
       </c>
     </row>
     <row r="34" spans="1:44" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="487">
+      <c r="A34" s="513">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -43022,11 +43022,11 @@
         <v>14.93</v>
       </c>
       <c r="AH34" s="37"/>
-      <c r="AI34" s="485">
+      <c r="AI34" s="507">
         <f>SUM(W34:W36)</f>
         <v>7</v>
       </c>
-      <c r="AJ34" s="485">
+      <c r="AJ34" s="507">
         <f>SUM(AB34:AB36)</f>
         <v>2.2000000000000002</v>
       </c>
@@ -43050,7 +43050,7 @@
       </c>
     </row>
     <row r="35" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="488"/>
+      <c r="A35" s="514"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -43136,8 +43136,8 @@
         <v>1.29</v>
       </c>
       <c r="AH35" s="37"/>
-      <c r="AI35" s="486"/>
-      <c r="AJ35" s="486"/>
+      <c r="AI35" s="508"/>
+      <c r="AJ35" s="508"/>
       <c r="AK35" s="37"/>
       <c r="AM35" s="72">
         <f t="shared" si="26"/>
@@ -43158,7 +43158,7 @@
       </c>
     </row>
     <row r="36" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="489"/>
+      <c r="A36" s="515"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -43244,8 +43244,8 @@
         <v>1.3</v>
       </c>
       <c r="AH36" s="37"/>
-      <c r="AI36" s="486"/>
-      <c r="AJ36" s="486"/>
+      <c r="AI36" s="508"/>
+      <c r="AJ36" s="508"/>
       <c r="AK36" s="37"/>
       <c r="AM36" s="72">
         <f t="shared" si="26"/>
@@ -43756,11 +43756,11 @@
         <v>65.02</v>
       </c>
       <c r="AH41" s="37"/>
-      <c r="AI41" s="485">
+      <c r="AI41" s="507">
         <f>SUM(W41:W50)</f>
         <v>91</v>
       </c>
-      <c r="AJ41" s="485">
+      <c r="AJ41" s="507">
         <f>SUM(AB41:AB50)</f>
         <v>40.11</v>
       </c>
@@ -43872,8 +43872,8 @@
         <v>3.2</v>
       </c>
       <c r="AH42" s="37"/>
-      <c r="AI42" s="486"/>
-      <c r="AJ42" s="486"/>
+      <c r="AI42" s="508"/>
+      <c r="AJ42" s="508"/>
       <c r="AK42" s="37"/>
       <c r="AM42" s="72">
         <f t="shared" si="37"/>
@@ -43984,8 +43984,8 @@
         <v>7.63</v>
       </c>
       <c r="AH43" s="37"/>
-      <c r="AI43" s="486"/>
-      <c r="AJ43" s="486"/>
+      <c r="AI43" s="508"/>
+      <c r="AJ43" s="508"/>
       <c r="AK43" s="37"/>
       <c r="AM43" s="72">
         <f t="shared" si="37"/>
@@ -44096,8 +44096,8 @@
         <v>1.69</v>
       </c>
       <c r="AH44" s="37"/>
-      <c r="AI44" s="486"/>
-      <c r="AJ44" s="486"/>
+      <c r="AI44" s="508"/>
+      <c r="AJ44" s="508"/>
       <c r="AK44" s="37"/>
       <c r="AM44" s="72">
         <f t="shared" si="37"/>
@@ -44206,8 +44206,8 @@
         <v>19.98</v>
       </c>
       <c r="AH45" s="37"/>
-      <c r="AI45" s="486"/>
-      <c r="AJ45" s="486"/>
+      <c r="AI45" s="508"/>
+      <c r="AJ45" s="508"/>
       <c r="AK45" s="37"/>
       <c r="AM45" s="72">
         <f t="shared" si="37"/>
@@ -44316,8 +44316,8 @@
         <v>14.53</v>
       </c>
       <c r="AH46" s="37"/>
-      <c r="AI46" s="486"/>
-      <c r="AJ46" s="486"/>
+      <c r="AI46" s="508"/>
+      <c r="AJ46" s="508"/>
       <c r="AK46" s="37"/>
       <c r="AM46" s="72">
         <f t="shared" si="37"/>
@@ -44428,8 +44428,8 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="AH47" s="37"/>
-      <c r="AI47" s="486"/>
-      <c r="AJ47" s="486"/>
+      <c r="AI47" s="508"/>
+      <c r="AJ47" s="508"/>
       <c r="AK47" s="37"/>
       <c r="AM47" s="72">
         <f t="shared" si="37"/>
@@ -44550,8 +44550,8 @@
         <v>128.19999999999999</v>
       </c>
       <c r="AH48" s="37"/>
-      <c r="AI48" s="486"/>
-      <c r="AJ48" s="486"/>
+      <c r="AI48" s="508"/>
+      <c r="AJ48" s="508"/>
       <c r="AK48" s="71">
         <f>Z48</f>
         <v>29.46</v>
@@ -44669,8 +44669,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AH49" s="37"/>
-      <c r="AI49" s="486"/>
-      <c r="AJ49" s="486"/>
+      <c r="AI49" s="508"/>
+      <c r="AJ49" s="508"/>
       <c r="AK49" s="37"/>
       <c r="AM49" s="72">
         <f t="shared" si="37"/>
@@ -44779,8 +44779,8 @@
         <v>7.48</v>
       </c>
       <c r="AH50" s="37"/>
-      <c r="AI50" s="486"/>
-      <c r="AJ50" s="486"/>
+      <c r="AI50" s="508"/>
+      <c r="AJ50" s="508"/>
       <c r="AK50" s="37"/>
       <c r="AM50" s="72">
         <f t="shared" si="37"/>
@@ -44962,92 +44962,92 @@
     <row r="52" spans="1:44" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="493"/>
-      <c r="D52" s="490"/>
-      <c r="E52" s="493"/>
-      <c r="F52" s="493"/>
-      <c r="G52" s="511"/>
-      <c r="H52" s="509"/>
-      <c r="I52" s="511"/>
-      <c r="J52" s="509"/>
-      <c r="K52" s="511"/>
-      <c r="L52" s="509"/>
-      <c r="M52" s="511"/>
-      <c r="N52" s="509"/>
-      <c r="O52" s="511"/>
-      <c r="P52" s="509"/>
-      <c r="Q52" s="511"/>
-      <c r="R52" s="509"/>
-      <c r="S52" s="511"/>
-      <c r="T52" s="509"/>
-      <c r="U52" s="511"/>
-      <c r="V52" s="509"/>
-      <c r="W52" s="511"/>
-      <c r="X52" s="446"/>
-      <c r="Y52" s="446"/>
-      <c r="Z52" s="446"/>
-      <c r="AA52" s="446"/>
-      <c r="AB52" s="446"/>
-      <c r="AC52" s="490"/>
-      <c r="AD52" s="490"/>
-      <c r="AE52" s="490"/>
-      <c r="AF52" s="490"/>
-      <c r="AG52" s="490"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="506"/>
+      <c r="E52" s="505"/>
+      <c r="F52" s="505"/>
+      <c r="G52" s="536"/>
+      <c r="H52" s="538"/>
+      <c r="I52" s="536"/>
+      <c r="J52" s="538"/>
+      <c r="K52" s="536"/>
+      <c r="L52" s="538"/>
+      <c r="M52" s="536"/>
+      <c r="N52" s="538"/>
+      <c r="O52" s="536"/>
+      <c r="P52" s="538"/>
+      <c r="Q52" s="536"/>
+      <c r="R52" s="538"/>
+      <c r="S52" s="536"/>
+      <c r="T52" s="538"/>
+      <c r="U52" s="536"/>
+      <c r="V52" s="538"/>
+      <c r="W52" s="536"/>
+      <c r="X52" s="499"/>
+      <c r="Y52" s="499"/>
+      <c r="Z52" s="499"/>
+      <c r="AA52" s="499"/>
+      <c r="AB52" s="499"/>
+      <c r="AC52" s="506"/>
+      <c r="AD52" s="506"/>
+      <c r="AE52" s="506"/>
+      <c r="AF52" s="506"/>
+      <c r="AG52" s="506"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
       <c r="AJ52" s="105"/>
       <c r="AK52" s="105"/>
-      <c r="AN52" s="446"/>
-      <c r="AO52" s="446"/>
-      <c r="AP52" s="446"/>
-      <c r="AQ52" s="446"/>
-      <c r="AR52" s="446"/>
+      <c r="AN52" s="499"/>
+      <c r="AO52" s="499"/>
+      <c r="AP52" s="499"/>
+      <c r="AQ52" s="499"/>
+      <c r="AR52" s="499"/>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="493"/>
-      <c r="D53" s="490"/>
-      <c r="E53" s="493"/>
-      <c r="F53" s="493"/>
-      <c r="G53" s="512"/>
-      <c r="H53" s="510"/>
-      <c r="I53" s="512"/>
-      <c r="J53" s="510"/>
-      <c r="K53" s="512"/>
-      <c r="L53" s="510"/>
-      <c r="M53" s="512"/>
-      <c r="N53" s="510"/>
-      <c r="O53" s="512"/>
-      <c r="P53" s="510"/>
-      <c r="Q53" s="512"/>
-      <c r="R53" s="510"/>
-      <c r="S53" s="512"/>
-      <c r="T53" s="510"/>
-      <c r="U53" s="512"/>
-      <c r="V53" s="510"/>
-      <c r="W53" s="512"/>
-      <c r="X53" s="446"/>
-      <c r="Y53" s="446"/>
-      <c r="Z53" s="446"/>
-      <c r="AA53" s="446"/>
-      <c r="AB53" s="446"/>
-      <c r="AC53" s="490"/>
-      <c r="AD53" s="490"/>
-      <c r="AE53" s="490"/>
-      <c r="AF53" s="490"/>
-      <c r="AG53" s="490"/>
+      <c r="C53" s="505"/>
+      <c r="D53" s="506"/>
+      <c r="E53" s="505"/>
+      <c r="F53" s="505"/>
+      <c r="G53" s="537"/>
+      <c r="H53" s="539"/>
+      <c r="I53" s="537"/>
+      <c r="J53" s="539"/>
+      <c r="K53" s="537"/>
+      <c r="L53" s="539"/>
+      <c r="M53" s="537"/>
+      <c r="N53" s="539"/>
+      <c r="O53" s="537"/>
+      <c r="P53" s="539"/>
+      <c r="Q53" s="537"/>
+      <c r="R53" s="539"/>
+      <c r="S53" s="537"/>
+      <c r="T53" s="539"/>
+      <c r="U53" s="537"/>
+      <c r="V53" s="539"/>
+      <c r="W53" s="537"/>
+      <c r="X53" s="499"/>
+      <c r="Y53" s="499"/>
+      <c r="Z53" s="499"/>
+      <c r="AA53" s="499"/>
+      <c r="AB53" s="499"/>
+      <c r="AC53" s="506"/>
+      <c r="AD53" s="506"/>
+      <c r="AE53" s="506"/>
+      <c r="AF53" s="506"/>
+      <c r="AG53" s="506"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
       <c r="AJ53" s="37"/>
       <c r="AK53" s="37"/>
-      <c r="AN53" s="446"/>
-      <c r="AO53" s="446"/>
-      <c r="AP53" s="446"/>
-      <c r="AQ53" s="446"/>
-      <c r="AR53" s="446"/>
+      <c r="AN53" s="499"/>
+      <c r="AO53" s="499"/>
+      <c r="AP53" s="499"/>
+      <c r="AQ53" s="499"/>
+      <c r="AR53" s="499"/>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
@@ -45096,7 +45096,7 @@
       <c r="AR54" s="57"/>
     </row>
     <row r="55" spans="1:44" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="494">
+      <c r="A55" s="512">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -45183,11 +45183,11 @@
         <v>606.9</v>
       </c>
       <c r="AH55" s="37"/>
-      <c r="AI55" s="485">
+      <c r="AI55" s="507">
         <f>SUM(W55:W56)</f>
         <v>95.6</v>
       </c>
-      <c r="AJ55" s="485">
+      <c r="AJ55" s="507">
         <f>SUM(AB55:AB56)</f>
         <v>0</v>
       </c>
@@ -45207,7 +45207,7 @@
       </c>
     </row>
     <row r="56" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="494"/>
+      <c r="A56" s="512"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -45280,8 +45280,8 @@
         <v>50.22</v>
       </c>
       <c r="AH56" s="37"/>
-      <c r="AI56" s="486"/>
-      <c r="AJ56" s="486"/>
+      <c r="AI56" s="508"/>
+      <c r="AJ56" s="508"/>
       <c r="AK56" s="37"/>
       <c r="AN56" s="196"/>
       <c r="AO56" s="54">
@@ -45393,7 +45393,7 @@
       </c>
     </row>
     <row r="58" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="497">
+      <c r="A58" s="511">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -45468,11 +45468,11 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AH58" s="37"/>
-      <c r="AI58" s="485">
+      <c r="AI58" s="507">
         <f>SUM(W58:W59)</f>
         <v>0</v>
       </c>
-      <c r="AJ58" s="485">
+      <c r="AJ58" s="507">
         <f>SUM(AB58:AB59)</f>
         <v>0</v>
       </c>
@@ -45490,7 +45490,7 @@
       </c>
     </row>
     <row r="59" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="497"/>
+      <c r="A59" s="511"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -45563,8 +45563,8 @@
         <v>0.79</v>
       </c>
       <c r="AH59" s="37"/>
-      <c r="AI59" s="486"/>
-      <c r="AJ59" s="486"/>
+      <c r="AI59" s="508"/>
+      <c r="AJ59" s="508"/>
       <c r="AK59" s="37"/>
       <c r="AN59" s="196"/>
       <c r="AO59" s="54">
@@ -45579,7 +45579,7 @@
       </c>
     </row>
     <row r="60" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="497">
+      <c r="A60" s="511">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -45654,11 +45654,11 @@
         <v>20.18</v>
       </c>
       <c r="AH60" s="37"/>
-      <c r="AI60" s="485">
+      <c r="AI60" s="507">
         <f>SUM(W60:W62)</f>
         <v>5</v>
       </c>
-      <c r="AJ60" s="485">
+      <c r="AJ60" s="507">
         <f>SUM(AB60:AB62)</f>
         <v>0</v>
       </c>
@@ -45676,7 +45676,7 @@
       </c>
     </row>
     <row r="61" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="497"/>
+      <c r="A61" s="511"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -45749,8 +45749,8 @@
         <v>2.13</v>
       </c>
       <c r="AH61" s="37"/>
-      <c r="AI61" s="486"/>
-      <c r="AJ61" s="486"/>
+      <c r="AI61" s="508"/>
+      <c r="AJ61" s="508"/>
       <c r="AK61" s="37"/>
       <c r="AN61" s="196"/>
       <c r="AO61" s="54">
@@ -45765,7 +45765,7 @@
       </c>
     </row>
     <row r="62" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="497"/>
+      <c r="A62" s="511"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -45850,8 +45850,8 @@
         <v>9.49</v>
       </c>
       <c r="AH62" s="37"/>
-      <c r="AI62" s="486"/>
-      <c r="AJ62" s="486"/>
+      <c r="AI62" s="508"/>
+      <c r="AJ62" s="508"/>
       <c r="AK62" s="37"/>
       <c r="AN62" s="196" t="s">
         <v>78</v>
@@ -45868,7 +45868,7 @@
       </c>
     </row>
     <row r="63" spans="1:44" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="497">
+      <c r="A63" s="511">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -45943,11 +45943,11 @@
         <v>19.47</v>
       </c>
       <c r="AH63" s="37"/>
-      <c r="AI63" s="485">
+      <c r="AI63" s="507">
         <f>SUM(W63:W66)</f>
         <v>0</v>
       </c>
-      <c r="AJ63" s="485">
+      <c r="AJ63" s="507">
         <f>SUM(AB63:AB66)</f>
         <v>0</v>
       </c>
@@ -45965,7 +45965,7 @@
       </c>
     </row>
     <row r="64" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="497"/>
+      <c r="A64" s="511"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -46038,8 +46038,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AH64" s="37"/>
-      <c r="AI64" s="486"/>
-      <c r="AJ64" s="486"/>
+      <c r="AI64" s="508"/>
+      <c r="AJ64" s="508"/>
       <c r="AK64" s="37"/>
       <c r="AN64" s="196"/>
       <c r="AO64" s="54">
@@ -46054,7 +46054,7 @@
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A65" s="497"/>
+      <c r="A65" s="511"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -46127,8 +46127,8 @@
         <v>0.2</v>
       </c>
       <c r="AH65" s="37"/>
-      <c r="AI65" s="486"/>
-      <c r="AJ65" s="486"/>
+      <c r="AI65" s="508"/>
+      <c r="AJ65" s="508"/>
       <c r="AK65" s="37"/>
       <c r="AN65" s="196"/>
       <c r="AO65" s="54">
@@ -46143,7 +46143,7 @@
       </c>
     </row>
     <row r="66" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="497"/>
+      <c r="A66" s="511"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -46216,8 +46216,8 @@
         <v>4.08</v>
       </c>
       <c r="AH66" s="37"/>
-      <c r="AI66" s="486"/>
-      <c r="AJ66" s="486"/>
+      <c r="AI66" s="508"/>
+      <c r="AJ66" s="508"/>
       <c r="AK66" s="37"/>
       <c r="AN66" s="196"/>
       <c r="AO66" s="54">
@@ -46319,11 +46319,11 @@
         <v>45.32</v>
       </c>
       <c r="AH67" s="37"/>
-      <c r="AI67" s="495">
+      <c r="AI67" s="509">
         <f>SUM(W67:W68)</f>
         <v>4</v>
       </c>
-      <c r="AJ67" s="495">
+      <c r="AJ67" s="509">
         <f>SUM(AB67:AB68)</f>
         <v>0</v>
       </c>
@@ -46430,8 +46430,8 @@
         <v>9.73</v>
       </c>
       <c r="AH68" s="37"/>
-      <c r="AI68" s="496"/>
-      <c r="AJ68" s="496"/>
+      <c r="AI68" s="510"/>
+      <c r="AJ68" s="510"/>
       <c r="AK68" s="37"/>
       <c r="AN68" s="196" t="s">
         <v>78</v>
@@ -46695,15 +46695,15 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
       <c r="AH72" s="37"/>
-      <c r="AI72" s="485">
+      <c r="AI72" s="507">
         <f>SUM(W72:W85)</f>
         <v>17093.009999999998</v>
       </c>
-      <c r="AJ72" s="485">
+      <c r="AJ72" s="507">
         <f>SUM(AB72:AB85)</f>
         <v>1752.0599999999997</v>
       </c>
-      <c r="AK72" s="485">
+      <c r="AK72" s="507">
         <f>SUM(Z72:Z85)</f>
         <v>1382.33</v>
       </c>
@@ -46795,9 +46795,9 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
       <c r="AH73" s="37"/>
-      <c r="AI73" s="486"/>
-      <c r="AJ73" s="486"/>
-      <c r="AK73" s="486"/>
+      <c r="AI73" s="508"/>
+      <c r="AJ73" s="508"/>
+      <c r="AK73" s="508"/>
       <c r="AN73" s="79" t="s">
         <v>136</v>
       </c>
@@ -46854,9 +46854,9 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
       <c r="AH74" s="37"/>
-      <c r="AI74" s="486"/>
-      <c r="AJ74" s="486"/>
-      <c r="AK74" s="486"/>
+      <c r="AI74" s="508"/>
+      <c r="AJ74" s="508"/>
+      <c r="AK74" s="508"/>
       <c r="AN74" s="81"/>
       <c r="AO74" s="65"/>
       <c r="AP74" s="65"/>
@@ -46949,9 +46949,9 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="37"/>
-      <c r="AI75" s="486"/>
-      <c r="AJ75" s="486"/>
-      <c r="AK75" s="486"/>
+      <c r="AI75" s="508"/>
+      <c r="AJ75" s="508"/>
+      <c r="AK75" s="508"/>
       <c r="AN75" s="79" t="s">
         <v>137</v>
       </c>
@@ -47069,9 +47069,9 @@
         <v>7641.09</v>
       </c>
       <c r="AH76" s="37"/>
-      <c r="AI76" s="486"/>
-      <c r="AJ76" s="486"/>
-      <c r="AK76" s="486"/>
+      <c r="AI76" s="508"/>
+      <c r="AJ76" s="508"/>
+      <c r="AK76" s="508"/>
       <c r="AN76" s="79" t="s">
         <v>110</v>
       </c>
@@ -47187,9 +47187,9 @@
         <v>6047.23</v>
       </c>
       <c r="AH77" s="37"/>
-      <c r="AI77" s="486"/>
-      <c r="AJ77" s="486"/>
-      <c r="AK77" s="486"/>
+      <c r="AI77" s="508"/>
+      <c r="AJ77" s="508"/>
+      <c r="AK77" s="508"/>
       <c r="AM77" s="116"/>
       <c r="AN77" s="79" t="s">
         <v>109</v>
@@ -47250,9 +47250,9 @@
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
       <c r="AH78" s="37"/>
-      <c r="AI78" s="486"/>
-      <c r="AJ78" s="486"/>
-      <c r="AK78" s="486"/>
+      <c r="AI78" s="508"/>
+      <c r="AJ78" s="508"/>
+      <c r="AK78" s="508"/>
       <c r="AM78" s="116"/>
       <c r="AN78" s="81"/>
       <c r="AO78" s="67"/>
@@ -47344,9 +47344,9 @@
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
       <c r="AH79" s="37"/>
-      <c r="AI79" s="486"/>
-      <c r="AJ79" s="486"/>
-      <c r="AK79" s="486"/>
+      <c r="AI79" s="508"/>
+      <c r="AJ79" s="508"/>
+      <c r="AK79" s="508"/>
       <c r="AM79" s="116"/>
       <c r="AN79" s="79" t="s">
         <v>138</v>
@@ -47447,9 +47447,9 @@
       <c r="AF80" s="2"/>
       <c r="AG80" s="2"/>
       <c r="AH80" s="37"/>
-      <c r="AI80" s="486"/>
-      <c r="AJ80" s="486"/>
-      <c r="AK80" s="486"/>
+      <c r="AI80" s="508"/>
+      <c r="AJ80" s="508"/>
+      <c r="AK80" s="508"/>
       <c r="AM80" s="116"/>
       <c r="AN80" s="79" t="s">
         <v>135</v>
@@ -47550,9 +47550,9 @@
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
       <c r="AH81" s="37"/>
-      <c r="AI81" s="486"/>
-      <c r="AJ81" s="486"/>
-      <c r="AK81" s="486"/>
+      <c r="AI81" s="508"/>
+      <c r="AJ81" s="508"/>
+      <c r="AK81" s="508"/>
       <c r="AL81" s="116"/>
       <c r="AM81" s="116"/>
       <c r="AN81" s="79" t="s">
@@ -47670,9 +47670,9 @@
         <v>6214.3499999999995</v>
       </c>
       <c r="AH82" s="37"/>
-      <c r="AI82" s="486"/>
-      <c r="AJ82" s="486"/>
-      <c r="AK82" s="486"/>
+      <c r="AI82" s="508"/>
+      <c r="AJ82" s="508"/>
+      <c r="AK82" s="508"/>
       <c r="AM82" s="118"/>
       <c r="AN82" s="79" t="s">
         <v>108</v>
@@ -47773,9 +47773,9 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
       <c r="AH83" s="37"/>
-      <c r="AI83" s="486"/>
-      <c r="AJ83" s="486"/>
-      <c r="AK83" s="486"/>
+      <c r="AI83" s="508"/>
+      <c r="AJ83" s="508"/>
+      <c r="AK83" s="508"/>
       <c r="AN83" s="79" t="s">
         <v>140</v>
       </c>
@@ -47875,9 +47875,9 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
       <c r="AH84" s="37"/>
-      <c r="AI84" s="486"/>
-      <c r="AJ84" s="486"/>
-      <c r="AK84" s="486"/>
+      <c r="AI84" s="508"/>
+      <c r="AJ84" s="508"/>
+      <c r="AK84" s="508"/>
       <c r="AN84" s="79" t="s">
         <v>105</v>
       </c>
@@ -47934,9 +47934,9 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
       <c r="AH85" s="37"/>
-      <c r="AI85" s="486"/>
-      <c r="AJ85" s="486"/>
-      <c r="AK85" s="486"/>
+      <c r="AI85" s="508"/>
+      <c r="AJ85" s="508"/>
+      <c r="AK85" s="508"/>
       <c r="AL85" s="75"/>
       <c r="AN85" s="63"/>
       <c r="AO85" s="65"/>
@@ -48339,11 +48339,11 @@
       <c r="AH89" s="37"/>
       <c r="AI89" s="37"/>
       <c r="AJ89" s="37"/>
-      <c r="AK89" s="491">
+      <c r="AK89" s="503">
         <f>AK87+AL87</f>
         <v>1893.7399999999998</v>
       </c>
-      <c r="AL89" s="492"/>
+      <c r="AL89" s="504"/>
       <c r="AN89" s="61"/>
       <c r="AO89" s="60"/>
       <c r="AP89" s="60"/>
@@ -48593,8 +48593,8 @@
         <f>SUM(AB73:AB85)+AB48</f>
         <v>1785.2299999999998</v>
       </c>
-      <c r="AQ93" s="472"/>
-      <c r="AR93" s="473"/>
+      <c r="AQ93" s="522"/>
+      <c r="AR93" s="523"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C94" s="158">
@@ -49251,38 +49251,54 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AK28:AK30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AJ6:AJ9"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="AJ14:AJ16"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="AK72:AK85"/>
+    <mergeCell ref="AK89:AL89"/>
+    <mergeCell ref="AQ93:AR93"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AJ72:AJ85"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AI63:AI66"/>
+    <mergeCell ref="AJ63:AJ66"/>
+    <mergeCell ref="AI67:AI68"/>
+    <mergeCell ref="AJ67:AJ68"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AJ58:AJ59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="AJ60:AJ62"/>
+    <mergeCell ref="AR52:AR53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AF52:AF53"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
     <mergeCell ref="H52:H53"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="AI34:AI36"/>
@@ -49299,54 +49315,38 @@
     <mergeCell ref="I52:I53"/>
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="AR52:AR53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AF52:AF53"/>
-    <mergeCell ref="AG52:AG53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AJ58:AJ59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AI60:AI62"/>
-    <mergeCell ref="AJ60:AJ62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AI63:AI66"/>
-    <mergeCell ref="AJ63:AJ66"/>
-    <mergeCell ref="AI67:AI68"/>
-    <mergeCell ref="AJ67:AJ68"/>
-    <mergeCell ref="AK72:AK85"/>
-    <mergeCell ref="AK89:AL89"/>
-    <mergeCell ref="AQ93:AR93"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AJ72:AJ85"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="AK28:AK30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AJ6:AJ9"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49422,125 +49422,125 @@
       <c r="AP1" s="51"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="475" t="s">
+      <c r="A2" s="525" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="475" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="481" t="s">
+      <c r="B2" s="525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="519" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="481"/>
-      <c r="E2" s="481"/>
-      <c r="F2" s="481"/>
-      <c r="G2" s="481" t="s">
+      <c r="D2" s="519"/>
+      <c r="E2" s="519"/>
+      <c r="F2" s="519"/>
+      <c r="G2" s="519" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="481"/>
-      <c r="I2" s="481"/>
-      <c r="J2" s="481"/>
-      <c r="K2" s="481"/>
-      <c r="L2" s="506" t="s">
+      <c r="H2" s="519"/>
+      <c r="I2" s="519"/>
+      <c r="J2" s="519"/>
+      <c r="K2" s="519"/>
+      <c r="L2" s="548" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="507"/>
-      <c r="N2" s="507"/>
-      <c r="O2" s="507"/>
-      <c r="P2" s="508"/>
-      <c r="Q2" s="506" t="s">
+      <c r="M2" s="549"/>
+      <c r="N2" s="549"/>
+      <c r="O2" s="549"/>
+      <c r="P2" s="550"/>
+      <c r="Q2" s="548" t="s">
         <v>231</v>
       </c>
-      <c r="R2" s="507"/>
-      <c r="S2" s="507"/>
-      <c r="T2" s="507"/>
-      <c r="U2" s="508"/>
-      <c r="V2" s="498" t="s">
+      <c r="R2" s="549"/>
+      <c r="S2" s="549"/>
+      <c r="T2" s="549"/>
+      <c r="U2" s="550"/>
+      <c r="V2" s="545" t="s">
         <v>232</v>
       </c>
-      <c r="W2" s="499"/>
-      <c r="X2" s="499"/>
-      <c r="Y2" s="499"/>
-      <c r="Z2" s="500"/>
-      <c r="AA2" s="481" t="s">
+      <c r="W2" s="546"/>
+      <c r="X2" s="546"/>
+      <c r="Y2" s="546"/>
+      <c r="Z2" s="547"/>
+      <c r="AA2" s="519" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="481"/>
-      <c r="AC2" s="481"/>
-      <c r="AD2" s="481"/>
-      <c r="AE2" s="481"/>
-      <c r="AG2" s="476" t="s">
+      <c r="AB2" s="519"/>
+      <c r="AC2" s="519"/>
+      <c r="AD2" s="519"/>
+      <c r="AE2" s="519"/>
+      <c r="AG2" s="526" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="477"/>
+      <c r="AH2" s="527"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AL2" s="447" t="s">
+      <c r="AL2" s="471" t="s">
         <v>146</v>
       </c>
-      <c r="AM2" s="448"/>
-      <c r="AN2" s="448"/>
-      <c r="AO2" s="448"/>
-      <c r="AP2" s="449"/>
+      <c r="AM2" s="472"/>
+      <c r="AN2" s="472"/>
+      <c r="AO2" s="472"/>
+      <c r="AP2" s="473"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="475"/>
-      <c r="B3" s="475"/>
-      <c r="C3" s="475" t="s">
+      <c r="A3" s="525"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="478" t="s">
+      <c r="D3" s="528" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="478"/>
-      <c r="F3" s="475" t="s">
+      <c r="E3" s="528"/>
+      <c r="F3" s="525" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="479" t="s">
+      <c r="G3" s="520" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="480" t="s">
+      <c r="H3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="480"/>
-      <c r="J3" s="480"/>
-      <c r="K3" s="480"/>
-      <c r="L3" s="501" t="s">
+      <c r="I3" s="521"/>
+      <c r="J3" s="521"/>
+      <c r="K3" s="521"/>
+      <c r="L3" s="540" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="503" t="s">
+      <c r="M3" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="504"/>
-      <c r="O3" s="504"/>
-      <c r="P3" s="505"/>
-      <c r="Q3" s="501" t="s">
+      <c r="N3" s="543"/>
+      <c r="O3" s="543"/>
+      <c r="P3" s="544"/>
+      <c r="Q3" s="540" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="503" t="s">
+      <c r="R3" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="504"/>
-      <c r="T3" s="504"/>
-      <c r="U3" s="505"/>
-      <c r="V3" s="450" t="s">
+      <c r="S3" s="543"/>
+      <c r="T3" s="543"/>
+      <c r="U3" s="544"/>
+      <c r="V3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="451" t="s">
+      <c r="W3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="451"/>
-      <c r="Y3" s="451"/>
-      <c r="Z3" s="451"/>
-      <c r="AA3" s="479" t="s">
+      <c r="X3" s="476"/>
+      <c r="Y3" s="476"/>
+      <c r="Z3" s="476"/>
+      <c r="AA3" s="520" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="480" t="s">
+      <c r="AB3" s="521" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="480"/>
-      <c r="AD3" s="480"/>
-      <c r="AE3" s="480"/>
+      <c r="AC3" s="521"/>
+      <c r="AD3" s="521"/>
+      <c r="AE3" s="521"/>
       <c r="AG3" s="298" t="s">
         <v>114</v>
       </c>
@@ -49556,28 +49556,28 @@
       <c r="AK3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AL3" s="450" t="s">
+      <c r="AL3" s="475" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" s="451" t="s">
+      <c r="AM3" s="476" t="s">
         <v>86</v>
       </c>
-      <c r="AN3" s="451"/>
-      <c r="AO3" s="451"/>
-      <c r="AP3" s="451"/>
+      <c r="AN3" s="476"/>
+      <c r="AO3" s="476"/>
+      <c r="AP3" s="476"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="475"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="475"/>
+      <c r="A4" s="525"/>
+      <c r="B4" s="525"/>
+      <c r="C4" s="525"/>
       <c r="D4" s="297" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="297" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="475"/>
-      <c r="G4" s="479"/>
+      <c r="F4" s="525"/>
+      <c r="G4" s="520"/>
       <c r="H4" s="294" t="s">
         <v>111</v>
       </c>
@@ -49590,7 +49590,7 @@
       <c r="K4" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="502"/>
+      <c r="L4" s="541"/>
       <c r="M4" s="410" t="s">
         <v>111</v>
       </c>
@@ -49603,7 +49603,7 @@
       <c r="P4" s="410" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="502"/>
+      <c r="Q4" s="541"/>
       <c r="R4" s="367" t="s">
         <v>111</v>
       </c>
@@ -49616,7 +49616,7 @@
       <c r="U4" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="450"/>
+      <c r="V4" s="475"/>
       <c r="W4" s="364" t="s">
         <v>111</v>
       </c>
@@ -49629,7 +49629,7 @@
       <c r="Z4" s="364" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="479"/>
+      <c r="AA4" s="520"/>
       <c r="AB4" s="294" t="s">
         <v>111</v>
       </c>
@@ -49646,7 +49646,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AL4" s="450"/>
+      <c r="AL4" s="475"/>
       <c r="AM4" s="285" t="s">
         <v>111</v>
       </c>
@@ -49661,10 +49661,10 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="524" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="474"/>
+      <c r="B5" s="524"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -49734,11 +49734,11 @@
       <c r="AC6" s="291"/>
       <c r="AD6" s="291"/>
       <c r="AE6" s="291"/>
-      <c r="AG6" s="482">
+      <c r="AG6" s="516">
         <f>SUM(R7:T9)</f>
         <v>16.25</v>
       </c>
-      <c r="AH6" s="482">
+      <c r="AH6" s="516">
         <f>SUM(Z7:Z9)</f>
         <v>6.9</v>
       </c>
@@ -49836,8 +49836,8 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="483"/>
-      <c r="AH7" s="483"/>
+      <c r="AG7" s="517"/>
+      <c r="AH7" s="517"/>
       <c r="AI7" s="37"/>
       <c r="AK7" s="72" t="e">
         <f>#REF!-W7</f>
@@ -49924,8 +49924,8 @@
         <v>0</v>
       </c>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="483"/>
-      <c r="AH8" s="483"/>
+      <c r="AG8" s="517"/>
+      <c r="AH8" s="517"/>
       <c r="AI8" s="37"/>
       <c r="AL8" s="54" t="s">
         <v>78</v>
@@ -50029,8 +50029,8 @@
         <v>43.39</v>
       </c>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="483"/>
-      <c r="AH9" s="483"/>
+      <c r="AG9" s="517"/>
+      <c r="AH9" s="517"/>
       <c r="AI9" s="37"/>
       <c r="AK9" s="72" t="e">
         <f>#REF!-W9</f>
@@ -50525,11 +50525,11 @@
         <v>0.79</v>
       </c>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="482" t="e">
+      <c r="AG14" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH14" s="482">
+      <c r="AH14" s="516">
         <f>SUM(Z14:Z16)</f>
         <v>0.05</v>
       </c>
@@ -50640,8 +50640,8 @@
         <v>0.97</v>
       </c>
       <c r="AF15" s="37"/>
-      <c r="AG15" s="483"/>
-      <c r="AH15" s="483"/>
+      <c r="AG15" s="517"/>
+      <c r="AH15" s="517"/>
       <c r="AI15" s="37"/>
       <c r="AK15" s="72" t="e">
         <f>#REF!-W15</f>
@@ -50749,8 +50749,8 @@
         <v>0.47</v>
       </c>
       <c r="AF16" s="37"/>
-      <c r="AG16" s="483"/>
-      <c r="AH16" s="483"/>
+      <c r="AG16" s="517"/>
+      <c r="AH16" s="517"/>
       <c r="AI16" s="37"/>
       <c r="AK16" s="72" t="e">
         <f>#REF!-W16</f>
@@ -50973,11 +50973,11 @@
         <v>1.23</v>
       </c>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="482" t="e">
+      <c r="AG18" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH18" s="482">
+      <c r="AH18" s="516">
         <f>SUM(Z18:Z19)</f>
         <v>1.2200000000000002</v>
       </c>
@@ -51088,8 +51088,8 @@
         <v>9.84</v>
       </c>
       <c r="AF19" s="37"/>
-      <c r="AG19" s="482"/>
-      <c r="AH19" s="483"/>
+      <c r="AG19" s="516"/>
+      <c r="AH19" s="517"/>
       <c r="AI19" s="37"/>
       <c r="AK19" s="72" t="e">
         <f>#REF!-W19</f>
@@ -51197,11 +51197,11 @@
         <v>17.809999999999999</v>
       </c>
       <c r="AF20" s="37"/>
-      <c r="AG20" s="482" t="e">
+      <c r="AG20" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH20" s="482">
+      <c r="AH20" s="516">
         <f>SUM(Z20:Z21)</f>
         <v>5.03</v>
       </c>
@@ -51312,8 +51312,8 @@
         <v>69.33</v>
       </c>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="483"/>
-      <c r="AH21" s="483"/>
+      <c r="AG21" s="517"/>
+      <c r="AH21" s="517"/>
       <c r="AI21" s="37"/>
       <c r="AK21" s="72" t="e">
         <f>#REF!-W21</f>
@@ -51794,7 +51794,7 @@
       </c>
     </row>
     <row r="26" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="484">
+      <c r="A26" s="518">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -51846,7 +51846,7 @@
       <c r="AP26" s="65"/>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="484"/>
+      <c r="A27" s="518"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -51908,7 +51908,7 @@
       <c r="AP27" s="65"/>
     </row>
     <row r="28" spans="1:42" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="484"/>
+      <c r="A28" s="518"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -51993,15 +51993,15 @@
         <v>301.5</v>
       </c>
       <c r="AF28" s="37"/>
-      <c r="AG28" s="485" t="e">
+      <c r="AG28" s="507" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH28" s="485">
+      <c r="AH28" s="507">
         <f>SUM(Z28:Z30)</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="491">
+      <c r="AI28" s="503">
         <f>SUM(X28:X30)</f>
         <v>0</v>
       </c>
@@ -52027,7 +52027,7 @@
       </c>
     </row>
     <row r="29" spans="1:42" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="484"/>
+      <c r="A29" s="518"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -52112,9 +52112,9 @@
         <v>1346.6299999999999</v>
       </c>
       <c r="AF29" s="37"/>
-      <c r="AG29" s="486"/>
-      <c r="AH29" s="486"/>
-      <c r="AI29" s="492"/>
+      <c r="AG29" s="508"/>
+      <c r="AH29" s="508"/>
+      <c r="AI29" s="504"/>
       <c r="AK29" s="72" t="e">
         <f>#REF!-W29</f>
         <v>#REF!</v>
@@ -52137,7 +52137,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="484"/>
+      <c r="A30" s="518"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -52222,9 +52222,9 @@
         <v>578.20000000000005</v>
       </c>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="486"/>
-      <c r="AH30" s="486"/>
-      <c r="AI30" s="492"/>
+      <c r="AG30" s="508"/>
+      <c r="AH30" s="508"/>
+      <c r="AI30" s="504"/>
       <c r="AK30" s="72" t="e">
         <f>#REF!-W30</f>
         <v>#REF!</v>
@@ -52604,7 +52604,7 @@
       </c>
     </row>
     <row r="34" spans="1:42" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="487">
+      <c r="A34" s="513">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -52691,11 +52691,11 @@
         <v>13.49</v>
       </c>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="485" t="e">
+      <c r="AG34" s="507" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH34" s="485">
+      <c r="AH34" s="507">
         <f>SUM(Z34:Z36)</f>
         <v>0.76</v>
       </c>
@@ -52719,7 +52719,7 @@
       </c>
     </row>
     <row r="35" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="488"/>
+      <c r="A35" s="514"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -52804,8 +52804,8 @@
         <v>1.29</v>
       </c>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="486"/>
-      <c r="AH35" s="486"/>
+      <c r="AG35" s="508"/>
+      <c r="AH35" s="508"/>
       <c r="AI35" s="37"/>
       <c r="AK35" s="72" t="e">
         <f>#REF!-W35</f>
@@ -52826,7 +52826,7 @@
       </c>
     </row>
     <row r="36" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="489"/>
+      <c r="A36" s="515"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -52911,8 +52911,8 @@
         <v>1.3</v>
       </c>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="486"/>
-      <c r="AH36" s="486"/>
+      <c r="AG36" s="508"/>
+      <c r="AH36" s="508"/>
       <c r="AI36" s="37"/>
       <c r="AK36" s="72" t="e">
         <f>#REF!-W36</f>
@@ -53409,11 +53409,11 @@
         <v>64.319999999999993</v>
       </c>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="485" t="e">
+      <c r="AG41" s="507" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH41" s="485">
+      <c r="AH41" s="507">
         <f>SUM(Z41:Z50)</f>
         <v>3.07</v>
       </c>
@@ -53524,8 +53524,8 @@
         <v>3.2</v>
       </c>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="486"/>
-      <c r="AH42" s="486"/>
+      <c r="AG42" s="508"/>
+      <c r="AH42" s="508"/>
       <c r="AI42" s="37"/>
       <c r="AK42" s="72" t="e">
         <f>#REF!-W42</f>
@@ -53633,8 +53633,8 @@
         <v>5.3599999999999994</v>
       </c>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="486"/>
-      <c r="AH43" s="486"/>
+      <c r="AG43" s="508"/>
+      <c r="AH43" s="508"/>
       <c r="AI43" s="37"/>
       <c r="AK43" s="72" t="e">
         <f>#REF!-W43</f>
@@ -53742,8 +53742,8 @@
         <v>1.35</v>
       </c>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="486"/>
-      <c r="AH44" s="486"/>
+      <c r="AG44" s="508"/>
+      <c r="AH44" s="508"/>
       <c r="AI44" s="37"/>
       <c r="AK44" s="72" t="e">
         <f>#REF!-W44</f>
@@ -53849,8 +53849,8 @@
         <v>19.98</v>
       </c>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="486"/>
-      <c r="AH45" s="486"/>
+      <c r="AG45" s="508"/>
+      <c r="AH45" s="508"/>
       <c r="AI45" s="37"/>
       <c r="AK45" s="72" t="e">
         <f>#REF!-W45</f>
@@ -53958,8 +53958,8 @@
         <v>14.53</v>
       </c>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="486"/>
-      <c r="AH46" s="486"/>
+      <c r="AG46" s="508"/>
+      <c r="AH46" s="508"/>
       <c r="AI46" s="37"/>
       <c r="AK46" s="72" t="e">
         <f>#REF!-W46</f>
@@ -54067,8 +54067,8 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="486"/>
-      <c r="AH47" s="486"/>
+      <c r="AG47" s="508"/>
+      <c r="AH47" s="508"/>
       <c r="AI47" s="37"/>
       <c r="AK47" s="72" t="e">
         <f>#REF!-W47</f>
@@ -54184,8 +54184,8 @@
         <v>95.03</v>
       </c>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="486"/>
-      <c r="AH48" s="486"/>
+      <c r="AG48" s="508"/>
+      <c r="AH48" s="508"/>
       <c r="AI48" s="71">
         <f>X48</f>
         <v>0</v>
@@ -54302,8 +54302,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AF49" s="37"/>
-      <c r="AG49" s="486"/>
-      <c r="AH49" s="486"/>
+      <c r="AG49" s="508"/>
+      <c r="AH49" s="508"/>
       <c r="AI49" s="37"/>
       <c r="AK49" s="72" t="e">
         <f>#REF!-W49</f>
@@ -54411,8 +54411,8 @@
         <v>7.48</v>
       </c>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="486"/>
-      <c r="AH50" s="486"/>
+      <c r="AG50" s="508"/>
+      <c r="AH50" s="508"/>
       <c r="AI50" s="37"/>
       <c r="AK50" s="72" t="e">
         <f>#REF!-W50</f>
@@ -54580,88 +54580,88 @@
     <row r="52" spans="1:42" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="493"/>
-      <c r="D52" s="493"/>
-      <c r="E52" s="490"/>
-      <c r="F52" s="493"/>
-      <c r="G52" s="493"/>
-      <c r="H52" s="493"/>
-      <c r="I52" s="490"/>
-      <c r="J52" s="493"/>
-      <c r="K52" s="493"/>
-      <c r="L52" s="511"/>
-      <c r="M52" s="509"/>
-      <c r="N52" s="511"/>
-      <c r="O52" s="509"/>
-      <c r="P52" s="511"/>
-      <c r="Q52" s="511"/>
-      <c r="R52" s="509"/>
-      <c r="S52" s="511"/>
-      <c r="T52" s="509"/>
-      <c r="U52" s="511"/>
-      <c r="V52" s="446"/>
-      <c r="W52" s="446"/>
-      <c r="X52" s="446"/>
-      <c r="Y52" s="446"/>
-      <c r="Z52" s="446"/>
-      <c r="AA52" s="490"/>
-      <c r="AB52" s="490"/>
-      <c r="AC52" s="490"/>
-      <c r="AD52" s="490"/>
-      <c r="AE52" s="490"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="505"/>
+      <c r="E52" s="506"/>
+      <c r="F52" s="505"/>
+      <c r="G52" s="505"/>
+      <c r="H52" s="505"/>
+      <c r="I52" s="506"/>
+      <c r="J52" s="505"/>
+      <c r="K52" s="505"/>
+      <c r="L52" s="536"/>
+      <c r="M52" s="538"/>
+      <c r="N52" s="536"/>
+      <c r="O52" s="538"/>
+      <c r="P52" s="536"/>
+      <c r="Q52" s="536"/>
+      <c r="R52" s="538"/>
+      <c r="S52" s="536"/>
+      <c r="T52" s="538"/>
+      <c r="U52" s="536"/>
+      <c r="V52" s="499"/>
+      <c r="W52" s="499"/>
+      <c r="X52" s="499"/>
+      <c r="Y52" s="499"/>
+      <c r="Z52" s="499"/>
+      <c r="AA52" s="506"/>
+      <c r="AB52" s="506"/>
+      <c r="AC52" s="506"/>
+      <c r="AD52" s="506"/>
+      <c r="AE52" s="506"/>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
-      <c r="AL52" s="446"/>
-      <c r="AM52" s="446"/>
-      <c r="AN52" s="446"/>
-      <c r="AO52" s="446"/>
-      <c r="AP52" s="446"/>
+      <c r="AL52" s="499"/>
+      <c r="AM52" s="499"/>
+      <c r="AN52" s="499"/>
+      <c r="AO52" s="499"/>
+      <c r="AP52" s="499"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="493"/>
-      <c r="D53" s="493"/>
-      <c r="E53" s="490"/>
-      <c r="F53" s="493"/>
-      <c r="G53" s="493"/>
-      <c r="H53" s="493"/>
-      <c r="I53" s="490"/>
-      <c r="J53" s="493"/>
-      <c r="K53" s="493"/>
-      <c r="L53" s="512"/>
-      <c r="M53" s="510"/>
-      <c r="N53" s="512"/>
-      <c r="O53" s="510"/>
-      <c r="P53" s="512"/>
-      <c r="Q53" s="512"/>
-      <c r="R53" s="510"/>
-      <c r="S53" s="512"/>
-      <c r="T53" s="510"/>
-      <c r="U53" s="512"/>
-      <c r="V53" s="446"/>
-      <c r="W53" s="446"/>
-      <c r="X53" s="446"/>
-      <c r="Y53" s="446"/>
-      <c r="Z53" s="446"/>
-      <c r="AA53" s="490"/>
-      <c r="AB53" s="490"/>
-      <c r="AC53" s="490"/>
-      <c r="AD53" s="490"/>
-      <c r="AE53" s="490"/>
+      <c r="C53" s="505"/>
+      <c r="D53" s="505"/>
+      <c r="E53" s="506"/>
+      <c r="F53" s="505"/>
+      <c r="G53" s="505"/>
+      <c r="H53" s="505"/>
+      <c r="I53" s="506"/>
+      <c r="J53" s="505"/>
+      <c r="K53" s="505"/>
+      <c r="L53" s="537"/>
+      <c r="M53" s="539"/>
+      <c r="N53" s="537"/>
+      <c r="O53" s="539"/>
+      <c r="P53" s="537"/>
+      <c r="Q53" s="537"/>
+      <c r="R53" s="539"/>
+      <c r="S53" s="537"/>
+      <c r="T53" s="539"/>
+      <c r="U53" s="537"/>
+      <c r="V53" s="499"/>
+      <c r="W53" s="499"/>
+      <c r="X53" s="499"/>
+      <c r="Y53" s="499"/>
+      <c r="Z53" s="499"/>
+      <c r="AA53" s="506"/>
+      <c r="AB53" s="506"/>
+      <c r="AC53" s="506"/>
+      <c r="AD53" s="506"/>
+      <c r="AE53" s="506"/>
       <c r="AF53" s="37"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
-      <c r="AL53" s="446"/>
-      <c r="AM53" s="446"/>
-      <c r="AN53" s="446"/>
-      <c r="AO53" s="446"/>
-      <c r="AP53" s="446"/>
+      <c r="AL53" s="499"/>
+      <c r="AM53" s="499"/>
+      <c r="AN53" s="499"/>
+      <c r="AO53" s="499"/>
+      <c r="AP53" s="499"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
@@ -54708,7 +54708,7 @@
       <c r="AP54" s="57"/>
     </row>
     <row r="55" spans="1:42" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="494">
+      <c r="A55" s="512">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -54782,11 +54782,11 @@
         <v>606.9</v>
       </c>
       <c r="AF55" s="37"/>
-      <c r="AG55" s="485" t="e">
+      <c r="AG55" s="507" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH55" s="485">
+      <c r="AH55" s="507">
         <f>SUM(Z55:Z56)</f>
         <v>0</v>
       </c>
@@ -54806,7 +54806,7 @@
       </c>
     </row>
     <row r="56" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="494"/>
+      <c r="A56" s="512"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -54882,8 +54882,8 @@
         <v>50.22</v>
       </c>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="486"/>
-      <c r="AH56" s="486"/>
+      <c r="AG56" s="508"/>
+      <c r="AH56" s="508"/>
       <c r="AI56" s="37"/>
       <c r="AL56" s="196"/>
       <c r="AM56" s="54">
@@ -54994,7 +54994,7 @@
       </c>
     </row>
     <row r="58" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="497">
+      <c r="A58" s="511">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -55068,11 +55068,11 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="485" t="e">
+      <c r="AG58" s="507" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH58" s="485">
+      <c r="AH58" s="507">
         <f>SUM(Z58:Z59)</f>
         <v>0</v>
       </c>
@@ -55090,7 +55090,7 @@
       </c>
     </row>
     <row r="59" spans="1:42" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="497"/>
+      <c r="A59" s="511"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -55162,8 +55162,8 @@
         <v>0.79</v>
       </c>
       <c r="AF59" s="37"/>
-      <c r="AG59" s="486"/>
-      <c r="AH59" s="486"/>
+      <c r="AG59" s="508"/>
+      <c r="AH59" s="508"/>
       <c r="AI59" s="37"/>
       <c r="AL59" s="196"/>
       <c r="AM59" s="54">
@@ -55178,7 +55178,7 @@
       </c>
     </row>
     <row r="60" spans="1:42" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="497">
+      <c r="A60" s="511">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -55252,11 +55252,11 @@
         <v>20.18</v>
       </c>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="485" t="e">
+      <c r="AG60" s="507" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH60" s="485">
+      <c r="AH60" s="507">
         <f>SUM(Z60:Z62)</f>
         <v>0</v>
       </c>
@@ -55274,7 +55274,7 @@
       </c>
     </row>
     <row r="61" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="497"/>
+      <c r="A61" s="511"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -55346,8 +55346,8 @@
         <v>2.13</v>
       </c>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="486"/>
-      <c r="AH61" s="486"/>
+      <c r="AG61" s="508"/>
+      <c r="AH61" s="508"/>
       <c r="AI61" s="37"/>
       <c r="AL61" s="196"/>
       <c r="AM61" s="54">
@@ -55362,7 +55362,7 @@
       </c>
     </row>
     <row r="62" spans="1:42" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="497"/>
+      <c r="A62" s="511"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -55442,8 +55442,8 @@
         <v>9.49</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="486"/>
-      <c r="AH62" s="486"/>
+      <c r="AG62" s="508"/>
+      <c r="AH62" s="508"/>
       <c r="AI62" s="37"/>
       <c r="AL62" s="196" t="s">
         <v>78</v>
@@ -55460,7 +55460,7 @@
       </c>
     </row>
     <row r="63" spans="1:42" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="497">
+      <c r="A63" s="511">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -55538,11 +55538,11 @@
         <v>19.47</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="485" t="e">
+      <c r="AG63" s="507" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH63" s="485">
+      <c r="AH63" s="507">
         <f>SUM(Z63:Z66)</f>
         <v>0</v>
       </c>
@@ -55560,7 +55560,7 @@
       </c>
     </row>
     <row r="64" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="497"/>
+      <c r="A64" s="511"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -55636,8 +55636,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="486"/>
-      <c r="AH64" s="486"/>
+      <c r="AG64" s="508"/>
+      <c r="AH64" s="508"/>
       <c r="AI64" s="37"/>
       <c r="AL64" s="196"/>
       <c r="AM64" s="54">
@@ -55652,7 +55652,7 @@
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A65" s="497"/>
+      <c r="A65" s="511"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -55728,8 +55728,8 @@
         <v>0.2</v>
       </c>
       <c r="AF65" s="37"/>
-      <c r="AG65" s="486"/>
-      <c r="AH65" s="486"/>
+      <c r="AG65" s="508"/>
+      <c r="AH65" s="508"/>
       <c r="AI65" s="37"/>
       <c r="AL65" s="196"/>
       <c r="AM65" s="54">
@@ -55744,7 +55744,7 @@
       </c>
     </row>
     <row r="66" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="497"/>
+      <c r="A66" s="511"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -55820,8 +55820,8 @@
         <v>4.08</v>
       </c>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="486"/>
-      <c r="AH66" s="486"/>
+      <c r="AG66" s="508"/>
+      <c r="AH66" s="508"/>
       <c r="AI66" s="37"/>
       <c r="AL66" s="196"/>
       <c r="AM66" s="54">
@@ -55910,11 +55910,11 @@
         <v>45.32</v>
       </c>
       <c r="AF67" s="37"/>
-      <c r="AG67" s="495" t="e">
+      <c r="AG67" s="509" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH67" s="495">
+      <c r="AH67" s="509">
         <f>SUM(Z67:Z68)</f>
         <v>0</v>
       </c>
@@ -56008,8 +56008,8 @@
         <v>9.73</v>
       </c>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="496"/>
-      <c r="AH68" s="496"/>
+      <c r="AG68" s="510"/>
+      <c r="AH68" s="510"/>
       <c r="AI68" s="37"/>
       <c r="AL68" s="196" t="s">
         <v>78</v>
@@ -56252,15 +56252,15 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="485" t="e">
+      <c r="AG72" s="507" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH72" s="485">
+      <c r="AH72" s="507">
         <f>SUM(Z72:Z85)</f>
         <v>46.96</v>
       </c>
-      <c r="AI72" s="485">
+      <c r="AI72" s="507">
         <f>SUM(X72:X85)</f>
         <v>41.09</v>
       </c>
@@ -56349,9 +56349,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="37"/>
-      <c r="AG73" s="486"/>
-      <c r="AH73" s="486"/>
-      <c r="AI73" s="486"/>
+      <c r="AG73" s="508"/>
+      <c r="AH73" s="508"/>
+      <c r="AI73" s="508"/>
       <c r="AL73" s="79" t="s">
         <v>136</v>
       </c>
@@ -56410,9 +56410,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="486"/>
-      <c r="AH74" s="486"/>
-      <c r="AI74" s="486"/>
+      <c r="AG74" s="508"/>
+      <c r="AH74" s="508"/>
+      <c r="AI74" s="508"/>
       <c r="AL74" s="81"/>
       <c r="AM74" s="65"/>
       <c r="AN74" s="65"/>
@@ -56498,9 +56498,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="37"/>
-      <c r="AG75" s="486"/>
-      <c r="AH75" s="486"/>
-      <c r="AI75" s="486"/>
+      <c r="AG75" s="508"/>
+      <c r="AH75" s="508"/>
+      <c r="AI75" s="508"/>
       <c r="AL75" s="79" t="s">
         <v>137</v>
       </c>
@@ -56613,9 +56613,9 @@
         <v>6143.66</v>
       </c>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="486"/>
-      <c r="AH76" s="486"/>
-      <c r="AI76" s="486"/>
+      <c r="AG76" s="508"/>
+      <c r="AH76" s="508"/>
+      <c r="AI76" s="508"/>
       <c r="AL76" s="79" t="s">
         <v>110</v>
       </c>
@@ -56728,9 +56728,9 @@
         <v>6011.48</v>
       </c>
       <c r="AF77" s="37"/>
-      <c r="AG77" s="486"/>
-      <c r="AH77" s="486"/>
-      <c r="AI77" s="486"/>
+      <c r="AG77" s="508"/>
+      <c r="AH77" s="508"/>
+      <c r="AI77" s="508"/>
       <c r="AK77" s="116"/>
       <c r="AL77" s="79" t="s">
         <v>109</v>
@@ -56788,9 +56788,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="486"/>
-      <c r="AH78" s="486"/>
-      <c r="AI78" s="486"/>
+      <c r="AG78" s="508"/>
+      <c r="AH78" s="508"/>
+      <c r="AI78" s="508"/>
       <c r="AK78" s="116"/>
       <c r="AL78" s="81"/>
       <c r="AM78" s="67"/>
@@ -56877,9 +56877,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="37"/>
-      <c r="AG79" s="486"/>
-      <c r="AH79" s="486"/>
-      <c r="AI79" s="486"/>
+      <c r="AG79" s="508"/>
+      <c r="AH79" s="508"/>
+      <c r="AI79" s="508"/>
       <c r="AK79" s="116"/>
       <c r="AL79" s="79" t="s">
         <v>138</v>
@@ -56977,9 +56977,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="486"/>
-      <c r="AH80" s="486"/>
-      <c r="AI80" s="486"/>
+      <c r="AG80" s="508"/>
+      <c r="AH80" s="508"/>
+      <c r="AI80" s="508"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="79" t="s">
         <v>135</v>
@@ -57077,9 +57077,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="37"/>
-      <c r="AG81" s="486"/>
-      <c r="AH81" s="486"/>
-      <c r="AI81" s="486"/>
+      <c r="AG81" s="508"/>
+      <c r="AH81" s="508"/>
+      <c r="AI81" s="508"/>
       <c r="AJ81" s="116"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="79" t="s">
@@ -57194,9 +57194,9 @@
         <v>6127.0599999999995</v>
       </c>
       <c r="AF82" s="37"/>
-      <c r="AG82" s="486"/>
-      <c r="AH82" s="486"/>
-      <c r="AI82" s="486"/>
+      <c r="AG82" s="508"/>
+      <c r="AH82" s="508"/>
+      <c r="AI82" s="508"/>
       <c r="AK82" s="118"/>
       <c r="AL82" s="79" t="s">
         <v>108</v>
@@ -57294,9 +57294,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="37"/>
-      <c r="AG83" s="486"/>
-      <c r="AH83" s="486"/>
-      <c r="AI83" s="486"/>
+      <c r="AG83" s="508"/>
+      <c r="AH83" s="508"/>
+      <c r="AI83" s="508"/>
       <c r="AL83" s="79" t="s">
         <v>140</v>
       </c>
@@ -57393,9 +57393,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="37"/>
-      <c r="AG84" s="486"/>
-      <c r="AH84" s="486"/>
-      <c r="AI84" s="486"/>
+      <c r="AG84" s="508"/>
+      <c r="AH84" s="508"/>
+      <c r="AI84" s="508"/>
       <c r="AL84" s="79" t="s">
         <v>105</v>
       </c>
@@ -57455,9 +57455,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="37"/>
-      <c r="AG85" s="486"/>
-      <c r="AH85" s="486"/>
-      <c r="AI85" s="486"/>
+      <c r="AG85" s="508"/>
+      <c r="AH85" s="508"/>
+      <c r="AI85" s="508"/>
       <c r="AJ85" s="75"/>
       <c r="AL85" s="63"/>
       <c r="AM85" s="65"/>
@@ -57842,11 +57842,11 @@
       <c r="AF89" s="37"/>
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
-      <c r="AI89" s="491">
+      <c r="AI89" s="503">
         <f>AI87+AJ87</f>
         <v>278.73</v>
       </c>
-      <c r="AJ89" s="492"/>
+      <c r="AJ89" s="504"/>
       <c r="AL89" s="61"/>
       <c r="AM89" s="60"/>
       <c r="AN89" s="60"/>
@@ -58086,8 +58086,8 @@
         <f>SUM(Z73:Z85)+Z48</f>
         <v>46.96</v>
       </c>
-      <c r="AO93" s="472"/>
-      <c r="AP93" s="473"/>
+      <c r="AO93" s="522"/>
+      <c r="AP93" s="523"/>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G94" s="4" t="s">
@@ -58621,32 +58621,60 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AO93:AP93"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AG63:AG66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AG72:AG85"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AG60:AG62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="AL52:AL53"/>
-    <mergeCell ref="AM52:AM53"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AG34:AG36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AG41:AG50"/>
+    <mergeCell ref="AH41:AH50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="Q52:Q53"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="AG55:AG56"/>
     <mergeCell ref="AH55:AH56"/>
@@ -58663,60 +58691,32 @@
     <mergeCell ref="S52:S53"/>
     <mergeCell ref="T52:T53"/>
     <mergeCell ref="U52:U53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AG34:AG36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AG41:AG50"/>
-    <mergeCell ref="AH41:AH50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="AL52:AL53"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AG60:AG62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AO93:AP93"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AG63:AG66"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AG72:AG85"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.02" top="0.2" bottom="0.2" header="0.3" footer="0.1"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>

--- a/Civilworks cost/Expenditure_2018_19/Check/Cost Calculation 19-20 RADP Target(5).xlsx
+++ b/Civilworks cost/Expenditure_2018_19/Check/Cost Calculation 19-20 RADP Target(5).xlsx
@@ -3016,6 +3016,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3023,9 +3044,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3040,13 +3058,19 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3064,15 +3088,16 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3082,88 +3107,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3184,37 +3127,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3232,15 +3208,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3249,6 +3216,39 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3598,11 +3598,11 @@
   <dimension ref="A1:CK115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="AZ70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="AZ8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="BU4" sqref="BU4"/>
+      <selection pane="bottomRight" activeCell="BX12" sqref="BX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3741,266 +3741,266 @@
       <c r="CK1" s="406"/>
     </row>
     <row r="2" spans="1:89" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="489" t="s">
+      <c r="A2" s="476" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="489" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="474" t="s">
+      <c r="B2" s="476" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="475" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="474"/>
-      <c r="E2" s="474"/>
-      <c r="F2" s="474"/>
-      <c r="G2" s="500" t="s">
+      <c r="D2" s="475"/>
+      <c r="E2" s="475"/>
+      <c r="F2" s="475"/>
+      <c r="G2" s="471" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="501"/>
-      <c r="I2" s="501"/>
-      <c r="J2" s="501"/>
-      <c r="K2" s="502"/>
-      <c r="L2" s="482" t="s">
+      <c r="H2" s="472"/>
+      <c r="I2" s="472"/>
+      <c r="J2" s="472"/>
+      <c r="K2" s="473"/>
+      <c r="L2" s="490" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="483"/>
-      <c r="N2" s="483"/>
-      <c r="O2" s="483"/>
-      <c r="P2" s="484"/>
-      <c r="Q2" s="474" t="s">
+      <c r="M2" s="491"/>
+      <c r="N2" s="491"/>
+      <c r="O2" s="491"/>
+      <c r="P2" s="492"/>
+      <c r="Q2" s="475" t="s">
         <v>170</v>
       </c>
-      <c r="R2" s="474"/>
-      <c r="S2" s="474"/>
-      <c r="T2" s="474"/>
-      <c r="U2" s="474"/>
-      <c r="V2" s="482" t="s">
+      <c r="R2" s="475"/>
+      <c r="S2" s="475"/>
+      <c r="T2" s="475"/>
+      <c r="U2" s="475"/>
+      <c r="V2" s="490" t="s">
         <v>172</v>
       </c>
-      <c r="W2" s="483"/>
-      <c r="X2" s="483"/>
-      <c r="Y2" s="483"/>
-      <c r="Z2" s="484"/>
-      <c r="AA2" s="474" t="s">
+      <c r="W2" s="491"/>
+      <c r="X2" s="491"/>
+      <c r="Y2" s="491"/>
+      <c r="Z2" s="492"/>
+      <c r="AA2" s="475" t="s">
         <v>173</v>
       </c>
-      <c r="AB2" s="474"/>
-      <c r="AC2" s="474"/>
-      <c r="AD2" s="474"/>
-      <c r="AE2" s="474"/>
-      <c r="AF2" s="482" t="s">
+      <c r="AB2" s="475"/>
+      <c r="AC2" s="475"/>
+      <c r="AD2" s="475"/>
+      <c r="AE2" s="475"/>
+      <c r="AF2" s="490" t="s">
         <v>171</v>
       </c>
-      <c r="AG2" s="483"/>
-      <c r="AH2" s="483"/>
-      <c r="AI2" s="483"/>
-      <c r="AJ2" s="484"/>
-      <c r="AK2" s="474" t="s">
+      <c r="AG2" s="491"/>
+      <c r="AH2" s="491"/>
+      <c r="AI2" s="491"/>
+      <c r="AJ2" s="492"/>
+      <c r="AK2" s="475" t="s">
         <v>112</v>
       </c>
-      <c r="AL2" s="474"/>
-      <c r="AM2" s="474"/>
-      <c r="AN2" s="474"/>
-      <c r="AO2" s="474"/>
-      <c r="AP2" s="482" t="s">
+      <c r="AL2" s="475"/>
+      <c r="AM2" s="475"/>
+      <c r="AN2" s="475"/>
+      <c r="AO2" s="475"/>
+      <c r="AP2" s="490" t="s">
         <v>116</v>
       </c>
-      <c r="AQ2" s="483"/>
-      <c r="AR2" s="483"/>
-      <c r="AS2" s="483"/>
-      <c r="AT2" s="484"/>
-      <c r="AU2" s="474" t="s">
+      <c r="AQ2" s="491"/>
+      <c r="AR2" s="491"/>
+      <c r="AS2" s="491"/>
+      <c r="AT2" s="492"/>
+      <c r="AU2" s="475" t="s">
         <v>174</v>
       </c>
-      <c r="AV2" s="474"/>
-      <c r="AW2" s="474"/>
-      <c r="AX2" s="474"/>
-      <c r="AY2" s="474"/>
-      <c r="AZ2" s="471" t="s">
+      <c r="AV2" s="475"/>
+      <c r="AW2" s="475"/>
+      <c r="AX2" s="475"/>
+      <c r="AY2" s="475"/>
+      <c r="AZ2" s="478" t="s">
         <v>143</v>
       </c>
-      <c r="BA2" s="472"/>
-      <c r="BB2" s="472"/>
-      <c r="BC2" s="472"/>
-      <c r="BD2" s="473"/>
-      <c r="BE2" s="474" t="s">
+      <c r="BA2" s="479"/>
+      <c r="BB2" s="479"/>
+      <c r="BC2" s="479"/>
+      <c r="BD2" s="480"/>
+      <c r="BE2" s="475" t="s">
         <v>175</v>
       </c>
-      <c r="BF2" s="474"/>
-      <c r="BG2" s="474"/>
-      <c r="BH2" s="474"/>
-      <c r="BI2" s="474"/>
-      <c r="BJ2" s="471" t="s">
+      <c r="BF2" s="475"/>
+      <c r="BG2" s="475"/>
+      <c r="BH2" s="475"/>
+      <c r="BI2" s="475"/>
+      <c r="BJ2" s="478" t="s">
         <v>223</v>
       </c>
-      <c r="BK2" s="472"/>
-      <c r="BL2" s="472"/>
-      <c r="BM2" s="472"/>
-      <c r="BN2" s="473"/>
-      <c r="BO2" s="474" t="s">
+      <c r="BK2" s="479"/>
+      <c r="BL2" s="479"/>
+      <c r="BM2" s="479"/>
+      <c r="BN2" s="480"/>
+      <c r="BO2" s="475" t="s">
         <v>224</v>
       </c>
-      <c r="BP2" s="474"/>
-      <c r="BQ2" s="474"/>
-      <c r="BR2" s="474"/>
-      <c r="BS2" s="474"/>
+      <c r="BP2" s="475"/>
+      <c r="BQ2" s="475"/>
+      <c r="BR2" s="475"/>
+      <c r="BS2" s="475"/>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A3" s="489"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="489" t="s">
+      <c r="A3" s="476"/>
+      <c r="B3" s="476"/>
+      <c r="C3" s="476" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="489" t="s">
+      <c r="D3" s="476" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="489"/>
-      <c r="F3" s="489" t="s">
+      <c r="E3" s="476"/>
+      <c r="F3" s="476" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="479" t="s">
+      <c r="G3" s="474" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="490" t="s">
+      <c r="H3" s="495" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="490" t="s">
+      <c r="I3" s="495" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="490"/>
-      <c r="K3" s="490" t="s">
+      <c r="J3" s="495"/>
+      <c r="K3" s="495" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="479" t="s">
+      <c r="L3" s="474" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="480" t="s">
+      <c r="M3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="480"/>
-      <c r="O3" s="480"/>
-      <c r="P3" s="480"/>
-      <c r="Q3" s="496" t="s">
+      <c r="N3" s="485"/>
+      <c r="O3" s="485"/>
+      <c r="P3" s="485"/>
+      <c r="Q3" s="487" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="497" t="s">
+      <c r="R3" s="488" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="497"/>
-      <c r="T3" s="497"/>
-      <c r="U3" s="497"/>
-      <c r="V3" s="479" t="s">
+      <c r="S3" s="488"/>
+      <c r="T3" s="488"/>
+      <c r="U3" s="488"/>
+      <c r="V3" s="474" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="480" t="s">
+      <c r="W3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="480"/>
-      <c r="Y3" s="480"/>
-      <c r="Z3" s="480"/>
-      <c r="AA3" s="477" t="s">
+      <c r="X3" s="485"/>
+      <c r="Y3" s="485"/>
+      <c r="Z3" s="485"/>
+      <c r="AA3" s="483" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="478" t="s">
+      <c r="AB3" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="478"/>
-      <c r="AD3" s="478"/>
-      <c r="AE3" s="478"/>
-      <c r="AF3" s="479" t="s">
+      <c r="AC3" s="484"/>
+      <c r="AD3" s="484"/>
+      <c r="AE3" s="484"/>
+      <c r="AF3" s="474" t="s">
         <v>87</v>
       </c>
-      <c r="AG3" s="480" t="s">
+      <c r="AG3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="480"/>
-      <c r="AI3" s="480"/>
-      <c r="AJ3" s="480"/>
-      <c r="AK3" s="477" t="s">
+      <c r="AH3" s="485"/>
+      <c r="AI3" s="485"/>
+      <c r="AJ3" s="485"/>
+      <c r="AK3" s="483" t="s">
         <v>87</v>
       </c>
-      <c r="AL3" s="478" t="s">
+      <c r="AL3" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="AM3" s="478"/>
-      <c r="AN3" s="478"/>
-      <c r="AO3" s="478"/>
-      <c r="AP3" s="479" t="s">
+      <c r="AM3" s="484"/>
+      <c r="AN3" s="484"/>
+      <c r="AO3" s="484"/>
+      <c r="AP3" s="474" t="s">
         <v>87</v>
       </c>
-      <c r="AQ3" s="480" t="s">
+      <c r="AQ3" s="485" t="s">
         <v>86</v>
       </c>
-      <c r="AR3" s="480"/>
-      <c r="AS3" s="480"/>
-      <c r="AT3" s="480"/>
-      <c r="AU3" s="477" t="s">
+      <c r="AR3" s="485"/>
+      <c r="AS3" s="485"/>
+      <c r="AT3" s="485"/>
+      <c r="AU3" s="483" t="s">
         <v>87</v>
       </c>
-      <c r="AV3" s="478" t="s">
+      <c r="AV3" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="478"/>
-      <c r="AX3" s="478"/>
-      <c r="AY3" s="478"/>
-      <c r="AZ3" s="475" t="s">
+      <c r="AW3" s="484"/>
+      <c r="AX3" s="484"/>
+      <c r="AY3" s="484"/>
+      <c r="AZ3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="BA3" s="476" t="s">
+      <c r="BA3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="BB3" s="476"/>
-      <c r="BC3" s="476"/>
-      <c r="BD3" s="476"/>
-      <c r="BE3" s="477" t="s">
+      <c r="BB3" s="482"/>
+      <c r="BC3" s="482"/>
+      <c r="BD3" s="482"/>
+      <c r="BE3" s="483" t="s">
         <v>87</v>
       </c>
-      <c r="BF3" s="478" t="s">
+      <c r="BF3" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="BG3" s="478"/>
-      <c r="BH3" s="478"/>
-      <c r="BI3" s="478"/>
-      <c r="BJ3" s="475" t="s">
+      <c r="BG3" s="484"/>
+      <c r="BH3" s="484"/>
+      <c r="BI3" s="484"/>
+      <c r="BJ3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="BK3" s="476" t="s">
+      <c r="BK3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="BL3" s="476"/>
-      <c r="BM3" s="476"/>
-      <c r="BN3" s="476"/>
-      <c r="BO3" s="477" t="s">
+      <c r="BL3" s="482"/>
+      <c r="BM3" s="482"/>
+      <c r="BN3" s="482"/>
+      <c r="BO3" s="483" t="s">
         <v>87</v>
       </c>
-      <c r="BP3" s="478" t="s">
+      <c r="BP3" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="BQ3" s="478"/>
-      <c r="BR3" s="478"/>
-      <c r="BS3" s="478"/>
+      <c r="BQ3" s="484"/>
+      <c r="BR3" s="484"/>
+      <c r="BS3" s="484"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A4" s="489"/>
-      <c r="B4" s="489"/>
-      <c r="C4" s="489"/>
+      <c r="A4" s="476"/>
+      <c r="B4" s="476"/>
+      <c r="C4" s="476"/>
       <c r="D4" s="386" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="386" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="489"/>
-      <c r="G4" s="479"/>
-      <c r="H4" s="490"/>
+      <c r="F4" s="476"/>
+      <c r="G4" s="474"/>
+      <c r="H4" s="495"/>
       <c r="I4" s="108" t="s">
         <v>76</v>
       </c>
       <c r="J4" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="490"/>
-      <c r="L4" s="479"/>
+      <c r="K4" s="495"/>
+      <c r="L4" s="474"/>
       <c r="M4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="P4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="496"/>
+      <c r="Q4" s="487"/>
       <c r="R4" s="220" t="s">
         <v>111</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="U4" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="479"/>
+      <c r="V4" s="474"/>
       <c r="W4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="Z4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="477"/>
+      <c r="AA4" s="483"/>
       <c r="AB4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="AE4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" s="479"/>
+      <c r="AF4" s="474"/>
       <c r="AG4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="AJ4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="AK4" s="477"/>
+      <c r="AK4" s="483"/>
       <c r="AL4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="AO4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AP4" s="479"/>
+      <c r="AP4" s="474"/>
       <c r="AQ4" s="219" t="s">
         <v>111</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="AT4" s="449" t="s">
         <v>75</v>
       </c>
-      <c r="AU4" s="477"/>
+      <c r="AU4" s="483"/>
       <c r="AV4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="AY4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="AZ4" s="475"/>
+      <c r="AZ4" s="481"/>
       <c r="BA4" s="195" t="s">
         <v>111</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="BD4" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="BE4" s="477"/>
+      <c r="BE4" s="483"/>
       <c r="BF4" s="221" t="s">
         <v>111</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="BI4" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="BJ4" s="475"/>
+      <c r="BJ4" s="481"/>
       <c r="BK4" s="360" t="s">
         <v>111</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="BN4" s="360" t="s">
         <v>75</v>
       </c>
-      <c r="BO4" s="477"/>
+      <c r="BO4" s="483"/>
       <c r="BP4" s="356" t="s">
         <v>111</v>
       </c>
@@ -4158,10 +4158,10 @@
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A5" s="487" t="s">
+      <c r="A5" s="498" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="487"/>
+      <c r="B5" s="498"/>
       <c r="C5" s="217"/>
       <c r="D5" s="217"/>
       <c r="E5" s="222"/>
@@ -7569,7 +7569,7 @@
       </c>
     </row>
     <row r="26" spans="1:71" s="232" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="488">
+      <c r="A26" s="499">
         <v>4840</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -7649,7 +7649,7 @@
       <c r="BS26" s="239"/>
     </row>
     <row r="27" spans="1:71" s="232" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="488"/>
+      <c r="A27" s="499"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="BS27" s="239"/>
     </row>
     <row r="28" spans="1:71" s="232" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="488"/>
+      <c r="A28" s="499"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -7964,7 +7964,7 @@
       </c>
     </row>
     <row r="29" spans="1:71" s="232" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="488"/>
+      <c r="A29" s="499"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -8173,7 +8173,7 @@
       </c>
     </row>
     <row r="30" spans="1:71" s="232" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="488"/>
+      <c r="A30" s="499"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -8915,7 +8915,7 @@
       </c>
     </row>
     <row r="34" spans="1:71" s="232" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="491">
+      <c r="A34" s="500">
         <v>4883</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -9092,7 +9092,7 @@
       </c>
     </row>
     <row r="35" spans="1:71" s="232" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="492"/>
+      <c r="A35" s="501"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -9267,7 +9267,7 @@
       </c>
     </row>
     <row r="36" spans="1:71" s="232" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="493"/>
+      <c r="A36" s="502"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -12095,30 +12095,30 @@
       </c>
     </row>
     <row r="52" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="494" t="s">
+      <c r="A52" s="496" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="494"/>
-      <c r="C52" s="495"/>
-      <c r="D52" s="495"/>
-      <c r="E52" s="489"/>
-      <c r="F52" s="495"/>
+      <c r="B52" s="496"/>
+      <c r="C52" s="497"/>
+      <c r="D52" s="497"/>
+      <c r="E52" s="476"/>
+      <c r="F52" s="497"/>
       <c r="G52" s="407"/>
-      <c r="H52" s="486"/>
-      <c r="I52" s="486"/>
-      <c r="J52" s="490"/>
-      <c r="K52" s="486"/>
-      <c r="L52" s="481"/>
+      <c r="H52" s="494"/>
+      <c r="I52" s="494"/>
+      <c r="J52" s="495"/>
+      <c r="K52" s="494"/>
+      <c r="L52" s="486"/>
       <c r="M52" s="252"/>
       <c r="N52" s="252"/>
       <c r="O52" s="252"/>
       <c r="P52" s="252"/>
-      <c r="Q52" s="498"/>
+      <c r="Q52" s="489"/>
       <c r="R52" s="253"/>
       <c r="S52" s="253"/>
       <c r="T52" s="253"/>
       <c r="U52" s="253"/>
-      <c r="V52" s="481"/>
+      <c r="V52" s="486"/>
       <c r="W52" s="252"/>
       <c r="X52" s="252"/>
       <c r="Y52" s="252"/>
@@ -12128,7 +12128,7 @@
       <c r="AC52" s="238"/>
       <c r="AD52" s="238"/>
       <c r="AE52" s="238"/>
-      <c r="AF52" s="481"/>
+      <c r="AF52" s="486"/>
       <c r="AG52" s="252"/>
       <c r="AH52" s="252"/>
       <c r="AI52" s="252"/>
@@ -12138,60 +12138,60 @@
       <c r="AM52" s="238"/>
       <c r="AN52" s="238"/>
       <c r="AO52" s="238"/>
-      <c r="AP52" s="481"/>
+      <c r="AP52" s="486"/>
       <c r="AQ52" s="252"/>
       <c r="AR52" s="252"/>
       <c r="AS52" s="252"/>
       <c r="AT52" s="442"/>
-      <c r="AU52" s="489"/>
+      <c r="AU52" s="476"/>
       <c r="AV52" s="238"/>
       <c r="AW52" s="238"/>
       <c r="AX52" s="238"/>
       <c r="AY52" s="239"/>
-      <c r="AZ52" s="499"/>
-      <c r="BA52" s="499"/>
-      <c r="BB52" s="499"/>
-      <c r="BC52" s="499"/>
-      <c r="BD52" s="499"/>
-      <c r="BE52" s="489"/>
+      <c r="AZ52" s="477"/>
+      <c r="BA52" s="477"/>
+      <c r="BB52" s="477"/>
+      <c r="BC52" s="477"/>
+      <c r="BD52" s="477"/>
+      <c r="BE52" s="476"/>
       <c r="BF52" s="238"/>
       <c r="BG52" s="238"/>
       <c r="BH52" s="238"/>
       <c r="BI52" s="239"/>
-      <c r="BJ52" s="499"/>
-      <c r="BK52" s="499"/>
-      <c r="BL52" s="499"/>
-      <c r="BM52" s="499"/>
-      <c r="BN52" s="499"/>
-      <c r="BO52" s="489"/>
+      <c r="BJ52" s="477"/>
+      <c r="BK52" s="477"/>
+      <c r="BL52" s="477"/>
+      <c r="BM52" s="477"/>
+      <c r="BN52" s="477"/>
+      <c r="BO52" s="476"/>
       <c r="BP52" s="238"/>
       <c r="BQ52" s="238"/>
       <c r="BR52" s="238"/>
       <c r="BS52" s="239"/>
     </row>
     <row r="53" spans="1:71" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="494"/>
-      <c r="B53" s="494"/>
-      <c r="C53" s="495"/>
-      <c r="D53" s="495"/>
-      <c r="E53" s="489"/>
-      <c r="F53" s="495"/>
+      <c r="A53" s="496"/>
+      <c r="B53" s="496"/>
+      <c r="C53" s="497"/>
+      <c r="D53" s="497"/>
+      <c r="E53" s="476"/>
+      <c r="F53" s="497"/>
       <c r="G53" s="407"/>
-      <c r="H53" s="486"/>
-      <c r="I53" s="486"/>
-      <c r="J53" s="490"/>
-      <c r="K53" s="486"/>
-      <c r="L53" s="481"/>
+      <c r="H53" s="494"/>
+      <c r="I53" s="494"/>
+      <c r="J53" s="495"/>
+      <c r="K53" s="494"/>
+      <c r="L53" s="486"/>
       <c r="M53" s="252"/>
       <c r="N53" s="252"/>
       <c r="O53" s="252"/>
       <c r="P53" s="252"/>
-      <c r="Q53" s="498"/>
+      <c r="Q53" s="489"/>
       <c r="R53" s="253"/>
       <c r="S53" s="253"/>
       <c r="T53" s="253"/>
       <c r="U53" s="253"/>
-      <c r="V53" s="481"/>
+      <c r="V53" s="486"/>
       <c r="W53" s="252"/>
       <c r="X53" s="252"/>
       <c r="Y53" s="252"/>
@@ -12201,7 +12201,7 @@
       <c r="AC53" s="247"/>
       <c r="AD53" s="247"/>
       <c r="AE53" s="247"/>
-      <c r="AF53" s="481"/>
+      <c r="AF53" s="486"/>
       <c r="AG53" s="252"/>
       <c r="AH53" s="252"/>
       <c r="AI53" s="252"/>
@@ -12211,32 +12211,32 @@
       <c r="AM53" s="247"/>
       <c r="AN53" s="247"/>
       <c r="AO53" s="247"/>
-      <c r="AP53" s="481"/>
+      <c r="AP53" s="486"/>
       <c r="AQ53" s="252"/>
       <c r="AR53" s="252"/>
       <c r="AS53" s="252"/>
       <c r="AT53" s="442"/>
-      <c r="AU53" s="489"/>
+      <c r="AU53" s="476"/>
       <c r="AV53" s="247"/>
       <c r="AW53" s="247"/>
       <c r="AX53" s="247"/>
       <c r="AY53" s="239"/>
-      <c r="AZ53" s="499"/>
-      <c r="BA53" s="499"/>
-      <c r="BB53" s="499"/>
-      <c r="BC53" s="499"/>
-      <c r="BD53" s="499"/>
-      <c r="BE53" s="489"/>
+      <c r="AZ53" s="477"/>
+      <c r="BA53" s="477"/>
+      <c r="BB53" s="477"/>
+      <c r="BC53" s="477"/>
+      <c r="BD53" s="477"/>
+      <c r="BE53" s="476"/>
       <c r="BF53" s="247"/>
       <c r="BG53" s="247"/>
       <c r="BH53" s="247"/>
       <c r="BI53" s="239"/>
-      <c r="BJ53" s="499"/>
-      <c r="BK53" s="499"/>
-      <c r="BL53" s="499"/>
-      <c r="BM53" s="499"/>
-      <c r="BN53" s="499"/>
-      <c r="BO53" s="489"/>
+      <c r="BJ53" s="477"/>
+      <c r="BK53" s="477"/>
+      <c r="BL53" s="477"/>
+      <c r="BM53" s="477"/>
+      <c r="BN53" s="477"/>
+      <c r="BO53" s="476"/>
       <c r="BP53" s="247"/>
       <c r="BQ53" s="247"/>
       <c r="BR53" s="247"/>
@@ -12320,7 +12320,7 @@
       <c r="BS54" s="239"/>
     </row>
     <row r="55" spans="1:71" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="485">
+      <c r="A55" s="493">
         <v>6807</v>
       </c>
       <c r="B55" s="46" t="s">
@@ -12483,7 +12483,7 @@
       </c>
     </row>
     <row r="56" spans="1:71" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="485"/>
+      <c r="A56" s="493"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -12803,7 +12803,7 @@
       </c>
     </row>
     <row r="58" spans="1:71" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="485">
+      <c r="A58" s="493">
         <v>6813</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -12962,7 +12962,7 @@
       </c>
     </row>
     <row r="59" spans="1:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="485"/>
+      <c r="A59" s="493"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -13119,7 +13119,7 @@
       </c>
     </row>
     <row r="60" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="485">
+      <c r="A60" s="493">
         <v>6814</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -13277,7 +13277,7 @@
       </c>
     </row>
     <row r="61" spans="1:71" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="485"/>
+      <c r="A61" s="493"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -13431,7 +13431,7 @@
       </c>
     </row>
     <row r="62" spans="1:71" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="485"/>
+      <c r="A62" s="493"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -13593,7 +13593,7 @@
       </c>
     </row>
     <row r="63" spans="1:71" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="485">
+      <c r="A63" s="493">
         <v>6815</v>
       </c>
       <c r="B63" s="46" t="s">
@@ -13754,7 +13754,7 @@
       </c>
     </row>
     <row r="64" spans="1:71" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="485"/>
+      <c r="A64" s="493"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -13913,7 +13913,7 @@
       </c>
     </row>
     <row r="65" spans="1:71" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="485"/>
+      <c r="A65" s="493"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -14064,7 +14064,7 @@
       </c>
     </row>
     <row r="66" spans="1:71" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="485"/>
+      <c r="A66" s="493"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -19323,56 +19323,21 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AU52:AU53"/>
-    <mergeCell ref="AZ52:AZ53"/>
-    <mergeCell ref="BE52:BE53"/>
-    <mergeCell ref="BA52:BA53"/>
-    <mergeCell ref="BB52:BB53"/>
-    <mergeCell ref="BC52:BC53"/>
-    <mergeCell ref="BD52:BD53"/>
-    <mergeCell ref="BO52:BO53"/>
-    <mergeCell ref="BJ52:BJ53"/>
-    <mergeCell ref="BK52:BK53"/>
-    <mergeCell ref="BL52:BL53"/>
-    <mergeCell ref="BM52:BM53"/>
-    <mergeCell ref="BN52:BN53"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="BK3:BN3"/>
-    <mergeCell ref="BO3:BO4"/>
-    <mergeCell ref="BP3:BS3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AT3"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AF52:AF53"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AO3"/>
@@ -19389,21 +19354,56 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="AF2:AJ2"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AF52:AF53"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="BO3:BO4"/>
+    <mergeCell ref="BP3:BS3"/>
+    <mergeCell ref="BO52:BO53"/>
+    <mergeCell ref="BJ52:BJ53"/>
+    <mergeCell ref="BK52:BK53"/>
+    <mergeCell ref="BL52:BL53"/>
+    <mergeCell ref="BM52:BM53"/>
+    <mergeCell ref="BN52:BN53"/>
+    <mergeCell ref="AU52:AU53"/>
+    <mergeCell ref="AZ52:AZ53"/>
+    <mergeCell ref="BE52:BE53"/>
+    <mergeCell ref="BA52:BA53"/>
+    <mergeCell ref="BB52:BB53"/>
+    <mergeCell ref="BC52:BC53"/>
+    <mergeCell ref="BD52:BD53"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -20106,118 +20106,118 @@
       <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="506" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="525" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="519" t="s">
+      <c r="B2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="512" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="519"/>
-      <c r="E2" s="519"/>
-      <c r="F2" s="519"/>
-      <c r="G2" s="519" t="s">
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="519"/>
-      <c r="I2" s="519"/>
-      <c r="J2" s="519"/>
-      <c r="K2" s="519"/>
-      <c r="L2" s="519" t="s">
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
+      <c r="K2" s="512"/>
+      <c r="L2" s="512" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="519"/>
-      <c r="N2" s="519"/>
-      <c r="O2" s="519"/>
-      <c r="P2" s="519"/>
-      <c r="Q2" s="519" t="s">
+      <c r="M2" s="512"/>
+      <c r="N2" s="512"/>
+      <c r="O2" s="512"/>
+      <c r="P2" s="512"/>
+      <c r="Q2" s="512" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="519"/>
-      <c r="S2" s="519"/>
-      <c r="T2" s="519"/>
-      <c r="U2" s="519"/>
-      <c r="V2" s="471" t="s">
+      <c r="R2" s="512"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="512"/>
+      <c r="U2" s="512"/>
+      <c r="V2" s="478" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="472"/>
-      <c r="X2" s="472"/>
-      <c r="Y2" s="472"/>
-      <c r="Z2" s="473"/>
-      <c r="AA2" s="519" t="s">
+      <c r="W2" s="479"/>
+      <c r="X2" s="479"/>
+      <c r="Y2" s="479"/>
+      <c r="Z2" s="480"/>
+      <c r="AA2" s="512" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="519"/>
-      <c r="AC2" s="519"/>
-      <c r="AD2" s="519"/>
-      <c r="AE2" s="519"/>
-      <c r="AG2" s="526" t="s">
+      <c r="AB2" s="512"/>
+      <c r="AC2" s="512"/>
+      <c r="AD2" s="512"/>
+      <c r="AE2" s="512"/>
+      <c r="AG2" s="507" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="527"/>
+      <c r="AH2" s="508"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="525"/>
-      <c r="B3" s="525"/>
-      <c r="C3" s="525" t="s">
+      <c r="A3" s="506"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="528" t="s">
+      <c r="D3" s="509" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="528"/>
-      <c r="F3" s="525" t="s">
+      <c r="E3" s="509"/>
+      <c r="F3" s="506" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="520" t="s">
+      <c r="G3" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="521" t="s">
+      <c r="H3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="521"/>
-      <c r="J3" s="521"/>
-      <c r="K3" s="521"/>
-      <c r="L3" s="520" t="s">
+      <c r="I3" s="511"/>
+      <c r="J3" s="511"/>
+      <c r="K3" s="511"/>
+      <c r="L3" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="521" t="s">
+      <c r="M3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="521"/>
-      <c r="O3" s="521"/>
-      <c r="P3" s="521"/>
-      <c r="Q3" s="520" t="s">
+      <c r="N3" s="511"/>
+      <c r="O3" s="511"/>
+      <c r="P3" s="511"/>
+      <c r="Q3" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="521" t="s">
+      <c r="R3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="521"/>
-      <c r="T3" s="521"/>
-      <c r="U3" s="521"/>
-      <c r="V3" s="475" t="s">
+      <c r="S3" s="511"/>
+      <c r="T3" s="511"/>
+      <c r="U3" s="511"/>
+      <c r="V3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="476" t="s">
+      <c r="W3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="476"/>
-      <c r="Y3" s="476"/>
-      <c r="Z3" s="476"/>
-      <c r="AA3" s="520" t="s">
+      <c r="X3" s="482"/>
+      <c r="Y3" s="482"/>
+      <c r="Z3" s="482"/>
+      <c r="AA3" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="521" t="s">
+      <c r="AB3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="521"/>
-      <c r="AD3" s="521"/>
-      <c r="AE3" s="521"/>
+      <c r="AC3" s="511"/>
+      <c r="AD3" s="511"/>
+      <c r="AE3" s="511"/>
       <c r="AG3" s="97" t="s">
         <v>114</v>
       </c>
@@ -20235,17 +20235,17 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="525"/>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
+      <c r="A4" s="506"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
       <c r="D4" s="91" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="525"/>
-      <c r="G4" s="520"/>
+      <c r="F4" s="506"/>
+      <c r="G4" s="510"/>
       <c r="H4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20258,7 +20258,7 @@
       <c r="K4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="520"/>
+      <c r="L4" s="510"/>
       <c r="M4" s="114" t="s">
         <v>111</v>
       </c>
@@ -20271,7 +20271,7 @@
       <c r="P4" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="520"/>
+      <c r="Q4" s="510"/>
       <c r="R4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20284,7 +20284,7 @@
       <c r="U4" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="475"/>
+      <c r="V4" s="481"/>
       <c r="W4" s="96" t="s">
         <v>111</v>
       </c>
@@ -20297,7 +20297,7 @@
       <c r="Z4" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="520"/>
+      <c r="AA4" s="510"/>
       <c r="AB4" s="85" t="s">
         <v>111</v>
       </c>
@@ -20316,10 +20316,10 @@
       <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="524" t="s">
+      <c r="A5" s="505" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="524"/>
+      <c r="B5" s="505"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -20384,11 +20384,11 @@
       <c r="AC6" s="99"/>
       <c r="AD6" s="99"/>
       <c r="AE6" s="99"/>
-      <c r="AG6" s="516">
+      <c r="AG6" s="513">
         <f>SUM(U7:U9)</f>
         <v>12.3</v>
       </c>
-      <c r="AH6" s="516">
+      <c r="AH6" s="513">
         <f>SUM(Z7:Z9)</f>
         <v>11.91</v>
       </c>
@@ -20481,8 +20481,8 @@
         <v>1.01</v>
       </c>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="517"/>
-      <c r="AH7" s="517"/>
+      <c r="AG7" s="514"/>
+      <c r="AH7" s="514"/>
       <c r="AI7" s="37"/>
       <c r="AK7" s="72">
         <f>R7-W7</f>
@@ -20571,8 +20571,8 @@
         <v>0</v>
       </c>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="517"/>
-      <c r="AH8" s="517"/>
+      <c r="AG8" s="514"/>
+      <c r="AH8" s="514"/>
       <c r="AI8" s="37"/>
     </row>
     <row r="9" spans="1:37" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20663,8 +20663,8 @@
         <v>36.61</v>
       </c>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="517"/>
-      <c r="AH9" s="517"/>
+      <c r="AG9" s="514"/>
+      <c r="AH9" s="514"/>
       <c r="AI9" s="37"/>
       <c r="AK9" s="72">
         <f>R9-W9</f>
@@ -21102,11 +21102,11 @@
         <v>0.77</v>
       </c>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="516">
+      <c r="AG14" s="513">
         <f>SUM(U14:U16)</f>
         <v>0.65</v>
       </c>
-      <c r="AH14" s="516">
+      <c r="AH14" s="513">
         <f>SUM(Z14:Z16)</f>
         <v>0.5</v>
       </c>
@@ -21204,8 +21204,8 @@
         <v>0.97</v>
       </c>
       <c r="AF15" s="37"/>
-      <c r="AG15" s="517"/>
-      <c r="AH15" s="517"/>
+      <c r="AG15" s="514"/>
+      <c r="AH15" s="514"/>
       <c r="AI15" s="37"/>
       <c r="AK15" s="72">
         <f t="shared" si="10"/>
@@ -21300,8 +21300,8 @@
         <v>0.44</v>
       </c>
       <c r="AF16" s="37"/>
-      <c r="AG16" s="517"/>
-      <c r="AH16" s="517"/>
+      <c r="AG16" s="514"/>
+      <c r="AH16" s="514"/>
       <c r="AI16" s="37"/>
       <c r="AK16" s="72">
         <f t="shared" si="10"/>
@@ -21498,11 +21498,11 @@
         <v>1.1099999999999999</v>
       </c>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="516">
+      <c r="AG18" s="513">
         <f>SUM(U18:U19)</f>
         <v>3.6</v>
       </c>
-      <c r="AH18" s="516">
+      <c r="AH18" s="513">
         <f>SUM(Z18:Z19)</f>
         <v>3.1799999999999997</v>
       </c>
@@ -21600,8 +21600,8 @@
         <v>8.74</v>
       </c>
       <c r="AF19" s="37"/>
-      <c r="AG19" s="516"/>
-      <c r="AH19" s="517"/>
+      <c r="AG19" s="513"/>
+      <c r="AH19" s="514"/>
       <c r="AI19" s="37"/>
       <c r="AK19" s="72">
         <f t="shared" si="10"/>
@@ -21696,11 +21696,11 @@
         <v>17.52</v>
       </c>
       <c r="AF20" s="37"/>
-      <c r="AG20" s="516">
+      <c r="AG20" s="513">
         <f>SUM(U20:U21)</f>
         <v>26</v>
       </c>
-      <c r="AH20" s="516">
+      <c r="AH20" s="513">
         <f>SUM(Z20:Z21)</f>
         <v>25.89</v>
       </c>
@@ -21798,8 +21798,8 @@
         <v>64.59</v>
       </c>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="517"/>
-      <c r="AH21" s="517"/>
+      <c r="AG21" s="514"/>
+      <c r="AH21" s="514"/>
       <c r="AI21" s="37"/>
       <c r="AK21" s="72">
         <f t="shared" si="10"/>
@@ -22215,7 +22215,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="518">
+      <c r="A26" s="515">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -22256,7 +22256,7 @@
       <c r="AI26" s="37"/>
     </row>
     <row r="27" spans="1:39" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="518"/>
+      <c r="A27" s="515"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -22311,7 +22311,7 @@
       <c r="AI27" s="37"/>
     </row>
     <row r="28" spans="1:39" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="518"/>
+      <c r="A28" s="515"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -22404,15 +22404,15 @@
         <v>301.5</v>
       </c>
       <c r="AF28" s="37"/>
-      <c r="AG28" s="507">
+      <c r="AG28" s="516">
         <f>SUM(U28:U30)</f>
         <v>1068.18</v>
       </c>
-      <c r="AH28" s="507">
+      <c r="AH28" s="516">
         <f>SUM(Z28:Z30)</f>
         <v>1032.33</v>
       </c>
-      <c r="AI28" s="503">
+      <c r="AI28" s="522">
         <f>SUM(X28:X30)</f>
         <v>939.92</v>
       </c>
@@ -22429,8 +22429,8 @@
         <v>21.835909090909098</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="518"/>
+    <row r="29" spans="1:39" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="515"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -22523,9 +22523,9 @@
         <v>1346.63</v>
       </c>
       <c r="AF29" s="37"/>
-      <c r="AG29" s="508"/>
-      <c r="AH29" s="508"/>
-      <c r="AI29" s="504"/>
+      <c r="AG29" s="517"/>
+      <c r="AH29" s="517"/>
+      <c r="AI29" s="523"/>
       <c r="AK29" s="72">
         <f>R29-W29</f>
         <v>21.560000000000002</v>
@@ -22540,7 +22540,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="518"/>
+      <c r="A30" s="515"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -22633,9 +22633,9 @@
         <v>578.20000000000005</v>
       </c>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="508"/>
-      <c r="AH30" s="508"/>
-      <c r="AI30" s="504"/>
+      <c r="AG30" s="517"/>
+      <c r="AH30" s="517"/>
+      <c r="AI30" s="523"/>
       <c r="AK30" s="72">
         <f>R30-W30</f>
         <v>8.11</v>
@@ -22956,7 +22956,7 @@
       </c>
     </row>
     <row r="34" spans="1:37" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="513">
+      <c r="A34" s="518">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -23043,11 +23043,11 @@
         <v>12.73</v>
       </c>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="507">
+      <c r="AG34" s="516">
         <f>SUM(U34:U36)</f>
         <v>7</v>
       </c>
-      <c r="AH34" s="507">
+      <c r="AH34" s="516">
         <f>SUM(Z34:Z36)</f>
         <v>6.52</v>
       </c>
@@ -23058,7 +23058,7 @@
       </c>
     </row>
     <row r="35" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="514"/>
+      <c r="A35" s="519"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -23143,8 +23143,8 @@
         <v>1.29</v>
       </c>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="508"/>
-      <c r="AH35" s="508"/>
+      <c r="AG35" s="517"/>
+      <c r="AH35" s="517"/>
       <c r="AI35" s="37"/>
       <c r="AK35" s="72">
         <f t="shared" si="19"/>
@@ -23152,7 +23152,7 @@
       </c>
     </row>
     <row r="36" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="515"/>
+      <c r="A36" s="520"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -23237,8 +23237,8 @@
         <v>1.3</v>
       </c>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="508"/>
-      <c r="AH36" s="508"/>
+      <c r="AG36" s="517"/>
+      <c r="AH36" s="517"/>
       <c r="AI36" s="37"/>
       <c r="AK36" s="72">
         <f t="shared" si="19"/>
@@ -23678,11 +23678,11 @@
         <v>61.4</v>
       </c>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="507">
+      <c r="AG41" s="516">
         <f>SUM(U41:U50)</f>
         <v>58.45</v>
       </c>
-      <c r="AH41" s="507">
+      <c r="AH41" s="516">
         <f>SUM(Z41:Z50)</f>
         <v>56.730000000000004</v>
       </c>
@@ -23780,8 +23780,8 @@
         <v>3.2</v>
       </c>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="508"/>
-      <c r="AH42" s="508"/>
+      <c r="AG42" s="517"/>
+      <c r="AH42" s="517"/>
       <c r="AI42" s="37"/>
       <c r="AK42" s="72">
         <f t="shared" si="27"/>
@@ -23876,8 +23876,8 @@
         <v>5.34</v>
       </c>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="508"/>
-      <c r="AH43" s="508"/>
+      <c r="AG43" s="517"/>
+      <c r="AH43" s="517"/>
       <c r="AI43" s="37"/>
       <c r="AK43" s="72">
         <f t="shared" si="27"/>
@@ -23972,8 +23972,8 @@
         <v>1.22</v>
       </c>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="508"/>
-      <c r="AH44" s="508"/>
+      <c r="AG44" s="517"/>
+      <c r="AH44" s="517"/>
       <c r="AI44" s="37"/>
       <c r="AK44" s="72">
         <f t="shared" si="27"/>
@@ -24068,8 +24068,8 @@
         <v>19.98</v>
       </c>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="508"/>
-      <c r="AH45" s="508"/>
+      <c r="AG45" s="517"/>
+      <c r="AH45" s="517"/>
       <c r="AI45" s="37"/>
       <c r="AK45" s="72">
         <f t="shared" si="27"/>
@@ -24164,8 +24164,8 @@
         <v>14.53</v>
       </c>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="508"/>
-      <c r="AH46" s="508"/>
+      <c r="AG46" s="517"/>
+      <c r="AH46" s="517"/>
       <c r="AI46" s="37"/>
       <c r="AK46" s="72">
         <f t="shared" si="27"/>
@@ -24260,8 +24260,8 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="508"/>
-      <c r="AH47" s="508"/>
+      <c r="AG47" s="517"/>
+      <c r="AH47" s="517"/>
       <c r="AI47" s="37"/>
       <c r="AK47" s="72">
         <f t="shared" si="27"/>
@@ -24364,8 +24364,8 @@
         <v>95.03</v>
       </c>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="508"/>
-      <c r="AH48" s="508"/>
+      <c r="AG48" s="517"/>
+      <c r="AH48" s="517"/>
       <c r="AI48" s="71">
         <f>X48</f>
         <v>10</v>
@@ -24463,8 +24463,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AF49" s="37"/>
-      <c r="AG49" s="508"/>
-      <c r="AH49" s="508"/>
+      <c r="AG49" s="517"/>
+      <c r="AH49" s="517"/>
       <c r="AI49" s="37"/>
       <c r="AK49" s="72">
         <f t="shared" si="27"/>
@@ -24559,8 +24559,8 @@
         <v>7.48</v>
       </c>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="508"/>
-      <c r="AH50" s="508"/>
+      <c r="AG50" s="517"/>
+      <c r="AH50" s="517"/>
       <c r="AI50" s="37"/>
       <c r="AK50" s="72">
         <f t="shared" si="27"/>
@@ -24698,35 +24698,35 @@
     <row r="52" spans="1:37" s="106" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="505"/>
-      <c r="D52" s="505"/>
-      <c r="E52" s="506"/>
-      <c r="F52" s="505"/>
-      <c r="G52" s="505"/>
-      <c r="H52" s="505"/>
-      <c r="I52" s="506"/>
-      <c r="J52" s="505"/>
-      <c r="K52" s="505"/>
-      <c r="L52" s="505"/>
-      <c r="M52" s="506"/>
-      <c r="N52" s="505"/>
-      <c r="O52" s="506"/>
-      <c r="P52" s="505"/>
-      <c r="Q52" s="505"/>
-      <c r="R52" s="506"/>
-      <c r="S52" s="505"/>
-      <c r="T52" s="506"/>
-      <c r="U52" s="505"/>
-      <c r="V52" s="499"/>
-      <c r="W52" s="499"/>
-      <c r="X52" s="499"/>
-      <c r="Y52" s="499"/>
-      <c r="Z52" s="499"/>
-      <c r="AA52" s="506"/>
-      <c r="AB52" s="506"/>
-      <c r="AC52" s="506"/>
-      <c r="AD52" s="506"/>
-      <c r="AE52" s="506"/>
+      <c r="C52" s="524"/>
+      <c r="D52" s="524"/>
+      <c r="E52" s="521"/>
+      <c r="F52" s="524"/>
+      <c r="G52" s="524"/>
+      <c r="H52" s="524"/>
+      <c r="I52" s="521"/>
+      <c r="J52" s="524"/>
+      <c r="K52" s="524"/>
+      <c r="L52" s="524"/>
+      <c r="M52" s="521"/>
+      <c r="N52" s="524"/>
+      <c r="O52" s="521"/>
+      <c r="P52" s="524"/>
+      <c r="Q52" s="524"/>
+      <c r="R52" s="521"/>
+      <c r="S52" s="524"/>
+      <c r="T52" s="521"/>
+      <c r="U52" s="524"/>
+      <c r="V52" s="477"/>
+      <c r="W52" s="477"/>
+      <c r="X52" s="477"/>
+      <c r="Y52" s="477"/>
+      <c r="Z52" s="477"/>
+      <c r="AA52" s="521"/>
+      <c r="AB52" s="521"/>
+      <c r="AC52" s="521"/>
+      <c r="AD52" s="521"/>
+      <c r="AE52" s="521"/>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
@@ -24737,35 +24737,35 @@
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="505"/>
-      <c r="D53" s="505"/>
-      <c r="E53" s="506"/>
-      <c r="F53" s="505"/>
-      <c r="G53" s="505"/>
-      <c r="H53" s="505"/>
-      <c r="I53" s="506"/>
-      <c r="J53" s="505"/>
-      <c r="K53" s="505"/>
-      <c r="L53" s="505"/>
-      <c r="M53" s="506"/>
-      <c r="N53" s="505"/>
-      <c r="O53" s="506"/>
-      <c r="P53" s="505"/>
-      <c r="Q53" s="505"/>
-      <c r="R53" s="506"/>
-      <c r="S53" s="505"/>
-      <c r="T53" s="506"/>
-      <c r="U53" s="505"/>
-      <c r="V53" s="499"/>
-      <c r="W53" s="499"/>
-      <c r="X53" s="499"/>
-      <c r="Y53" s="499"/>
-      <c r="Z53" s="499"/>
-      <c r="AA53" s="506"/>
-      <c r="AB53" s="506"/>
-      <c r="AC53" s="506"/>
-      <c r="AD53" s="506"/>
-      <c r="AE53" s="506"/>
+      <c r="C53" s="524"/>
+      <c r="D53" s="524"/>
+      <c r="E53" s="521"/>
+      <c r="F53" s="524"/>
+      <c r="G53" s="524"/>
+      <c r="H53" s="524"/>
+      <c r="I53" s="521"/>
+      <c r="J53" s="524"/>
+      <c r="K53" s="524"/>
+      <c r="L53" s="524"/>
+      <c r="M53" s="521"/>
+      <c r="N53" s="524"/>
+      <c r="O53" s="521"/>
+      <c r="P53" s="524"/>
+      <c r="Q53" s="524"/>
+      <c r="R53" s="521"/>
+      <c r="S53" s="524"/>
+      <c r="T53" s="521"/>
+      <c r="U53" s="524"/>
+      <c r="V53" s="477"/>
+      <c r="W53" s="477"/>
+      <c r="X53" s="477"/>
+      <c r="Y53" s="477"/>
+      <c r="Z53" s="477"/>
+      <c r="AA53" s="521"/>
+      <c r="AB53" s="521"/>
+      <c r="AC53" s="521"/>
+      <c r="AD53" s="521"/>
+      <c r="AE53" s="521"/>
       <c r="AF53" s="37"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
@@ -24811,7 +24811,7 @@
       <c r="AI54" s="37"/>
     </row>
     <row r="55" spans="1:37" ht="81" x14ac:dyDescent="0.25">
-      <c r="A55" s="512">
+      <c r="A55" s="525">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -24896,18 +24896,18 @@
         <v>606.9</v>
       </c>
       <c r="AF55" s="37"/>
-      <c r="AG55" s="507">
+      <c r="AG55" s="516">
         <f>SUM(U55:U56)</f>
         <v>95.6</v>
       </c>
-      <c r="AH55" s="507">
+      <c r="AH55" s="516">
         <f>SUM(Z55:Z56)</f>
         <v>0</v>
       </c>
       <c r="AI55" s="37"/>
     </row>
     <row r="56" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="512"/>
+      <c r="A56" s="525"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -24980,8 +24980,8 @@
         <v>50.22</v>
       </c>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="508"/>
-      <c r="AH56" s="508"/>
+      <c r="AG56" s="517"/>
+      <c r="AH56" s="517"/>
       <c r="AI56" s="37"/>
     </row>
     <row r="57" spans="1:37" ht="22.5" x14ac:dyDescent="0.25">
@@ -25071,7 +25071,7 @@
       <c r="AI57" s="37"/>
     </row>
     <row r="58" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="511">
+      <c r="A58" s="528">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -25146,18 +25146,18 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="507">
+      <c r="AG58" s="516">
         <f>SUM(U58:U59)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="507">
+      <c r="AH58" s="516">
         <f>SUM(Z58:Z59)</f>
         <v>0</v>
       </c>
       <c r="AI58" s="37"/>
     </row>
     <row r="59" spans="1:37" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="511"/>
+      <c r="A59" s="528"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -25230,12 +25230,12 @@
         <v>0.79</v>
       </c>
       <c r="AF59" s="37"/>
-      <c r="AG59" s="508"/>
-      <c r="AH59" s="508"/>
+      <c r="AG59" s="517"/>
+      <c r="AH59" s="517"/>
       <c r="AI59" s="37"/>
     </row>
     <row r="60" spans="1:37" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="511">
+      <c r="A60" s="528">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -25310,18 +25310,18 @@
         <v>20.18</v>
       </c>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="507">
+      <c r="AG60" s="516">
         <f>SUM(U60:U62)</f>
         <v>2</v>
       </c>
-      <c r="AH60" s="507">
+      <c r="AH60" s="516">
         <f>SUM(Z60:Z62)</f>
         <v>1.6</v>
       </c>
       <c r="AI60" s="37"/>
     </row>
     <row r="61" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="511"/>
+      <c r="A61" s="528"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -25394,12 +25394,12 @@
         <v>2.13</v>
       </c>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="508"/>
-      <c r="AH61" s="508"/>
+      <c r="AG61" s="517"/>
+      <c r="AH61" s="517"/>
       <c r="AI61" s="37"/>
     </row>
     <row r="62" spans="1:37" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="511"/>
+      <c r="A62" s="528"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -25484,12 +25484,12 @@
         <v>9.49</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="508"/>
-      <c r="AH62" s="508"/>
+      <c r="AG62" s="517"/>
+      <c r="AH62" s="517"/>
       <c r="AI62" s="37"/>
     </row>
     <row r="63" spans="1:37" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="511">
+      <c r="A63" s="528">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -25564,18 +25564,18 @@
         <v>19.47</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="507">
+      <c r="AG63" s="516">
         <f>SUM(U63:U66)</f>
         <v>0</v>
       </c>
-      <c r="AH63" s="507">
+      <c r="AH63" s="516">
         <f>SUM(Z63:Z66)</f>
         <v>0</v>
       </c>
       <c r="AI63" s="37"/>
     </row>
     <row r="64" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="511"/>
+      <c r="A64" s="528"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -25648,12 +25648,12 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="508"/>
-      <c r="AH64" s="508"/>
+      <c r="AG64" s="517"/>
+      <c r="AH64" s="517"/>
       <c r="AI64" s="37"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="511"/>
+      <c r="A65" s="528"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -25726,12 +25726,12 @@
         <v>0.2</v>
       </c>
       <c r="AF65" s="37"/>
-      <c r="AG65" s="508"/>
-      <c r="AH65" s="508"/>
+      <c r="AG65" s="517"/>
+      <c r="AH65" s="517"/>
       <c r="AI65" s="37"/>
     </row>
     <row r="66" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="511"/>
+      <c r="A66" s="528"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -25804,8 +25804,8 @@
         <v>4.08</v>
       </c>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="508"/>
-      <c r="AH66" s="508"/>
+      <c r="AG66" s="517"/>
+      <c r="AH66" s="517"/>
       <c r="AI66" s="37"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
@@ -25896,11 +25896,11 @@
         <v>45.32</v>
       </c>
       <c r="AF67" s="37"/>
-      <c r="AG67" s="509">
+      <c r="AG67" s="526">
         <f>SUM(U67:U68)</f>
         <v>14</v>
       </c>
-      <c r="AH67" s="509">
+      <c r="AH67" s="526">
         <f>SUM(Z67:Z68)</f>
         <v>13.93</v>
       </c>
@@ -25994,8 +25994,8 @@
         <v>9.73</v>
       </c>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="510"/>
-      <c r="AH68" s="510"/>
+      <c r="AG68" s="527"/>
+      <c r="AH68" s="527"/>
       <c r="AI68" s="37"/>
     </row>
     <row r="69" spans="1:38" ht="22.5" x14ac:dyDescent="0.25">
@@ -26211,15 +26211,15 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="507">
+      <c r="AG72" s="516">
         <f>SUM(U72:U85)</f>
         <v>12051.5</v>
       </c>
-      <c r="AH72" s="507">
+      <c r="AH72" s="516">
         <f>SUM(Z72:Z85)</f>
         <v>11260.500000000002</v>
       </c>
-      <c r="AI72" s="507">
+      <c r="AI72" s="516">
         <f>SUM(X72:X85)</f>
         <v>9693.5300000000007</v>
       </c>
@@ -26298,9 +26298,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="37"/>
-      <c r="AG73" s="508"/>
-      <c r="AH73" s="508"/>
-      <c r="AI73" s="508"/>
+      <c r="AG73" s="517"/>
+      <c r="AH73" s="517"/>
+      <c r="AI73" s="517"/>
       <c r="AL73" s="4">
         <v>11260.51</v>
       </c>
@@ -26345,9 +26345,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="508"/>
-      <c r="AH74" s="508"/>
-      <c r="AI74" s="508"/>
+      <c r="AG74" s="517"/>
+      <c r="AH74" s="517"/>
+      <c r="AI74" s="517"/>
     </row>
     <row r="75" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50">
@@ -26423,9 +26423,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="37"/>
-      <c r="AG75" s="508"/>
-      <c r="AH75" s="508"/>
-      <c r="AI75" s="508"/>
+      <c r="AG75" s="517"/>
+      <c r="AH75" s="517"/>
+      <c r="AI75" s="517"/>
     </row>
     <row r="76" spans="1:38" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A76" s="50">
@@ -26523,9 +26523,9 @@
         <v>6143.66</v>
       </c>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="508"/>
-      <c r="AH76" s="508"/>
-      <c r="AI76" s="508"/>
+      <c r="AG76" s="517"/>
+      <c r="AH76" s="517"/>
+      <c r="AI76" s="517"/>
       <c r="AL76" s="117"/>
     </row>
     <row r="77" spans="1:38" ht="18" x14ac:dyDescent="0.25">
@@ -26624,9 +26624,9 @@
         <v>6011.48</v>
       </c>
       <c r="AF77" s="37"/>
-      <c r="AG77" s="508"/>
-      <c r="AH77" s="508"/>
-      <c r="AI77" s="508"/>
+      <c r="AG77" s="517"/>
+      <c r="AH77" s="517"/>
+      <c r="AI77" s="517"/>
       <c r="AK77" s="116"/>
       <c r="AL77" s="117"/>
     </row>
@@ -26665,9 +26665,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="508"/>
-      <c r="AH78" s="508"/>
-      <c r="AI78" s="508"/>
+      <c r="AG78" s="517"/>
+      <c r="AH78" s="517"/>
+      <c r="AI78" s="517"/>
       <c r="AK78" s="116"/>
       <c r="AL78" s="117"/>
     </row>
@@ -26745,9 +26745,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="37"/>
-      <c r="AG79" s="508"/>
-      <c r="AH79" s="508"/>
-      <c r="AI79" s="508"/>
+      <c r="AG79" s="517"/>
+      <c r="AH79" s="517"/>
+      <c r="AI79" s="517"/>
       <c r="AK79" s="116"/>
       <c r="AL79" s="117"/>
     </row>
@@ -26825,9 +26825,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="508"/>
-      <c r="AH80" s="508"/>
-      <c r="AI80" s="508"/>
+      <c r="AG80" s="517"/>
+      <c r="AH80" s="517"/>
+      <c r="AI80" s="517"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="117"/>
     </row>
@@ -26905,9 +26905,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="37"/>
-      <c r="AG81" s="508"/>
-      <c r="AH81" s="508"/>
-      <c r="AI81" s="508"/>
+      <c r="AG81" s="517"/>
+      <c r="AH81" s="517"/>
+      <c r="AI81" s="517"/>
       <c r="AJ81" s="116"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="117"/>
@@ -27008,9 +27008,9 @@
         <v>6127.0599999999995</v>
       </c>
       <c r="AF82" s="37"/>
-      <c r="AG82" s="508"/>
-      <c r="AH82" s="508"/>
-      <c r="AI82" s="508"/>
+      <c r="AG82" s="517"/>
+      <c r="AH82" s="517"/>
+      <c r="AI82" s="517"/>
       <c r="AK82" s="118"/>
       <c r="AL82" s="117"/>
     </row>
@@ -27088,9 +27088,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="37"/>
-      <c r="AG83" s="508"/>
-      <c r="AH83" s="508"/>
-      <c r="AI83" s="508"/>
+      <c r="AG83" s="517"/>
+      <c r="AH83" s="517"/>
+      <c r="AI83" s="517"/>
     </row>
     <row r="84" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="87">
@@ -27166,9 +27166,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="37"/>
-      <c r="AG84" s="508"/>
-      <c r="AH84" s="508"/>
-      <c r="AI84" s="508"/>
+      <c r="AG84" s="517"/>
+      <c r="AH84" s="517"/>
+      <c r="AI84" s="517"/>
     </row>
     <row r="85" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="87">
@@ -27215,9 +27215,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="37"/>
-      <c r="AG85" s="508"/>
-      <c r="AH85" s="508"/>
-      <c r="AI85" s="508"/>
+      <c r="AG85" s="517"/>
+      <c r="AH85" s="517"/>
+      <c r="AI85" s="517"/>
       <c r="AJ85" s="75"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
@@ -27558,11 +27558,11 @@
       <c r="AF89" s="37"/>
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
-      <c r="AI89" s="503">
+      <c r="AI89" s="522">
         <f>AI87+AJ87</f>
         <v>11329.880000000001</v>
       </c>
-      <c r="AJ89" s="504"/>
+      <c r="AJ89" s="523"/>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="89"/>
@@ -27697,11 +27697,11 @@
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="Y93" s="522">
+      <c r="Y93" s="503">
         <f>Z90+K90</f>
         <v>45560.700000000004</v>
       </c>
-      <c r="Z93" s="523"/>
+      <c r="Z93" s="504"/>
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H96" s="4"/>
@@ -28119,6 +28119,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AG72:AG85"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AG60:AG62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AG63:AG66"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AG34:AG36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AG41:AG50"/>
+    <mergeCell ref="AH41:AH50"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="Y93:Z93"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:A4"/>
@@ -28135,78 +28207,6 @@
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AG34:AG36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AG41:AG50"/>
-    <mergeCell ref="AH41:AH50"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AG72:AG85"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AG60:AG62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AG63:AG66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AI72:AI85"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.1" top="0.2" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -28413,126 +28413,126 @@
       <c r="AQ1" s="51"/>
     </row>
     <row r="2" spans="1:43" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="506" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="525" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="519" t="s">
+      <c r="B2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="512" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="519"/>
-      <c r="E2" s="519"/>
-      <c r="F2" s="519"/>
-      <c r="G2" s="548" t="s">
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="537" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="550"/>
-      <c r="L2" s="545" t="s">
+      <c r="H2" s="538"/>
+      <c r="I2" s="538"/>
+      <c r="J2" s="538"/>
+      <c r="K2" s="539"/>
+      <c r="L2" s="529" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="546"/>
-      <c r="N2" s="546"/>
-      <c r="O2" s="546"/>
-      <c r="P2" s="547"/>
-      <c r="Q2" s="519" t="s">
+      <c r="M2" s="530"/>
+      <c r="N2" s="530"/>
+      <c r="O2" s="530"/>
+      <c r="P2" s="531"/>
+      <c r="Q2" s="512" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="519"/>
-      <c r="S2" s="519"/>
-      <c r="T2" s="519"/>
-      <c r="U2" s="519"/>
-      <c r="V2" s="548" t="s">
+      <c r="R2" s="512"/>
+      <c r="S2" s="512"/>
+      <c r="T2" s="512"/>
+      <c r="U2" s="512"/>
+      <c r="V2" s="537" t="s">
         <v>225</v>
       </c>
-      <c r="W2" s="549"/>
-      <c r="X2" s="549"/>
-      <c r="Y2" s="549"/>
-      <c r="Z2" s="550"/>
-      <c r="AA2" s="545" t="s">
+      <c r="W2" s="538"/>
+      <c r="X2" s="538"/>
+      <c r="Y2" s="538"/>
+      <c r="Z2" s="539"/>
+      <c r="AA2" s="529" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" s="546"/>
-      <c r="AC2" s="546"/>
-      <c r="AD2" s="546"/>
-      <c r="AE2" s="547"/>
+      <c r="AB2" s="530"/>
+      <c r="AC2" s="530"/>
+      <c r="AD2" s="530"/>
+      <c r="AE2" s="531"/>
       <c r="AF2" s="369"/>
-      <c r="AH2" s="526" t="s">
+      <c r="AH2" s="507" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="527"/>
+      <c r="AI2" s="508"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AM2" s="471" t="s">
+      <c r="AM2" s="478" t="s">
         <v>146</v>
       </c>
-      <c r="AN2" s="472"/>
-      <c r="AO2" s="472"/>
-      <c r="AP2" s="472"/>
-      <c r="AQ2" s="473"/>
+      <c r="AN2" s="479"/>
+      <c r="AO2" s="479"/>
+      <c r="AP2" s="479"/>
+      <c r="AQ2" s="480"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="525"/>
-      <c r="B3" s="525"/>
-      <c r="C3" s="525" t="s">
+      <c r="A3" s="506"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="528" t="s">
+      <c r="D3" s="509" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="528"/>
-      <c r="F3" s="525" t="s">
+      <c r="E3" s="509"/>
+      <c r="F3" s="506" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="540" t="s">
+      <c r="G3" s="532" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="543"/>
-      <c r="J3" s="543"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="529" t="s">
+      <c r="I3" s="535"/>
+      <c r="J3" s="535"/>
+      <c r="K3" s="536"/>
+      <c r="L3" s="546" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="531" t="s">
+      <c r="M3" s="548" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="532"/>
-      <c r="O3" s="532"/>
-      <c r="P3" s="533"/>
-      <c r="Q3" s="520" t="s">
+      <c r="N3" s="549"/>
+      <c r="O3" s="549"/>
+      <c r="P3" s="550"/>
+      <c r="Q3" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="521" t="s">
+      <c r="R3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="521"/>
-      <c r="T3" s="521"/>
-      <c r="U3" s="521"/>
-      <c r="V3" s="540" t="s">
+      <c r="S3" s="511"/>
+      <c r="T3" s="511"/>
+      <c r="U3" s="511"/>
+      <c r="V3" s="532" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="542" t="s">
+      <c r="W3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="543"/>
-      <c r="Y3" s="543"/>
-      <c r="Z3" s="544"/>
-      <c r="AA3" s="475" t="s">
+      <c r="X3" s="535"/>
+      <c r="Y3" s="535"/>
+      <c r="Z3" s="536"/>
+      <c r="AA3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="476" t="s">
+      <c r="AB3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="476"/>
-      <c r="AD3" s="476"/>
-      <c r="AE3" s="476"/>
+      <c r="AC3" s="482"/>
+      <c r="AD3" s="482"/>
+      <c r="AE3" s="482"/>
       <c r="AF3" s="370"/>
       <c r="AH3" s="137" t="s">
         <v>114</v>
@@ -28549,28 +28549,28 @@
       <c r="AL3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AM3" s="475" t="s">
+      <c r="AM3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="AN3" s="476" t="s">
+      <c r="AN3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="AO3" s="476"/>
-      <c r="AP3" s="476"/>
-      <c r="AQ3" s="476"/>
+      <c r="AO3" s="482"/>
+      <c r="AP3" s="482"/>
+      <c r="AQ3" s="482"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="525"/>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
+      <c r="A4" s="506"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
       <c r="D4" s="131" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="525"/>
-      <c r="G4" s="541"/>
+      <c r="F4" s="506"/>
+      <c r="G4" s="533"/>
       <c r="H4" s="125" t="s">
         <v>111</v>
       </c>
@@ -28583,7 +28583,7 @@
       <c r="K4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="530"/>
+      <c r="L4" s="547"/>
       <c r="M4" s="136" t="s">
         <v>111</v>
       </c>
@@ -28596,7 +28596,7 @@
       <c r="P4" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="520"/>
+      <c r="Q4" s="510"/>
       <c r="R4" s="125" t="s">
         <v>111</v>
       </c>
@@ -28609,7 +28609,7 @@
       <c r="U4" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="541"/>
+      <c r="V4" s="533"/>
       <c r="W4" s="367" t="s">
         <v>111</v>
       </c>
@@ -28622,7 +28622,7 @@
       <c r="Z4" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="475"/>
+      <c r="AA4" s="481"/>
       <c r="AB4" s="364" t="s">
         <v>111</v>
       </c>
@@ -28640,7 +28640,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AM4" s="475"/>
+      <c r="AM4" s="481"/>
       <c r="AN4" s="143" t="s">
         <v>111</v>
       </c>
@@ -28655,10 +28655,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="524" t="s">
+      <c r="A5" s="505" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="524"/>
+      <c r="B5" s="505"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -28730,11 +28730,11 @@
       <c r="AD6" s="53"/>
       <c r="AE6" s="53"/>
       <c r="AF6" s="372"/>
-      <c r="AH6" s="516">
+      <c r="AH6" s="513">
         <f>SUM(K7:K9)</f>
         <v>14.5</v>
       </c>
-      <c r="AI6" s="516">
+      <c r="AI6" s="513">
         <f>SUM(P7:P9)</f>
         <v>14.5</v>
       </c>
@@ -28829,8 +28829,8 @@
       </c>
       <c r="AF7" s="373"/>
       <c r="AG7" s="37"/>
-      <c r="AH7" s="517"/>
-      <c r="AI7" s="517"/>
+      <c r="AH7" s="514"/>
+      <c r="AI7" s="514"/>
       <c r="AJ7" s="37"/>
       <c r="AL7" s="72">
         <f>H7-M7</f>
@@ -28921,8 +28921,8 @@
       </c>
       <c r="AF8" s="373"/>
       <c r="AG8" s="37"/>
-      <c r="AH8" s="517"/>
-      <c r="AI8" s="517"/>
+      <c r="AH8" s="514"/>
+      <c r="AI8" s="514"/>
       <c r="AJ8" s="37"/>
       <c r="AM8" s="54" t="s">
         <v>78</v>
@@ -29023,8 +29023,8 @@
       </c>
       <c r="AF9" s="373"/>
       <c r="AG9" s="37"/>
-      <c r="AH9" s="517"/>
-      <c r="AI9" s="517"/>
+      <c r="AH9" s="514"/>
+      <c r="AI9" s="514"/>
       <c r="AJ9" s="37"/>
       <c r="AL9" s="72">
         <f>H9-M9</f>
@@ -29507,11 +29507,11 @@
       </c>
       <c r="AF14" s="373"/>
       <c r="AG14" s="37"/>
-      <c r="AH14" s="516">
+      <c r="AH14" s="513">
         <f>SUM(K14:K16)</f>
         <v>0.7</v>
       </c>
-      <c r="AI14" s="516">
+      <c r="AI14" s="513">
         <f>SUM(P14:P16)</f>
         <v>0.65</v>
       </c>
@@ -29619,8 +29619,8 @@
       </c>
       <c r="AF15" s="373"/>
       <c r="AG15" s="37"/>
-      <c r="AH15" s="517"/>
-      <c r="AI15" s="517"/>
+      <c r="AH15" s="514"/>
+      <c r="AI15" s="514"/>
       <c r="AJ15" s="37"/>
       <c r="AL15" s="72">
         <f t="shared" si="5"/>
@@ -29725,8 +29725,8 @@
       </c>
       <c r="AF16" s="373"/>
       <c r="AG16" s="37"/>
-      <c r="AH16" s="517"/>
-      <c r="AI16" s="517"/>
+      <c r="AH16" s="514"/>
+      <c r="AI16" s="514"/>
       <c r="AJ16" s="37"/>
       <c r="AL16" s="72">
         <f t="shared" si="5"/>
@@ -29943,11 +29943,11 @@
       </c>
       <c r="AF18" s="373"/>
       <c r="AG18" s="37"/>
-      <c r="AH18" s="516">
+      <c r="AH18" s="513">
         <f>SUM(K18:K19)</f>
         <v>4.7</v>
       </c>
-      <c r="AI18" s="516">
+      <c r="AI18" s="513">
         <f>SUM(P18:P19)</f>
         <v>3.4400000000000004</v>
       </c>
@@ -30055,8 +30055,8 @@
       </c>
       <c r="AF19" s="373"/>
       <c r="AG19" s="37"/>
-      <c r="AH19" s="516"/>
-      <c r="AI19" s="517"/>
+      <c r="AH19" s="513"/>
+      <c r="AI19" s="514"/>
       <c r="AJ19" s="37"/>
       <c r="AL19" s="72">
         <f t="shared" si="5"/>
@@ -30161,11 +30161,11 @@
       </c>
       <c r="AF20" s="373"/>
       <c r="AG20" s="37"/>
-      <c r="AH20" s="516">
+      <c r="AH20" s="513">
         <f>SUM(K20:K21)</f>
         <v>31</v>
       </c>
-      <c r="AI20" s="516">
+      <c r="AI20" s="513">
         <f>SUM(P20:P21)</f>
         <v>28.2</v>
       </c>
@@ -30273,8 +30273,8 @@
       </c>
       <c r="AF21" s="373"/>
       <c r="AG21" s="37"/>
-      <c r="AH21" s="517"/>
-      <c r="AI21" s="517"/>
+      <c r="AH21" s="514"/>
+      <c r="AI21" s="514"/>
       <c r="AJ21" s="37"/>
       <c r="AL21" s="72">
         <f t="shared" si="5"/>
@@ -30743,7 +30743,7 @@
       </c>
     </row>
     <row r="26" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="518">
+      <c r="A26" s="515">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -30796,7 +30796,7 @@
       <c r="AQ26" s="65"/>
     </row>
     <row r="27" spans="1:43" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="518"/>
+      <c r="A27" s="515"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -30856,7 +30856,7 @@
       <c r="AQ27" s="65"/>
     </row>
     <row r="28" spans="1:43" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="518"/>
+      <c r="A28" s="515"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -30948,15 +30948,15 @@
       </c>
       <c r="AF28" s="373"/>
       <c r="AG28" s="37"/>
-      <c r="AH28" s="507">
+      <c r="AH28" s="516">
         <f>SUM(K28:K30)</f>
         <v>810</v>
       </c>
-      <c r="AI28" s="507">
+      <c r="AI28" s="516">
         <f>SUM(P28:P30)</f>
         <v>443.29999999999995</v>
       </c>
-      <c r="AJ28" s="503">
+      <c r="AJ28" s="522">
         <f>SUM(N28:N30)</f>
         <v>398.15999999999997</v>
       </c>
@@ -30982,7 +30982,7 @@
       </c>
     </row>
     <row r="29" spans="1:43" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="518"/>
+      <c r="A29" s="515"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -31074,9 +31074,9 @@
       </c>
       <c r="AF29" s="373"/>
       <c r="AG29" s="37"/>
-      <c r="AH29" s="508"/>
-      <c r="AI29" s="508"/>
-      <c r="AJ29" s="504"/>
+      <c r="AH29" s="517"/>
+      <c r="AI29" s="517"/>
+      <c r="AJ29" s="523"/>
       <c r="AL29" s="72">
         <f>H29-M29</f>
         <v>1.8200000000000003</v>
@@ -31099,7 +31099,7 @@
       </c>
     </row>
     <row r="30" spans="1:43" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="518"/>
+      <c r="A30" s="515"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -31191,9 +31191,9 @@
       </c>
       <c r="AF30" s="373"/>
       <c r="AG30" s="37"/>
-      <c r="AH30" s="508"/>
-      <c r="AI30" s="508"/>
-      <c r="AJ30" s="504"/>
+      <c r="AH30" s="517"/>
+      <c r="AI30" s="517"/>
+      <c r="AJ30" s="523"/>
       <c r="AL30" s="72">
         <f>H30-M30</f>
         <v>5.2299999999999995</v>
@@ -31564,7 +31564,7 @@
       </c>
     </row>
     <row r="34" spans="1:43" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="513">
+      <c r="A34" s="518">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -31648,11 +31648,11 @@
       </c>
       <c r="AF34" s="373"/>
       <c r="AG34" s="37"/>
-      <c r="AH34" s="507">
+      <c r="AH34" s="516">
         <f>SUM(K34:K36)</f>
         <v>7</v>
       </c>
-      <c r="AI34" s="507">
+      <c r="AI34" s="516">
         <f>SUM(P34:P36)</f>
         <v>3.8200000000000003</v>
       </c>
@@ -31676,7 +31676,7 @@
       </c>
     </row>
     <row r="35" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="514"/>
+      <c r="A35" s="519"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -31758,8 +31758,8 @@
       </c>
       <c r="AF35" s="373"/>
       <c r="AG35" s="37"/>
-      <c r="AH35" s="508"/>
-      <c r="AI35" s="508"/>
+      <c r="AH35" s="517"/>
+      <c r="AI35" s="517"/>
       <c r="AJ35" s="37"/>
       <c r="AL35" s="72">
         <f t="shared" si="12"/>
@@ -31780,7 +31780,7 @@
       </c>
     </row>
     <row r="36" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="515"/>
+      <c r="A36" s="520"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -31862,8 +31862,8 @@
       </c>
       <c r="AF36" s="373"/>
       <c r="AG36" s="37"/>
-      <c r="AH36" s="508"/>
-      <c r="AI36" s="508"/>
+      <c r="AH36" s="517"/>
+      <c r="AI36" s="517"/>
       <c r="AJ36" s="37"/>
       <c r="AL36" s="72">
         <f t="shared" si="12"/>
@@ -32349,11 +32349,11 @@
       </c>
       <c r="AF41" s="373"/>
       <c r="AG41" s="37"/>
-      <c r="AH41" s="507">
+      <c r="AH41" s="516">
         <f>SUM(K41:K50)</f>
         <v>84.109999999999985</v>
       </c>
-      <c r="AI41" s="507">
+      <c r="AI41" s="516">
         <f>SUM(P41:P50)</f>
         <v>63.06</v>
       </c>
@@ -32461,8 +32461,8 @@
       </c>
       <c r="AF42" s="373"/>
       <c r="AG42" s="37"/>
-      <c r="AH42" s="508"/>
-      <c r="AI42" s="508"/>
+      <c r="AH42" s="517"/>
+      <c r="AI42" s="517"/>
       <c r="AJ42" s="37"/>
       <c r="AL42" s="72">
         <f t="shared" si="16"/>
@@ -32567,8 +32567,8 @@
       </c>
       <c r="AF43" s="373"/>
       <c r="AG43" s="37"/>
-      <c r="AH43" s="508"/>
-      <c r="AI43" s="508"/>
+      <c r="AH43" s="517"/>
+      <c r="AI43" s="517"/>
       <c r="AJ43" s="37"/>
       <c r="AL43" s="72">
         <f t="shared" si="16"/>
@@ -32673,8 +32673,8 @@
       </c>
       <c r="AF44" s="373"/>
       <c r="AG44" s="37"/>
-      <c r="AH44" s="508"/>
-      <c r="AI44" s="508"/>
+      <c r="AH44" s="517"/>
+      <c r="AI44" s="517"/>
       <c r="AJ44" s="37"/>
       <c r="AL44" s="72">
         <f t="shared" si="16"/>
@@ -32775,8 +32775,8 @@
       </c>
       <c r="AF45" s="373"/>
       <c r="AG45" s="37"/>
-      <c r="AH45" s="508"/>
-      <c r="AI45" s="508"/>
+      <c r="AH45" s="517"/>
+      <c r="AI45" s="517"/>
       <c r="AJ45" s="37"/>
       <c r="AL45" s="72">
         <f t="shared" si="16"/>
@@ -32881,8 +32881,8 @@
       </c>
       <c r="AF46" s="373"/>
       <c r="AG46" s="37"/>
-      <c r="AH46" s="508"/>
-      <c r="AI46" s="508"/>
+      <c r="AH46" s="517"/>
+      <c r="AI46" s="517"/>
       <c r="AJ46" s="37"/>
       <c r="AL46" s="72">
         <f t="shared" si="16"/>
@@ -32987,8 +32987,8 @@
       </c>
       <c r="AF47" s="373"/>
       <c r="AG47" s="37"/>
-      <c r="AH47" s="508"/>
-      <c r="AI47" s="508"/>
+      <c r="AH47" s="517"/>
+      <c r="AI47" s="517"/>
       <c r="AJ47" s="37"/>
       <c r="AL47" s="72">
         <f t="shared" si="16"/>
@@ -33103,8 +33103,8 @@
       </c>
       <c r="AF48" s="373"/>
       <c r="AG48" s="37"/>
-      <c r="AH48" s="508"/>
-      <c r="AI48" s="508"/>
+      <c r="AH48" s="517"/>
+      <c r="AI48" s="517"/>
       <c r="AJ48" s="71">
         <f>N48</f>
         <v>29.46</v>
@@ -33218,8 +33218,8 @@
       </c>
       <c r="AF49" s="373"/>
       <c r="AG49" s="37"/>
-      <c r="AH49" s="508"/>
-      <c r="AI49" s="508"/>
+      <c r="AH49" s="517"/>
+      <c r="AI49" s="517"/>
       <c r="AJ49" s="37"/>
       <c r="AL49" s="72">
         <f t="shared" si="16"/>
@@ -33324,8 +33324,8 @@
       </c>
       <c r="AF50" s="373"/>
       <c r="AG50" s="37"/>
-      <c r="AH50" s="508"/>
-      <c r="AI50" s="508"/>
+      <c r="AH50" s="517"/>
+      <c r="AI50" s="517"/>
       <c r="AJ50" s="37"/>
       <c r="AL50" s="72">
         <f t="shared" si="16"/>
@@ -33494,90 +33494,90 @@
     <row r="52" spans="1:43" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="505"/>
-      <c r="D52" s="505"/>
-      <c r="E52" s="506"/>
-      <c r="F52" s="505"/>
-      <c r="G52" s="536"/>
-      <c r="H52" s="538"/>
-      <c r="I52" s="536"/>
-      <c r="J52" s="538"/>
-      <c r="K52" s="536"/>
-      <c r="L52" s="534"/>
-      <c r="M52" s="534"/>
-      <c r="N52" s="534"/>
-      <c r="O52" s="534"/>
-      <c r="P52" s="534"/>
-      <c r="Q52" s="506"/>
-      <c r="R52" s="506"/>
-      <c r="S52" s="506"/>
-      <c r="T52" s="506"/>
-      <c r="U52" s="506"/>
-      <c r="V52" s="536"/>
-      <c r="W52" s="538"/>
-      <c r="X52" s="536"/>
-      <c r="Y52" s="538"/>
-      <c r="Z52" s="536"/>
-      <c r="AA52" s="499"/>
-      <c r="AB52" s="499"/>
-      <c r="AC52" s="499"/>
-      <c r="AD52" s="499"/>
-      <c r="AE52" s="499"/>
+      <c r="C52" s="524"/>
+      <c r="D52" s="524"/>
+      <c r="E52" s="521"/>
+      <c r="F52" s="524"/>
+      <c r="G52" s="542"/>
+      <c r="H52" s="540"/>
+      <c r="I52" s="542"/>
+      <c r="J52" s="540"/>
+      <c r="K52" s="542"/>
+      <c r="L52" s="544"/>
+      <c r="M52" s="544"/>
+      <c r="N52" s="544"/>
+      <c r="O52" s="544"/>
+      <c r="P52" s="544"/>
+      <c r="Q52" s="521"/>
+      <c r="R52" s="521"/>
+      <c r="S52" s="521"/>
+      <c r="T52" s="521"/>
+      <c r="U52" s="521"/>
+      <c r="V52" s="542"/>
+      <c r="W52" s="540"/>
+      <c r="X52" s="542"/>
+      <c r="Y52" s="540"/>
+      <c r="Z52" s="542"/>
+      <c r="AA52" s="477"/>
+      <c r="AB52" s="477"/>
+      <c r="AC52" s="477"/>
+      <c r="AD52" s="477"/>
+      <c r="AE52" s="477"/>
       <c r="AF52" s="375"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
       <c r="AJ52" s="105"/>
-      <c r="AM52" s="499"/>
-      <c r="AN52" s="499"/>
-      <c r="AO52" s="499"/>
-      <c r="AP52" s="499"/>
-      <c r="AQ52" s="499"/>
+      <c r="AM52" s="477"/>
+      <c r="AN52" s="477"/>
+      <c r="AO52" s="477"/>
+      <c r="AP52" s="477"/>
+      <c r="AQ52" s="477"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="505"/>
-      <c r="D53" s="505"/>
-      <c r="E53" s="506"/>
-      <c r="F53" s="505"/>
-      <c r="G53" s="537"/>
-      <c r="H53" s="539"/>
-      <c r="I53" s="537"/>
-      <c r="J53" s="539"/>
-      <c r="K53" s="537"/>
-      <c r="L53" s="535"/>
-      <c r="M53" s="535"/>
-      <c r="N53" s="535"/>
-      <c r="O53" s="535"/>
-      <c r="P53" s="535"/>
-      <c r="Q53" s="506"/>
-      <c r="R53" s="506"/>
-      <c r="S53" s="506"/>
-      <c r="T53" s="506"/>
-      <c r="U53" s="506"/>
-      <c r="V53" s="537"/>
-      <c r="W53" s="539"/>
-      <c r="X53" s="537"/>
-      <c r="Y53" s="539"/>
-      <c r="Z53" s="537"/>
-      <c r="AA53" s="499"/>
-      <c r="AB53" s="499"/>
-      <c r="AC53" s="499"/>
-      <c r="AD53" s="499"/>
-      <c r="AE53" s="499"/>
+      <c r="C53" s="524"/>
+      <c r="D53" s="524"/>
+      <c r="E53" s="521"/>
+      <c r="F53" s="524"/>
+      <c r="G53" s="543"/>
+      <c r="H53" s="541"/>
+      <c r="I53" s="543"/>
+      <c r="J53" s="541"/>
+      <c r="K53" s="543"/>
+      <c r="L53" s="545"/>
+      <c r="M53" s="545"/>
+      <c r="N53" s="545"/>
+      <c r="O53" s="545"/>
+      <c r="P53" s="545"/>
+      <c r="Q53" s="521"/>
+      <c r="R53" s="521"/>
+      <c r="S53" s="521"/>
+      <c r="T53" s="521"/>
+      <c r="U53" s="521"/>
+      <c r="V53" s="543"/>
+      <c r="W53" s="541"/>
+      <c r="X53" s="543"/>
+      <c r="Y53" s="541"/>
+      <c r="Z53" s="543"/>
+      <c r="AA53" s="477"/>
+      <c r="AB53" s="477"/>
+      <c r="AC53" s="477"/>
+      <c r="AD53" s="477"/>
+      <c r="AE53" s="477"/>
       <c r="AF53" s="375"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
       <c r="AJ53" s="37"/>
-      <c r="AM53" s="499"/>
-      <c r="AN53" s="499"/>
-      <c r="AO53" s="499"/>
-      <c r="AP53" s="499"/>
-      <c r="AQ53" s="499"/>
+      <c r="AM53" s="477"/>
+      <c r="AN53" s="477"/>
+      <c r="AO53" s="477"/>
+      <c r="AP53" s="477"/>
+      <c r="AQ53" s="477"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
@@ -33625,7 +33625,7 @@
       <c r="AQ54" s="57"/>
     </row>
     <row r="55" spans="1:43" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="512">
+      <c r="A55" s="525">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -33697,11 +33697,11 @@
       </c>
       <c r="AF55" s="373"/>
       <c r="AG55" s="37"/>
-      <c r="AH55" s="507">
+      <c r="AH55" s="516">
         <f>SUM(K55:K56)</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="507">
+      <c r="AI55" s="516">
         <f>SUM(P55:P56)</f>
         <v>0</v>
       </c>
@@ -33721,7 +33721,7 @@
       </c>
     </row>
     <row r="56" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="512"/>
+      <c r="A56" s="525"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -33787,8 +33787,8 @@
       </c>
       <c r="AF56" s="373"/>
       <c r="AG56" s="37"/>
-      <c r="AH56" s="508"/>
-      <c r="AI56" s="508"/>
+      <c r="AH56" s="517"/>
+      <c r="AI56" s="517"/>
       <c r="AJ56" s="37"/>
       <c r="AM56" s="144"/>
       <c r="AN56" s="54" t="e">
@@ -33893,7 +33893,7 @@
       </c>
     </row>
     <row r="58" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="511">
+      <c r="A58" s="528">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -33961,11 +33961,11 @@
       </c>
       <c r="AF58" s="373"/>
       <c r="AG58" s="37"/>
-      <c r="AH58" s="507">
+      <c r="AH58" s="516">
         <f>SUM(K58:K59)</f>
         <v>0</v>
       </c>
-      <c r="AI58" s="507">
+      <c r="AI58" s="516">
         <f>SUM(P58:P59)</f>
         <v>0</v>
       </c>
@@ -33983,7 +33983,7 @@
       </c>
     </row>
     <row r="59" spans="1:43" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="511"/>
+      <c r="A59" s="528"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -34049,8 +34049,8 @@
       </c>
       <c r="AF59" s="373"/>
       <c r="AG59" s="37"/>
-      <c r="AH59" s="508"/>
-      <c r="AI59" s="508"/>
+      <c r="AH59" s="517"/>
+      <c r="AI59" s="517"/>
       <c r="AJ59" s="37"/>
       <c r="AM59" s="144"/>
       <c r="AN59" s="54" t="e">
@@ -34065,7 +34065,7 @@
       </c>
     </row>
     <row r="60" spans="1:43" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="511">
+      <c r="A60" s="528">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -34133,11 +34133,11 @@
       </c>
       <c r="AF60" s="373"/>
       <c r="AG60" s="37"/>
-      <c r="AH60" s="507">
+      <c r="AH60" s="516">
         <f>SUM(K60:K62)</f>
         <v>5</v>
       </c>
-      <c r="AI60" s="507">
+      <c r="AI60" s="516">
         <f>SUM(P60:P62)</f>
         <v>5</v>
       </c>
@@ -34155,7 +34155,7 @@
       </c>
     </row>
     <row r="61" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="511"/>
+      <c r="A61" s="528"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -34221,8 +34221,8 @@
       </c>
       <c r="AF61" s="373"/>
       <c r="AG61" s="37"/>
-      <c r="AH61" s="508"/>
-      <c r="AI61" s="508"/>
+      <c r="AH61" s="517"/>
+      <c r="AI61" s="517"/>
       <c r="AJ61" s="37"/>
       <c r="AM61" s="144"/>
       <c r="AN61" s="54" t="e">
@@ -34237,7 +34237,7 @@
       </c>
     </row>
     <row r="62" spans="1:43" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="511"/>
+      <c r="A62" s="528"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -34315,8 +34315,8 @@
       </c>
       <c r="AF62" s="373"/>
       <c r="AG62" s="37"/>
-      <c r="AH62" s="508"/>
-      <c r="AI62" s="508"/>
+      <c r="AH62" s="517"/>
+      <c r="AI62" s="517"/>
       <c r="AJ62" s="37"/>
       <c r="AM62" s="144" t="s">
         <v>78</v>
@@ -34333,7 +34333,7 @@
       </c>
     </row>
     <row r="63" spans="1:43" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="511">
+      <c r="A63" s="528">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -34401,11 +34401,11 @@
       </c>
       <c r="AF63" s="373"/>
       <c r="AG63" s="37"/>
-      <c r="AH63" s="507">
+      <c r="AH63" s="516">
         <f>SUM(K63:K66)</f>
         <v>0</v>
       </c>
-      <c r="AI63" s="507">
+      <c r="AI63" s="516">
         <f>SUM(P63:P66)</f>
         <v>0</v>
       </c>
@@ -34423,7 +34423,7 @@
       </c>
     </row>
     <row r="64" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="511"/>
+      <c r="A64" s="528"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -34489,8 +34489,8 @@
       </c>
       <c r="AF64" s="373"/>
       <c r="AG64" s="37"/>
-      <c r="AH64" s="508"/>
-      <c r="AI64" s="508"/>
+      <c r="AH64" s="517"/>
+      <c r="AI64" s="517"/>
       <c r="AJ64" s="37"/>
       <c r="AM64" s="144"/>
       <c r="AN64" s="54" t="e">
@@ -34505,7 +34505,7 @@
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A65" s="511"/>
+      <c r="A65" s="528"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -34571,8 +34571,8 @@
       </c>
       <c r="AF65" s="373"/>
       <c r="AG65" s="37"/>
-      <c r="AH65" s="508"/>
-      <c r="AI65" s="508"/>
+      <c r="AH65" s="517"/>
+      <c r="AI65" s="517"/>
       <c r="AJ65" s="37"/>
       <c r="AM65" s="144"/>
       <c r="AN65" s="54" t="e">
@@ -34587,7 +34587,7 @@
       </c>
     </row>
     <row r="66" spans="1:43" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="511"/>
+      <c r="A66" s="528"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -34653,8 +34653,8 @@
       </c>
       <c r="AF66" s="373"/>
       <c r="AG66" s="37"/>
-      <c r="AH66" s="508"/>
-      <c r="AI66" s="508"/>
+      <c r="AH66" s="517"/>
+      <c r="AI66" s="517"/>
       <c r="AJ66" s="37"/>
       <c r="AM66" s="144"/>
       <c r="AN66" s="54" t="e">
@@ -34745,11 +34745,11 @@
       </c>
       <c r="AF67" s="373"/>
       <c r="AG67" s="37"/>
-      <c r="AH67" s="509">
+      <c r="AH67" s="526">
         <f>SUM(K67:K68)</f>
         <v>4</v>
       </c>
-      <c r="AI67" s="509">
+      <c r="AI67" s="526">
         <f>SUM(P67:P68)</f>
         <v>2.99</v>
       </c>
@@ -34849,8 +34849,8 @@
       </c>
       <c r="AF68" s="373"/>
       <c r="AG68" s="37"/>
-      <c r="AH68" s="510"/>
-      <c r="AI68" s="510"/>
+      <c r="AH68" s="527"/>
+      <c r="AI68" s="527"/>
       <c r="AJ68" s="37"/>
       <c r="AM68" s="144" t="s">
         <v>78</v>
@@ -35099,15 +35099,15 @@
       <c r="AE72" s="69"/>
       <c r="AF72" s="105"/>
       <c r="AG72" s="37"/>
-      <c r="AH72" s="507">
+      <c r="AH72" s="516">
         <f>SUM(K72:K85)</f>
         <v>16186.000000000002</v>
       </c>
-      <c r="AI72" s="507">
+      <c r="AI72" s="516">
         <f>SUM(P72:P85)</f>
         <v>11111.429999999998</v>
       </c>
-      <c r="AJ72" s="507">
+      <c r="AJ72" s="516">
         <f>SUM(N72:N85)</f>
         <v>9722.4999999999982</v>
       </c>
@@ -35195,9 +35195,9 @@
       </c>
       <c r="AF73" s="105"/>
       <c r="AG73" s="37"/>
-      <c r="AH73" s="508"/>
-      <c r="AI73" s="508"/>
-      <c r="AJ73" s="508"/>
+      <c r="AH73" s="517"/>
+      <c r="AI73" s="517"/>
+      <c r="AJ73" s="517"/>
       <c r="AM73" s="79" t="s">
         <v>136</v>
       </c>
@@ -35253,9 +35253,9 @@
       <c r="AE74" s="65"/>
       <c r="AF74" s="105"/>
       <c r="AG74" s="37"/>
-      <c r="AH74" s="508"/>
-      <c r="AI74" s="508"/>
-      <c r="AJ74" s="508"/>
+      <c r="AH74" s="517"/>
+      <c r="AI74" s="517"/>
+      <c r="AJ74" s="517"/>
       <c r="AM74" s="81"/>
       <c r="AN74" s="65"/>
       <c r="AO74" s="65"/>
@@ -35335,9 +35335,9 @@
       </c>
       <c r="AF75" s="105"/>
       <c r="AG75" s="37"/>
-      <c r="AH75" s="508"/>
-      <c r="AI75" s="508"/>
-      <c r="AJ75" s="508"/>
+      <c r="AH75" s="517"/>
+      <c r="AI75" s="517"/>
+      <c r="AJ75" s="517"/>
       <c r="AM75" s="79" t="s">
         <v>137</v>
       </c>
@@ -35450,9 +35450,9 @@
       </c>
       <c r="AF76" s="373"/>
       <c r="AG76" s="37"/>
-      <c r="AH76" s="508"/>
-      <c r="AI76" s="508"/>
-      <c r="AJ76" s="508"/>
+      <c r="AH76" s="517"/>
+      <c r="AI76" s="517"/>
+      <c r="AJ76" s="517"/>
       <c r="AM76" s="79" t="s">
         <v>110</v>
       </c>
@@ -35565,9 +35565,9 @@
       </c>
       <c r="AF77" s="373"/>
       <c r="AG77" s="37"/>
-      <c r="AH77" s="508"/>
-      <c r="AI77" s="508"/>
-      <c r="AJ77" s="508"/>
+      <c r="AH77" s="517"/>
+      <c r="AI77" s="517"/>
+      <c r="AJ77" s="517"/>
       <c r="AL77" s="116"/>
       <c r="AM77" s="79" t="s">
         <v>109</v>
@@ -35622,9 +35622,9 @@
       <c r="AE78" s="67"/>
       <c r="AF78" s="105"/>
       <c r="AG78" s="37"/>
-      <c r="AH78" s="508"/>
-      <c r="AI78" s="508"/>
-      <c r="AJ78" s="508"/>
+      <c r="AH78" s="517"/>
+      <c r="AI78" s="517"/>
+      <c r="AJ78" s="517"/>
       <c r="AL78" s="116"/>
       <c r="AM78" s="81"/>
       <c r="AN78" s="67"/>
@@ -35713,9 +35713,9 @@
       </c>
       <c r="AF79" s="105"/>
       <c r="AG79" s="37"/>
-      <c r="AH79" s="508"/>
-      <c r="AI79" s="508"/>
-      <c r="AJ79" s="508"/>
+      <c r="AH79" s="517"/>
+      <c r="AI79" s="517"/>
+      <c r="AJ79" s="517"/>
       <c r="AL79" s="116"/>
       <c r="AM79" s="79" t="s">
         <v>138</v>
@@ -35815,9 +35815,9 @@
       </c>
       <c r="AF80" s="105"/>
       <c r="AG80" s="37"/>
-      <c r="AH80" s="508"/>
-      <c r="AI80" s="508"/>
-      <c r="AJ80" s="508"/>
+      <c r="AH80" s="517"/>
+      <c r="AI80" s="517"/>
+      <c r="AJ80" s="517"/>
       <c r="AL80" s="116"/>
       <c r="AM80" s="79" t="s">
         <v>135</v>
@@ -35917,9 +35917,9 @@
       </c>
       <c r="AF81" s="105"/>
       <c r="AG81" s="37"/>
-      <c r="AH81" s="508"/>
-      <c r="AI81" s="508"/>
-      <c r="AJ81" s="508"/>
+      <c r="AH81" s="517"/>
+      <c r="AI81" s="517"/>
+      <c r="AJ81" s="517"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="116"/>
       <c r="AM81" s="79" t="s">
@@ -36034,9 +36034,9 @@
       </c>
       <c r="AF82" s="373"/>
       <c r="AG82" s="37"/>
-      <c r="AH82" s="508"/>
-      <c r="AI82" s="508"/>
-      <c r="AJ82" s="508"/>
+      <c r="AH82" s="517"/>
+      <c r="AI82" s="517"/>
+      <c r="AJ82" s="517"/>
       <c r="AL82" s="118"/>
       <c r="AM82" s="79" t="s">
         <v>108</v>
@@ -36136,9 +36136,9 @@
       </c>
       <c r="AF83" s="105"/>
       <c r="AG83" s="37"/>
-      <c r="AH83" s="508"/>
-      <c r="AI83" s="508"/>
-      <c r="AJ83" s="508"/>
+      <c r="AH83" s="517"/>
+      <c r="AI83" s="517"/>
+      <c r="AJ83" s="517"/>
       <c r="AM83" s="79" t="s">
         <v>140</v>
       </c>
@@ -36237,9 +36237,9 @@
       </c>
       <c r="AF84" s="105"/>
       <c r="AG84" s="37"/>
-      <c r="AH84" s="508"/>
-      <c r="AI84" s="508"/>
-      <c r="AJ84" s="508"/>
+      <c r="AH84" s="517"/>
+      <c r="AI84" s="517"/>
+      <c r="AJ84" s="517"/>
       <c r="AM84" s="79" t="s">
         <v>105</v>
       </c>
@@ -36300,9 +36300,9 @@
       <c r="AE85" s="65"/>
       <c r="AF85" s="105"/>
       <c r="AG85" s="37"/>
-      <c r="AH85" s="508"/>
-      <c r="AI85" s="508"/>
-      <c r="AJ85" s="508"/>
+      <c r="AH85" s="517"/>
+      <c r="AI85" s="517"/>
+      <c r="AJ85" s="517"/>
       <c r="AK85" s="75"/>
       <c r="AM85" s="63"/>
       <c r="AN85" s="65"/>
@@ -36692,11 +36692,11 @@
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
       <c r="AI89" s="37"/>
-      <c r="AJ89" s="503">
+      <c r="AJ89" s="522">
         <f>AJ87+AK87</f>
         <v>10600.119999999999</v>
       </c>
-      <c r="AK89" s="504"/>
+      <c r="AK89" s="523"/>
       <c r="AM89" s="61"/>
       <c r="AN89" s="60"/>
       <c r="AO89" s="60"/>
@@ -36954,8 +36954,8 @@
         <f>SUM(AE73:AE85)+AE48</f>
         <v>11144.599999999999</v>
       </c>
-      <c r="AP93" s="522"/>
-      <c r="AQ93" s="523"/>
+      <c r="AP93" s="503"/>
+      <c r="AQ93" s="504"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="L94" s="4" t="s">
@@ -37509,6 +37509,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AJ89:AK89"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="AJ72:AJ85"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AI67:AI68"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="AI63:AI66"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AE52:AE53"/>
     <mergeCell ref="AP93:AQ93"/>
     <mergeCell ref="AM2:AQ2"/>
@@ -37525,86 +37605,6 @@
     <mergeCell ref="AI18:AI19"/>
     <mergeCell ref="AH41:AH50"/>
     <mergeCell ref="AI41:AI50"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AJ28:AJ30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AI63:AI66"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="AI60:AI62"/>
-    <mergeCell ref="AJ89:AK89"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="AJ72:AJ85"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AI67:AI68"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
   </mergeCells>
   <pageMargins left="0.15" right="0.1" top="0.2" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
@@ -39641,125 +39641,125 @@
       <c r="AR1" s="51"/>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="506" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="525" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="548" t="s">
+      <c r="B2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="537" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="550"/>
-      <c r="G2" s="548" t="s">
+      <c r="D2" s="538"/>
+      <c r="E2" s="538"/>
+      <c r="F2" s="539"/>
+      <c r="G2" s="537" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549"/>
-      <c r="J2" s="549"/>
-      <c r="K2" s="550"/>
-      <c r="L2" s="548" t="s">
+      <c r="H2" s="538"/>
+      <c r="I2" s="538"/>
+      <c r="J2" s="538"/>
+      <c r="K2" s="539"/>
+      <c r="L2" s="537" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="549"/>
-      <c r="N2" s="549"/>
-      <c r="O2" s="550"/>
-      <c r="P2" s="548" t="s">
+      <c r="M2" s="538"/>
+      <c r="N2" s="538"/>
+      <c r="O2" s="539"/>
+      <c r="P2" s="537" t="s">
         <v>178</v>
       </c>
-      <c r="Q2" s="549"/>
-      <c r="R2" s="549"/>
-      <c r="S2" s="550"/>
-      <c r="T2" s="548" t="s">
+      <c r="Q2" s="538"/>
+      <c r="R2" s="538"/>
+      <c r="S2" s="539"/>
+      <c r="T2" s="537" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="549"/>
-      <c r="V2" s="549"/>
-      <c r="W2" s="550"/>
-      <c r="X2" s="471" t="s">
+      <c r="U2" s="538"/>
+      <c r="V2" s="538"/>
+      <c r="W2" s="539"/>
+      <c r="X2" s="478" t="s">
         <v>167</v>
       </c>
-      <c r="Y2" s="472"/>
-      <c r="Z2" s="472"/>
-      <c r="AA2" s="472"/>
-      <c r="AB2" s="473"/>
-      <c r="AC2" s="519" t="s">
+      <c r="Y2" s="479"/>
+      <c r="Z2" s="479"/>
+      <c r="AA2" s="479"/>
+      <c r="AB2" s="480"/>
+      <c r="AC2" s="512" t="s">
         <v>133</v>
       </c>
-      <c r="AD2" s="519"/>
-      <c r="AE2" s="519"/>
-      <c r="AF2" s="519"/>
-      <c r="AG2" s="519"/>
-      <c r="AI2" s="526" t="s">
+      <c r="AD2" s="512"/>
+      <c r="AE2" s="512"/>
+      <c r="AF2" s="512"/>
+      <c r="AG2" s="512"/>
+      <c r="AI2" s="507" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" s="527"/>
+      <c r="AJ2" s="508"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
-      <c r="AN2" s="471" t="s">
+      <c r="AN2" s="478" t="s">
         <v>146</v>
       </c>
-      <c r="AO2" s="472"/>
-      <c r="AP2" s="472"/>
-      <c r="AQ2" s="472"/>
-      <c r="AR2" s="473"/>
+      <c r="AO2" s="479"/>
+      <c r="AP2" s="479"/>
+      <c r="AQ2" s="479"/>
+      <c r="AR2" s="480"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="525"/>
-      <c r="B3" s="525"/>
-      <c r="C3" s="521" t="s">
+      <c r="A3" s="506"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="521"/>
-      <c r="E3" s="521"/>
-      <c r="F3" s="521"/>
-      <c r="G3" s="540" t="s">
+      <c r="D3" s="511"/>
+      <c r="E3" s="511"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="532" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="543"/>
-      <c r="J3" s="543"/>
-      <c r="K3" s="544"/>
-      <c r="L3" s="542" t="s">
+      <c r="I3" s="535"/>
+      <c r="J3" s="535"/>
+      <c r="K3" s="536"/>
+      <c r="L3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="543"/>
-      <c r="N3" s="543"/>
-      <c r="O3" s="544"/>
-      <c r="P3" s="542" t="s">
+      <c r="M3" s="535"/>
+      <c r="N3" s="535"/>
+      <c r="O3" s="536"/>
+      <c r="P3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="543"/>
-      <c r="R3" s="543"/>
-      <c r="S3" s="544"/>
-      <c r="T3" s="542" t="s">
+      <c r="Q3" s="535"/>
+      <c r="R3" s="535"/>
+      <c r="S3" s="536"/>
+      <c r="T3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="543"/>
-      <c r="V3" s="543"/>
-      <c r="W3" s="544"/>
-      <c r="X3" s="475" t="s">
+      <c r="U3" s="535"/>
+      <c r="V3" s="535"/>
+      <c r="W3" s="536"/>
+      <c r="X3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="476" t="s">
+      <c r="Y3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="476"/>
-      <c r="AA3" s="476"/>
-      <c r="AB3" s="476"/>
-      <c r="AC3" s="520" t="s">
+      <c r="Z3" s="482"/>
+      <c r="AA3" s="482"/>
+      <c r="AB3" s="482"/>
+      <c r="AC3" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="521" t="s">
+      <c r="AD3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="521"/>
-      <c r="AF3" s="521"/>
-      <c r="AG3" s="521"/>
+      <c r="AE3" s="511"/>
+      <c r="AF3" s="511"/>
+      <c r="AG3" s="511"/>
       <c r="AI3" s="204" t="s">
         <v>114</v>
       </c>
@@ -39775,19 +39775,19 @@
       <c r="AM3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AN3" s="475" t="s">
+      <c r="AN3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="476" t="s">
+      <c r="AO3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="AP3" s="476"/>
-      <c r="AQ3" s="476"/>
-      <c r="AR3" s="476"/>
+      <c r="AP3" s="482"/>
+      <c r="AQ3" s="482"/>
+      <c r="AR3" s="482"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="525"/>
-      <c r="B4" s="525"/>
+      <c r="A4" s="506"/>
+      <c r="B4" s="506"/>
       <c r="C4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39800,7 +39800,7 @@
       <c r="F4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="541"/>
+      <c r="G4" s="533"/>
       <c r="H4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39849,7 +39849,7 @@
       <c r="W4" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="475"/>
+      <c r="X4" s="481"/>
       <c r="Y4" s="198" t="s">
         <v>111</v>
       </c>
@@ -39862,7 +39862,7 @@
       <c r="AB4" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="520"/>
+      <c r="AC4" s="510"/>
       <c r="AD4" s="205" t="s">
         <v>111</v>
       </c>
@@ -39879,7 +39879,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AN4" s="475"/>
+      <c r="AN4" s="481"/>
       <c r="AO4" s="198" t="s">
         <v>111</v>
       </c>
@@ -39894,10 +39894,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="524" t="s">
+      <c r="A5" s="505" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="524"/>
+      <c r="B5" s="505"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -39971,11 +39971,11 @@
       <c r="AE6" s="203"/>
       <c r="AF6" s="203"/>
       <c r="AG6" s="203"/>
-      <c r="AI6" s="516">
+      <c r="AI6" s="513">
         <f>SUM(W7:W9)</f>
         <v>14.5</v>
       </c>
-      <c r="AJ6" s="516">
+      <c r="AJ6" s="513">
         <f>SUM(AB7:AB9)</f>
         <v>9.1000000000000014</v>
       </c>
@@ -40076,8 +40076,8 @@
         <v>1.31</v>
       </c>
       <c r="AH7" s="37"/>
-      <c r="AI7" s="517"/>
-      <c r="AJ7" s="517"/>
+      <c r="AI7" s="514"/>
+      <c r="AJ7" s="514"/>
       <c r="AK7" s="37"/>
       <c r="AM7" s="72">
         <f>T7-Y7</f>
@@ -40157,8 +40157,8 @@
         <v>0</v>
       </c>
       <c r="AH8" s="37"/>
-      <c r="AI8" s="517"/>
-      <c r="AJ8" s="517"/>
+      <c r="AI8" s="514"/>
+      <c r="AJ8" s="514"/>
       <c r="AK8" s="37"/>
       <c r="AN8" s="54" t="s">
         <v>78</v>
@@ -40265,8 +40265,8 @@
         <v>45.41</v>
       </c>
       <c r="AH9" s="37"/>
-      <c r="AI9" s="517"/>
-      <c r="AJ9" s="517"/>
+      <c r="AI9" s="514"/>
+      <c r="AJ9" s="514"/>
       <c r="AK9" s="37"/>
       <c r="AM9" s="72">
         <f>T9-Y9</f>
@@ -40775,11 +40775,11 @@
         <v>0.97</v>
       </c>
       <c r="AH14" s="37"/>
-      <c r="AI14" s="516">
+      <c r="AI14" s="513">
         <f>SUM(W14:W16)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="AJ14" s="516">
+      <c r="AJ14" s="513">
         <f>SUM(AB14:AB16)</f>
         <v>0.25</v>
       </c>
@@ -40893,8 +40893,8 @@
         <v>1</v>
       </c>
       <c r="AH15" s="37"/>
-      <c r="AI15" s="517"/>
-      <c r="AJ15" s="517"/>
+      <c r="AI15" s="514"/>
+      <c r="AJ15" s="514"/>
       <c r="AK15" s="37"/>
       <c r="AM15" s="72">
         <f t="shared" si="11"/>
@@ -41005,8 +41005,8 @@
         <v>0.46</v>
       </c>
       <c r="AH16" s="37"/>
-      <c r="AI16" s="517"/>
-      <c r="AJ16" s="517"/>
+      <c r="AI16" s="514"/>
+      <c r="AJ16" s="514"/>
       <c r="AK16" s="37"/>
       <c r="AM16" s="72">
         <f t="shared" si="11"/>
@@ -41235,11 +41235,11 @@
         <v>1.44</v>
       </c>
       <c r="AH18" s="37"/>
-      <c r="AI18" s="516">
+      <c r="AI18" s="513">
         <f>SUM(W18:W19)</f>
         <v>4.7</v>
       </c>
-      <c r="AJ18" s="516">
+      <c r="AJ18" s="513">
         <f>SUM(AB18:AB19)</f>
         <v>2.31</v>
       </c>
@@ -41353,8 +41353,8 @@
         <v>10.72</v>
       </c>
       <c r="AH19" s="37"/>
-      <c r="AI19" s="516"/>
-      <c r="AJ19" s="517"/>
+      <c r="AI19" s="513"/>
+      <c r="AJ19" s="514"/>
       <c r="AK19" s="37"/>
       <c r="AM19" s="72">
         <f t="shared" si="11"/>
@@ -41465,11 +41465,11 @@
         <v>19.93</v>
       </c>
       <c r="AH20" s="37"/>
-      <c r="AI20" s="516">
+      <c r="AI20" s="513">
         <f>SUM(W20:W21)</f>
         <v>31</v>
       </c>
-      <c r="AJ20" s="516">
+      <c r="AJ20" s="513">
         <f>SUM(AB20:AB21)</f>
         <v>17.2</v>
       </c>
@@ -41583,8 +41583,8 @@
         <v>79.38</v>
       </c>
       <c r="AH21" s="37"/>
-      <c r="AI21" s="517"/>
-      <c r="AJ21" s="517"/>
+      <c r="AI21" s="514"/>
+      <c r="AJ21" s="514"/>
       <c r="AK21" s="37"/>
       <c r="AM21" s="72">
         <f t="shared" si="11"/>
@@ -42077,7 +42077,7 @@
       </c>
     </row>
     <row r="26" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="518">
+      <c r="A26" s="515">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -42131,7 +42131,7 @@
       <c r="AR26" s="65"/>
     </row>
     <row r="27" spans="1:44" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="518"/>
+      <c r="A27" s="515"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -42190,7 +42190,7 @@
       <c r="AR27" s="65"/>
     </row>
     <row r="28" spans="1:44" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="518"/>
+      <c r="A28" s="515"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -42288,15 +42288,15 @@
         <v>327.02999999999997</v>
       </c>
       <c r="AH28" s="37"/>
-      <c r="AI28" s="507">
+      <c r="AI28" s="516">
         <f>SUM(W28:W30)</f>
         <v>848.67000000000007</v>
       </c>
-      <c r="AJ28" s="507">
+      <c r="AJ28" s="516">
         <f>SUM(AB28:AB30)</f>
         <v>253.55</v>
       </c>
-      <c r="AK28" s="503">
+      <c r="AK28" s="522">
         <f>SUM(Z28:Z30)</f>
         <v>219.57</v>
       </c>
@@ -42321,8 +42321,8 @@
         <v>327.02999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:44" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="518"/>
+    <row r="29" spans="1:44" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="515"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -42420,9 +42420,9 @@
         <v>1560.1799999999998</v>
       </c>
       <c r="AH29" s="37"/>
-      <c r="AI29" s="508"/>
-      <c r="AJ29" s="508"/>
-      <c r="AK29" s="504"/>
+      <c r="AI29" s="517"/>
+      <c r="AJ29" s="517"/>
+      <c r="AK29" s="523"/>
       <c r="AM29" s="72">
         <f>T29-Y29</f>
         <v>38.699999999999996</v>
@@ -42445,7 +42445,7 @@
       </c>
     </row>
     <row r="30" spans="1:44" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="518"/>
+      <c r="A30" s="515"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -42543,9 +42543,9 @@
         <v>592.67000000000007</v>
       </c>
       <c r="AH30" s="37"/>
-      <c r="AI30" s="508"/>
-      <c r="AJ30" s="508"/>
-      <c r="AK30" s="504"/>
+      <c r="AI30" s="517"/>
+      <c r="AJ30" s="517"/>
+      <c r="AK30" s="523"/>
       <c r="AM30" s="72">
         <f>T30-Y30</f>
         <v>11.719999999999999</v>
@@ -42932,7 +42932,7 @@
       </c>
     </row>
     <row r="34" spans="1:44" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="513">
+      <c r="A34" s="518">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -43022,11 +43022,11 @@
         <v>14.93</v>
       </c>
       <c r="AH34" s="37"/>
-      <c r="AI34" s="507">
+      <c r="AI34" s="516">
         <f>SUM(W34:W36)</f>
         <v>7</v>
       </c>
-      <c r="AJ34" s="507">
+      <c r="AJ34" s="516">
         <f>SUM(AB34:AB36)</f>
         <v>2.2000000000000002</v>
       </c>
@@ -43050,7 +43050,7 @@
       </c>
     </row>
     <row r="35" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="514"/>
+      <c r="A35" s="519"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -43136,8 +43136,8 @@
         <v>1.29</v>
       </c>
       <c r="AH35" s="37"/>
-      <c r="AI35" s="508"/>
-      <c r="AJ35" s="508"/>
+      <c r="AI35" s="517"/>
+      <c r="AJ35" s="517"/>
       <c r="AK35" s="37"/>
       <c r="AM35" s="72">
         <f t="shared" si="26"/>
@@ -43158,7 +43158,7 @@
       </c>
     </row>
     <row r="36" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="515"/>
+      <c r="A36" s="520"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -43244,8 +43244,8 @@
         <v>1.3</v>
       </c>
       <c r="AH36" s="37"/>
-      <c r="AI36" s="508"/>
-      <c r="AJ36" s="508"/>
+      <c r="AI36" s="517"/>
+      <c r="AJ36" s="517"/>
       <c r="AK36" s="37"/>
       <c r="AM36" s="72">
         <f t="shared" si="26"/>
@@ -43756,11 +43756,11 @@
         <v>65.02</v>
       </c>
       <c r="AH41" s="37"/>
-      <c r="AI41" s="507">
+      <c r="AI41" s="516">
         <f>SUM(W41:W50)</f>
         <v>91</v>
       </c>
-      <c r="AJ41" s="507">
+      <c r="AJ41" s="516">
         <f>SUM(AB41:AB50)</f>
         <v>40.11</v>
       </c>
@@ -43872,8 +43872,8 @@
         <v>3.2</v>
       </c>
       <c r="AH42" s="37"/>
-      <c r="AI42" s="508"/>
-      <c r="AJ42" s="508"/>
+      <c r="AI42" s="517"/>
+      <c r="AJ42" s="517"/>
       <c r="AK42" s="37"/>
       <c r="AM42" s="72">
         <f t="shared" si="37"/>
@@ -43984,8 +43984,8 @@
         <v>7.63</v>
       </c>
       <c r="AH43" s="37"/>
-      <c r="AI43" s="508"/>
-      <c r="AJ43" s="508"/>
+      <c r="AI43" s="517"/>
+      <c r="AJ43" s="517"/>
       <c r="AK43" s="37"/>
       <c r="AM43" s="72">
         <f t="shared" si="37"/>
@@ -44096,8 +44096,8 @@
         <v>1.69</v>
       </c>
       <c r="AH44" s="37"/>
-      <c r="AI44" s="508"/>
-      <c r="AJ44" s="508"/>
+      <c r="AI44" s="517"/>
+      <c r="AJ44" s="517"/>
       <c r="AK44" s="37"/>
       <c r="AM44" s="72">
         <f t="shared" si="37"/>
@@ -44206,8 +44206,8 @@
         <v>19.98</v>
       </c>
       <c r="AH45" s="37"/>
-      <c r="AI45" s="508"/>
-      <c r="AJ45" s="508"/>
+      <c r="AI45" s="517"/>
+      <c r="AJ45" s="517"/>
       <c r="AK45" s="37"/>
       <c r="AM45" s="72">
         <f t="shared" si="37"/>
@@ -44316,8 +44316,8 @@
         <v>14.53</v>
       </c>
       <c r="AH46" s="37"/>
-      <c r="AI46" s="508"/>
-      <c r="AJ46" s="508"/>
+      <c r="AI46" s="517"/>
+      <c r="AJ46" s="517"/>
       <c r="AK46" s="37"/>
       <c r="AM46" s="72">
         <f t="shared" si="37"/>
@@ -44428,8 +44428,8 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="AH47" s="37"/>
-      <c r="AI47" s="508"/>
-      <c r="AJ47" s="508"/>
+      <c r="AI47" s="517"/>
+      <c r="AJ47" s="517"/>
       <c r="AK47" s="37"/>
       <c r="AM47" s="72">
         <f t="shared" si="37"/>
@@ -44550,8 +44550,8 @@
         <v>128.19999999999999</v>
       </c>
       <c r="AH48" s="37"/>
-      <c r="AI48" s="508"/>
-      <c r="AJ48" s="508"/>
+      <c r="AI48" s="517"/>
+      <c r="AJ48" s="517"/>
       <c r="AK48" s="71">
         <f>Z48</f>
         <v>29.46</v>
@@ -44669,8 +44669,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AH49" s="37"/>
-      <c r="AI49" s="508"/>
-      <c r="AJ49" s="508"/>
+      <c r="AI49" s="517"/>
+      <c r="AJ49" s="517"/>
       <c r="AK49" s="37"/>
       <c r="AM49" s="72">
         <f t="shared" si="37"/>
@@ -44779,8 +44779,8 @@
         <v>7.48</v>
       </c>
       <c r="AH50" s="37"/>
-      <c r="AI50" s="508"/>
-      <c r="AJ50" s="508"/>
+      <c r="AI50" s="517"/>
+      <c r="AJ50" s="517"/>
       <c r="AK50" s="37"/>
       <c r="AM50" s="72">
         <f t="shared" si="37"/>
@@ -44962,92 +44962,92 @@
     <row r="52" spans="1:44" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="505"/>
-      <c r="D52" s="506"/>
-      <c r="E52" s="505"/>
-      <c r="F52" s="505"/>
-      <c r="G52" s="536"/>
-      <c r="H52" s="538"/>
-      <c r="I52" s="536"/>
-      <c r="J52" s="538"/>
-      <c r="K52" s="536"/>
-      <c r="L52" s="538"/>
-      <c r="M52" s="536"/>
-      <c r="N52" s="538"/>
-      <c r="O52" s="536"/>
-      <c r="P52" s="538"/>
-      <c r="Q52" s="536"/>
-      <c r="R52" s="538"/>
-      <c r="S52" s="536"/>
-      <c r="T52" s="538"/>
-      <c r="U52" s="536"/>
-      <c r="V52" s="538"/>
-      <c r="W52" s="536"/>
-      <c r="X52" s="499"/>
-      <c r="Y52" s="499"/>
-      <c r="Z52" s="499"/>
-      <c r="AA52" s="499"/>
-      <c r="AB52" s="499"/>
-      <c r="AC52" s="506"/>
-      <c r="AD52" s="506"/>
-      <c r="AE52" s="506"/>
-      <c r="AF52" s="506"/>
-      <c r="AG52" s="506"/>
+      <c r="C52" s="524"/>
+      <c r="D52" s="521"/>
+      <c r="E52" s="524"/>
+      <c r="F52" s="524"/>
+      <c r="G52" s="542"/>
+      <c r="H52" s="540"/>
+      <c r="I52" s="542"/>
+      <c r="J52" s="540"/>
+      <c r="K52" s="542"/>
+      <c r="L52" s="540"/>
+      <c r="M52" s="542"/>
+      <c r="N52" s="540"/>
+      <c r="O52" s="542"/>
+      <c r="P52" s="540"/>
+      <c r="Q52" s="542"/>
+      <c r="R52" s="540"/>
+      <c r="S52" s="542"/>
+      <c r="T52" s="540"/>
+      <c r="U52" s="542"/>
+      <c r="V52" s="540"/>
+      <c r="W52" s="542"/>
+      <c r="X52" s="477"/>
+      <c r="Y52" s="477"/>
+      <c r="Z52" s="477"/>
+      <c r="AA52" s="477"/>
+      <c r="AB52" s="477"/>
+      <c r="AC52" s="521"/>
+      <c r="AD52" s="521"/>
+      <c r="AE52" s="521"/>
+      <c r="AF52" s="521"/>
+      <c r="AG52" s="521"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
       <c r="AJ52" s="105"/>
       <c r="AK52" s="105"/>
-      <c r="AN52" s="499"/>
-      <c r="AO52" s="499"/>
-      <c r="AP52" s="499"/>
-      <c r="AQ52" s="499"/>
-      <c r="AR52" s="499"/>
+      <c r="AN52" s="477"/>
+      <c r="AO52" s="477"/>
+      <c r="AP52" s="477"/>
+      <c r="AQ52" s="477"/>
+      <c r="AR52" s="477"/>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="505"/>
-      <c r="D53" s="506"/>
-      <c r="E53" s="505"/>
-      <c r="F53" s="505"/>
-      <c r="G53" s="537"/>
-      <c r="H53" s="539"/>
-      <c r="I53" s="537"/>
-      <c r="J53" s="539"/>
-      <c r="K53" s="537"/>
-      <c r="L53" s="539"/>
-      <c r="M53" s="537"/>
-      <c r="N53" s="539"/>
-      <c r="O53" s="537"/>
-      <c r="P53" s="539"/>
-      <c r="Q53" s="537"/>
-      <c r="R53" s="539"/>
-      <c r="S53" s="537"/>
-      <c r="T53" s="539"/>
-      <c r="U53" s="537"/>
-      <c r="V53" s="539"/>
-      <c r="W53" s="537"/>
-      <c r="X53" s="499"/>
-      <c r="Y53" s="499"/>
-      <c r="Z53" s="499"/>
-      <c r="AA53" s="499"/>
-      <c r="AB53" s="499"/>
-      <c r="AC53" s="506"/>
-      <c r="AD53" s="506"/>
-      <c r="AE53" s="506"/>
-      <c r="AF53" s="506"/>
-      <c r="AG53" s="506"/>
+      <c r="C53" s="524"/>
+      <c r="D53" s="521"/>
+      <c r="E53" s="524"/>
+      <c r="F53" s="524"/>
+      <c r="G53" s="543"/>
+      <c r="H53" s="541"/>
+      <c r="I53" s="543"/>
+      <c r="J53" s="541"/>
+      <c r="K53" s="543"/>
+      <c r="L53" s="541"/>
+      <c r="M53" s="543"/>
+      <c r="N53" s="541"/>
+      <c r="O53" s="543"/>
+      <c r="P53" s="541"/>
+      <c r="Q53" s="543"/>
+      <c r="R53" s="541"/>
+      <c r="S53" s="543"/>
+      <c r="T53" s="541"/>
+      <c r="U53" s="543"/>
+      <c r="V53" s="541"/>
+      <c r="W53" s="543"/>
+      <c r="X53" s="477"/>
+      <c r="Y53" s="477"/>
+      <c r="Z53" s="477"/>
+      <c r="AA53" s="477"/>
+      <c r="AB53" s="477"/>
+      <c r="AC53" s="521"/>
+      <c r="AD53" s="521"/>
+      <c r="AE53" s="521"/>
+      <c r="AF53" s="521"/>
+      <c r="AG53" s="521"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
       <c r="AJ53" s="37"/>
       <c r="AK53" s="37"/>
-      <c r="AN53" s="499"/>
-      <c r="AO53" s="499"/>
-      <c r="AP53" s="499"/>
-      <c r="AQ53" s="499"/>
-      <c r="AR53" s="499"/>
+      <c r="AN53" s="477"/>
+      <c r="AO53" s="477"/>
+      <c r="AP53" s="477"/>
+      <c r="AQ53" s="477"/>
+      <c r="AR53" s="477"/>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
@@ -45096,7 +45096,7 @@
       <c r="AR54" s="57"/>
     </row>
     <row r="55" spans="1:44" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="512">
+      <c r="A55" s="525">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -45183,11 +45183,11 @@
         <v>606.9</v>
       </c>
       <c r="AH55" s="37"/>
-      <c r="AI55" s="507">
+      <c r="AI55" s="516">
         <f>SUM(W55:W56)</f>
         <v>95.6</v>
       </c>
-      <c r="AJ55" s="507">
+      <c r="AJ55" s="516">
         <f>SUM(AB55:AB56)</f>
         <v>0</v>
       </c>
@@ -45207,7 +45207,7 @@
       </c>
     </row>
     <row r="56" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="512"/>
+      <c r="A56" s="525"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -45280,8 +45280,8 @@
         <v>50.22</v>
       </c>
       <c r="AH56" s="37"/>
-      <c r="AI56" s="508"/>
-      <c r="AJ56" s="508"/>
+      <c r="AI56" s="517"/>
+      <c r="AJ56" s="517"/>
       <c r="AK56" s="37"/>
       <c r="AN56" s="196"/>
       <c r="AO56" s="54">
@@ -45393,7 +45393,7 @@
       </c>
     </row>
     <row r="58" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="511">
+      <c r="A58" s="528">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -45468,11 +45468,11 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AH58" s="37"/>
-      <c r="AI58" s="507">
+      <c r="AI58" s="516">
         <f>SUM(W58:W59)</f>
         <v>0</v>
       </c>
-      <c r="AJ58" s="507">
+      <c r="AJ58" s="516">
         <f>SUM(AB58:AB59)</f>
         <v>0</v>
       </c>
@@ -45490,7 +45490,7 @@
       </c>
     </row>
     <row r="59" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="511"/>
+      <c r="A59" s="528"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -45563,8 +45563,8 @@
         <v>0.79</v>
       </c>
       <c r="AH59" s="37"/>
-      <c r="AI59" s="508"/>
-      <c r="AJ59" s="508"/>
+      <c r="AI59" s="517"/>
+      <c r="AJ59" s="517"/>
       <c r="AK59" s="37"/>
       <c r="AN59" s="196"/>
       <c r="AO59" s="54">
@@ -45579,7 +45579,7 @@
       </c>
     </row>
     <row r="60" spans="1:44" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="511">
+      <c r="A60" s="528">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -45654,11 +45654,11 @@
         <v>20.18</v>
       </c>
       <c r="AH60" s="37"/>
-      <c r="AI60" s="507">
+      <c r="AI60" s="516">
         <f>SUM(W60:W62)</f>
         <v>5</v>
       </c>
-      <c r="AJ60" s="507">
+      <c r="AJ60" s="516">
         <f>SUM(AB60:AB62)</f>
         <v>0</v>
       </c>
@@ -45676,7 +45676,7 @@
       </c>
     </row>
     <row r="61" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="511"/>
+      <c r="A61" s="528"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -45749,8 +45749,8 @@
         <v>2.13</v>
       </c>
       <c r="AH61" s="37"/>
-      <c r="AI61" s="508"/>
-      <c r="AJ61" s="508"/>
+      <c r="AI61" s="517"/>
+      <c r="AJ61" s="517"/>
       <c r="AK61" s="37"/>
       <c r="AN61" s="196"/>
       <c r="AO61" s="54">
@@ -45765,7 +45765,7 @@
       </c>
     </row>
     <row r="62" spans="1:44" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="511"/>
+      <c r="A62" s="528"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -45850,8 +45850,8 @@
         <v>9.49</v>
       </c>
       <c r="AH62" s="37"/>
-      <c r="AI62" s="508"/>
-      <c r="AJ62" s="508"/>
+      <c r="AI62" s="517"/>
+      <c r="AJ62" s="517"/>
       <c r="AK62" s="37"/>
       <c r="AN62" s="196" t="s">
         <v>78</v>
@@ -45868,7 +45868,7 @@
       </c>
     </row>
     <row r="63" spans="1:44" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="511">
+      <c r="A63" s="528">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -45943,11 +45943,11 @@
         <v>19.47</v>
       </c>
       <c r="AH63" s="37"/>
-      <c r="AI63" s="507">
+      <c r="AI63" s="516">
         <f>SUM(W63:W66)</f>
         <v>0</v>
       </c>
-      <c r="AJ63" s="507">
+      <c r="AJ63" s="516">
         <f>SUM(AB63:AB66)</f>
         <v>0</v>
       </c>
@@ -45965,7 +45965,7 @@
       </c>
     </row>
     <row r="64" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="511"/>
+      <c r="A64" s="528"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -46038,8 +46038,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AH64" s="37"/>
-      <c r="AI64" s="508"/>
-      <c r="AJ64" s="508"/>
+      <c r="AI64" s="517"/>
+      <c r="AJ64" s="517"/>
       <c r="AK64" s="37"/>
       <c r="AN64" s="196"/>
       <c r="AO64" s="54">
@@ -46054,7 +46054,7 @@
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A65" s="511"/>
+      <c r="A65" s="528"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -46127,8 +46127,8 @@
         <v>0.2</v>
       </c>
       <c r="AH65" s="37"/>
-      <c r="AI65" s="508"/>
-      <c r="AJ65" s="508"/>
+      <c r="AI65" s="517"/>
+      <c r="AJ65" s="517"/>
       <c r="AK65" s="37"/>
       <c r="AN65" s="196"/>
       <c r="AO65" s="54">
@@ -46143,7 +46143,7 @@
       </c>
     </row>
     <row r="66" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="511"/>
+      <c r="A66" s="528"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -46216,8 +46216,8 @@
         <v>4.08</v>
       </c>
       <c r="AH66" s="37"/>
-      <c r="AI66" s="508"/>
-      <c r="AJ66" s="508"/>
+      <c r="AI66" s="517"/>
+      <c r="AJ66" s="517"/>
       <c r="AK66" s="37"/>
       <c r="AN66" s="196"/>
       <c r="AO66" s="54">
@@ -46319,11 +46319,11 @@
         <v>45.32</v>
       </c>
       <c r="AH67" s="37"/>
-      <c r="AI67" s="509">
+      <c r="AI67" s="526">
         <f>SUM(W67:W68)</f>
         <v>4</v>
       </c>
-      <c r="AJ67" s="509">
+      <c r="AJ67" s="526">
         <f>SUM(AB67:AB68)</f>
         <v>0</v>
       </c>
@@ -46430,8 +46430,8 @@
         <v>9.73</v>
       </c>
       <c r="AH68" s="37"/>
-      <c r="AI68" s="510"/>
-      <c r="AJ68" s="510"/>
+      <c r="AI68" s="527"/>
+      <c r="AJ68" s="527"/>
       <c r="AK68" s="37"/>
       <c r="AN68" s="196" t="s">
         <v>78</v>
@@ -46695,15 +46695,15 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
       <c r="AH72" s="37"/>
-      <c r="AI72" s="507">
+      <c r="AI72" s="516">
         <f>SUM(W72:W85)</f>
         <v>17093.009999999998</v>
       </c>
-      <c r="AJ72" s="507">
+      <c r="AJ72" s="516">
         <f>SUM(AB72:AB85)</f>
         <v>1752.0599999999997</v>
       </c>
-      <c r="AK72" s="507">
+      <c r="AK72" s="516">
         <f>SUM(Z72:Z85)</f>
         <v>1382.33</v>
       </c>
@@ -46795,9 +46795,9 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
       <c r="AH73" s="37"/>
-      <c r="AI73" s="508"/>
-      <c r="AJ73" s="508"/>
-      <c r="AK73" s="508"/>
+      <c r="AI73" s="517"/>
+      <c r="AJ73" s="517"/>
+      <c r="AK73" s="517"/>
       <c r="AN73" s="79" t="s">
         <v>136</v>
       </c>
@@ -46854,9 +46854,9 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
       <c r="AH74" s="37"/>
-      <c r="AI74" s="508"/>
-      <c r="AJ74" s="508"/>
-      <c r="AK74" s="508"/>
+      <c r="AI74" s="517"/>
+      <c r="AJ74" s="517"/>
+      <c r="AK74" s="517"/>
       <c r="AN74" s="81"/>
       <c r="AO74" s="65"/>
       <c r="AP74" s="65"/>
@@ -46949,9 +46949,9 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="37"/>
-      <c r="AI75" s="508"/>
-      <c r="AJ75" s="508"/>
-      <c r="AK75" s="508"/>
+      <c r="AI75" s="517"/>
+      <c r="AJ75" s="517"/>
+      <c r="AK75" s="517"/>
       <c r="AN75" s="79" t="s">
         <v>137</v>
       </c>
@@ -47069,9 +47069,9 @@
         <v>7641.09</v>
       </c>
       <c r="AH76" s="37"/>
-      <c r="AI76" s="508"/>
-      <c r="AJ76" s="508"/>
-      <c r="AK76" s="508"/>
+      <c r="AI76" s="517"/>
+      <c r="AJ76" s="517"/>
+      <c r="AK76" s="517"/>
       <c r="AN76" s="79" t="s">
         <v>110</v>
       </c>
@@ -47187,9 +47187,9 @@
         <v>6047.23</v>
       </c>
       <c r="AH77" s="37"/>
-      <c r="AI77" s="508"/>
-      <c r="AJ77" s="508"/>
-      <c r="AK77" s="508"/>
+      <c r="AI77" s="517"/>
+      <c r="AJ77" s="517"/>
+      <c r="AK77" s="517"/>
       <c r="AM77" s="116"/>
       <c r="AN77" s="79" t="s">
         <v>109</v>
@@ -47250,9 +47250,9 @@
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
       <c r="AH78" s="37"/>
-      <c r="AI78" s="508"/>
-      <c r="AJ78" s="508"/>
-      <c r="AK78" s="508"/>
+      <c r="AI78" s="517"/>
+      <c r="AJ78" s="517"/>
+      <c r="AK78" s="517"/>
       <c r="AM78" s="116"/>
       <c r="AN78" s="81"/>
       <c r="AO78" s="67"/>
@@ -47344,9 +47344,9 @@
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
       <c r="AH79" s="37"/>
-      <c r="AI79" s="508"/>
-      <c r="AJ79" s="508"/>
-      <c r="AK79" s="508"/>
+      <c r="AI79" s="517"/>
+      <c r="AJ79" s="517"/>
+      <c r="AK79" s="517"/>
       <c r="AM79" s="116"/>
       <c r="AN79" s="79" t="s">
         <v>138</v>
@@ -47447,9 +47447,9 @@
       <c r="AF80" s="2"/>
       <c r="AG80" s="2"/>
       <c r="AH80" s="37"/>
-      <c r="AI80" s="508"/>
-      <c r="AJ80" s="508"/>
-      <c r="AK80" s="508"/>
+      <c r="AI80" s="517"/>
+      <c r="AJ80" s="517"/>
+      <c r="AK80" s="517"/>
       <c r="AM80" s="116"/>
       <c r="AN80" s="79" t="s">
         <v>135</v>
@@ -47550,9 +47550,9 @@
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
       <c r="AH81" s="37"/>
-      <c r="AI81" s="508"/>
-      <c r="AJ81" s="508"/>
-      <c r="AK81" s="508"/>
+      <c r="AI81" s="517"/>
+      <c r="AJ81" s="517"/>
+      <c r="AK81" s="517"/>
       <c r="AL81" s="116"/>
       <c r="AM81" s="116"/>
       <c r="AN81" s="79" t="s">
@@ -47670,9 +47670,9 @@
         <v>6214.3499999999995</v>
       </c>
       <c r="AH82" s="37"/>
-      <c r="AI82" s="508"/>
-      <c r="AJ82" s="508"/>
-      <c r="AK82" s="508"/>
+      <c r="AI82" s="517"/>
+      <c r="AJ82" s="517"/>
+      <c r="AK82" s="517"/>
       <c r="AM82" s="118"/>
       <c r="AN82" s="79" t="s">
         <v>108</v>
@@ -47773,9 +47773,9 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
       <c r="AH83" s="37"/>
-      <c r="AI83" s="508"/>
-      <c r="AJ83" s="508"/>
-      <c r="AK83" s="508"/>
+      <c r="AI83" s="517"/>
+      <c r="AJ83" s="517"/>
+      <c r="AK83" s="517"/>
       <c r="AN83" s="79" t="s">
         <v>140</v>
       </c>
@@ -47875,9 +47875,9 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
       <c r="AH84" s="37"/>
-      <c r="AI84" s="508"/>
-      <c r="AJ84" s="508"/>
-      <c r="AK84" s="508"/>
+      <c r="AI84" s="517"/>
+      <c r="AJ84" s="517"/>
+      <c r="AK84" s="517"/>
       <c r="AN84" s="79" t="s">
         <v>105</v>
       </c>
@@ -47934,9 +47934,9 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
       <c r="AH85" s="37"/>
-      <c r="AI85" s="508"/>
-      <c r="AJ85" s="508"/>
-      <c r="AK85" s="508"/>
+      <c r="AI85" s="517"/>
+      <c r="AJ85" s="517"/>
+      <c r="AK85" s="517"/>
       <c r="AL85" s="75"/>
       <c r="AN85" s="63"/>
       <c r="AO85" s="65"/>
@@ -48339,11 +48339,11 @@
       <c r="AH89" s="37"/>
       <c r="AI89" s="37"/>
       <c r="AJ89" s="37"/>
-      <c r="AK89" s="503">
+      <c r="AK89" s="522">
         <f>AK87+AL87</f>
         <v>1893.7399999999998</v>
       </c>
-      <c r="AL89" s="504"/>
+      <c r="AL89" s="523"/>
       <c r="AN89" s="61"/>
       <c r="AO89" s="60"/>
       <c r="AP89" s="60"/>
@@ -48593,8 +48593,8 @@
         <f>SUM(AB73:AB85)+AB48</f>
         <v>1785.2299999999998</v>
       </c>
-      <c r="AQ93" s="522"/>
-      <c r="AR93" s="523"/>
+      <c r="AQ93" s="503"/>
+      <c r="AR93" s="504"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C94" s="158">
@@ -49251,6 +49251,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AK28:AK30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AI6:AI9"/>
+    <mergeCell ref="AJ6:AJ9"/>
+    <mergeCell ref="AI14:AI16"/>
+    <mergeCell ref="AJ14:AJ16"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AJ28:AJ30"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="AJ34:AJ36"/>
+    <mergeCell ref="AI41:AI50"/>
+    <mergeCell ref="AJ41:AJ50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="AR52:AR53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="AF52:AF53"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AJ58:AJ59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AI60:AI62"/>
+    <mergeCell ref="AJ60:AJ62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AI63:AI66"/>
+    <mergeCell ref="AJ63:AJ66"/>
+    <mergeCell ref="AI67:AI68"/>
+    <mergeCell ref="AJ67:AJ68"/>
     <mergeCell ref="AK72:AK85"/>
     <mergeCell ref="AK89:AL89"/>
     <mergeCell ref="AQ93:AR93"/>
@@ -49267,86 +49347,6 @@
     <mergeCell ref="AO52:AO53"/>
     <mergeCell ref="AP52:AP53"/>
     <mergeCell ref="AQ52:AQ53"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AI63:AI66"/>
-    <mergeCell ref="AJ63:AJ66"/>
-    <mergeCell ref="AI67:AI68"/>
-    <mergeCell ref="AJ67:AJ68"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AJ58:AJ59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AI60:AI62"/>
-    <mergeCell ref="AJ60:AJ62"/>
-    <mergeCell ref="AR52:AR53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="AF52:AF53"/>
-    <mergeCell ref="AG52:AG53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="AJ34:AJ36"/>
-    <mergeCell ref="AI41:AI50"/>
-    <mergeCell ref="AJ41:AJ50"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="AK28:AK30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AI6:AI9"/>
-    <mergeCell ref="AJ6:AJ9"/>
-    <mergeCell ref="AI14:AI16"/>
-    <mergeCell ref="AJ14:AJ16"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AJ28:AJ30"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49422,125 +49422,125 @@
       <c r="AP1" s="51"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="506" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="525" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="519" t="s">
+      <c r="B2" s="506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="512" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="519"/>
-      <c r="E2" s="519"/>
-      <c r="F2" s="519"/>
-      <c r="G2" s="519" t="s">
+      <c r="D2" s="512"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="512" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="519"/>
-      <c r="I2" s="519"/>
-      <c r="J2" s="519"/>
-      <c r="K2" s="519"/>
-      <c r="L2" s="548" t="s">
+      <c r="H2" s="512"/>
+      <c r="I2" s="512"/>
+      <c r="J2" s="512"/>
+      <c r="K2" s="512"/>
+      <c r="L2" s="537" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="549"/>
-      <c r="N2" s="549"/>
-      <c r="O2" s="549"/>
-      <c r="P2" s="550"/>
-      <c r="Q2" s="548" t="s">
+      <c r="M2" s="538"/>
+      <c r="N2" s="538"/>
+      <c r="O2" s="538"/>
+      <c r="P2" s="539"/>
+      <c r="Q2" s="537" t="s">
         <v>231</v>
       </c>
-      <c r="R2" s="549"/>
-      <c r="S2" s="549"/>
-      <c r="T2" s="549"/>
-      <c r="U2" s="550"/>
-      <c r="V2" s="545" t="s">
+      <c r="R2" s="538"/>
+      <c r="S2" s="538"/>
+      <c r="T2" s="538"/>
+      <c r="U2" s="539"/>
+      <c r="V2" s="529" t="s">
         <v>232</v>
       </c>
-      <c r="W2" s="546"/>
-      <c r="X2" s="546"/>
-      <c r="Y2" s="546"/>
-      <c r="Z2" s="547"/>
-      <c r="AA2" s="519" t="s">
+      <c r="W2" s="530"/>
+      <c r="X2" s="530"/>
+      <c r="Y2" s="530"/>
+      <c r="Z2" s="531"/>
+      <c r="AA2" s="512" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="519"/>
-      <c r="AC2" s="519"/>
-      <c r="AD2" s="519"/>
-      <c r="AE2" s="519"/>
-      <c r="AG2" s="526" t="s">
+      <c r="AB2" s="512"/>
+      <c r="AC2" s="512"/>
+      <c r="AD2" s="512"/>
+      <c r="AE2" s="512"/>
+      <c r="AG2" s="507" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="527"/>
+      <c r="AH2" s="508"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AL2" s="471" t="s">
+      <c r="AL2" s="478" t="s">
         <v>146</v>
       </c>
-      <c r="AM2" s="472"/>
-      <c r="AN2" s="472"/>
-      <c r="AO2" s="472"/>
-      <c r="AP2" s="473"/>
+      <c r="AM2" s="479"/>
+      <c r="AN2" s="479"/>
+      <c r="AO2" s="479"/>
+      <c r="AP2" s="480"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="525"/>
-      <c r="B3" s="525"/>
-      <c r="C3" s="525" t="s">
+      <c r="A3" s="506"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="506" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="528" t="s">
+      <c r="D3" s="509" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="528"/>
-      <c r="F3" s="525" t="s">
+      <c r="E3" s="509"/>
+      <c r="F3" s="506" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="520" t="s">
+      <c r="G3" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="521" t="s">
+      <c r="H3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="521"/>
-      <c r="J3" s="521"/>
-      <c r="K3" s="521"/>
-      <c r="L3" s="540" t="s">
+      <c r="I3" s="511"/>
+      <c r="J3" s="511"/>
+      <c r="K3" s="511"/>
+      <c r="L3" s="532" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="542" t="s">
+      <c r="M3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="543"/>
-      <c r="O3" s="543"/>
-      <c r="P3" s="544"/>
-      <c r="Q3" s="540" t="s">
+      <c r="N3" s="535"/>
+      <c r="O3" s="535"/>
+      <c r="P3" s="536"/>
+      <c r="Q3" s="532" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="542" t="s">
+      <c r="R3" s="534" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="543"/>
-      <c r="T3" s="543"/>
-      <c r="U3" s="544"/>
-      <c r="V3" s="475" t="s">
+      <c r="S3" s="535"/>
+      <c r="T3" s="535"/>
+      <c r="U3" s="536"/>
+      <c r="V3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="476" t="s">
+      <c r="W3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="476"/>
-      <c r="Y3" s="476"/>
-      <c r="Z3" s="476"/>
-      <c r="AA3" s="520" t="s">
+      <c r="X3" s="482"/>
+      <c r="Y3" s="482"/>
+      <c r="Z3" s="482"/>
+      <c r="AA3" s="510" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" s="521" t="s">
+      <c r="AB3" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="521"/>
-      <c r="AD3" s="521"/>
-      <c r="AE3" s="521"/>
+      <c r="AC3" s="511"/>
+      <c r="AD3" s="511"/>
+      <c r="AE3" s="511"/>
       <c r="AG3" s="298" t="s">
         <v>114</v>
       </c>
@@ -49556,28 +49556,28 @@
       <c r="AK3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="AL3" s="475" t="s">
+      <c r="AL3" s="481" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" s="476" t="s">
+      <c r="AM3" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="AN3" s="476"/>
-      <c r="AO3" s="476"/>
-      <c r="AP3" s="476"/>
+      <c r="AN3" s="482"/>
+      <c r="AO3" s="482"/>
+      <c r="AP3" s="482"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="525"/>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
+      <c r="A4" s="506"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
       <c r="D4" s="297" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="297" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="525"/>
-      <c r="G4" s="520"/>
+      <c r="F4" s="506"/>
+      <c r="G4" s="510"/>
       <c r="H4" s="294" t="s">
         <v>111</v>
       </c>
@@ -49590,7 +49590,7 @@
       <c r="K4" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="541"/>
+      <c r="L4" s="533"/>
       <c r="M4" s="410" t="s">
         <v>111</v>
       </c>
@@ -49603,7 +49603,7 @@
       <c r="P4" s="410" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="541"/>
+      <c r="Q4" s="533"/>
       <c r="R4" s="367" t="s">
         <v>111</v>
       </c>
@@ -49616,7 +49616,7 @@
       <c r="U4" s="367" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="475"/>
+      <c r="V4" s="481"/>
       <c r="W4" s="364" t="s">
         <v>111</v>
       </c>
@@ -49629,7 +49629,7 @@
       <c r="Z4" s="364" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="520"/>
+      <c r="AA4" s="510"/>
       <c r="AB4" s="294" t="s">
         <v>111</v>
       </c>
@@ -49646,7 +49646,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AL4" s="475"/>
+      <c r="AL4" s="481"/>
       <c r="AM4" s="285" t="s">
         <v>111</v>
       </c>
@@ -49661,10 +49661,10 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="524" t="s">
+      <c r="A5" s="505" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="524"/>
+      <c r="B5" s="505"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12"/>
@@ -49734,11 +49734,11 @@
       <c r="AC6" s="291"/>
       <c r="AD6" s="291"/>
       <c r="AE6" s="291"/>
-      <c r="AG6" s="516">
+      <c r="AG6" s="513">
         <f>SUM(R7:T9)</f>
         <v>16.25</v>
       </c>
-      <c r="AH6" s="516">
+      <c r="AH6" s="513">
         <f>SUM(Z7:Z9)</f>
         <v>6.9</v>
       </c>
@@ -49836,8 +49836,8 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="AF7" s="37"/>
-      <c r="AG7" s="517"/>
-      <c r="AH7" s="517"/>
+      <c r="AG7" s="514"/>
+      <c r="AH7" s="514"/>
       <c r="AI7" s="37"/>
       <c r="AK7" s="72" t="e">
         <f>#REF!-W7</f>
@@ -49924,8 +49924,8 @@
         <v>0</v>
       </c>
       <c r="AF8" s="37"/>
-      <c r="AG8" s="517"/>
-      <c r="AH8" s="517"/>
+      <c r="AG8" s="514"/>
+      <c r="AH8" s="514"/>
       <c r="AI8" s="37"/>
       <c r="AL8" s="54" t="s">
         <v>78</v>
@@ -50029,8 +50029,8 @@
         <v>43.39</v>
       </c>
       <c r="AF9" s="37"/>
-      <c r="AG9" s="517"/>
-      <c r="AH9" s="517"/>
+      <c r="AG9" s="514"/>
+      <c r="AH9" s="514"/>
       <c r="AI9" s="37"/>
       <c r="AK9" s="72" t="e">
         <f>#REF!-W9</f>
@@ -50525,11 +50525,11 @@
         <v>0.79</v>
       </c>
       <c r="AF14" s="37"/>
-      <c r="AG14" s="516" t="e">
+      <c r="AG14" s="513" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH14" s="516">
+      <c r="AH14" s="513">
         <f>SUM(Z14:Z16)</f>
         <v>0.05</v>
       </c>
@@ -50640,8 +50640,8 @@
         <v>0.97</v>
       </c>
       <c r="AF15" s="37"/>
-      <c r="AG15" s="517"/>
-      <c r="AH15" s="517"/>
+      <c r="AG15" s="514"/>
+      <c r="AH15" s="514"/>
       <c r="AI15" s="37"/>
       <c r="AK15" s="72" t="e">
         <f>#REF!-W15</f>
@@ -50749,8 +50749,8 @@
         <v>0.47</v>
       </c>
       <c r="AF16" s="37"/>
-      <c r="AG16" s="517"/>
-      <c r="AH16" s="517"/>
+      <c r="AG16" s="514"/>
+      <c r="AH16" s="514"/>
       <c r="AI16" s="37"/>
       <c r="AK16" s="72" t="e">
         <f>#REF!-W16</f>
@@ -50973,11 +50973,11 @@
         <v>1.23</v>
       </c>
       <c r="AF18" s="37"/>
-      <c r="AG18" s="516" t="e">
+      <c r="AG18" s="513" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH18" s="516">
+      <c r="AH18" s="513">
         <f>SUM(Z18:Z19)</f>
         <v>1.2200000000000002</v>
       </c>
@@ -51088,8 +51088,8 @@
         <v>9.84</v>
       </c>
       <c r="AF19" s="37"/>
-      <c r="AG19" s="516"/>
-      <c r="AH19" s="517"/>
+      <c r="AG19" s="513"/>
+      <c r="AH19" s="514"/>
       <c r="AI19" s="37"/>
       <c r="AK19" s="72" t="e">
         <f>#REF!-W19</f>
@@ -51197,11 +51197,11 @@
         <v>17.809999999999999</v>
       </c>
       <c r="AF20" s="37"/>
-      <c r="AG20" s="516" t="e">
+      <c r="AG20" s="513" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH20" s="516">
+      <c r="AH20" s="513">
         <f>SUM(Z20:Z21)</f>
         <v>5.03</v>
       </c>
@@ -51312,8 +51312,8 @@
         <v>69.33</v>
       </c>
       <c r="AF21" s="37"/>
-      <c r="AG21" s="517"/>
-      <c r="AH21" s="517"/>
+      <c r="AG21" s="514"/>
+      <c r="AH21" s="514"/>
       <c r="AI21" s="37"/>
       <c r="AK21" s="72" t="e">
         <f>#REF!-W21</f>
@@ -51794,7 +51794,7 @@
       </c>
     </row>
     <row r="26" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="518">
+      <c r="A26" s="515">
         <v>3231201</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -51846,7 +51846,7 @@
       <c r="AP26" s="65"/>
     </row>
     <row r="27" spans="1:42" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="518"/>
+      <c r="A27" s="515"/>
       <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
@@ -51908,7 +51908,7 @@
       <c r="AP27" s="65"/>
     </row>
     <row r="28" spans="1:42" s="9" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="518"/>
+      <c r="A28" s="515"/>
       <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
@@ -51993,15 +51993,15 @@
         <v>301.5</v>
       </c>
       <c r="AF28" s="37"/>
-      <c r="AG28" s="507" t="e">
+      <c r="AG28" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH28" s="507">
+      <c r="AH28" s="516">
         <f>SUM(Z28:Z30)</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="503">
+      <c r="AI28" s="522">
         <f>SUM(X28:X30)</f>
         <v>0</v>
       </c>
@@ -52026,8 +52026,8 @@
         <v>301.5</v>
       </c>
     </row>
-    <row r="29" spans="1:42" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="518"/>
+    <row r="29" spans="1:42" s="9" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="515"/>
       <c r="B29" s="46" t="s">
         <v>25</v>
       </c>
@@ -52112,9 +52112,9 @@
         <v>1346.6299999999999</v>
       </c>
       <c r="AF29" s="37"/>
-      <c r="AG29" s="508"/>
-      <c r="AH29" s="508"/>
-      <c r="AI29" s="504"/>
+      <c r="AG29" s="517"/>
+      <c r="AH29" s="517"/>
+      <c r="AI29" s="523"/>
       <c r="AK29" s="72" t="e">
         <f>#REF!-W29</f>
         <v>#REF!</v>
@@ -52137,7 +52137,7 @@
       </c>
     </row>
     <row r="30" spans="1:42" s="9" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="518"/>
+      <c r="A30" s="515"/>
       <c r="B30" s="46" t="s">
         <v>26</v>
       </c>
@@ -52222,9 +52222,9 @@
         <v>578.20000000000005</v>
       </c>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="508"/>
-      <c r="AH30" s="508"/>
-      <c r="AI30" s="504"/>
+      <c r="AG30" s="517"/>
+      <c r="AH30" s="517"/>
+      <c r="AI30" s="523"/>
       <c r="AK30" s="72" t="e">
         <f>#REF!-W30</f>
         <v>#REF!</v>
@@ -52604,7 +52604,7 @@
       </c>
     </row>
     <row r="34" spans="1:42" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="513">
+      <c r="A34" s="518">
         <v>3111332</v>
       </c>
       <c r="B34" s="46" t="s">
@@ -52691,11 +52691,11 @@
         <v>13.49</v>
       </c>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="507" t="e">
+      <c r="AG34" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH34" s="507">
+      <c r="AH34" s="516">
         <f>SUM(Z34:Z36)</f>
         <v>0.76</v>
       </c>
@@ -52719,7 +52719,7 @@
       </c>
     </row>
     <row r="35" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="514"/>
+      <c r="A35" s="519"/>
       <c r="B35" s="46" t="s">
         <v>30</v>
       </c>
@@ -52804,8 +52804,8 @@
         <v>1.29</v>
       </c>
       <c r="AF35" s="37"/>
-      <c r="AG35" s="508"/>
-      <c r="AH35" s="508"/>
+      <c r="AG35" s="517"/>
+      <c r="AH35" s="517"/>
       <c r="AI35" s="37"/>
       <c r="AK35" s="72" t="e">
         <f>#REF!-W35</f>
@@ -52826,7 +52826,7 @@
       </c>
     </row>
     <row r="36" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="515"/>
+      <c r="A36" s="520"/>
       <c r="B36" s="46" t="s">
         <v>31</v>
       </c>
@@ -52911,8 +52911,8 @@
         <v>1.3</v>
       </c>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="508"/>
-      <c r="AH36" s="508"/>
+      <c r="AG36" s="517"/>
+      <c r="AH36" s="517"/>
       <c r="AI36" s="37"/>
       <c r="AK36" s="72" t="e">
         <f>#REF!-W36</f>
@@ -53409,11 +53409,11 @@
         <v>64.319999999999993</v>
       </c>
       <c r="AF41" s="37"/>
-      <c r="AG41" s="507" t="e">
+      <c r="AG41" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH41" s="507">
+      <c r="AH41" s="516">
         <f>SUM(Z41:Z50)</f>
         <v>3.07</v>
       </c>
@@ -53524,8 +53524,8 @@
         <v>3.2</v>
       </c>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="508"/>
-      <c r="AH42" s="508"/>
+      <c r="AG42" s="517"/>
+      <c r="AH42" s="517"/>
       <c r="AI42" s="37"/>
       <c r="AK42" s="72" t="e">
         <f>#REF!-W42</f>
@@ -53633,8 +53633,8 @@
         <v>5.3599999999999994</v>
       </c>
       <c r="AF43" s="37"/>
-      <c r="AG43" s="508"/>
-      <c r="AH43" s="508"/>
+      <c r="AG43" s="517"/>
+      <c r="AH43" s="517"/>
       <c r="AI43" s="37"/>
       <c r="AK43" s="72" t="e">
         <f>#REF!-W43</f>
@@ -53742,8 +53742,8 @@
         <v>1.35</v>
       </c>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="508"/>
-      <c r="AH44" s="508"/>
+      <c r="AG44" s="517"/>
+      <c r="AH44" s="517"/>
       <c r="AI44" s="37"/>
       <c r="AK44" s="72" t="e">
         <f>#REF!-W44</f>
@@ -53849,8 +53849,8 @@
         <v>19.98</v>
       </c>
       <c r="AF45" s="37"/>
-      <c r="AG45" s="508"/>
-      <c r="AH45" s="508"/>
+      <c r="AG45" s="517"/>
+      <c r="AH45" s="517"/>
       <c r="AI45" s="37"/>
       <c r="AK45" s="72" t="e">
         <f>#REF!-W45</f>
@@ -53958,8 +53958,8 @@
         <v>14.53</v>
       </c>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="508"/>
-      <c r="AH46" s="508"/>
+      <c r="AG46" s="517"/>
+      <c r="AH46" s="517"/>
       <c r="AI46" s="37"/>
       <c r="AK46" s="72" t="e">
         <f>#REF!-W46</f>
@@ -54067,8 +54067,8 @@
         <v>1.3900000000000001</v>
       </c>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="508"/>
-      <c r="AH47" s="508"/>
+      <c r="AG47" s="517"/>
+      <c r="AH47" s="517"/>
       <c r="AI47" s="37"/>
       <c r="AK47" s="72" t="e">
         <f>#REF!-W47</f>
@@ -54184,8 +54184,8 @@
         <v>95.03</v>
       </c>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="508"/>
-      <c r="AH48" s="508"/>
+      <c r="AG48" s="517"/>
+      <c r="AH48" s="517"/>
       <c r="AI48" s="71">
         <f>X48</f>
         <v>0</v>
@@ -54302,8 +54302,8 @@
         <v>2.3899999999999997</v>
       </c>
       <c r="AF49" s="37"/>
-      <c r="AG49" s="508"/>
-      <c r="AH49" s="508"/>
+      <c r="AG49" s="517"/>
+      <c r="AH49" s="517"/>
       <c r="AI49" s="37"/>
       <c r="AK49" s="72" t="e">
         <f>#REF!-W49</f>
@@ -54411,8 +54411,8 @@
         <v>7.48</v>
       </c>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="508"/>
-      <c r="AH50" s="508"/>
+      <c r="AG50" s="517"/>
+      <c r="AH50" s="517"/>
       <c r="AI50" s="37"/>
       <c r="AK50" s="72" t="e">
         <f>#REF!-W50</f>
@@ -54580,88 +54580,88 @@
     <row r="52" spans="1:42" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="505"/>
-      <c r="D52" s="505"/>
-      <c r="E52" s="506"/>
-      <c r="F52" s="505"/>
-      <c r="G52" s="505"/>
-      <c r="H52" s="505"/>
-      <c r="I52" s="506"/>
-      <c r="J52" s="505"/>
-      <c r="K52" s="505"/>
-      <c r="L52" s="536"/>
-      <c r="M52" s="538"/>
-      <c r="N52" s="536"/>
-      <c r="O52" s="538"/>
-      <c r="P52" s="536"/>
-      <c r="Q52" s="536"/>
-      <c r="R52" s="538"/>
-      <c r="S52" s="536"/>
-      <c r="T52" s="538"/>
-      <c r="U52" s="536"/>
-      <c r="V52" s="499"/>
-      <c r="W52" s="499"/>
-      <c r="X52" s="499"/>
-      <c r="Y52" s="499"/>
-      <c r="Z52" s="499"/>
-      <c r="AA52" s="506"/>
-      <c r="AB52" s="506"/>
-      <c r="AC52" s="506"/>
-      <c r="AD52" s="506"/>
-      <c r="AE52" s="506"/>
+      <c r="C52" s="524"/>
+      <c r="D52" s="524"/>
+      <c r="E52" s="521"/>
+      <c r="F52" s="524"/>
+      <c r="G52" s="524"/>
+      <c r="H52" s="524"/>
+      <c r="I52" s="521"/>
+      <c r="J52" s="524"/>
+      <c r="K52" s="524"/>
+      <c r="L52" s="542"/>
+      <c r="M52" s="540"/>
+      <c r="N52" s="542"/>
+      <c r="O52" s="540"/>
+      <c r="P52" s="542"/>
+      <c r="Q52" s="542"/>
+      <c r="R52" s="540"/>
+      <c r="S52" s="542"/>
+      <c r="T52" s="540"/>
+      <c r="U52" s="542"/>
+      <c r="V52" s="477"/>
+      <c r="W52" s="477"/>
+      <c r="X52" s="477"/>
+      <c r="Y52" s="477"/>
+      <c r="Z52" s="477"/>
+      <c r="AA52" s="521"/>
+      <c r="AB52" s="521"/>
+      <c r="AC52" s="521"/>
+      <c r="AD52" s="521"/>
+      <c r="AE52" s="521"/>
       <c r="AF52" s="105"/>
       <c r="AG52" s="105"/>
       <c r="AH52" s="105"/>
       <c r="AI52" s="105"/>
-      <c r="AL52" s="499"/>
-      <c r="AM52" s="499"/>
-      <c r="AN52" s="499"/>
-      <c r="AO52" s="499"/>
-      <c r="AP52" s="499"/>
+      <c r="AL52" s="477"/>
+      <c r="AM52" s="477"/>
+      <c r="AN52" s="477"/>
+      <c r="AO52" s="477"/>
+      <c r="AP52" s="477"/>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="102" t="s">
         <v>79</v>
       </c>
       <c r="B53" s="107"/>
-      <c r="C53" s="505"/>
-      <c r="D53" s="505"/>
-      <c r="E53" s="506"/>
-      <c r="F53" s="505"/>
-      <c r="G53" s="505"/>
-      <c r="H53" s="505"/>
-      <c r="I53" s="506"/>
-      <c r="J53" s="505"/>
-      <c r="K53" s="505"/>
-      <c r="L53" s="537"/>
-      <c r="M53" s="539"/>
-      <c r="N53" s="537"/>
-      <c r="O53" s="539"/>
-      <c r="P53" s="537"/>
-      <c r="Q53" s="537"/>
-      <c r="R53" s="539"/>
-      <c r="S53" s="537"/>
-      <c r="T53" s="539"/>
-      <c r="U53" s="537"/>
-      <c r="V53" s="499"/>
-      <c r="W53" s="499"/>
-      <c r="X53" s="499"/>
-      <c r="Y53" s="499"/>
-      <c r="Z53" s="499"/>
-      <c r="AA53" s="506"/>
-      <c r="AB53" s="506"/>
-      <c r="AC53" s="506"/>
-      <c r="AD53" s="506"/>
-      <c r="AE53" s="506"/>
+      <c r="C53" s="524"/>
+      <c r="D53" s="524"/>
+      <c r="E53" s="521"/>
+      <c r="F53" s="524"/>
+      <c r="G53" s="524"/>
+      <c r="H53" s="524"/>
+      <c r="I53" s="521"/>
+      <c r="J53" s="524"/>
+      <c r="K53" s="524"/>
+      <c r="L53" s="543"/>
+      <c r="M53" s="541"/>
+      <c r="N53" s="543"/>
+      <c r="O53" s="541"/>
+      <c r="P53" s="543"/>
+      <c r="Q53" s="543"/>
+      <c r="R53" s="541"/>
+      <c r="S53" s="543"/>
+      <c r="T53" s="541"/>
+      <c r="U53" s="543"/>
+      <c r="V53" s="477"/>
+      <c r="W53" s="477"/>
+      <c r="X53" s="477"/>
+      <c r="Y53" s="477"/>
+      <c r="Z53" s="477"/>
+      <c r="AA53" s="521"/>
+      <c r="AB53" s="521"/>
+      <c r="AC53" s="521"/>
+      <c r="AD53" s="521"/>
+      <c r="AE53" s="521"/>
       <c r="AF53" s="37"/>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
-      <c r="AL53" s="499"/>
-      <c r="AM53" s="499"/>
-      <c r="AN53" s="499"/>
-      <c r="AO53" s="499"/>
-      <c r="AP53" s="499"/>
+      <c r="AL53" s="477"/>
+      <c r="AM53" s="477"/>
+      <c r="AN53" s="477"/>
+      <c r="AO53" s="477"/>
+      <c r="AP53" s="477"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
@@ -54708,7 +54708,7 @@
       <c r="AP54" s="57"/>
     </row>
     <row r="55" spans="1:42" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="512">
+      <c r="A55" s="525">
         <v>4112101</v>
       </c>
       <c r="B55" s="103" t="s">
@@ -54782,11 +54782,11 @@
         <v>606.9</v>
       </c>
       <c r="AF55" s="37"/>
-      <c r="AG55" s="507" t="e">
+      <c r="AG55" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH55" s="507">
+      <c r="AH55" s="516">
         <f>SUM(Z55:Z56)</f>
         <v>0</v>
       </c>
@@ -54806,7 +54806,7 @@
       </c>
     </row>
     <row r="56" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="512"/>
+      <c r="A56" s="525"/>
       <c r="B56" s="46" t="s">
         <v>47</v>
       </c>
@@ -54882,8 +54882,8 @@
         <v>50.22</v>
       </c>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="508"/>
-      <c r="AH56" s="508"/>
+      <c r="AG56" s="517"/>
+      <c r="AH56" s="517"/>
       <c r="AI56" s="37"/>
       <c r="AL56" s="196"/>
       <c r="AM56" s="54">
@@ -54994,7 +54994,7 @@
       </c>
     </row>
     <row r="58" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="511">
+      <c r="A58" s="528">
         <v>4112316</v>
       </c>
       <c r="B58" s="46" t="s">
@@ -55068,11 +55068,11 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="507" t="e">
+      <c r="AG58" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH58" s="507">
+      <c r="AH58" s="516">
         <f>SUM(Z58:Z59)</f>
         <v>0</v>
       </c>
@@ -55090,7 +55090,7 @@
       </c>
     </row>
     <row r="59" spans="1:42" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="511"/>
+      <c r="A59" s="528"/>
       <c r="B59" s="46" t="s">
         <v>50</v>
       </c>
@@ -55162,8 +55162,8 @@
         <v>0.79</v>
       </c>
       <c r="AF59" s="37"/>
-      <c r="AG59" s="508"/>
-      <c r="AH59" s="508"/>
+      <c r="AG59" s="517"/>
+      <c r="AH59" s="517"/>
       <c r="AI59" s="37"/>
       <c r="AL59" s="196"/>
       <c r="AM59" s="54">
@@ -55178,7 +55178,7 @@
       </c>
     </row>
     <row r="60" spans="1:42" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="511">
+      <c r="A60" s="528">
         <v>4112304</v>
       </c>
       <c r="B60" s="46" t="s">
@@ -55252,11 +55252,11 @@
         <v>20.18</v>
       </c>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="507" t="e">
+      <c r="AG60" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH60" s="507">
+      <c r="AH60" s="516">
         <f>SUM(Z60:Z62)</f>
         <v>0</v>
       </c>
@@ -55274,7 +55274,7 @@
       </c>
     </row>
     <row r="61" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="511"/>
+      <c r="A61" s="528"/>
       <c r="B61" s="46" t="s">
         <v>52</v>
       </c>
@@ -55346,8 +55346,8 @@
         <v>2.13</v>
       </c>
       <c r="AF61" s="37"/>
-      <c r="AG61" s="508"/>
-      <c r="AH61" s="508"/>
+      <c r="AG61" s="517"/>
+      <c r="AH61" s="517"/>
       <c r="AI61" s="37"/>
       <c r="AL61" s="196"/>
       <c r="AM61" s="54">
@@ -55362,7 +55362,7 @@
       </c>
     </row>
     <row r="62" spans="1:42" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="511"/>
+      <c r="A62" s="528"/>
       <c r="B62" s="46" t="s">
         <v>53</v>
       </c>
@@ -55442,8 +55442,8 @@
         <v>9.49</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="508"/>
-      <c r="AH62" s="508"/>
+      <c r="AG62" s="517"/>
+      <c r="AH62" s="517"/>
       <c r="AI62" s="37"/>
       <c r="AL62" s="196" t="s">
         <v>78</v>
@@ -55460,7 +55460,7 @@
       </c>
     </row>
     <row r="63" spans="1:42" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="511">
+      <c r="A63" s="528">
         <v>4112202</v>
       </c>
       <c r="B63" s="103" t="s">
@@ -55538,11 +55538,11 @@
         <v>19.47</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="507" t="e">
+      <c r="AG63" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH63" s="507">
+      <c r="AH63" s="516">
         <f>SUM(Z63:Z66)</f>
         <v>0</v>
       </c>
@@ -55560,7 +55560,7 @@
       </c>
     </row>
     <row r="64" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="511"/>
+      <c r="A64" s="528"/>
       <c r="B64" s="46" t="s">
         <v>55</v>
       </c>
@@ -55636,8 +55636,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="508"/>
-      <c r="AH64" s="508"/>
+      <c r="AG64" s="517"/>
+      <c r="AH64" s="517"/>
       <c r="AI64" s="37"/>
       <c r="AL64" s="196"/>
       <c r="AM64" s="54">
@@ -55652,7 +55652,7 @@
       </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A65" s="511"/>
+      <c r="A65" s="528"/>
       <c r="B65" s="46" t="s">
         <v>56</v>
       </c>
@@ -55728,8 +55728,8 @@
         <v>0.2</v>
       </c>
       <c r="AF65" s="37"/>
-      <c r="AG65" s="508"/>
-      <c r="AH65" s="508"/>
+      <c r="AG65" s="517"/>
+      <c r="AH65" s="517"/>
       <c r="AI65" s="37"/>
       <c r="AL65" s="196"/>
       <c r="AM65" s="54">
@@ -55744,7 +55744,7 @@
       </c>
     </row>
     <row r="66" spans="1:42" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="511"/>
+      <c r="A66" s="528"/>
       <c r="B66" s="46" t="s">
         <v>57</v>
       </c>
@@ -55820,8 +55820,8 @@
         <v>4.08</v>
       </c>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="508"/>
-      <c r="AH66" s="508"/>
+      <c r="AG66" s="517"/>
+      <c r="AH66" s="517"/>
       <c r="AI66" s="37"/>
       <c r="AL66" s="196"/>
       <c r="AM66" s="54">
@@ -55910,11 +55910,11 @@
         <v>45.32</v>
       </c>
       <c r="AF67" s="37"/>
-      <c r="AG67" s="509" t="e">
+      <c r="AG67" s="526" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH67" s="509">
+      <c r="AH67" s="526">
         <f>SUM(Z67:Z68)</f>
         <v>0</v>
       </c>
@@ -56008,8 +56008,8 @@
         <v>9.73</v>
       </c>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="510"/>
-      <c r="AH68" s="510"/>
+      <c r="AG68" s="527"/>
+      <c r="AH68" s="527"/>
       <c r="AI68" s="37"/>
       <c r="AL68" s="196" t="s">
         <v>78</v>
@@ -56252,15 +56252,15 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="507" t="e">
+      <c r="AG72" s="516" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH72" s="507">
+      <c r="AH72" s="516">
         <f>SUM(Z72:Z85)</f>
         <v>46.96</v>
       </c>
-      <c r="AI72" s="507">
+      <c r="AI72" s="516">
         <f>SUM(X72:X85)</f>
         <v>41.09</v>
       </c>
@@ -56349,9 +56349,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="37"/>
-      <c r="AG73" s="508"/>
-      <c r="AH73" s="508"/>
-      <c r="AI73" s="508"/>
+      <c r="AG73" s="517"/>
+      <c r="AH73" s="517"/>
+      <c r="AI73" s="517"/>
       <c r="AL73" s="79" t="s">
         <v>136</v>
       </c>
@@ -56410,9 +56410,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="508"/>
-      <c r="AH74" s="508"/>
-      <c r="AI74" s="508"/>
+      <c r="AG74" s="517"/>
+      <c r="AH74" s="517"/>
+      <c r="AI74" s="517"/>
       <c r="AL74" s="81"/>
       <c r="AM74" s="65"/>
       <c r="AN74" s="65"/>
@@ -56498,9 +56498,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="37"/>
-      <c r="AG75" s="508"/>
-      <c r="AH75" s="508"/>
-      <c r="AI75" s="508"/>
+      <c r="AG75" s="517"/>
+      <c r="AH75" s="517"/>
+      <c r="AI75" s="517"/>
       <c r="AL75" s="79" t="s">
         <v>137</v>
       </c>
@@ -56613,9 +56613,9 @@
         <v>6143.66</v>
       </c>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="508"/>
-      <c r="AH76" s="508"/>
-      <c r="AI76" s="508"/>
+      <c r="AG76" s="517"/>
+      <c r="AH76" s="517"/>
+      <c r="AI76" s="517"/>
       <c r="AL76" s="79" t="s">
         <v>110</v>
       </c>
@@ -56728,9 +56728,9 @@
         <v>6011.48</v>
       </c>
       <c r="AF77" s="37"/>
-      <c r="AG77" s="508"/>
-      <c r="AH77" s="508"/>
-      <c r="AI77" s="508"/>
+      <c r="AG77" s="517"/>
+      <c r="AH77" s="517"/>
+      <c r="AI77" s="517"/>
       <c r="AK77" s="116"/>
       <c r="AL77" s="79" t="s">
         <v>109</v>
@@ -56788,9 +56788,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="508"/>
-      <c r="AH78" s="508"/>
-      <c r="AI78" s="508"/>
+      <c r="AG78" s="517"/>
+      <c r="AH78" s="517"/>
+      <c r="AI78" s="517"/>
       <c r="AK78" s="116"/>
       <c r="AL78" s="81"/>
       <c r="AM78" s="67"/>
@@ -56877,9 +56877,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="37"/>
-      <c r="AG79" s="508"/>
-      <c r="AH79" s="508"/>
-      <c r="AI79" s="508"/>
+      <c r="AG79" s="517"/>
+      <c r="AH79" s="517"/>
+      <c r="AI79" s="517"/>
       <c r="AK79" s="116"/>
       <c r="AL79" s="79" t="s">
         <v>138</v>
@@ -56977,9 +56977,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="508"/>
-      <c r="AH80" s="508"/>
-      <c r="AI80" s="508"/>
+      <c r="AG80" s="517"/>
+      <c r="AH80" s="517"/>
+      <c r="AI80" s="517"/>
       <c r="AK80" s="116"/>
       <c r="AL80" s="79" t="s">
         <v>135</v>
@@ -57077,9 +57077,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="37"/>
-      <c r="AG81" s="508"/>
-      <c r="AH81" s="508"/>
-      <c r="AI81" s="508"/>
+      <c r="AG81" s="517"/>
+      <c r="AH81" s="517"/>
+      <c r="AI81" s="517"/>
       <c r="AJ81" s="116"/>
       <c r="AK81" s="116"/>
       <c r="AL81" s="79" t="s">
@@ -57194,9 +57194,9 @@
         <v>6127.0599999999995</v>
       </c>
       <c r="AF82" s="37"/>
-      <c r="AG82" s="508"/>
-      <c r="AH82" s="508"/>
-      <c r="AI82" s="508"/>
+      <c r="AG82" s="517"/>
+      <c r="AH82" s="517"/>
+      <c r="AI82" s="517"/>
       <c r="AK82" s="118"/>
       <c r="AL82" s="79" t="s">
         <v>108</v>
@@ -57294,9 +57294,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="37"/>
-      <c r="AG83" s="508"/>
-      <c r="AH83" s="508"/>
-      <c r="AI83" s="508"/>
+      <c r="AG83" s="517"/>
+      <c r="AH83" s="517"/>
+      <c r="AI83" s="517"/>
       <c r="AL83" s="79" t="s">
         <v>140</v>
       </c>
@@ -57393,9 +57393,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="37"/>
-      <c r="AG84" s="508"/>
-      <c r="AH84" s="508"/>
-      <c r="AI84" s="508"/>
+      <c r="AG84" s="517"/>
+      <c r="AH84" s="517"/>
+      <c r="AI84" s="517"/>
       <c r="AL84" s="79" t="s">
         <v>105</v>
       </c>
@@ -57455,9 +57455,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="37"/>
-      <c r="AG85" s="508"/>
-      <c r="AH85" s="508"/>
-      <c r="AI85" s="508"/>
+      <c r="AG85" s="517"/>
+      <c r="AH85" s="517"/>
+      <c r="AI85" s="517"/>
       <c r="AJ85" s="75"/>
       <c r="AL85" s="63"/>
       <c r="AM85" s="65"/>
@@ -57842,11 +57842,11 @@
       <c r="AF89" s="37"/>
       <c r="AG89" s="37"/>
       <c r="AH89" s="37"/>
-      <c r="AI89" s="503">
+      <c r="AI89" s="522">
         <f>AI87+AJ87</f>
         <v>278.73</v>
       </c>
-      <c r="AJ89" s="504"/>
+      <c r="AJ89" s="523"/>
       <c r="AL89" s="61"/>
       <c r="AM89" s="60"/>
       <c r="AN89" s="60"/>
@@ -58086,8 +58086,8 @@
         <f>SUM(Z73:Z85)+Z48</f>
         <v>46.96</v>
       </c>
-      <c r="AO93" s="522"/>
-      <c r="AP93" s="523"/>
+      <c r="AO93" s="503"/>
+      <c r="AP93" s="504"/>
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G94" s="4" t="s">
@@ -58621,44 +58621,48 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="AG14:AG16"/>
-    <mergeCell ref="AH14:AH16"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AI72:AI85"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AO93:AP93"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="AG63:AG66"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="AG72:AG85"/>
+    <mergeCell ref="AH72:AH85"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="AG58:AG59"/>
+    <mergeCell ref="AH58:AH59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="AG60:AG62"/>
+    <mergeCell ref="AH60:AH62"/>
+    <mergeCell ref="AL52:AL53"/>
+    <mergeCell ref="AM52:AM53"/>
+    <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
     <mergeCell ref="R52:R53"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="AG34:AG36"/>
@@ -58675,48 +58679,44 @@
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="K52:K53"/>
     <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="AA52:AA53"/>
-    <mergeCell ref="AB52:AB53"/>
-    <mergeCell ref="AC52:AC53"/>
-    <mergeCell ref="AD52:AD53"/>
-    <mergeCell ref="AE52:AE53"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="Y52:Y53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:U53"/>
-    <mergeCell ref="AL52:AL53"/>
-    <mergeCell ref="AM52:AM53"/>
-    <mergeCell ref="AN52:AN53"/>
-    <mergeCell ref="AO52:AO53"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="AG58:AG59"/>
-    <mergeCell ref="AH58:AH59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="AG60:AG62"/>
-    <mergeCell ref="AH60:AH62"/>
-    <mergeCell ref="AI72:AI85"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AO93:AP93"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="AG63:AG66"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="AG72:AG85"/>
-    <mergeCell ref="AH72:AH85"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="AG14:AG16"/>
+    <mergeCell ref="AH14:AH16"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.02" top="0.2" bottom="0.2" header="0.3" footer="0.1"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
